--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DCS\campaña\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C12D21B-902A-4417-804D-80883430DF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE2843D-96FF-469C-B1E0-CCF6E6D3BF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MISILES" sheetId="1" r:id="rId1"/>
-    <sheet name="AIRE TIERRA" sheetId="5" r:id="rId2"/>
-    <sheet name="armamento" sheetId="7" r:id="rId3"/>
+    <sheet name="Aviones" sheetId="8" r:id="rId2"/>
+    <sheet name="AIRE TIERRA" sheetId="5" r:id="rId3"/>
+    <sheet name="armamento" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'AIRE TIERRA'!$A$1:$BF$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'AIRE TIERRA'!$A$1:$BF$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -806,22 +807,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,6 +825,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,13 +843,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3359,6 +3360,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018112C-F9A4-4530-A44A-9A3594409B98}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI57"/>
   <sheetViews>
@@ -3406,32 +3419,32 @@
     <row r="1" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="33" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="38"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="47"/>
       <c r="V1" s="42" t="s">
         <v>75</v>
       </c>
@@ -3440,13 +3453,13 @@
       <c r="Y1" s="43"/>
       <c r="Z1" s="43"/>
       <c r="AA1" s="44"/>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
       <c r="AG1" s="42" t="s">
         <v>100</v>
       </c>
@@ -3454,38 +3467,38 @@
       <c r="AI1" s="43"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="7"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AL1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="45" t="s">
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="39" t="s">
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="45" t="s">
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="47"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="35"/>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7024,17 +7037,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="V1:AA1"/>
     <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="AW1:BD1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="V1:AA1"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7042,11 +7055,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF242A3-D205-43BD-8BF2-9F726CCF6528}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>

--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE2843D-96FF-469C-B1E0-CCF6E6D3BF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39696738-7F0D-4B71-8C78-15F115625F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="-16200" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MISILES" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="167">
   <si>
     <t>A10CII</t>
   </si>
@@ -509,6 +509,117 @@
   <si>
     <t>ALQ-164</t>
   </si>
+  <si>
+    <t>AVIONES</t>
+  </si>
+  <si>
+    <t>A-10C II - Tank Killer</t>
+  </si>
+  <si>
+    <t>A-4E-C - Skyhawk</t>
+  </si>
+  <si>
+    <t>Beriev A-50</t>
+  </si>
+  <si>
+    <t>AH-64D BLK. II - Apache</t>
+  </si>
+  <si>
+    <t>AV-8B - Night Attack</t>
+  </si>
+  <si>
+    <t>AJS-37 - Viggen</t>
+  </si>
+  <si>
+    <t>CH-47F- Chinook</t>
+  </si>
+  <si>
+    <t>E-2D - Hawkeye</t>
+  </si>
+  <si>
+    <t>E-3A - Centry</t>
+  </si>
+  <si>
+    <t>F-14A-135-GR - Tomcat</t>
+  </si>
+  <si>
+    <t>F-14B - Tomcat</t>
+  </si>
+  <si>
+    <t>F-15E S4 - Eagle Strike</t>
+  </si>
+  <si>
+    <t>F-16CM bl.50 - Viper</t>
+  </si>
+  <si>
+    <t>F-4E-45MC - Phantom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-5E-3 - Tiger </t>
+  </si>
+  <si>
+    <t>F/A-18C - Hornet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C130 - Hercules </t>
+  </si>
+  <si>
+    <t>JF-17 - Thunder</t>
+  </si>
+  <si>
+    <t>KA-50 III -  Black Shark 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirage M-2000 C </t>
+  </si>
+  <si>
+    <t>MI-24P - Hind</t>
+  </si>
+  <si>
+    <t>MI-8MTV2</t>
+  </si>
+  <si>
+    <t>MIG-21Bis</t>
+  </si>
+  <si>
+    <t>MIG-29A - FC</t>
+  </si>
+  <si>
+    <t>MIRAGE - F1 - EE</t>
+  </si>
+  <si>
+    <t>OH-58D (R) - Kiowa Warrior</t>
+  </si>
+  <si>
+    <t>SA342 - L - Gazelle</t>
+  </si>
+  <si>
+    <t>SA342 - M - Gazelle</t>
+  </si>
+  <si>
+    <t>SA342 - Minigun - Gazelle</t>
+  </si>
+  <si>
+    <t>SU-25T -  Frogfoot</t>
+  </si>
+  <si>
+    <t>SU-27 - Flanker</t>
+  </si>
+  <si>
+    <t>SU-33 - Flanker D</t>
+  </si>
+  <si>
+    <t>UH-1H - Huey</t>
+  </si>
+  <si>
+    <t>UH-60L - Blackhawk</t>
+  </si>
+  <si>
+    <t>WS - Type</t>
+  </si>
+  <si>
+    <t>CODE WARHOUSE PROVISIONAL</t>
+  </si>
 </sst>
 </file>
 
@@ -517,7 +628,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +655,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -588,7 +707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -713,11 +832,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,13 +971,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,15 +998,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,15 +1007,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3361,12 +3560,755 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018112C-F9A4-4530-A44A-9A3594409B98}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.140625" style="49" customWidth="1"/>
+    <col min="3" max="6" width="6.140625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="1" customWidth="1"/>
+    <col min="8" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="24" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="57">
+        <v>1</v>
+      </c>
+      <c r="D2" s="57">
+        <v>1</v>
+      </c>
+      <c r="E2" s="57">
+        <v>6</v>
+      </c>
+      <c r="F2" s="57">
+        <v>264</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="58">
+        <v>1</v>
+      </c>
+      <c r="D3" s="58">
+        <v>1</v>
+      </c>
+      <c r="E3" s="58">
+        <v>5</v>
+      </c>
+      <c r="F3" s="58">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" s="58">
+        <v>2</v>
+      </c>
+      <c r="E4" s="58">
+        <v>6</v>
+      </c>
+      <c r="F4" s="58">
+        <v>300</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="58">
+        <v>1</v>
+      </c>
+      <c r="D5" s="58">
+        <v>1</v>
+      </c>
+      <c r="E5" s="58">
+        <v>1</v>
+      </c>
+      <c r="F5" s="58">
+        <v>265</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="58">
+        <v>1</v>
+      </c>
+      <c r="D6" s="58">
+        <v>1</v>
+      </c>
+      <c r="E6" s="58">
+        <v>1</v>
+      </c>
+      <c r="F6" s="58">
+        <v>266</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="58">
+        <v>1</v>
+      </c>
+      <c r="D7" s="58">
+        <v>2</v>
+      </c>
+      <c r="E7" s="58">
+        <v>5</v>
+      </c>
+      <c r="F7" s="58">
+        <v>329</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="58">
+        <v>1</v>
+      </c>
+      <c r="D8" s="58">
+        <v>1</v>
+      </c>
+      <c r="E8" s="58">
+        <v>5</v>
+      </c>
+      <c r="F8" s="58">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="58">
+        <v>1</v>
+      </c>
+      <c r="D9" s="58">
+        <v>1</v>
+      </c>
+      <c r="E9" s="58">
+        <v>5</v>
+      </c>
+      <c r="F9" s="58">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="58">
+        <v>1</v>
+      </c>
+      <c r="D10" s="58">
+        <v>1</v>
+      </c>
+      <c r="E10" s="58">
+        <v>1</v>
+      </c>
+      <c r="F10" s="58">
+        <v>279</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="58">
+        <v>1</v>
+      </c>
+      <c r="D11" s="58">
+        <v>1</v>
+      </c>
+      <c r="E11" s="58">
+        <v>1</v>
+      </c>
+      <c r="F11" s="58">
+        <v>278</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="58">
+        <v>1</v>
+      </c>
+      <c r="D12" s="58">
+        <v>1</v>
+      </c>
+      <c r="E12" s="58">
+        <v>1</v>
+      </c>
+      <c r="F12" s="58">
+        <v>327</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="58">
+        <v>1</v>
+      </c>
+      <c r="D13" s="58">
+        <v>1</v>
+      </c>
+      <c r="E13" s="58">
+        <v>1</v>
+      </c>
+      <c r="F13" s="58">
+        <v>275</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="58">
+        <v>1</v>
+      </c>
+      <c r="D14" s="58">
+        <v>1</v>
+      </c>
+      <c r="E14" s="58">
+        <v>1</v>
+      </c>
+      <c r="F14" s="58">
+        <v>328</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="58">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58">
+        <v>1</v>
+      </c>
+      <c r="E15" s="58">
+        <v>1</v>
+      </c>
+      <c r="F15" s="58">
+        <v>276</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="58">
+        <v>1</v>
+      </c>
+      <c r="D16" s="58">
+        <v>1</v>
+      </c>
+      <c r="E16" s="58">
+        <v>1</v>
+      </c>
+      <c r="F16" s="58">
+        <v>280</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="58">
+        <v>1</v>
+      </c>
+      <c r="D17" s="58">
+        <v>1</v>
+      </c>
+      <c r="E17" s="58">
+        <v>5</v>
+      </c>
+      <c r="F17" s="58">
+        <v>347</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1265</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="58">
+        <v>1</v>
+      </c>
+      <c r="D18" s="58">
+        <v>1</v>
+      </c>
+      <c r="E18" s="58">
+        <v>1</v>
+      </c>
+      <c r="F18" s="58">
+        <v>271</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="58">
+        <v>1</v>
+      </c>
+      <c r="D19" s="58">
+        <v>2</v>
+      </c>
+      <c r="E19" s="58">
+        <v>6</v>
+      </c>
+      <c r="F19" s="58">
+        <v>326</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="58">
+        <v>1</v>
+      </c>
+      <c r="D20" s="58">
+        <v>1</v>
+      </c>
+      <c r="E20" s="58">
+        <v>1</v>
+      </c>
+      <c r="F20" s="58">
+        <v>284</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="58">
+        <v>1</v>
+      </c>
+      <c r="D21" s="58">
+        <v>2</v>
+      </c>
+      <c r="E21" s="58">
+        <v>6</v>
+      </c>
+      <c r="F21" s="58">
+        <v>296</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="58">
+        <v>1</v>
+      </c>
+      <c r="D22" s="58">
+        <v>2</v>
+      </c>
+      <c r="E22" s="58">
+        <v>6</v>
+      </c>
+      <c r="F22" s="58">
+        <v>151</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1270</v>
+      </c>
+      <c r="H22" s="60"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="58">
+        <v>1</v>
+      </c>
+      <c r="D23" s="58">
+        <v>1</v>
+      </c>
+      <c r="E23" s="58">
+        <v>1</v>
+      </c>
+      <c r="F23" s="58">
+        <v>288</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="58">
+        <v>1</v>
+      </c>
+      <c r="D24" s="58">
+        <v>1</v>
+      </c>
+      <c r="E24" s="58">
+        <v>1</v>
+      </c>
+      <c r="F24" s="58">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1272</v>
+      </c>
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="58">
+        <v>1</v>
+      </c>
+      <c r="D25" s="58">
+        <v>1</v>
+      </c>
+      <c r="E25" s="58">
+        <v>1</v>
+      </c>
+      <c r="F25" s="58">
+        <v>303</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="58">
+        <v>1</v>
+      </c>
+      <c r="D26" s="58">
+        <v>2</v>
+      </c>
+      <c r="E26" s="58">
+        <v>6</v>
+      </c>
+      <c r="F26" s="58">
+        <v>336</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="58">
+        <v>1</v>
+      </c>
+      <c r="D27" s="58">
+        <v>2</v>
+      </c>
+      <c r="E27" s="58">
+        <v>6</v>
+      </c>
+      <c r="F27" s="58">
+        <v>290</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="58">
+        <v>1</v>
+      </c>
+      <c r="D28" s="58">
+        <v>2</v>
+      </c>
+      <c r="E28" s="58">
+        <v>6</v>
+      </c>
+      <c r="F28" s="58">
+        <v>289</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="58">
+        <v>1</v>
+      </c>
+      <c r="D29" s="58">
+        <v>2</v>
+      </c>
+      <c r="E29" s="58">
+        <v>6</v>
+      </c>
+      <c r="F29" s="58">
+        <v>292</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="58">
+        <v>1</v>
+      </c>
+      <c r="D30" s="58">
+        <v>1</v>
+      </c>
+      <c r="E30" s="58">
+        <v>6</v>
+      </c>
+      <c r="F30" s="58">
+        <v>54</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="58">
+        <v>1</v>
+      </c>
+      <c r="D31" s="58">
+        <v>1</v>
+      </c>
+      <c r="E31" s="58">
+        <v>1</v>
+      </c>
+      <c r="F31" s="58">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="58">
+        <v>1</v>
+      </c>
+      <c r="D32" s="58">
+        <v>1</v>
+      </c>
+      <c r="E32" s="58">
+        <v>1</v>
+      </c>
+      <c r="F32" s="58">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="51"/>
+      <c r="C33" s="58">
+        <v>1</v>
+      </c>
+      <c r="D33" s="58">
+        <v>2</v>
+      </c>
+      <c r="E33" s="58">
+        <v>6</v>
+      </c>
+      <c r="F33" s="58">
+        <v>166</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="58">
+        <v>1</v>
+      </c>
+      <c r="D34" s="58">
+        <v>2</v>
+      </c>
+      <c r="E34" s="58">
+        <v>6</v>
+      </c>
+      <c r="F34" s="58">
+        <v>348</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="51"/>
+      <c r="C35" s="58">
+        <v>1</v>
+      </c>
+      <c r="D35" s="58">
+        <v>1</v>
+      </c>
+      <c r="E35" s="58">
+        <v>1</v>
+      </c>
+      <c r="F35" s="58">
+        <v>337</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1283</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3419,32 +4361,32 @@
     <row r="1" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="39" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="39" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="47"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="38"/>
       <c r="V1" s="42" t="s">
         <v>75</v>
       </c>
@@ -3453,13 +4395,13 @@
       <c r="Y1" s="43"/>
       <c r="Z1" s="43"/>
       <c r="AA1" s="44"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AB1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="41"/>
       <c r="AG1" s="42" t="s">
         <v>100</v>
       </c>
@@ -3467,38 +4409,38 @@
       <c r="AI1" s="43"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="7"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AL1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="33" t="s">
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="36" t="s">
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="33" t="s">
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="35"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="47"/>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7037,17 +7979,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="V1:AA1"/>
     <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="AW1:BD1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="V1:AA1"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39696738-7F0D-4B71-8C78-15F115625F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEBBFD1-5165-41C1-9493-7FD1A63BD89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-16200" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MISILES" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="170">
   <si>
     <t>A10CII</t>
   </si>
@@ -615,18 +615,28 @@
     <t>UH-60L - Blackhawk</t>
   </si>
   <si>
-    <t>WS - Type</t>
-  </si>
-  <si>
     <t>CODE WARHOUSE PROVISIONAL</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>COSTO UNITARIO</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -661,15 +671,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,8 +715,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -877,11 +898,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,6 +1018,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,6 +1064,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,68 +1084,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3560,756 +3619,1080 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018112C-F9A4-4530-A44A-9A3594409B98}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.140625" style="49" customWidth="1"/>
-    <col min="3" max="6" width="6.140625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="1" customWidth="1"/>
-    <col min="8" max="15" width="15.42578125" customWidth="1"/>
-    <col min="16" max="24" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="33" customWidth="1"/>
+    <col min="2" max="5" width="6.140625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="62" customWidth="1"/>
+    <col min="8" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="38">
+        <v>1</v>
+      </c>
+      <c r="C2" s="38">
+        <v>1</v>
+      </c>
+      <c r="D2" s="38">
+        <v>6</v>
+      </c>
+      <c r="E2" s="38">
+        <v>264</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1250</v>
+      </c>
+      <c r="G2" s="60">
+        <v>18000000</v>
+      </c>
+      <c r="H2" s="66">
+        <v>4</v>
+      </c>
+      <c r="I2" s="60">
+        <f>H2*G2</f>
+        <v>72000000</v>
+      </c>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="39">
+        <v>1</v>
+      </c>
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39">
+        <v>5</v>
+      </c>
+      <c r="E3" s="39">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1251</v>
+      </c>
+      <c r="G3" s="61">
+        <v>330000000</v>
+      </c>
+      <c r="H3" s="66">
+        <v>2</v>
+      </c>
+      <c r="I3" s="60">
+        <f t="shared" ref="I3:I35" si="0">H3*G3</f>
+        <v>660000000</v>
+      </c>
+      <c r="J3" s="68"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>2</v>
+      </c>
+      <c r="D4" s="39">
+        <v>6</v>
+      </c>
+      <c r="E4" s="39">
+        <v>300</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1252</v>
+      </c>
+      <c r="G4" s="61">
+        <v>136800000</v>
+      </c>
+      <c r="H4" s="66">
+        <v>4</v>
+      </c>
+      <c r="I4" s="60">
+        <f t="shared" si="0"/>
+        <v>547200000</v>
+      </c>
+      <c r="J4" s="68"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39">
+        <v>1</v>
+      </c>
+      <c r="E5" s="39">
+        <v>265</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1253</v>
+      </c>
+      <c r="G5" s="61">
+        <v>8000000</v>
+      </c>
+      <c r="H5" s="66">
+        <v>0</v>
+      </c>
+      <c r="I5" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1</v>
+      </c>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39">
+        <v>266</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1254</v>
+      </c>
+      <c r="G6" s="61">
+        <v>30000000</v>
+      </c>
+      <c r="H6" s="66">
+        <v>0</v>
+      </c>
+      <c r="I6" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="39">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39">
+        <v>2</v>
+      </c>
+      <c r="D7" s="39">
+        <v>5</v>
+      </c>
+      <c r="E7" s="39">
+        <v>329</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1255</v>
+      </c>
+      <c r="G7" s="61">
+        <v>85000000</v>
+      </c>
+      <c r="H7" s="66">
+        <v>0</v>
+      </c>
+      <c r="I7" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="39">
+        <v>1</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39">
+        <v>5</v>
+      </c>
+      <c r="E8" s="39">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1256</v>
+      </c>
+      <c r="G8" s="61">
+        <v>275000000</v>
+      </c>
+      <c r="H8" s="66">
+        <v>2</v>
+      </c>
+      <c r="I8" s="60">
+        <f t="shared" si="0"/>
+        <v>550000000</v>
+      </c>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="39">
+        <v>1</v>
+      </c>
+      <c r="C9" s="39">
+        <v>1</v>
+      </c>
+      <c r="D9" s="39">
+        <v>5</v>
+      </c>
+      <c r="E9" s="39">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1257</v>
+      </c>
+      <c r="G9" s="61">
+        <v>270000000</v>
+      </c>
+      <c r="H9" s="66">
+        <v>0</v>
+      </c>
+      <c r="I9" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="39">
+        <v>1</v>
+      </c>
+      <c r="C10" s="39">
+        <v>1</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="39">
+        <v>279</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1258</v>
+      </c>
+      <c r="G10" s="61">
+        <v>38000000</v>
+      </c>
+      <c r="H10" s="66">
+        <v>0</v>
+      </c>
+      <c r="I10" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="39">
+        <v>1</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39">
+        <v>278</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1259</v>
+      </c>
+      <c r="G11" s="61">
+        <v>42000000</v>
+      </c>
+      <c r="H11" s="66">
+        <v>0</v>
+      </c>
+      <c r="I11" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1</v>
+      </c>
+      <c r="E12" s="39">
+        <v>327</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1260</v>
+      </c>
+      <c r="G12" s="61">
+        <v>31100000</v>
+      </c>
+      <c r="H12" s="66">
+        <v>0</v>
+      </c>
+      <c r="I12" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
+        <v>275</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1261</v>
+      </c>
+      <c r="G13" s="61">
+        <v>65000000</v>
+      </c>
+      <c r="H13" s="66">
+        <v>4</v>
+      </c>
+      <c r="I13" s="60">
+        <f t="shared" si="0"/>
+        <v>260000000</v>
+      </c>
+      <c r="J13" s="68"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <v>328</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1262</v>
+      </c>
+      <c r="G14" s="61">
+        <v>25000000</v>
+      </c>
+      <c r="H14" s="66">
+        <v>0</v>
+      </c>
+      <c r="I14" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="39">
+        <v>1</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <v>276</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1263</v>
+      </c>
+      <c r="G15" s="61">
+        <v>15000000</v>
+      </c>
+      <c r="H15" s="66">
+        <v>0</v>
+      </c>
+      <c r="I15" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="39">
+        <v>1</v>
+      </c>
+      <c r="C16" s="39">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39">
+        <v>280</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1264</v>
+      </c>
+      <c r="G16" s="61">
+        <v>62000000</v>
+      </c>
+      <c r="H16" s="66">
+        <v>4</v>
+      </c>
+      <c r="I16" s="60">
+        <f t="shared" si="0"/>
+        <v>248000000</v>
+      </c>
+      <c r="J16" s="68"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1</v>
+      </c>
+      <c r="C17" s="39">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
+        <v>5</v>
+      </c>
+      <c r="E17" s="39">
+        <v>347</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1265</v>
+      </c>
+      <c r="G17" s="63">
+        <v>30000000</v>
+      </c>
+      <c r="H17" s="66">
+        <v>0</v>
+      </c>
+      <c r="I17" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="39">
+        <v>1</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
+        <v>271</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1266</v>
+      </c>
+      <c r="G18" s="61">
+        <v>31000000</v>
+      </c>
+      <c r="H18" s="66">
+        <v>0</v>
+      </c>
+      <c r="I18" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="39">
+        <v>1</v>
+      </c>
+      <c r="C19" s="39">
+        <v>2</v>
+      </c>
+      <c r="D19" s="39">
+        <v>6</v>
+      </c>
+      <c r="E19" s="39">
+        <v>326</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1267</v>
+      </c>
+      <c r="G19" s="61">
+        <v>16000000</v>
+      </c>
+      <c r="H19" s="66">
+        <v>0</v>
+      </c>
+      <c r="I19" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="39">
+        <v>1</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1</v>
+      </c>
+      <c r="E20" s="39">
+        <v>284</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1268</v>
+      </c>
+      <c r="G20" s="61">
+        <v>23000000</v>
+      </c>
+      <c r="H20" s="66">
+        <v>0</v>
+      </c>
+      <c r="I20" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="39">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39">
+        <v>2</v>
+      </c>
+      <c r="D21" s="39">
+        <v>6</v>
+      </c>
+      <c r="E21" s="39">
+        <v>296</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1269</v>
+      </c>
+      <c r="G21" s="61">
+        <v>12000000</v>
+      </c>
+      <c r="H21" s="66">
+        <v>0</v>
+      </c>
+      <c r="I21" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="39">
+        <v>1</v>
+      </c>
+      <c r="C22" s="39">
+        <v>2</v>
+      </c>
+      <c r="D22" s="39">
+        <v>6</v>
+      </c>
+      <c r="E22" s="39">
+        <v>151</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1270</v>
+      </c>
+      <c r="G22" s="61">
+        <v>9500000</v>
+      </c>
+      <c r="H22" s="66">
+        <v>0</v>
+      </c>
+      <c r="I22" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="39">
+        <v>1</v>
+      </c>
+      <c r="C23" s="39">
+        <v>1</v>
+      </c>
+      <c r="D23" s="39">
+        <v>1</v>
+      </c>
+      <c r="E23" s="39">
+        <v>288</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1271</v>
+      </c>
+      <c r="G23" s="61">
+        <v>8000000</v>
+      </c>
+      <c r="H23" s="66">
+        <v>0</v>
+      </c>
+      <c r="I23" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="39">
+        <v>1</v>
+      </c>
+      <c r="C24" s="39">
+        <v>1</v>
+      </c>
+      <c r="D24" s="39">
+        <v>1</v>
+      </c>
+      <c r="E24" s="39">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1272</v>
+      </c>
+      <c r="G24" s="64">
+        <v>24000000</v>
+      </c>
+      <c r="H24" s="66">
+        <v>0</v>
+      </c>
+      <c r="I24" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="39">
+        <v>1</v>
+      </c>
+      <c r="C25" s="39">
+        <v>1</v>
+      </c>
+      <c r="D25" s="39">
+        <v>1</v>
+      </c>
+      <c r="E25" s="39">
+        <v>303</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1273</v>
+      </c>
+      <c r="G25" s="61">
+        <v>23000000</v>
+      </c>
+      <c r="H25" s="66">
+        <v>0</v>
+      </c>
+      <c r="I25" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="39">
+        <v>1</v>
+      </c>
+      <c r="C26" s="39">
+        <v>2</v>
+      </c>
+      <c r="D26" s="39">
+        <v>6</v>
+      </c>
+      <c r="E26" s="39">
+        <v>336</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1274</v>
+      </c>
+      <c r="G26" s="61">
+        <v>13000000</v>
+      </c>
+      <c r="H26" s="66">
+        <v>0</v>
+      </c>
+      <c r="I26" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="39">
+        <v>1</v>
+      </c>
+      <c r="C27" s="39">
+        <v>2</v>
+      </c>
+      <c r="D27" s="39">
+        <v>6</v>
+      </c>
+      <c r="E27" s="39">
+        <v>290</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1275</v>
+      </c>
+      <c r="G27" s="61">
+        <v>1500000</v>
+      </c>
+      <c r="H27" s="66">
+        <v>0</v>
+      </c>
+      <c r="I27" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="39">
+        <v>1</v>
+      </c>
+      <c r="C28" s="39">
+        <v>2</v>
+      </c>
+      <c r="D28" s="39">
+        <v>6</v>
+      </c>
+      <c r="E28" s="39">
+        <v>289</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1276</v>
+      </c>
+      <c r="G28" s="61">
+        <v>1650000</v>
+      </c>
+      <c r="H28" s="66">
+        <v>0</v>
+      </c>
+      <c r="I28" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="39">
+        <v>1</v>
+      </c>
+      <c r="C29" s="39">
+        <v>2</v>
+      </c>
+      <c r="D29" s="39">
+        <v>6</v>
+      </c>
+      <c r="E29" s="39">
+        <v>292</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1277</v>
+      </c>
+      <c r="G29" s="61">
+        <v>1550000</v>
+      </c>
+      <c r="H29" s="66">
+        <v>0</v>
+      </c>
+      <c r="I29" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="39">
+        <v>1</v>
+      </c>
+      <c r="C30" s="39">
+        <v>1</v>
+      </c>
+      <c r="D30" s="39">
+        <v>6</v>
+      </c>
+      <c r="E30" s="39">
+        <v>54</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1278</v>
+      </c>
+      <c r="G30" s="61">
+        <v>11000000</v>
+      </c>
+      <c r="H30" s="66">
+        <v>0</v>
+      </c>
+      <c r="I30" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="39">
+        <v>1</v>
+      </c>
+      <c r="C31" s="39">
+        <v>1</v>
+      </c>
+      <c r="D31" s="39">
+        <v>1</v>
+      </c>
+      <c r="E31" s="39">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1279</v>
+      </c>
+      <c r="G31" s="61">
+        <v>30000000</v>
+      </c>
+      <c r="H31" s="66">
+        <v>0</v>
+      </c>
+      <c r="I31" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="39">
+        <v>1</v>
+      </c>
+      <c r="C32" s="39">
+        <v>1</v>
+      </c>
+      <c r="D32" s="39">
+        <v>1</v>
+      </c>
+      <c r="E32" s="39">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1280</v>
+      </c>
+      <c r="G32" s="61">
+        <v>35000000</v>
+      </c>
+      <c r="H32" s="66">
+        <v>0</v>
+      </c>
+      <c r="I32" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="39">
+        <v>1</v>
+      </c>
+      <c r="C33" s="39">
+        <v>2</v>
+      </c>
+      <c r="D33" s="39">
+        <v>6</v>
+      </c>
+      <c r="E33" s="39">
         <v>166</v>
       </c>
-      <c r="H1" s="48"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="57">
+      <c r="F33" s="2">
+        <v>1281</v>
+      </c>
+      <c r="G33" s="61">
+        <v>4500000</v>
+      </c>
+      <c r="H33" s="66">
+        <v>0</v>
+      </c>
+      <c r="I33" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="39">
         <v>1</v>
       </c>
-      <c r="D2" s="57">
+      <c r="C34" s="39">
+        <v>2</v>
+      </c>
+      <c r="D34" s="39">
+        <v>6</v>
+      </c>
+      <c r="E34" s="39">
+        <v>348</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1282</v>
+      </c>
+      <c r="G34" s="61">
+        <v>21000000</v>
+      </c>
+      <c r="H34" s="66">
+        <v>0</v>
+      </c>
+      <c r="I34" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="39">
         <v>1</v>
       </c>
-      <c r="E2" s="57">
-        <v>6</v>
-      </c>
-      <c r="F2" s="57">
-        <v>264</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="58">
+      <c r="C35" s="39">
         <v>1</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D35" s="39">
         <v>1</v>
       </c>
-      <c r="E3" s="58">
-        <v>5</v>
-      </c>
-      <c r="F3" s="58">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="58">
-        <v>1</v>
-      </c>
-      <c r="D4" s="58">
-        <v>2</v>
-      </c>
-      <c r="E4" s="58">
-        <v>6</v>
-      </c>
-      <c r="F4" s="58">
-        <v>300</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="58">
-        <v>1</v>
-      </c>
-      <c r="D5" s="58">
-        <v>1</v>
-      </c>
-      <c r="E5" s="58">
-        <v>1</v>
-      </c>
-      <c r="F5" s="58">
-        <v>265</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="58">
-        <v>1</v>
-      </c>
-      <c r="D6" s="58">
-        <v>1</v>
-      </c>
-      <c r="E6" s="58">
-        <v>1</v>
-      </c>
-      <c r="F6" s="58">
-        <v>266</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="58">
-        <v>1</v>
-      </c>
-      <c r="D7" s="58">
-        <v>2</v>
-      </c>
-      <c r="E7" s="58">
-        <v>5</v>
-      </c>
-      <c r="F7" s="58">
-        <v>329</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="58">
-        <v>1</v>
-      </c>
-      <c r="D8" s="58">
-        <v>1</v>
-      </c>
-      <c r="E8" s="58">
-        <v>5</v>
-      </c>
-      <c r="F8" s="58">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="58">
-        <v>1</v>
-      </c>
-      <c r="D9" s="58">
-        <v>1</v>
-      </c>
-      <c r="E9" s="58">
-        <v>5</v>
-      </c>
-      <c r="F9" s="58">
-        <v>27</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="58">
-        <v>1</v>
-      </c>
-      <c r="D10" s="58">
-        <v>1</v>
-      </c>
-      <c r="E10" s="58">
-        <v>1</v>
-      </c>
-      <c r="F10" s="58">
-        <v>279</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="58">
-        <v>1</v>
-      </c>
-      <c r="D11" s="58">
-        <v>1</v>
-      </c>
-      <c r="E11" s="58">
-        <v>1</v>
-      </c>
-      <c r="F11" s="58">
-        <v>278</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="58">
-        <v>1</v>
-      </c>
-      <c r="D12" s="58">
-        <v>1</v>
-      </c>
-      <c r="E12" s="58">
-        <v>1</v>
-      </c>
-      <c r="F12" s="58">
-        <v>327</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="58">
-        <v>1</v>
-      </c>
-      <c r="D13" s="58">
-        <v>1</v>
-      </c>
-      <c r="E13" s="58">
-        <v>1</v>
-      </c>
-      <c r="F13" s="58">
-        <v>275</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="58">
-        <v>1</v>
-      </c>
-      <c r="D14" s="58">
-        <v>1</v>
-      </c>
-      <c r="E14" s="58">
-        <v>1</v>
-      </c>
-      <c r="F14" s="58">
-        <v>328</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="58">
-        <v>1</v>
-      </c>
-      <c r="D15" s="58">
-        <v>1</v>
-      </c>
-      <c r="E15" s="58">
-        <v>1</v>
-      </c>
-      <c r="F15" s="58">
-        <v>276</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="58">
-        <v>1</v>
-      </c>
-      <c r="D16" s="58">
-        <v>1</v>
-      </c>
-      <c r="E16" s="58">
-        <v>1</v>
-      </c>
-      <c r="F16" s="58">
-        <v>280</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="58">
-        <v>1</v>
-      </c>
-      <c r="D17" s="58">
-        <v>1</v>
-      </c>
-      <c r="E17" s="58">
-        <v>5</v>
-      </c>
-      <c r="F17" s="58">
-        <v>347</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1265</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="58">
-        <v>1</v>
-      </c>
-      <c r="D18" s="58">
-        <v>1</v>
-      </c>
-      <c r="E18" s="58">
-        <v>1</v>
-      </c>
-      <c r="F18" s="58">
-        <v>271</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="58">
-        <v>1</v>
-      </c>
-      <c r="D19" s="58">
-        <v>2</v>
-      </c>
-      <c r="E19" s="58">
-        <v>6</v>
-      </c>
-      <c r="F19" s="58">
-        <v>326</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="58">
-        <v>1</v>
-      </c>
-      <c r="D20" s="58">
-        <v>1</v>
-      </c>
-      <c r="E20" s="58">
-        <v>1</v>
-      </c>
-      <c r="F20" s="58">
-        <v>284</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="58">
-        <v>1</v>
-      </c>
-      <c r="D21" s="58">
-        <v>2</v>
-      </c>
-      <c r="E21" s="58">
-        <v>6</v>
-      </c>
-      <c r="F21" s="58">
-        <v>296</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="58">
-        <v>1</v>
-      </c>
-      <c r="D22" s="58">
-        <v>2</v>
-      </c>
-      <c r="E22" s="58">
-        <v>6</v>
-      </c>
-      <c r="F22" s="58">
-        <v>151</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1270</v>
-      </c>
-      <c r="H22" s="60"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="58">
-        <v>1</v>
-      </c>
-      <c r="D23" s="58">
-        <v>1</v>
-      </c>
-      <c r="E23" s="58">
-        <v>1</v>
-      </c>
-      <c r="F23" s="58">
-        <v>288</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="58">
-        <v>1</v>
-      </c>
-      <c r="D24" s="58">
-        <v>1</v>
-      </c>
-      <c r="E24" s="58">
-        <v>1</v>
-      </c>
-      <c r="F24" s="58">
-        <v>2</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1272</v>
-      </c>
-      <c r="H24" s="59"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="58">
-        <v>1</v>
-      </c>
-      <c r="D25" s="58">
-        <v>1</v>
-      </c>
-      <c r="E25" s="58">
-        <v>1</v>
-      </c>
-      <c r="F25" s="58">
-        <v>303</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="58">
-        <v>1</v>
-      </c>
-      <c r="D26" s="58">
-        <v>2</v>
-      </c>
-      <c r="E26" s="58">
-        <v>6</v>
-      </c>
-      <c r="F26" s="58">
-        <v>336</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="58">
-        <v>1</v>
-      </c>
-      <c r="D27" s="58">
-        <v>2</v>
-      </c>
-      <c r="E27" s="58">
-        <v>6</v>
-      </c>
-      <c r="F27" s="58">
-        <v>290</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="58">
-        <v>1</v>
-      </c>
-      <c r="D28" s="58">
-        <v>2</v>
-      </c>
-      <c r="E28" s="58">
-        <v>6</v>
-      </c>
-      <c r="F28" s="58">
-        <v>289</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="58">
-        <v>1</v>
-      </c>
-      <c r="D29" s="58">
-        <v>2</v>
-      </c>
-      <c r="E29" s="58">
-        <v>6</v>
-      </c>
-      <c r="F29" s="58">
-        <v>292</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="58">
-        <v>1</v>
-      </c>
-      <c r="D30" s="58">
-        <v>1</v>
-      </c>
-      <c r="E30" s="58">
-        <v>6</v>
-      </c>
-      <c r="F30" s="58">
-        <v>54</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="58">
-        <v>1</v>
-      </c>
-      <c r="D31" s="58">
-        <v>1</v>
-      </c>
-      <c r="E31" s="58">
-        <v>1</v>
-      </c>
-      <c r="F31" s="58">
-        <v>3</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="58">
-        <v>1</v>
-      </c>
-      <c r="D32" s="58">
-        <v>1</v>
-      </c>
-      <c r="E32" s="58">
-        <v>1</v>
-      </c>
-      <c r="F32" s="58">
-        <v>4</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="58">
-        <v>1</v>
-      </c>
-      <c r="D33" s="58">
-        <v>2</v>
-      </c>
-      <c r="E33" s="58">
-        <v>6</v>
-      </c>
-      <c r="F33" s="58">
-        <v>166</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="58">
-        <v>1</v>
-      </c>
-      <c r="D34" s="58">
-        <v>2</v>
-      </c>
-      <c r="E34" s="58">
-        <v>6</v>
-      </c>
-      <c r="F34" s="58">
-        <v>348</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="58">
-        <v>1</v>
-      </c>
-      <c r="D35" s="58">
-        <v>1</v>
-      </c>
-      <c r="E35" s="58">
-        <v>1</v>
-      </c>
-      <c r="F35" s="58">
+      <c r="E35" s="39">
         <v>337</v>
       </c>
-      <c r="G35" s="2">
+      <c r="F35" s="2">
         <v>1283</v>
       </c>
+      <c r="G35" s="61">
+        <v>10000000</v>
+      </c>
+      <c r="H35" s="66">
+        <v>0</v>
+      </c>
+      <c r="I35" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="65"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4361,86 +4744,86 @@
     <row r="1" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="33" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="42" t="s">
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="39" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="44"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="51"/>
       <c r="AK1" s="7"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AL1" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="45" t="s">
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="39" t="s">
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="45" t="s">
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="47"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="42"/>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7979,17 +8362,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="V1:AA1"/>
     <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="AW1:BD1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="V1:AA1"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEBBFD1-5165-41C1-9493-7FD1A63BD89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E375A2-8C76-45C7-B9F4-CCB389ADEF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MISILES" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +724,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,13 +1069,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,15 +1120,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,41 +1129,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1426,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3619,10 +3657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018112C-F9A4-4530-A44A-9A3594409B98}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3630,7 +3668,7 @@
     <col min="1" max="1" width="30.140625" style="33" customWidth="1"/>
     <col min="2" max="5" width="6.140625" style="34" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="46" customWidth="1"/>
     <col min="8" max="14" width="15.42578125" customWidth="1"/>
     <col min="15" max="23" width="11.42578125" customWidth="1"/>
   </cols>
@@ -3639,22 +3677,22 @@
       <c r="A1" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="42" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3677,17 +3715,17 @@
       <c r="F2" s="8">
         <v>1250</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="44">
         <v>18000000</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="48">
         <v>4</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="44">
         <f>H2*G2</f>
         <v>72000000</v>
       </c>
-      <c r="J2" s="67"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
@@ -3708,17 +3746,17 @@
       <c r="F3" s="2">
         <v>1251</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="45">
         <v>330000000</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="48">
         <v>2</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="44">
         <f t="shared" ref="I3:I35" si="0">H3*G3</f>
         <v>660000000</v>
       </c>
-      <c r="J3" s="68"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -3736,20 +3774,20 @@
       <c r="E4" s="39">
         <v>300</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="74">
         <v>1252</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="45">
         <v>136800000</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="48">
         <v>4</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="44">
         <f t="shared" si="0"/>
         <v>547200000</v>
       </c>
-      <c r="J4" s="68"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -3770,16 +3808,17 @@
       <c r="F5" s="2">
         <v>1253</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="45">
         <v>8000000</v>
       </c>
-      <c r="H5" s="66">
-        <v>0</v>
-      </c>
-      <c r="I5" s="60">
+      <c r="H5" s="48">
+        <v>4</v>
+      </c>
+      <c r="I5" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>32000000</v>
+      </c>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -3800,16 +3839,17 @@
       <c r="F6" s="2">
         <v>1254</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="45">
         <v>30000000</v>
       </c>
-      <c r="H6" s="66">
-        <v>0</v>
-      </c>
-      <c r="I6" s="60">
+      <c r="H6" s="73">
+        <v>4</v>
+      </c>
+      <c r="I6" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>120000000</v>
+      </c>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -3830,16 +3870,17 @@
       <c r="F7" s="2">
         <v>1255</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="45">
         <v>85000000</v>
       </c>
-      <c r="H7" s="66">
-        <v>0</v>
-      </c>
-      <c r="I7" s="60">
+      <c r="H7" s="48">
+        <v>4</v>
+      </c>
+      <c r="I7" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>340000000</v>
+      </c>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
@@ -3860,17 +3901,17 @@
       <c r="F8" s="2">
         <v>1256</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="45">
         <v>275000000</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="48">
         <v>2</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="44">
         <f t="shared" si="0"/>
         <v>550000000</v>
       </c>
-      <c r="J8" s="68"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
@@ -3891,16 +3932,17 @@
       <c r="F9" s="2">
         <v>1257</v>
       </c>
-      <c r="G9" s="61">
-        <v>270000000</v>
-      </c>
-      <c r="H9" s="66">
-        <v>0</v>
-      </c>
-      <c r="I9" s="60">
+      <c r="G9" s="45">
+        <v>380000000</v>
+      </c>
+      <c r="H9" s="48">
+        <v>2</v>
+      </c>
+      <c r="I9" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>760000000</v>
+      </c>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
@@ -3921,16 +3963,17 @@
       <c r="F10" s="2">
         <v>1258</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="45">
         <v>38000000</v>
       </c>
-      <c r="H10" s="66">
-        <v>0</v>
-      </c>
-      <c r="I10" s="60">
+      <c r="H10" s="48">
+        <v>4</v>
+      </c>
+      <c r="I10" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>152000000</v>
+      </c>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
@@ -3951,16 +3994,17 @@
       <c r="F11" s="2">
         <v>1259</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="45">
         <v>42000000</v>
       </c>
-      <c r="H11" s="66">
-        <v>0</v>
-      </c>
-      <c r="I11" s="60">
+      <c r="H11" s="48">
+        <v>4</v>
+      </c>
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>168000000</v>
+      </c>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
@@ -3981,16 +4025,17 @@
       <c r="F12" s="2">
         <v>1260</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="45">
         <v>31100000</v>
       </c>
-      <c r="H12" s="66">
-        <v>0</v>
-      </c>
-      <c r="I12" s="60">
+      <c r="H12" s="48">
+        <v>4</v>
+      </c>
+      <c r="I12" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>124400000</v>
+      </c>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -4011,17 +4056,17 @@
       <c r="F13" s="2">
         <v>1261</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="45">
         <v>65000000</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="48">
         <v>4</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="44">
         <f t="shared" si="0"/>
         <v>260000000</v>
       </c>
-      <c r="J13" s="68"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
@@ -4042,16 +4087,17 @@
       <c r="F14" s="2">
         <v>1262</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="45">
         <v>25000000</v>
       </c>
-      <c r="H14" s="66">
-        <v>0</v>
-      </c>
-      <c r="I14" s="60">
+      <c r="H14" s="48">
+        <v>2</v>
+      </c>
+      <c r="I14" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>50000000</v>
+      </c>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
@@ -4072,16 +4118,17 @@
       <c r="F15" s="2">
         <v>1263</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="45">
         <v>15000000</v>
       </c>
-      <c r="H15" s="66">
-        <v>0</v>
-      </c>
-      <c r="I15" s="60">
+      <c r="H15" s="48">
+        <v>4</v>
+      </c>
+      <c r="I15" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>60000000</v>
+      </c>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
@@ -4102,19 +4149,19 @@
       <c r="F16" s="2">
         <v>1264</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="45">
         <v>62000000</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="48">
         <v>4</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="44">
         <f t="shared" si="0"/>
         <v>248000000</v>
       </c>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>147</v>
       </c>
@@ -4133,18 +4180,19 @@
       <c r="F17" s="2">
         <v>1265</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="47">
         <v>30000000</v>
       </c>
-      <c r="H17" s="66">
-        <v>0</v>
-      </c>
-      <c r="I17" s="60">
+      <c r="H17" s="48">
+        <v>2</v>
+      </c>
+      <c r="I17" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60000000</v>
+      </c>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>148</v>
       </c>
@@ -4163,18 +4211,19 @@
       <c r="F18" s="2">
         <v>1266</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="45">
         <v>31000000</v>
       </c>
-      <c r="H18" s="66">
-        <v>0</v>
-      </c>
-      <c r="I18" s="60">
+      <c r="H18" s="48">
+        <v>4</v>
+      </c>
+      <c r="I18" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124000000</v>
+      </c>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>149</v>
       </c>
@@ -4193,18 +4242,19 @@
       <c r="F19" s="2">
         <v>1267</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="45">
         <v>16000000</v>
       </c>
-      <c r="H19" s="66">
-        <v>0</v>
-      </c>
-      <c r="I19" s="60">
+      <c r="H19" s="48">
+        <v>4</v>
+      </c>
+      <c r="I19" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64000000</v>
+      </c>
+      <c r="J19" s="69"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>150</v>
       </c>
@@ -4223,18 +4273,19 @@
       <c r="F20" s="2">
         <v>1268</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="45">
         <v>23000000</v>
       </c>
-      <c r="H20" s="66">
-        <v>0</v>
-      </c>
-      <c r="I20" s="60">
+      <c r="H20" s="48">
+        <v>4</v>
+      </c>
+      <c r="I20" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92000000</v>
+      </c>
+      <c r="J20" s="70"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>151</v>
       </c>
@@ -4253,18 +4304,19 @@
       <c r="F21" s="2">
         <v>1269</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="45">
         <v>12000000</v>
       </c>
-      <c r="H21" s="66">
-        <v>0</v>
-      </c>
-      <c r="I21" s="60">
+      <c r="H21" s="48">
+        <v>4</v>
+      </c>
+      <c r="I21" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48000000</v>
+      </c>
+      <c r="J21" s="69"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>152</v>
       </c>
@@ -4283,18 +4335,19 @@
       <c r="F22" s="2">
         <v>1270</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="45">
         <v>9500000</v>
       </c>
-      <c r="H22" s="66">
-        <v>0</v>
-      </c>
-      <c r="I22" s="60">
+      <c r="H22" s="48">
+        <v>2</v>
+      </c>
+      <c r="I22" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19000000</v>
+      </c>
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>153</v>
       </c>
@@ -4313,18 +4366,19 @@
       <c r="F23" s="2">
         <v>1271</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="45">
         <v>8000000</v>
       </c>
-      <c r="H23" s="66">
-        <v>0</v>
-      </c>
-      <c r="I23" s="60">
+      <c r="H23" s="48">
+        <v>4</v>
+      </c>
+      <c r="I23" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32000000</v>
+      </c>
+      <c r="J23" s="68"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>154</v>
       </c>
@@ -4343,18 +4397,19 @@
       <c r="F24" s="2">
         <v>1272</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="45">
         <v>24000000</v>
       </c>
-      <c r="H24" s="66">
-        <v>0</v>
-      </c>
-      <c r="I24" s="60">
+      <c r="H24" s="48">
+        <v>4</v>
+      </c>
+      <c r="I24" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96000000</v>
+      </c>
+      <c r="J24" s="68"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>155</v>
       </c>
@@ -4373,18 +4428,19 @@
       <c r="F25" s="2">
         <v>1273</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="45">
         <v>23000000</v>
       </c>
-      <c r="H25" s="66">
-        <v>0</v>
-      </c>
-      <c r="I25" s="60">
+      <c r="H25" s="48">
+        <v>2</v>
+      </c>
+      <c r="I25" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46000000</v>
+      </c>
+      <c r="J25" s="70"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>156</v>
       </c>
@@ -4403,18 +4459,19 @@
       <c r="F26" s="2">
         <v>1274</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="45">
         <v>13000000</v>
       </c>
-      <c r="H26" s="66">
-        <v>0</v>
-      </c>
-      <c r="I26" s="60">
+      <c r="H26" s="48">
+        <v>4</v>
+      </c>
+      <c r="I26" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52000000</v>
+      </c>
+      <c r="J26" s="67"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>157</v>
       </c>
@@ -4433,18 +4490,19 @@
       <c r="F27" s="2">
         <v>1275</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="45">
         <v>1500000</v>
       </c>
-      <c r="H27" s="66">
-        <v>0</v>
-      </c>
-      <c r="I27" s="60">
+      <c r="H27" s="48">
+        <v>2</v>
+      </c>
+      <c r="I27" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3000000</v>
+      </c>
+      <c r="J27" s="70"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>158</v>
       </c>
@@ -4463,18 +4521,19 @@
       <c r="F28" s="2">
         <v>1276</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="45">
         <v>1650000</v>
       </c>
-      <c r="H28" s="66">
-        <v>0</v>
-      </c>
-      <c r="I28" s="60">
+      <c r="H28" s="48">
+        <v>2</v>
+      </c>
+      <c r="I28" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3300000</v>
+      </c>
+      <c r="J28" s="70"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>159</v>
       </c>
@@ -4493,18 +4552,19 @@
       <c r="F29" s="2">
         <v>1277</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="45">
         <v>1550000</v>
       </c>
-      <c r="H29" s="66">
-        <v>0</v>
-      </c>
-      <c r="I29" s="60">
+      <c r="H29" s="48">
+        <v>2</v>
+      </c>
+      <c r="I29" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3100000</v>
+      </c>
+      <c r="J29" s="70"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>160</v>
       </c>
@@ -4523,18 +4583,19 @@
       <c r="F30" s="2">
         <v>1278</v>
       </c>
-      <c r="G30" s="61">
+      <c r="G30" s="45">
         <v>11000000</v>
       </c>
-      <c r="H30" s="66">
-        <v>0</v>
-      </c>
-      <c r="I30" s="60">
+      <c r="H30" s="48">
+        <v>4</v>
+      </c>
+      <c r="I30" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44000000</v>
+      </c>
+      <c r="J30" s="68"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>161</v>
       </c>
@@ -4553,18 +4614,19 @@
       <c r="F31" s="2">
         <v>1279</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="45">
         <v>30000000</v>
       </c>
-      <c r="H31" s="66">
-        <v>0</v>
-      </c>
-      <c r="I31" s="60">
+      <c r="H31" s="48">
+        <v>4</v>
+      </c>
+      <c r="I31" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120000000</v>
+      </c>
+      <c r="J31" s="68"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>162</v>
       </c>
@@ -4583,18 +4645,19 @@
       <c r="F32" s="2">
         <v>1280</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G32" s="45">
         <v>35000000</v>
       </c>
-      <c r="H32" s="66">
-        <v>0</v>
-      </c>
-      <c r="I32" s="60">
+      <c r="H32" s="48">
+        <v>4</v>
+      </c>
+      <c r="I32" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140000000</v>
+      </c>
+      <c r="J32" s="68"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>163</v>
       </c>
@@ -4613,18 +4676,19 @@
       <c r="F33" s="2">
         <v>1281</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33" s="45">
         <v>4500000</v>
       </c>
-      <c r="H33" s="66">
-        <v>0</v>
-      </c>
-      <c r="I33" s="60">
+      <c r="H33" s="48">
+        <v>4</v>
+      </c>
+      <c r="I33" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18000000</v>
+      </c>
+      <c r="J33" s="67"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>164</v>
       </c>
@@ -4643,18 +4707,19 @@
       <c r="F34" s="2">
         <v>1282</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="45">
         <v>21000000</v>
       </c>
-      <c r="H34" s="66">
-        <v>0</v>
-      </c>
-      <c r="I34" s="60">
+      <c r="H34" s="48">
+        <v>4</v>
+      </c>
+      <c r="I34" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84000000</v>
+      </c>
+      <c r="J34" s="67"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>132</v>
       </c>
@@ -4673,19 +4738,17 @@
       <c r="F35" s="2">
         <v>1283</v>
       </c>
-      <c r="G35" s="61">
+      <c r="G35" s="45">
         <v>10000000</v>
       </c>
-      <c r="H35" s="66">
-        <v>0</v>
-      </c>
-      <c r="I35" s="60">
+      <c r="H35" s="48">
+        <v>2</v>
+      </c>
+      <c r="I35" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I39" s="65"/>
+        <v>20000000</v>
+      </c>
+      <c r="J35" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4744,86 +4807,86 @@
     <row r="1" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="46" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="46" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="54"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="49" t="s">
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="43" t="s">
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="51"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="63"/>
       <c r="AK1" s="7"/>
-      <c r="AL1" s="52" t="s">
+      <c r="AL1" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="40" t="s">
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="43" t="s">
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="40" t="s">
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="BF1" s="41"/>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="42"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="66"/>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8362,17 +8425,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="V1:AA1"/>
     <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="AW1:BD1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="V1:AA1"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76243EF-6F5B-48CF-B30C-3838A55C272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D8CFCD-617E-4459-AAEC-80066E09FF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aviones" sheetId="8" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1706,54 +1706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1763,51 +1715,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1864,8 +1782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1874,7 +1791,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1920,13 +1836,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,9 +1876,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1991,12 +1898,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2041,12 +1942,68 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2059,11 +2016,56 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2071,59 +2073,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2461,12 +2446,12 @@
       <c r="A1" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="33" t="s">
         <v>158</v>
       </c>
@@ -2476,47 +2461,46 @@
       <c r="H1" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="98">
+      <c r="B2" s="68">
         <v>1</v>
       </c>
-      <c r="C2" s="99">
+      <c r="C2" s="69">
         <v>1</v>
       </c>
-      <c r="D2" s="99">
+      <c r="D2" s="69">
         <v>6</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="70">
         <v>264</v>
       </c>
-      <c r="F2" s="87">
+      <c r="F2" s="59">
         <v>1250</v>
       </c>
-      <c r="G2" s="106">
+      <c r="G2" s="76">
         <v>18000000</v>
       </c>
-      <c r="H2" s="110">
-        <v>4</v>
-      </c>
-      <c r="I2" s="106">
+      <c r="H2" s="80">
+        <v>4</v>
+      </c>
+      <c r="I2" s="76">
         <f>H2*G2</f>
         <v>72000000</v>
       </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="101">
+      <c r="B3" s="71">
         <v>1</v>
       </c>
       <c r="C3" s="32">
@@ -2525,29 +2509,28 @@
       <c r="D3" s="32">
         <v>5</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="72">
         <v>26</v>
       </c>
-      <c r="F3" s="88">
+      <c r="F3" s="60">
         <v>1251</v>
       </c>
-      <c r="G3" s="107">
+      <c r="G3" s="77">
         <v>330000000</v>
       </c>
-      <c r="H3" s="111">
+      <c r="H3" s="81">
         <v>2</v>
       </c>
-      <c r="I3" s="93">
+      <c r="I3" s="64">
         <f t="shared" ref="I3:I35" si="0">H3*G3</f>
         <v>660000000</v>
       </c>
-      <c r="J3" s="91"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="101">
+      <c r="B4" s="71">
         <v>1</v>
       </c>
       <c r="C4" s="32">
@@ -2556,29 +2539,28 @@
       <c r="D4" s="32">
         <v>6</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="72">
         <v>300</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="60">
         <v>1252</v>
       </c>
-      <c r="G4" s="107">
+      <c r="G4" s="77">
         <v>136800000</v>
       </c>
-      <c r="H4" s="111">
-        <v>4</v>
-      </c>
-      <c r="I4" s="93">
+      <c r="H4" s="81">
+        <v>4</v>
+      </c>
+      <c r="I4" s="64">
         <f t="shared" si="0"/>
         <v>547200000</v>
       </c>
-      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="71">
         <v>1</v>
       </c>
       <c r="C5" s="32">
@@ -2587,29 +2569,28 @@
       <c r="D5" s="32">
         <v>1</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="72">
         <v>265</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="60">
         <v>1253</v>
       </c>
-      <c r="G5" s="107">
+      <c r="G5" s="77">
         <v>8000000</v>
       </c>
-      <c r="H5" s="111">
-        <v>4</v>
-      </c>
-      <c r="I5" s="93">
+      <c r="H5" s="81">
+        <v>4</v>
+      </c>
+      <c r="I5" s="64">
         <f t="shared" si="0"/>
         <v>32000000</v>
       </c>
-      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="71">
         <v>1</v>
       </c>
       <c r="C6" s="32">
@@ -2618,29 +2599,28 @@
       <c r="D6" s="32">
         <v>1</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="72">
         <v>266</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="60">
         <v>1254</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="77">
         <v>30000000</v>
       </c>
-      <c r="H6" s="111">
-        <v>4</v>
-      </c>
-      <c r="I6" s="93">
+      <c r="H6" s="81">
+        <v>4</v>
+      </c>
+      <c r="I6" s="64">
         <f t="shared" si="0"/>
         <v>120000000</v>
       </c>
-      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="71">
         <v>1</v>
       </c>
       <c r="C7" s="32">
@@ -2649,29 +2629,28 @@
       <c r="D7" s="32">
         <v>5</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="72">
         <v>329</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="60">
         <v>1255</v>
       </c>
-      <c r="G7" s="107">
+      <c r="G7" s="77">
         <v>85000000</v>
       </c>
-      <c r="H7" s="111">
-        <v>4</v>
-      </c>
-      <c r="I7" s="93">
+      <c r="H7" s="81">
+        <v>4</v>
+      </c>
+      <c r="I7" s="64">
         <f t="shared" si="0"/>
         <v>340000000</v>
       </c>
-      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="71">
         <v>1</v>
       </c>
       <c r="C8" s="32">
@@ -2680,29 +2659,28 @@
       <c r="D8" s="32">
         <v>5</v>
       </c>
-      <c r="E8" s="102">
-        <v>41</v>
-      </c>
-      <c r="F8" s="88">
+      <c r="E8" s="72">
+        <v>41</v>
+      </c>
+      <c r="F8" s="60">
         <v>1256</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="77">
         <v>275000000</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="81">
         <v>2</v>
       </c>
-      <c r="I8" s="93">
+      <c r="I8" s="64">
         <f t="shared" si="0"/>
         <v>550000000</v>
       </c>
-      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="101">
+      <c r="B9" s="71">
         <v>1</v>
       </c>
       <c r="C9" s="32">
@@ -2711,29 +2689,28 @@
       <c r="D9" s="32">
         <v>5</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E9" s="72">
         <v>27</v>
       </c>
-      <c r="F9" s="88">
+      <c r="F9" s="60">
         <v>1257</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="77">
         <v>380000000</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="81">
         <v>2</v>
       </c>
-      <c r="I9" s="93">
+      <c r="I9" s="64">
         <f t="shared" si="0"/>
         <v>760000000</v>
       </c>
-      <c r="J9" s="91"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="101">
+      <c r="B10" s="71">
         <v>1</v>
       </c>
       <c r="C10" s="32">
@@ -2742,29 +2719,28 @@
       <c r="D10" s="32">
         <v>1</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="72">
         <v>279</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="60">
         <v>1258</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="77">
         <v>38000000</v>
       </c>
-      <c r="H10" s="111">
-        <v>4</v>
-      </c>
-      <c r="I10" s="93">
+      <c r="H10" s="81">
+        <v>4</v>
+      </c>
+      <c r="I10" s="64">
         <f t="shared" si="0"/>
         <v>152000000</v>
       </c>
-      <c r="J10" s="91"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="101">
+      <c r="B11" s="71">
         <v>1</v>
       </c>
       <c r="C11" s="32">
@@ -2773,29 +2749,28 @@
       <c r="D11" s="32">
         <v>1</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="72">
         <v>278</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="60">
         <v>1259</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="77">
         <v>42000000</v>
       </c>
-      <c r="H11" s="111">
-        <v>4</v>
-      </c>
-      <c r="I11" s="93">
+      <c r="H11" s="81">
+        <v>4</v>
+      </c>
+      <c r="I11" s="64">
         <f t="shared" si="0"/>
         <v>168000000</v>
       </c>
-      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="71">
         <v>1</v>
       </c>
       <c r="C12" s="32">
@@ -2804,29 +2779,28 @@
       <c r="D12" s="32">
         <v>1</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="72">
         <v>327</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="60">
         <v>1260</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="77">
         <v>31100000</v>
       </c>
-      <c r="H12" s="111">
-        <v>4</v>
-      </c>
-      <c r="I12" s="93">
+      <c r="H12" s="81">
+        <v>4</v>
+      </c>
+      <c r="I12" s="64">
         <f t="shared" si="0"/>
         <v>124400000</v>
       </c>
-      <c r="J12" s="91"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="101">
+      <c r="B13" s="71">
         <v>1</v>
       </c>
       <c r="C13" s="32">
@@ -2835,29 +2809,28 @@
       <c r="D13" s="32">
         <v>1</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="72">
         <v>275</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="60">
         <v>1261</v>
       </c>
-      <c r="G13" s="107">
+      <c r="G13" s="77">
         <v>65000000</v>
       </c>
-      <c r="H13" s="111">
-        <v>4</v>
-      </c>
-      <c r="I13" s="93">
+      <c r="H13" s="81">
+        <v>4</v>
+      </c>
+      <c r="I13" s="64">
         <f t="shared" si="0"/>
         <v>260000000</v>
       </c>
-      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="101">
+      <c r="B14" s="71">
         <v>1</v>
       </c>
       <c r="C14" s="32">
@@ -2866,29 +2839,28 @@
       <c r="D14" s="32">
         <v>1</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="72">
         <v>328</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="60">
         <v>1262</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="77">
         <v>25000000</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="81">
         <v>2</v>
       </c>
-      <c r="I14" s="93">
+      <c r="I14" s="64">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="101">
+      <c r="B15" s="71">
         <v>1</v>
       </c>
       <c r="C15" s="32">
@@ -2897,29 +2869,28 @@
       <c r="D15" s="32">
         <v>1</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="72">
         <v>276</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="60">
         <v>1263</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="77">
         <v>15000000</v>
       </c>
-      <c r="H15" s="111">
-        <v>4</v>
-      </c>
-      <c r="I15" s="93">
+      <c r="H15" s="81">
+        <v>4</v>
+      </c>
+      <c r="I15" s="64">
         <f t="shared" si="0"/>
         <v>60000000</v>
       </c>
-      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="101">
+      <c r="B16" s="71">
         <v>1</v>
       </c>
       <c r="C16" s="32">
@@ -2928,29 +2899,28 @@
       <c r="D16" s="32">
         <v>1</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="72">
         <v>280</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F16" s="60">
         <v>1264</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="77">
         <v>62000000</v>
       </c>
-      <c r="H16" s="111">
-        <v>4</v>
-      </c>
-      <c r="I16" s="93">
+      <c r="H16" s="81">
+        <v>4</v>
+      </c>
+      <c r="I16" s="64">
         <f t="shared" si="0"/>
         <v>248000000</v>
       </c>
-      <c r="J16" s="91"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="101">
+      <c r="B17" s="71">
         <v>1</v>
       </c>
       <c r="C17" s="32">
@@ -2959,29 +2929,28 @@
       <c r="D17" s="32">
         <v>5</v>
       </c>
-      <c r="E17" s="102">
+      <c r="E17" s="72">
         <v>347</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="60">
         <v>1265</v>
       </c>
-      <c r="G17" s="108">
+      <c r="G17" s="78">
         <v>30000000</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="81">
         <v>2</v>
       </c>
-      <c r="I17" s="93">
+      <c r="I17" s="64">
         <f t="shared" si="0"/>
         <v>60000000</v>
       </c>
-      <c r="J17" s="91"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="101">
+      <c r="B18" s="71">
         <v>1</v>
       </c>
       <c r="C18" s="32">
@@ -2990,29 +2959,28 @@
       <c r="D18" s="32">
         <v>1</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="72">
         <v>271</v>
       </c>
-      <c r="F18" s="88">
+      <c r="F18" s="60">
         <v>1266</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="77">
         <v>31000000</v>
       </c>
-      <c r="H18" s="111">
-        <v>4</v>
-      </c>
-      <c r="I18" s="93">
+      <c r="H18" s="81">
+        <v>4</v>
+      </c>
+      <c r="I18" s="64">
         <f t="shared" si="0"/>
         <v>124000000</v>
       </c>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="101">
+      <c r="B19" s="71">
         <v>1</v>
       </c>
       <c r="C19" s="32">
@@ -3021,29 +2989,28 @@
       <c r="D19" s="32">
         <v>6</v>
       </c>
-      <c r="E19" s="102">
+      <c r="E19" s="72">
         <v>326</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="60">
         <v>1267</v>
       </c>
-      <c r="G19" s="107">
+      <c r="G19" s="77">
         <v>16000000</v>
       </c>
-      <c r="H19" s="111">
-        <v>4</v>
-      </c>
-      <c r="I19" s="93">
+      <c r="H19" s="81">
+        <v>4</v>
+      </c>
+      <c r="I19" s="64">
         <f t="shared" si="0"/>
         <v>64000000</v>
       </c>
-      <c r="J19" s="91"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="114" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="101">
+      <c r="B20" s="71">
         <v>1</v>
       </c>
       <c r="C20" s="32">
@@ -3052,29 +3019,28 @@
       <c r="D20" s="32">
         <v>1</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="72">
         <v>284</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F20" s="60">
         <v>1268</v>
       </c>
-      <c r="G20" s="107">
+      <c r="G20" s="77">
         <v>23000000</v>
       </c>
-      <c r="H20" s="111">
-        <v>4</v>
-      </c>
-      <c r="I20" s="93">
+      <c r="H20" s="81">
+        <v>4</v>
+      </c>
+      <c r="I20" s="64">
         <f t="shared" si="0"/>
         <v>92000000</v>
       </c>
-      <c r="J20" s="91"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="101">
+      <c r="B21" s="71">
         <v>1</v>
       </c>
       <c r="C21" s="32">
@@ -3083,29 +3049,28 @@
       <c r="D21" s="32">
         <v>6</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="72">
         <v>296</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F21" s="60">
         <v>1269</v>
       </c>
-      <c r="G21" s="107">
+      <c r="G21" s="77">
         <v>12000000</v>
       </c>
-      <c r="H21" s="111">
-        <v>4</v>
-      </c>
-      <c r="I21" s="93">
+      <c r="H21" s="81">
+        <v>4</v>
+      </c>
+      <c r="I21" s="64">
         <f t="shared" si="0"/>
         <v>48000000</v>
       </c>
-      <c r="J21" s="91"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="101">
+      <c r="B22" s="71">
         <v>1</v>
       </c>
       <c r="C22" s="32">
@@ -3114,29 +3079,28 @@
       <c r="D22" s="32">
         <v>6</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="72">
         <v>151</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="60">
         <v>1270</v>
       </c>
-      <c r="G22" s="107">
+      <c r="G22" s="77">
         <v>9500000</v>
       </c>
-      <c r="H22" s="111">
+      <c r="H22" s="81">
         <v>2</v>
       </c>
-      <c r="I22" s="93">
+      <c r="I22" s="64">
         <f t="shared" si="0"/>
         <v>19000000</v>
       </c>
-      <c r="J22" s="91"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="101">
+      <c r="B23" s="71">
         <v>1</v>
       </c>
       <c r="C23" s="32">
@@ -3145,29 +3109,28 @@
       <c r="D23" s="32">
         <v>1</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="72">
         <v>288</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F23" s="60">
         <v>1271</v>
       </c>
-      <c r="G23" s="107">
+      <c r="G23" s="77">
         <v>8000000</v>
       </c>
-      <c r="H23" s="111">
-        <v>4</v>
-      </c>
-      <c r="I23" s="93">
+      <c r="H23" s="81">
+        <v>4</v>
+      </c>
+      <c r="I23" s="64">
         <f t="shared" si="0"/>
         <v>32000000</v>
       </c>
-      <c r="J23" s="91"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114" t="s">
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="71">
         <v>1</v>
       </c>
       <c r="C24" s="32">
@@ -3176,29 +3139,28 @@
       <c r="D24" s="32">
         <v>1</v>
       </c>
-      <c r="E24" s="102">
+      <c r="E24" s="72">
         <v>2</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="60">
         <v>1272</v>
       </c>
-      <c r="G24" s="107">
+      <c r="G24" s="77">
         <v>24000000</v>
       </c>
-      <c r="H24" s="111">
-        <v>4</v>
-      </c>
-      <c r="I24" s="93">
+      <c r="H24" s="81">
+        <v>4</v>
+      </c>
+      <c r="I24" s="64">
         <f t="shared" si="0"/>
         <v>96000000</v>
       </c>
-      <c r="J24" s="91"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="114" t="s">
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="101">
+      <c r="B25" s="71">
         <v>1</v>
       </c>
       <c r="C25" s="32">
@@ -3207,29 +3169,28 @@
       <c r="D25" s="32">
         <v>1</v>
       </c>
-      <c r="E25" s="102">
+      <c r="E25" s="72">
         <v>303</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="60">
         <v>1273</v>
       </c>
-      <c r="G25" s="107">
+      <c r="G25" s="77">
         <v>23000000</v>
       </c>
-      <c r="H25" s="111">
+      <c r="H25" s="81">
         <v>2</v>
       </c>
-      <c r="I25" s="93">
+      <c r="I25" s="64">
         <f t="shared" si="0"/>
         <v>46000000</v>
       </c>
-      <c r="J25" s="91"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="114" t="s">
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="101">
+      <c r="B26" s="71">
         <v>1</v>
       </c>
       <c r="C26" s="32">
@@ -3238,29 +3199,28 @@
       <c r="D26" s="32">
         <v>6</v>
       </c>
-      <c r="E26" s="102">
+      <c r="E26" s="72">
         <v>336</v>
       </c>
-      <c r="F26" s="88">
+      <c r="F26" s="60">
         <v>1274</v>
       </c>
-      <c r="G26" s="107">
+      <c r="G26" s="77">
         <v>13000000</v>
       </c>
-      <c r="H26" s="111">
-        <v>4</v>
-      </c>
-      <c r="I26" s="93">
+      <c r="H26" s="81">
+        <v>4</v>
+      </c>
+      <c r="I26" s="64">
         <f t="shared" si="0"/>
         <v>52000000</v>
       </c>
-      <c r="J26" s="91"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="114" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="101">
+      <c r="B27" s="71">
         <v>1</v>
       </c>
       <c r="C27" s="32">
@@ -3269,29 +3229,28 @@
       <c r="D27" s="32">
         <v>6</v>
       </c>
-      <c r="E27" s="102">
+      <c r="E27" s="72">
         <v>290</v>
       </c>
-      <c r="F27" s="88">
+      <c r="F27" s="60">
         <v>1275</v>
       </c>
-      <c r="G27" s="107">
+      <c r="G27" s="77">
         <v>1500000</v>
       </c>
-      <c r="H27" s="111">
+      <c r="H27" s="81">
         <v>2</v>
       </c>
-      <c r="I27" s="93">
+      <c r="I27" s="64">
         <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
-      <c r="J27" s="91"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="101">
+      <c r="B28" s="71">
         <v>1</v>
       </c>
       <c r="C28" s="32">
@@ -3300,29 +3259,28 @@
       <c r="D28" s="32">
         <v>6</v>
       </c>
-      <c r="E28" s="102">
+      <c r="E28" s="72">
         <v>289</v>
       </c>
-      <c r="F28" s="88">
+      <c r="F28" s="60">
         <v>1276</v>
       </c>
-      <c r="G28" s="107">
+      <c r="G28" s="77">
         <v>1650000</v>
       </c>
-      <c r="H28" s="111">
+      <c r="H28" s="81">
         <v>2</v>
       </c>
-      <c r="I28" s="93">
+      <c r="I28" s="64">
         <f t="shared" si="0"/>
         <v>3300000</v>
       </c>
-      <c r="J28" s="91"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="114" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="101">
+      <c r="B29" s="71">
         <v>1</v>
       </c>
       <c r="C29" s="32">
@@ -3331,29 +3289,28 @@
       <c r="D29" s="32">
         <v>6</v>
       </c>
-      <c r="E29" s="102">
+      <c r="E29" s="72">
         <v>292</v>
       </c>
-      <c r="F29" s="88">
+      <c r="F29" s="60">
         <v>1277</v>
       </c>
-      <c r="G29" s="107">
+      <c r="G29" s="77">
         <v>1550000</v>
       </c>
-      <c r="H29" s="111">
+      <c r="H29" s="81">
         <v>2</v>
       </c>
-      <c r="I29" s="93">
+      <c r="I29" s="64">
         <f t="shared" si="0"/>
         <v>3100000</v>
       </c>
-      <c r="J29" s="91"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="114" t="s">
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="101">
+      <c r="B30" s="71">
         <v>1</v>
       </c>
       <c r="C30" s="32">
@@ -3362,29 +3319,28 @@
       <c r="D30" s="32">
         <v>6</v>
       </c>
-      <c r="E30" s="102">
+      <c r="E30" s="72">
         <v>54</v>
       </c>
-      <c r="F30" s="88">
+      <c r="F30" s="60">
         <v>1278</v>
       </c>
-      <c r="G30" s="107">
+      <c r="G30" s="77">
         <v>11000000</v>
       </c>
-      <c r="H30" s="111">
-        <v>4</v>
-      </c>
-      <c r="I30" s="93">
+      <c r="H30" s="81">
+        <v>4</v>
+      </c>
+      <c r="I30" s="64">
         <f t="shared" si="0"/>
         <v>44000000</v>
       </c>
-      <c r="J30" s="91"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="114" t="s">
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="101">
+      <c r="B31" s="71">
         <v>1</v>
       </c>
       <c r="C31" s="32">
@@ -3393,29 +3349,28 @@
       <c r="D31" s="32">
         <v>1</v>
       </c>
-      <c r="E31" s="102">
+      <c r="E31" s="72">
         <v>3</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="60">
         <v>1279</v>
       </c>
-      <c r="G31" s="107">
+      <c r="G31" s="77">
         <v>30000000</v>
       </c>
-      <c r="H31" s="111">
-        <v>4</v>
-      </c>
-      <c r="I31" s="93">
+      <c r="H31" s="81">
+        <v>4</v>
+      </c>
+      <c r="I31" s="64">
         <f t="shared" si="0"/>
         <v>120000000</v>
       </c>
-      <c r="J31" s="91"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="114" t="s">
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="101">
+      <c r="B32" s="71">
         <v>1</v>
       </c>
       <c r="C32" s="32">
@@ -3424,29 +3379,28 @@
       <c r="D32" s="32">
         <v>1</v>
       </c>
-      <c r="E32" s="102">
-        <v>4</v>
-      </c>
-      <c r="F32" s="88">
+      <c r="E32" s="72">
+        <v>4</v>
+      </c>
+      <c r="F32" s="60">
         <v>1280</v>
       </c>
-      <c r="G32" s="107">
+      <c r="G32" s="77">
         <v>35000000</v>
       </c>
-      <c r="H32" s="111">
-        <v>4</v>
-      </c>
-      <c r="I32" s="93">
+      <c r="H32" s="81">
+        <v>4</v>
+      </c>
+      <c r="I32" s="64">
         <f t="shared" si="0"/>
         <v>140000000</v>
       </c>
-      <c r="J32" s="91"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="114" t="s">
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="101">
+      <c r="B33" s="71">
         <v>1</v>
       </c>
       <c r="C33" s="32">
@@ -3455,29 +3409,28 @@
       <c r="D33" s="32">
         <v>6</v>
       </c>
-      <c r="E33" s="102">
+      <c r="E33" s="72">
         <v>166</v>
       </c>
-      <c r="F33" s="88">
+      <c r="F33" s="60">
         <v>1281</v>
       </c>
-      <c r="G33" s="107">
+      <c r="G33" s="77">
         <v>4500000</v>
       </c>
-      <c r="H33" s="111">
-        <v>4</v>
-      </c>
-      <c r="I33" s="93">
+      <c r="H33" s="81">
+        <v>4</v>
+      </c>
+      <c r="I33" s="64">
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
-      <c r="J33" s="91"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="114" t="s">
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="101">
+      <c r="B34" s="71">
         <v>1</v>
       </c>
       <c r="C34" s="32">
@@ -3486,54 +3439,52 @@
       <c r="D34" s="32">
         <v>6</v>
       </c>
-      <c r="E34" s="102">
+      <c r="E34" s="72">
         <v>348</v>
       </c>
-      <c r="F34" s="88">
+      <c r="F34" s="60">
         <v>1282</v>
       </c>
-      <c r="G34" s="107">
+      <c r="G34" s="77">
         <v>21000000</v>
       </c>
-      <c r="H34" s="111">
-        <v>4</v>
-      </c>
-      <c r="I34" s="93">
+      <c r="H34" s="81">
+        <v>4</v>
+      </c>
+      <c r="I34" s="64">
         <f t="shared" si="0"/>
         <v>84000000</v>
       </c>
-      <c r="J34" s="91"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="115" t="s">
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="103">
+      <c r="B35" s="73">
         <v>1</v>
       </c>
-      <c r="C35" s="104">
+      <c r="C35" s="74">
         <v>1</v>
       </c>
-      <c r="D35" s="104">
+      <c r="D35" s="74">
         <v>1</v>
       </c>
-      <c r="E35" s="105">
+      <c r="E35" s="75">
         <v>337</v>
       </c>
-      <c r="F35" s="90">
+      <c r="F35" s="62">
         <v>1283</v>
       </c>
-      <c r="G35" s="109">
+      <c r="G35" s="79">
         <v>10000000</v>
       </c>
-      <c r="H35" s="112">
+      <c r="H35" s="82">
         <v>2</v>
       </c>
-      <c r="I35" s="94">
+      <c r="I35" s="65">
         <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
-      <c r="J35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3549,10 +3500,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K242"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B11" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,77 +3518,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83"/>
+      <c r="A1" s="55"/>
       <c r="B1" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="55" t="s">
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="136" t="s">
+      <c r="K1" s="104" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="87">
+      <c r="C2" s="59">
         <v>2</v>
       </c>
-      <c r="D2" s="75">
-        <v>4</v>
-      </c>
-      <c r="E2" s="63">
-        <v>4</v>
-      </c>
-      <c r="F2" s="63">
+      <c r="D2" s="47">
+        <v>4</v>
+      </c>
+      <c r="E2" s="42">
+        <v>4</v>
+      </c>
+      <c r="F2" s="42">
         <v>7</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="45">
         <v>136</v>
       </c>
-      <c r="H2" s="132">
+      <c r="H2" s="100">
         <v>1250</v>
       </c>
-      <c r="I2" s="151">
+      <c r="I2" s="116">
         <v>180000</v>
       </c>
-      <c r="J2" s="128">
+      <c r="J2" s="96">
         <v>5</v>
       </c>
-      <c r="K2" s="125">
+      <c r="K2" s="93">
         <f>I2*J2</f>
         <v>900000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="121" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="60">
         <v>2</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="49">
         <v>4</v>
       </c>
       <c r="E3" s="2">
@@ -3649,29 +3600,29 @@
       <c r="G3" s="6">
         <v>22</v>
       </c>
-      <c r="H3" s="133">
+      <c r="H3" s="101">
         <v>1251</v>
       </c>
-      <c r="I3" s="152">
+      <c r="I3" s="117">
         <v>140000</v>
       </c>
-      <c r="J3" s="129">
+      <c r="J3" s="97">
         <v>0</v>
       </c>
-      <c r="K3" s="126">
+      <c r="K3" s="94">
         <f t="shared" ref="K3:K53" si="0">I3*J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="121" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="60">
         <v>2</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="49">
         <v>4</v>
       </c>
       <c r="E4" s="2">
@@ -3683,29 +3634,29 @@
       <c r="G4" s="6">
         <v>267</v>
       </c>
-      <c r="H4" s="133">
+      <c r="H4" s="101">
         <v>1252</v>
       </c>
-      <c r="I4" s="152">
+      <c r="I4" s="117">
         <v>115000</v>
       </c>
-      <c r="J4" s="129">
+      <c r="J4" s="97">
         <v>0</v>
       </c>
-      <c r="K4" s="126">
+      <c r="K4" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="121" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="60">
         <v>2</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="49">
         <v>4</v>
       </c>
       <c r="E5" s="2">
@@ -3717,29 +3668,29 @@
       <c r="G5" s="6">
         <v>135</v>
       </c>
-      <c r="H5" s="133">
+      <c r="H5" s="101">
         <v>1253</v>
       </c>
-      <c r="I5" s="152">
+      <c r="I5" s="117">
         <v>68000</v>
       </c>
-      <c r="J5" s="129">
+      <c r="J5" s="97">
         <v>0</v>
       </c>
-      <c r="K5" s="126">
+      <c r="K5" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="121" t="s">
+      <c r="A6" s="162"/>
+      <c r="B6" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="60">
         <v>2</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="49">
         <v>4</v>
       </c>
       <c r="E6" s="2">
@@ -3751,27 +3702,27 @@
       <c r="G6" s="6">
         <v>412</v>
       </c>
-      <c r="H6" s="133">
+      <c r="H6" s="101">
         <v>1254</v>
       </c>
-      <c r="I6" s="152">
+      <c r="I6" s="117">
         <v>72000</v>
       </c>
-      <c r="J6" s="129"/>
-      <c r="K6" s="126">
+      <c r="J6" s="97"/>
+      <c r="K6" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="121" t="s">
+      <c r="A7" s="162"/>
+      <c r="B7" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="60">
         <v>2</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="49">
         <v>4</v>
       </c>
       <c r="E7" s="2">
@@ -3783,29 +3734,29 @@
       <c r="G7" s="6">
         <v>266</v>
       </c>
-      <c r="H7" s="133">
+      <c r="H7" s="101">
         <v>1255</v>
       </c>
-      <c r="I7" s="152">
+      <c r="I7" s="117">
         <v>79000</v>
       </c>
-      <c r="J7" s="129">
+      <c r="J7" s="97">
         <v>0</v>
       </c>
-      <c r="K7" s="126">
+      <c r="K7" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="121" t="s">
+      <c r="A8" s="162"/>
+      <c r="B8" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="60">
         <v>2</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="49">
         <v>4</v>
       </c>
       <c r="E8" s="2">
@@ -3817,29 +3768,29 @@
       <c r="G8" s="6">
         <v>265</v>
       </c>
-      <c r="H8" s="133">
+      <c r="H8" s="101">
         <v>1256</v>
       </c>
-      <c r="I8" s="152">
+      <c r="I8" s="117">
         <v>25000</v>
       </c>
-      <c r="J8" s="129">
+      <c r="J8" s="97">
         <v>0</v>
       </c>
-      <c r="K8" s="126">
+      <c r="K8" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="121" t="s">
+      <c r="A9" s="162"/>
+      <c r="B9" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="60">
         <v>2</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="49">
         <v>4</v>
       </c>
       <c r="E9" s="2">
@@ -3851,29 +3802,29 @@
       <c r="G9" s="6">
         <v>429</v>
       </c>
-      <c r="H9" s="133">
+      <c r="H9" s="101">
         <v>1298</v>
       </c>
-      <c r="I9" s="152">
+      <c r="I9" s="117">
         <v>82000</v>
       </c>
-      <c r="J9" s="129">
+      <c r="J9" s="97">
         <v>0</v>
       </c>
-      <c r="K9" s="126">
+      <c r="K9" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="121" t="s">
+      <c r="A10" s="162"/>
+      <c r="B10" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="60">
         <v>2</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="49">
         <v>4</v>
       </c>
       <c r="E10" s="2">
@@ -3885,29 +3836,29 @@
       <c r="G10" s="6">
         <v>372</v>
       </c>
-      <c r="H10" s="133">
+      <c r="H10" s="101">
         <v>1257</v>
       </c>
-      <c r="I10" s="152">
+      <c r="I10" s="117">
         <v>49500</v>
       </c>
-      <c r="J10" s="129">
+      <c r="J10" s="97">
         <v>0</v>
       </c>
-      <c r="K10" s="126">
+      <c r="K10" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="121" t="s">
+      <c r="A11" s="162"/>
+      <c r="B11" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="60">
         <v>2</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="49">
         <v>4</v>
       </c>
       <c r="E11" s="2">
@@ -3919,29 +3870,29 @@
       <c r="G11" s="6">
         <v>371</v>
       </c>
-      <c r="H11" s="133">
+      <c r="H11" s="101">
         <v>1258</v>
       </c>
-      <c r="I11" s="152">
+      <c r="I11" s="117">
         <v>32000</v>
       </c>
-      <c r="J11" s="129">
+      <c r="J11" s="97">
         <v>0</v>
       </c>
-      <c r="K11" s="126">
+      <c r="K11" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="121" t="s">
+      <c r="A12" s="162"/>
+      <c r="B12" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="60">
         <v>2</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="49">
         <v>4</v>
       </c>
       <c r="E12" s="2">
@@ -3953,29 +3904,29 @@
       <c r="G12" s="6">
         <v>143</v>
       </c>
-      <c r="H12" s="133">
+      <c r="H12" s="101">
         <v>1259</v>
       </c>
-      <c r="I12" s="152">
+      <c r="I12" s="117">
         <v>10000</v>
       </c>
-      <c r="J12" s="129">
+      <c r="J12" s="97">
         <v>0</v>
       </c>
-      <c r="K12" s="126">
+      <c r="K12" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="121" t="s">
+      <c r="A13" s="162"/>
+      <c r="B13" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="60">
         <v>3</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="49">
         <v>4</v>
       </c>
       <c r="E13" s="2">
@@ -3987,29 +3938,29 @@
       <c r="G13" s="6">
         <v>24</v>
       </c>
-      <c r="H13" s="133">
+      <c r="H13" s="101">
         <v>1260</v>
       </c>
-      <c r="I13" s="152">
+      <c r="I13" s="117">
         <v>289000</v>
       </c>
-      <c r="J13" s="129">
+      <c r="J13" s="97">
         <v>0</v>
       </c>
-      <c r="K13" s="126">
+      <c r="K13" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="121" t="s">
+      <c r="A14" s="162"/>
+      <c r="B14" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="60">
         <v>3</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="49">
         <v>4</v>
       </c>
       <c r="E14" s="2">
@@ -4021,29 +3972,29 @@
       <c r="G14" s="6">
         <v>106</v>
       </c>
-      <c r="H14" s="133">
+      <c r="H14" s="101">
         <v>1261</v>
       </c>
-      <c r="I14" s="152">
+      <c r="I14" s="117">
         <v>400000</v>
       </c>
-      <c r="J14" s="129">
+      <c r="J14" s="97">
         <v>0</v>
       </c>
-      <c r="K14" s="126">
+      <c r="K14" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="121" t="s">
+      <c r="A15" s="162"/>
+      <c r="B15" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="60">
         <v>1</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="49">
         <v>4</v>
       </c>
       <c r="E15" s="2">
@@ -4055,29 +4006,29 @@
       <c r="G15" s="6">
         <v>268</v>
       </c>
-      <c r="H15" s="133">
+      <c r="H15" s="101">
         <v>1262</v>
       </c>
-      <c r="I15" s="152">
+      <c r="I15" s="117">
         <v>105000</v>
       </c>
-      <c r="J15" s="129">
+      <c r="J15" s="97">
         <v>0</v>
       </c>
-      <c r="K15" s="126">
+      <c r="K15" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="121" t="s">
+      <c r="A16" s="162"/>
+      <c r="B16" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="60">
         <v>1</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="49">
         <v>4</v>
       </c>
       <c r="E16" s="2">
@@ -4089,29 +4040,29 @@
       <c r="G16" s="6">
         <v>426</v>
       </c>
-      <c r="H16" s="133">
+      <c r="H16" s="101">
         <v>1263</v>
       </c>
-      <c r="I16" s="152">
+      <c r="I16" s="117">
         <v>100000</v>
       </c>
-      <c r="J16" s="129">
+      <c r="J16" s="97">
         <v>0</v>
       </c>
-      <c r="K16" s="126">
+      <c r="K16" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="121" t="s">
+      <c r="A17" s="162"/>
+      <c r="B17" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="60">
         <v>1</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="49">
         <v>4</v>
       </c>
       <c r="E17" s="2">
@@ -4123,29 +4074,29 @@
       <c r="G17" s="6">
         <v>269</v>
       </c>
-      <c r="H17" s="133">
+      <c r="H17" s="101">
         <v>1264</v>
       </c>
-      <c r="I17" s="152">
+      <c r="I17" s="117">
         <v>140000</v>
       </c>
-      <c r="J17" s="129">
+      <c r="J17" s="97">
         <v>0</v>
       </c>
-      <c r="K17" s="126">
+      <c r="K17" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="121" t="s">
+      <c r="A18" s="162"/>
+      <c r="B18" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C18" s="60">
         <v>1</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="49">
         <v>4</v>
       </c>
       <c r="E18" s="2">
@@ -4157,63 +4108,63 @@
       <c r="G18" s="6">
         <v>21</v>
       </c>
-      <c r="H18" s="133">
+      <c r="H18" s="101">
         <v>1265</v>
       </c>
-      <c r="I18" s="152">
+      <c r="I18" s="117">
         <v>175000</v>
       </c>
-      <c r="J18" s="129">
+      <c r="J18" s="97">
         <v>0</v>
       </c>
-      <c r="K18" s="126">
+      <c r="K18" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
-      <c r="B19" s="122" t="s">
+      <c r="A19" s="162"/>
+      <c r="B19" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19" s="61">
         <v>1</v>
       </c>
-      <c r="D19" s="86">
-        <v>4</v>
-      </c>
-      <c r="E19" s="58">
-        <v>4</v>
-      </c>
-      <c r="F19" s="58">
+      <c r="D19" s="58">
+        <v>4</v>
+      </c>
+      <c r="E19" s="41">
+        <v>4</v>
+      </c>
+      <c r="F19" s="41">
         <v>7</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="57">
         <v>270</v>
       </c>
-      <c r="H19" s="133">
+      <c r="H19" s="101">
         <v>1266</v>
       </c>
-      <c r="I19" s="152">
+      <c r="I19" s="117">
         <v>190000</v>
       </c>
-      <c r="J19" s="129">
+      <c r="J19" s="97">
         <v>0</v>
       </c>
-      <c r="K19" s="126">
+      <c r="K19" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
-      <c r="B20" s="121" t="s">
+      <c r="A20" s="162"/>
+      <c r="B20" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C20" s="60">
         <v>1</v>
       </c>
-      <c r="D20" s="77">
+      <c r="D20" s="49">
         <v>4</v>
       </c>
       <c r="E20" s="2">
@@ -4225,29 +4176,29 @@
       <c r="G20" s="6">
         <v>397</v>
       </c>
-      <c r="H20" s="133">
+      <c r="H20" s="101">
         <v>1267</v>
       </c>
-      <c r="I20" s="152">
+      <c r="I20" s="117">
         <v>200000</v>
       </c>
-      <c r="J20" s="129">
+      <c r="J20" s="97">
         <v>0</v>
       </c>
-      <c r="K20" s="126">
+      <c r="K20" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="121" t="s">
+      <c r="A21" s="86"/>
+      <c r="B21" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C21" s="60">
         <v>3</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="49">
         <v>4</v>
       </c>
       <c r="E21" s="2">
@@ -4259,29 +4210,29 @@
       <c r="G21" s="6">
         <v>320</v>
       </c>
-      <c r="H21" s="133">
+      <c r="H21" s="101">
         <v>1268</v>
       </c>
-      <c r="I21" s="152">
+      <c r="I21" s="117">
         <v>700000</v>
       </c>
-      <c r="J21" s="129">
+      <c r="J21" s="97">
         <v>0</v>
       </c>
-      <c r="K21" s="126">
+      <c r="K21" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="121" t="s">
+      <c r="A22" s="86"/>
+      <c r="B22" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="88">
+      <c r="C22" s="60">
         <v>3</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="49">
         <v>4</v>
       </c>
       <c r="E22" s="2">
@@ -4293,29 +4244,29 @@
       <c r="G22" s="6">
         <v>321</v>
       </c>
-      <c r="H22" s="133">
+      <c r="H22" s="101">
         <v>1269</v>
       </c>
-      <c r="I22" s="152">
+      <c r="I22" s="117">
         <v>850000</v>
       </c>
-      <c r="J22" s="129">
+      <c r="J22" s="97">
         <v>0</v>
       </c>
-      <c r="K22" s="126">
+      <c r="K22" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="121" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="60">
         <v>3</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="49">
         <v>4</v>
       </c>
       <c r="E23" s="2">
@@ -4327,65 +4278,65 @@
       <c r="G23" s="6">
         <v>322</v>
       </c>
-      <c r="H23" s="133">
+      <c r="H23" s="101">
         <v>1270</v>
       </c>
-      <c r="I23" s="152">
+      <c r="I23" s="117">
         <v>1100000</v>
       </c>
-      <c r="J23" s="129">
+      <c r="J23" s="97">
         <v>0</v>
       </c>
-      <c r="K23" s="126">
+      <c r="K23" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="118"/>
-      <c r="B24" s="123" t="s">
+      <c r="A24" s="87"/>
+      <c r="B24" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="90">
+      <c r="C24" s="62">
         <v>3</v>
       </c>
-      <c r="D24" s="79">
-        <v>4</v>
-      </c>
-      <c r="E24" s="66">
-        <v>4</v>
-      </c>
-      <c r="F24" s="66">
+      <c r="D24" s="51">
+        <v>4</v>
+      </c>
+      <c r="E24" s="43">
+        <v>4</v>
+      </c>
+      <c r="F24" s="43">
         <v>7</v>
       </c>
-      <c r="G24" s="74">
+      <c r="G24" s="46">
         <v>405</v>
       </c>
-      <c r="H24" s="134">
+      <c r="H24" s="102">
         <v>1271</v>
       </c>
-      <c r="I24" s="153">
+      <c r="I24" s="118">
         <v>1120000</v>
       </c>
-      <c r="J24" s="130">
+      <c r="J24" s="98">
         <v>0</v>
       </c>
-      <c r="K24" s="131">
+      <c r="K24" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="163" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="53">
         <v>2</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="54">
         <v>4</v>
       </c>
       <c r="E25" s="8">
@@ -4394,32 +4345,32 @@
       <c r="F25" s="8">
         <v>7</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="53">
         <v>333</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="59">
         <v>1272</v>
       </c>
-      <c r="I25" s="154">
+      <c r="I25" s="119">
         <v>32000</v>
       </c>
-      <c r="J25" s="128">
+      <c r="J25" s="96">
         <v>0</v>
       </c>
-      <c r="K25" s="155">
+      <c r="K25" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="57" t="s">
+      <c r="A26" s="164"/>
+      <c r="B26" s="40" t="s">
         <v>208</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="49">
         <v>4</v>
       </c>
       <c r="E26" s="2">
@@ -4431,29 +4382,29 @@
       <c r="G26" s="6">
         <v>334</v>
       </c>
-      <c r="H26" s="88">
+      <c r="H26" s="60">
         <v>1273</v>
       </c>
-      <c r="I26" s="152">
+      <c r="I26" s="117">
         <v>36000</v>
       </c>
-      <c r="J26" s="129">
+      <c r="J26" s="97">
         <v>0</v>
       </c>
-      <c r="K26" s="126">
+      <c r="K26" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="164"/>
+      <c r="B27" s="40" t="s">
         <v>210</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="49">
         <v>4</v>
       </c>
       <c r="E27" s="2">
@@ -4465,29 +4416,29 @@
       <c r="G27" s="6">
         <v>336</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H27" s="60">
         <v>1274</v>
       </c>
-      <c r="I27" s="152">
+      <c r="I27" s="117">
         <v>42000</v>
       </c>
-      <c r="J27" s="129">
+      <c r="J27" s="97">
         <v>0</v>
       </c>
-      <c r="K27" s="126">
+      <c r="K27" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="57" t="s">
+      <c r="A28" s="164"/>
+      <c r="B28" s="40" t="s">
         <v>211</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
       </c>
-      <c r="D28" s="77">
+      <c r="D28" s="49">
         <v>4</v>
       </c>
       <c r="E28" s="2">
@@ -4499,29 +4450,29 @@
       <c r="G28" s="6">
         <v>335</v>
       </c>
-      <c r="H28" s="88">
+      <c r="H28" s="60">
         <v>1275</v>
       </c>
-      <c r="I28" s="152">
+      <c r="I28" s="117">
         <v>31000</v>
       </c>
-      <c r="J28" s="129">
+      <c r="J28" s="97">
         <v>0</v>
       </c>
-      <c r="K28" s="126">
+      <c r="K28" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="164"/>
+      <c r="B29" s="40" t="s">
         <v>183</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="49">
         <v>4</v>
       </c>
       <c r="E29" s="2">
@@ -4533,29 +4484,29 @@
       <c r="G29" s="6">
         <v>339</v>
       </c>
-      <c r="H29" s="88">
+      <c r="H29" s="60">
         <v>1276</v>
       </c>
-      <c r="I29" s="152">
+      <c r="I29" s="117">
         <v>27000</v>
       </c>
-      <c r="J29" s="129">
+      <c r="J29" s="97">
         <v>0</v>
       </c>
-      <c r="K29" s="126">
+      <c r="K29" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="57" t="s">
+      <c r="A30" s="164"/>
+      <c r="B30" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="49">
         <v>4</v>
       </c>
       <c r="E30" s="2">
@@ -4567,81 +4518,81 @@
       <c r="G30" s="6">
         <v>10</v>
       </c>
-      <c r="H30" s="88">
+      <c r="H30" s="60">
         <v>1277</v>
       </c>
-      <c r="I30" s="152">
+      <c r="I30" s="117">
         <v>34000</v>
       </c>
-      <c r="J30" s="129">
+      <c r="J30" s="97">
         <v>0</v>
       </c>
-      <c r="K30" s="126">
+      <c r="K30" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="164"/>
+      <c r="B31" s="40" t="s">
         <v>185</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
       </c>
-      <c r="D31" s="160"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="88">
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="60">
         <v>1278</v>
       </c>
-      <c r="I31" s="152">
+      <c r="I31" s="117">
         <v>33000</v>
       </c>
-      <c r="J31" s="129">
+      <c r="J31" s="97">
         <v>0</v>
       </c>
-      <c r="K31" s="126">
+      <c r="K31" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="57" t="s">
+      <c r="A32" s="164"/>
+      <c r="B32" s="40" t="s">
         <v>186</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
       </c>
-      <c r="D32" s="160"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="88">
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="60">
         <v>1279</v>
       </c>
-      <c r="I32" s="152">
+      <c r="I32" s="117">
         <v>38000</v>
       </c>
-      <c r="J32" s="129">
+      <c r="J32" s="97">
         <v>0</v>
       </c>
-      <c r="K32" s="126">
+      <c r="K32" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="164"/>
+      <c r="B33" s="40" t="s">
         <v>187</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="49">
         <v>4</v>
       </c>
       <c r="E33" s="2">
@@ -4653,55 +4604,55 @@
       <c r="G33" s="6">
         <v>338</v>
       </c>
-      <c r="H33" s="88">
+      <c r="H33" s="60">
         <v>1280</v>
       </c>
-      <c r="I33" s="152">
+      <c r="I33" s="117">
         <v>22000</v>
       </c>
-      <c r="J33" s="129">
+      <c r="J33" s="97">
         <v>0</v>
       </c>
-      <c r="K33" s="126">
+      <c r="K33" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="57" t="s">
+      <c r="A34" s="164"/>
+      <c r="B34" s="40" t="s">
         <v>188</v>
       </c>
       <c r="C34" s="6">
         <v>2</v>
       </c>
-      <c r="D34" s="160"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="88">
+      <c r="D34" s="125"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="60">
         <v>1281</v>
       </c>
-      <c r="I34" s="152">
+      <c r="I34" s="117">
         <v>32100</v>
       </c>
-      <c r="J34" s="129">
+      <c r="J34" s="97">
         <v>0</v>
       </c>
-      <c r="K34" s="126">
+      <c r="K34" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="57" t="s">
+      <c r="A35" s="164"/>
+      <c r="B35" s="40" t="s">
         <v>189</v>
       </c>
       <c r="C35" s="6">
         <v>2</v>
       </c>
-      <c r="D35" s="77">
+      <c r="D35" s="49">
         <v>4</v>
       </c>
       <c r="E35" s="2">
@@ -4713,29 +4664,29 @@
       <c r="G35" s="6">
         <v>18</v>
       </c>
-      <c r="H35" s="88">
+      <c r="H35" s="60">
         <v>1282</v>
       </c>
-      <c r="I35" s="152">
+      <c r="I35" s="117">
         <v>115000</v>
       </c>
-      <c r="J35" s="129">
+      <c r="J35" s="97">
         <v>0</v>
       </c>
-      <c r="K35" s="126">
+      <c r="K35" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="57" t="s">
+      <c r="A36" s="164"/>
+      <c r="B36" s="40" t="s">
         <v>190</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
       </c>
-      <c r="D36" s="77">
+      <c r="D36" s="49">
         <v>4</v>
       </c>
       <c r="E36" s="2">
@@ -4747,29 +4698,29 @@
       <c r="G36" s="6">
         <v>14</v>
       </c>
-      <c r="H36" s="88">
+      <c r="H36" s="60">
         <v>1283</v>
       </c>
-      <c r="I36" s="152">
+      <c r="I36" s="117">
         <v>125000</v>
       </c>
-      <c r="J36" s="129">
+      <c r="J36" s="97">
         <v>0</v>
       </c>
-      <c r="K36" s="126">
+      <c r="K36" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="57" t="s">
+      <c r="A37" s="164"/>
+      <c r="B37" s="40" t="s">
         <v>191</v>
       </c>
       <c r="C37" s="6">
         <v>2</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="49">
         <v>4</v>
       </c>
       <c r="E37" s="2">
@@ -4781,29 +4732,29 @@
       <c r="G37" s="6">
         <v>16</v>
       </c>
-      <c r="H37" s="88">
+      <c r="H37" s="60">
         <v>1284</v>
       </c>
-      <c r="I37" s="152">
+      <c r="I37" s="117">
         <v>130000</v>
       </c>
-      <c r="J37" s="129">
+      <c r="J37" s="97">
         <v>0</v>
       </c>
-      <c r="K37" s="126">
+      <c r="K37" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="57" t="s">
+      <c r="A38" s="164"/>
+      <c r="B38" s="40" t="s">
         <v>192</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
       </c>
-      <c r="D38" s="77">
+      <c r="D38" s="49">
         <v>4</v>
       </c>
       <c r="E38" s="2">
@@ -4815,29 +4766,29 @@
       <c r="G38" s="6">
         <v>13</v>
       </c>
-      <c r="H38" s="88">
+      <c r="H38" s="60">
         <v>1285</v>
       </c>
-      <c r="I38" s="152">
+      <c r="I38" s="117">
         <v>110000</v>
       </c>
-      <c r="J38" s="129">
+      <c r="J38" s="97">
         <v>0</v>
       </c>
-      <c r="K38" s="126">
+      <c r="K38" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="57" t="s">
+      <c r="A39" s="164"/>
+      <c r="B39" s="40" t="s">
         <v>193</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
       </c>
-      <c r="D39" s="77">
+      <c r="D39" s="49">
         <v>4</v>
       </c>
       <c r="E39" s="2">
@@ -4849,161 +4800,161 @@
       <c r="G39" s="6">
         <v>15</v>
       </c>
-      <c r="H39" s="88">
+      <c r="H39" s="60">
         <v>1286</v>
       </c>
-      <c r="I39" s="152">
+      <c r="I39" s="117">
         <v>98000</v>
       </c>
-      <c r="J39" s="129">
+      <c r="J39" s="97">
         <v>0</v>
       </c>
-      <c r="K39" s="126">
+      <c r="K39" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="71"/>
-      <c r="B40" s="72" t="s">
+      <c r="A40" s="165"/>
+      <c r="B40" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="46">
         <v>3</v>
       </c>
-      <c r="D40" s="79">
-        <v>4</v>
-      </c>
-      <c r="E40" s="66">
-        <v>4</v>
-      </c>
-      <c r="F40" s="66">
+      <c r="D40" s="51">
+        <v>4</v>
+      </c>
+      <c r="E40" s="43">
+        <v>4</v>
+      </c>
+      <c r="F40" s="43">
         <v>7</v>
       </c>
-      <c r="G40" s="74">
+      <c r="G40" s="46">
         <v>19</v>
       </c>
-      <c r="H40" s="90">
+      <c r="H40" s="62">
         <v>1287</v>
       </c>
-      <c r="I40" s="153">
+      <c r="I40" s="118">
         <v>150000</v>
       </c>
-      <c r="J40" s="130">
+      <c r="J40" s="98">
         <v>0</v>
       </c>
-      <c r="K40" s="131">
+      <c r="K40" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="138">
+      <c r="C41" s="105">
         <v>2</v>
       </c>
-      <c r="D41" s="75">
-        <v>4</v>
-      </c>
-      <c r="E41" s="63">
-        <v>4</v>
-      </c>
-      <c r="F41" s="63">
+      <c r="D41" s="47">
+        <v>4</v>
+      </c>
+      <c r="E41" s="42">
+        <v>4</v>
+      </c>
+      <c r="F41" s="42">
         <v>7</v>
       </c>
-      <c r="G41" s="73">
+      <c r="G41" s="45">
         <v>306</v>
       </c>
-      <c r="H41" s="87">
+      <c r="H41" s="59">
         <v>1288</v>
       </c>
-      <c r="I41" s="156">
+      <c r="I41" s="121">
         <v>85000</v>
       </c>
-      <c r="J41" s="128">
+      <c r="J41" s="96">
         <v>0</v>
       </c>
-      <c r="K41" s="125">
+      <c r="K41" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="144" t="s">
+      <c r="A42" s="167"/>
+      <c r="B42" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="140">
+      <c r="C42" s="107">
         <v>3</v>
       </c>
-      <c r="D42" s="79">
-        <v>4</v>
-      </c>
-      <c r="E42" s="66">
-        <v>4</v>
-      </c>
-      <c r="F42" s="66">
+      <c r="D42" s="51">
+        <v>4</v>
+      </c>
+      <c r="E42" s="43">
+        <v>4</v>
+      </c>
+      <c r="F42" s="43">
         <v>7</v>
       </c>
-      <c r="G42" s="74">
+      <c r="G42" s="46">
         <v>307</v>
       </c>
-      <c r="H42" s="90">
+      <c r="H42" s="62">
         <v>1289</v>
       </c>
-      <c r="I42" s="157">
+      <c r="I42" s="122">
         <v>450000</v>
       </c>
-      <c r="J42" s="130">
+      <c r="J42" s="98">
         <v>0</v>
       </c>
-      <c r="K42" s="131">
+      <c r="K42" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="168" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="141" t="s">
+      <c r="B43" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="138">
+      <c r="C43" s="105">
         <v>2</v>
       </c>
-      <c r="D43" s="163"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="95">
+      <c r="D43" s="128"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="66">
         <v>1290</v>
       </c>
-      <c r="I43" s="156">
+      <c r="I43" s="121">
         <v>75000</v>
       </c>
-      <c r="J43" s="128">
+      <c r="J43" s="96">
         <v>0</v>
       </c>
-      <c r="K43" s="125">
+      <c r="K43" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="142" t="s">
+      <c r="A44" s="169"/>
+      <c r="B44" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="139">
+      <c r="C44" s="106">
         <v>2</v>
       </c>
-      <c r="D44" s="77">
+      <c r="D44" s="49">
         <v>4</v>
       </c>
       <c r="E44" s="2">
@@ -5015,29 +4966,29 @@
       <c r="G44" s="6">
         <v>2</v>
       </c>
-      <c r="H44" s="88">
+      <c r="H44" s="60">
         <v>1291</v>
       </c>
-      <c r="I44" s="158">
+      <c r="I44" s="123">
         <v>80000</v>
       </c>
-      <c r="J44" s="129">
+      <c r="J44" s="97">
         <v>0</v>
       </c>
-      <c r="K44" s="126">
+      <c r="K44" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="142" t="s">
+      <c r="A45" s="169"/>
+      <c r="B45" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="139">
+      <c r="C45" s="106">
         <v>1</v>
       </c>
-      <c r="D45" s="77">
+      <c r="D45" s="49">
         <v>4</v>
       </c>
       <c r="E45" s="2">
@@ -5049,29 +5000,29 @@
       <c r="G45" s="6">
         <v>368</v>
       </c>
-      <c r="H45" s="88">
+      <c r="H45" s="60">
         <v>1292</v>
       </c>
-      <c r="I45" s="158">
+      <c r="I45" s="123">
         <v>260000</v>
       </c>
-      <c r="J45" s="129">
+      <c r="J45" s="97">
         <v>0</v>
       </c>
-      <c r="K45" s="126">
+      <c r="K45" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="142" t="s">
+      <c r="A46" s="169"/>
+      <c r="B46" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="139">
+      <c r="C46" s="106">
         <v>2</v>
       </c>
-      <c r="D46" s="77">
+      <c r="D46" s="49">
         <v>4</v>
       </c>
       <c r="E46" s="2">
@@ -5083,29 +5034,29 @@
       <c r="G46" s="6">
         <v>403</v>
       </c>
-      <c r="H46" s="88">
+      <c r="H46" s="60">
         <v>1293</v>
       </c>
-      <c r="I46" s="158">
+      <c r="I46" s="123">
         <v>56000</v>
       </c>
-      <c r="J46" s="129">
+      <c r="J46" s="97">
         <v>0</v>
       </c>
-      <c r="K46" s="126">
+      <c r="K46" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="142" t="s">
+      <c r="A47" s="169"/>
+      <c r="B47" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="139">
+      <c r="C47" s="106">
         <v>2</v>
       </c>
-      <c r="D47" s="77">
+      <c r="D47" s="49">
         <v>4</v>
       </c>
       <c r="E47" s="2">
@@ -5117,29 +5068,29 @@
       <c r="G47" s="6">
         <v>1</v>
       </c>
-      <c r="H47" s="88">
+      <c r="H47" s="60">
         <v>1294</v>
       </c>
-      <c r="I47" s="158">
+      <c r="I47" s="123">
         <v>76000</v>
       </c>
-      <c r="J47" s="129">
+      <c r="J47" s="97">
         <v>0</v>
       </c>
-      <c r="K47" s="126">
+      <c r="K47" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="142" t="s">
+      <c r="A48" s="169"/>
+      <c r="B48" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="139">
+      <c r="C48" s="106">
         <v>1</v>
       </c>
-      <c r="D48" s="77">
+      <c r="D48" s="49">
         <v>4</v>
       </c>
       <c r="E48" s="2">
@@ -5151,29 +5102,29 @@
       <c r="G48" s="6">
         <v>395</v>
       </c>
-      <c r="H48" s="88">
+      <c r="H48" s="60">
         <v>1295</v>
       </c>
-      <c r="I48" s="158">
+      <c r="I48" s="123">
         <v>120000</v>
       </c>
-      <c r="J48" s="129">
+      <c r="J48" s="97">
         <v>0</v>
       </c>
-      <c r="K48" s="126">
+      <c r="K48" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="142" t="s">
+      <c r="A49" s="169"/>
+      <c r="B49" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="139">
+      <c r="C49" s="106">
         <v>2</v>
       </c>
-      <c r="D49" s="77">
+      <c r="D49" s="49">
         <v>4</v>
       </c>
       <c r="E49" s="2">
@@ -5185,99 +5136,99 @@
       <c r="G49" s="6">
         <v>396</v>
       </c>
-      <c r="H49" s="88">
+      <c r="H49" s="60">
         <v>1296</v>
       </c>
-      <c r="I49" s="158">
+      <c r="I49" s="123">
         <v>110000</v>
       </c>
-      <c r="J49" s="129">
+      <c r="J49" s="97">
         <v>0</v>
       </c>
-      <c r="K49" s="126">
+      <c r="K49" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="65"/>
-      <c r="B50" s="150" t="s">
+      <c r="A50" s="170"/>
+      <c r="B50" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="145">
+      <c r="C50" s="112">
         <v>1</v>
       </c>
-      <c r="D50" s="86">
-        <v>4</v>
-      </c>
-      <c r="E50" s="58">
-        <v>4</v>
-      </c>
-      <c r="F50" s="58">
+      <c r="D50" s="58">
+        <v>4</v>
+      </c>
+      <c r="E50" s="41">
+        <v>4</v>
+      </c>
+      <c r="F50" s="41">
         <v>7</v>
       </c>
-      <c r="G50" s="85">
+      <c r="G50" s="57">
         <v>409</v>
       </c>
-      <c r="H50" s="89">
+      <c r="H50" s="61">
         <v>1297</v>
       </c>
-      <c r="I50" s="159">
+      <c r="I50" s="124">
         <v>114000</v>
       </c>
-      <c r="J50" s="130">
+      <c r="J50" s="98">
         <v>0</v>
       </c>
-      <c r="K50" s="127">
+      <c r="K50" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="146" t="s">
+      <c r="A51" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="B51" s="191" t="s">
+      <c r="B51" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="148">
+      <c r="C51" s="113">
         <v>2</v>
       </c>
-      <c r="D51" s="75">
-        <v>4</v>
-      </c>
-      <c r="E51" s="63">
-        <v>4</v>
-      </c>
-      <c r="F51" s="63">
+      <c r="D51" s="47">
+        <v>4</v>
+      </c>
+      <c r="E51" s="42">
+        <v>4</v>
+      </c>
+      <c r="F51" s="42">
         <v>34</v>
       </c>
-      <c r="G51" s="76">
+      <c r="G51" s="48">
         <v>91</v>
       </c>
-      <c r="H51" s="132">
+      <c r="H51" s="100">
         <v>1298</v>
       </c>
-      <c r="I51" s="151">
+      <c r="I51" s="116">
         <v>55000</v>
       </c>
-      <c r="J51" s="128">
+      <c r="J51" s="96">
         <v>0</v>
       </c>
-      <c r="K51" s="125">
+      <c r="K51" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="147"/>
-      <c r="B52" s="166" t="s">
+      <c r="A52" s="152"/>
+      <c r="B52" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="C52" s="124">
+      <c r="C52" s="92">
         <v>2</v>
       </c>
-      <c r="D52" s="77">
+      <c r="D52" s="49">
         <v>4</v>
       </c>
       <c r="E52" s="2">
@@ -5286,2329 +5237,71 @@
       <c r="F52" s="2">
         <v>7</v>
       </c>
-      <c r="G52" s="78">
+      <c r="G52" s="50">
         <v>449</v>
       </c>
-      <c r="H52" s="133">
+      <c r="H52" s="101">
         <v>1299</v>
       </c>
-      <c r="I52" s="152">
+      <c r="I52" s="117">
         <v>75000</v>
       </c>
-      <c r="J52" s="129">
+      <c r="J52" s="97">
         <v>0</v>
       </c>
-      <c r="K52" s="126">
+      <c r="K52" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="147"/>
-      <c r="B53" s="167" t="s">
+      <c r="A53" s="152"/>
+      <c r="B53" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="149">
+      <c r="C53" s="114">
         <v>2</v>
       </c>
-      <c r="D53" s="79">
-        <v>4</v>
-      </c>
-      <c r="E53" s="66">
-        <v>4</v>
-      </c>
-      <c r="F53" s="66">
+      <c r="D53" s="51">
+        <v>4</v>
+      </c>
+      <c r="E53" s="43">
+        <v>4</v>
+      </c>
+      <c r="F53" s="43">
         <v>34</v>
       </c>
-      <c r="G53" s="80">
+      <c r="G53" s="52">
         <v>291</v>
       </c>
-      <c r="H53" s="134">
+      <c r="H53" s="102">
         <v>1300</v>
       </c>
-      <c r="I53" s="153">
+      <c r="I53" s="118">
         <v>65000</v>
       </c>
-      <c r="J53" s="130">
+      <c r="J53" s="98">
         <v>0</v>
       </c>
-      <c r="K53" s="131">
+      <c r="K53" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="59"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="169" t="s">
+      <c r="I54" s="153" t="s">
         <v>162</v>
       </c>
-      <c r="J54" s="168"/>
-      <c r="K54" s="172">
+      <c r="J54" s="154"/>
+      <c r="K54" s="157">
         <f>SUM(K2:K53)</f>
         <v>900000</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="171"/>
-      <c r="K55" s="173"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="59"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="97"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="59"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="97"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="59"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="97"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="59"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="97"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="59"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="97"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="97"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="59"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="97"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="59"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="97"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="97"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="59"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="97"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="97"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="59"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="97"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="97"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="59"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="97"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="59"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="97"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="59"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="97"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="97"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="59"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="97"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="97"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="59"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="97"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="97"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="59"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="97"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="97"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="59"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="97"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="97"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="59"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="97"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="97"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="59"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="97"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="59"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="97"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="59"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="97"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="59"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="97"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="59"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="97"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="59"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="97"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="59"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="97"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="97"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="59"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="97"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="59"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="97"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="97"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="59"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="97"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="97"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="59"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="97"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="97"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="59"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="97"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="97"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="59"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="97"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="97"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="59"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="97"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="97"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="59"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="97"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="97"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="59"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="97"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="97"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="97"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="97"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="59"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="97"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="97"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="59"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="97"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="97"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="59"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="97"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="97"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="59"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="97"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="97"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="59"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="97"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="97"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="59"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="97"/>
-      <c r="J96" s="61"/>
-      <c r="K96" s="97"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="59"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="60"/>
-      <c r="H97" s="60"/>
-      <c r="I97" s="97"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="97"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="59"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="97"/>
-      <c r="J98" s="61"/>
-      <c r="K98" s="97"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="59"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="60"/>
-      <c r="H99" s="60"/>
-      <c r="I99" s="97"/>
-      <c r="J99" s="61"/>
-      <c r="K99" s="97"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="59"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="97"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="97"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="59"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="97"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="97"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="59"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="97"/>
-      <c r="J102" s="61"/>
-      <c r="K102" s="97"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="59"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="60"/>
-      <c r="I103" s="97"/>
-      <c r="J103" s="61"/>
-      <c r="K103" s="97"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="59"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="97"/>
-      <c r="J104" s="61"/>
-      <c r="K104" s="97"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="59"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="97"/>
-      <c r="J105" s="61"/>
-      <c r="K105" s="97"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="59"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="60"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="97"/>
-      <c r="J106" s="61"/>
-      <c r="K106" s="97"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="59"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="60"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="60"/>
-      <c r="I107" s="97"/>
-      <c r="J107" s="61"/>
-      <c r="K107" s="97"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="59"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="97"/>
-      <c r="J108" s="61"/>
-      <c r="K108" s="97"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="59"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="60"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="60"/>
-      <c r="I109" s="97"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="97"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="59"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="60"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="97"/>
-      <c r="J110" s="61"/>
-      <c r="K110" s="97"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="59"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="60"/>
-      <c r="G111" s="60"/>
-      <c r="H111" s="60"/>
-      <c r="I111" s="97"/>
-      <c r="J111" s="61"/>
-      <c r="K111" s="97"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="59"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="97"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="97"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="59"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="60"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="97"/>
-      <c r="J113" s="61"/>
-      <c r="K113" s="97"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="59"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="97"/>
-      <c r="J114" s="61"/>
-      <c r="K114" s="97"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="59"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="60"/>
-      <c r="G115" s="60"/>
-      <c r="H115" s="60"/>
-      <c r="I115" s="97"/>
-      <c r="J115" s="61"/>
-      <c r="K115" s="97"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="59"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="60"/>
-      <c r="F116" s="60"/>
-      <c r="G116" s="60"/>
-      <c r="H116" s="60"/>
-      <c r="I116" s="97"/>
-      <c r="J116" s="61"/>
-      <c r="K116" s="97"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="59"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="60"/>
-      <c r="G117" s="60"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="97"/>
-      <c r="J117" s="61"/>
-      <c r="K117" s="97"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="59"/>
-      <c r="C118" s="60"/>
-      <c r="D118" s="60"/>
-      <c r="E118" s="60"/>
-      <c r="F118" s="60"/>
-      <c r="G118" s="60"/>
-      <c r="H118" s="60"/>
-      <c r="I118" s="97"/>
-      <c r="J118" s="61"/>
-      <c r="K118" s="97"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="59"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="60"/>
-      <c r="E119" s="60"/>
-      <c r="F119" s="60"/>
-      <c r="G119" s="60"/>
-      <c r="H119" s="60"/>
-      <c r="I119" s="97"/>
-      <c r="J119" s="61"/>
-      <c r="K119" s="97"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="59"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="60"/>
-      <c r="E120" s="60"/>
-      <c r="F120" s="60"/>
-      <c r="G120" s="60"/>
-      <c r="H120" s="60"/>
-      <c r="I120" s="97"/>
-      <c r="J120" s="61"/>
-      <c r="K120" s="97"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="59"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="97"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="97"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="59"/>
-      <c r="C122" s="60"/>
-      <c r="D122" s="60"/>
-      <c r="E122" s="60"/>
-      <c r="F122" s="60"/>
-      <c r="G122" s="60"/>
-      <c r="H122" s="60"/>
-      <c r="I122" s="97"/>
-      <c r="J122" s="61"/>
-      <c r="K122" s="97"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="59"/>
-      <c r="C123" s="60"/>
-      <c r="D123" s="60"/>
-      <c r="E123" s="60"/>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="97"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="97"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="59"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="60"/>
-      <c r="I124" s="97"/>
-      <c r="J124" s="61"/>
-      <c r="K124" s="97"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="59"/>
-      <c r="C125" s="60"/>
-      <c r="D125" s="60"/>
-      <c r="E125" s="60"/>
-      <c r="F125" s="60"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="97"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="97"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="59"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="60"/>
-      <c r="G126" s="60"/>
-      <c r="H126" s="60"/>
-      <c r="I126" s="97"/>
-      <c r="J126" s="61"/>
-      <c r="K126" s="97"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B127" s="59"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="60"/>
-      <c r="H127" s="60"/>
-      <c r="I127" s="97"/>
-      <c r="J127" s="61"/>
-      <c r="K127" s="97"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="59"/>
-      <c r="C128" s="60"/>
-      <c r="D128" s="60"/>
-      <c r="E128" s="60"/>
-      <c r="F128" s="60"/>
-      <c r="G128" s="60"/>
-      <c r="H128" s="60"/>
-      <c r="I128" s="97"/>
-      <c r="J128" s="61"/>
-      <c r="K128" s="97"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="59"/>
-      <c r="C129" s="60"/>
-      <c r="D129" s="60"/>
-      <c r="E129" s="60"/>
-      <c r="F129" s="60"/>
-      <c r="G129" s="60"/>
-      <c r="H129" s="60"/>
-      <c r="I129" s="97"/>
-      <c r="J129" s="61"/>
-      <c r="K129" s="97"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B130" s="59"/>
-      <c r="C130" s="60"/>
-      <c r="D130" s="60"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="60"/>
-      <c r="G130" s="60"/>
-      <c r="H130" s="60"/>
-      <c r="I130" s="97"/>
-      <c r="J130" s="61"/>
-      <c r="K130" s="97"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B131" s="59"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="60"/>
-      <c r="I131" s="97"/>
-      <c r="J131" s="61"/>
-      <c r="K131" s="97"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B132" s="59"/>
-      <c r="C132" s="60"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="60"/>
-      <c r="F132" s="60"/>
-      <c r="G132" s="60"/>
-      <c r="H132" s="60"/>
-      <c r="I132" s="97"/>
-      <c r="J132" s="61"/>
-      <c r="K132" s="97"/>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B133" s="59"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
-      <c r="E133" s="60"/>
-      <c r="F133" s="60"/>
-      <c r="G133" s="60"/>
-      <c r="H133" s="60"/>
-      <c r="I133" s="97"/>
-      <c r="J133" s="61"/>
-      <c r="K133" s="97"/>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B134" s="59"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="60"/>
-      <c r="E134" s="60"/>
-      <c r="F134" s="60"/>
-      <c r="G134" s="60"/>
-      <c r="H134" s="60"/>
-      <c r="I134" s="97"/>
-      <c r="J134" s="61"/>
-      <c r="K134" s="97"/>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="59"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="60"/>
-      <c r="E135" s="60"/>
-      <c r="F135" s="60"/>
-      <c r="G135" s="60"/>
-      <c r="H135" s="60"/>
-      <c r="I135" s="97"/>
-      <c r="J135" s="61"/>
-      <c r="K135" s="97"/>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B136" s="59"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="60"/>
-      <c r="F136" s="60"/>
-      <c r="G136" s="60"/>
-      <c r="H136" s="60"/>
-      <c r="I136" s="97"/>
-      <c r="J136" s="61"/>
-      <c r="K136" s="97"/>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B137" s="59"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="60"/>
-      <c r="E137" s="60"/>
-      <c r="F137" s="60"/>
-      <c r="G137" s="60"/>
-      <c r="H137" s="60"/>
-      <c r="I137" s="97"/>
-      <c r="J137" s="61"/>
-      <c r="K137" s="97"/>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B138" s="59"/>
-      <c r="C138" s="60"/>
-      <c r="D138" s="60"/>
-      <c r="E138" s="60"/>
-      <c r="F138" s="60"/>
-      <c r="G138" s="60"/>
-      <c r="H138" s="60"/>
-      <c r="I138" s="97"/>
-      <c r="J138" s="61"/>
-      <c r="K138" s="97"/>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B139" s="59"/>
-      <c r="C139" s="60"/>
-      <c r="D139" s="60"/>
-      <c r="E139" s="60"/>
-      <c r="F139" s="60"/>
-      <c r="G139" s="60"/>
-      <c r="H139" s="60"/>
-      <c r="I139" s="97"/>
-      <c r="J139" s="61"/>
-      <c r="K139" s="97"/>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B140" s="59"/>
-      <c r="C140" s="60"/>
-      <c r="D140" s="60"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="60"/>
-      <c r="G140" s="60"/>
-      <c r="H140" s="60"/>
-      <c r="I140" s="97"/>
-      <c r="J140" s="61"/>
-      <c r="K140" s="97"/>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B141" s="59"/>
-      <c r="C141" s="60"/>
-      <c r="D141" s="60"/>
-      <c r="E141" s="60"/>
-      <c r="F141" s="60"/>
-      <c r="G141" s="60"/>
-      <c r="H141" s="60"/>
-      <c r="I141" s="97"/>
-      <c r="J141" s="61"/>
-      <c r="K141" s="97"/>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="59"/>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
-      <c r="H142" s="60"/>
-      <c r="I142" s="97"/>
-      <c r="J142" s="61"/>
-      <c r="K142" s="97"/>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B143" s="59"/>
-      <c r="C143" s="60"/>
-      <c r="D143" s="60"/>
-      <c r="E143" s="60"/>
-      <c r="F143" s="60"/>
-      <c r="G143" s="60"/>
-      <c r="H143" s="60"/>
-      <c r="I143" s="97"/>
-      <c r="J143" s="61"/>
-      <c r="K143" s="97"/>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B144" s="59"/>
-      <c r="C144" s="60"/>
-      <c r="D144" s="60"/>
-      <c r="E144" s="60"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="60"/>
-      <c r="I144" s="97"/>
-      <c r="J144" s="61"/>
-      <c r="K144" s="97"/>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="59"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="60"/>
-      <c r="E145" s="60"/>
-      <c r="F145" s="60"/>
-      <c r="G145" s="60"/>
-      <c r="H145" s="60"/>
-      <c r="I145" s="97"/>
-      <c r="J145" s="61"/>
-      <c r="K145" s="97"/>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B146" s="59"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="60"/>
-      <c r="F146" s="60"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="60"/>
-      <c r="I146" s="97"/>
-      <c r="J146" s="61"/>
-      <c r="K146" s="97"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B147" s="59"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="60"/>
-      <c r="E147" s="60"/>
-      <c r="F147" s="60"/>
-      <c r="G147" s="60"/>
-      <c r="H147" s="60"/>
-      <c r="I147" s="97"/>
-      <c r="J147" s="61"/>
-      <c r="K147" s="97"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="59"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="60"/>
-      <c r="E148" s="60"/>
-      <c r="F148" s="60"/>
-      <c r="G148" s="60"/>
-      <c r="H148" s="60"/>
-      <c r="I148" s="97"/>
-      <c r="J148" s="61"/>
-      <c r="K148" s="97"/>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="59"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="60"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="60"/>
-      <c r="H149" s="60"/>
-      <c r="I149" s="97"/>
-      <c r="J149" s="61"/>
-      <c r="K149" s="97"/>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="59"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="60"/>
-      <c r="E150" s="60"/>
-      <c r="F150" s="60"/>
-      <c r="G150" s="60"/>
-      <c r="H150" s="60"/>
-      <c r="I150" s="97"/>
-      <c r="J150" s="61"/>
-      <c r="K150" s="97"/>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B151" s="59"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="60"/>
-      <c r="E151" s="60"/>
-      <c r="F151" s="60"/>
-      <c r="G151" s="60"/>
-      <c r="H151" s="60"/>
-      <c r="I151" s="97"/>
-      <c r="J151" s="61"/>
-      <c r="K151" s="97"/>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="59"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="60"/>
-      <c r="E152" s="60"/>
-      <c r="F152" s="60"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="60"/>
-      <c r="I152" s="97"/>
-      <c r="J152" s="61"/>
-      <c r="K152" s="97"/>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="59"/>
-      <c r="C153" s="60"/>
-      <c r="D153" s="60"/>
-      <c r="E153" s="60"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="60"/>
-      <c r="I153" s="97"/>
-      <c r="J153" s="61"/>
-      <c r="K153" s="97"/>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="59"/>
-      <c r="C154" s="60"/>
-      <c r="D154" s="60"/>
-      <c r="E154" s="60"/>
-      <c r="F154" s="60"/>
-      <c r="G154" s="60"/>
-      <c r="H154" s="60"/>
-      <c r="I154" s="97"/>
-      <c r="J154" s="61"/>
-      <c r="K154" s="97"/>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="59"/>
-      <c r="C155" s="60"/>
-      <c r="D155" s="60"/>
-      <c r="E155" s="60"/>
-      <c r="F155" s="60"/>
-      <c r="G155" s="60"/>
-      <c r="H155" s="60"/>
-      <c r="I155" s="97"/>
-      <c r="J155" s="61"/>
-      <c r="K155" s="97"/>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="59"/>
-      <c r="C156" s="60"/>
-      <c r="D156" s="60"/>
-      <c r="E156" s="60"/>
-      <c r="F156" s="60"/>
-      <c r="G156" s="60"/>
-      <c r="H156" s="60"/>
-      <c r="I156" s="97"/>
-      <c r="J156" s="61"/>
-      <c r="K156" s="97"/>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="59"/>
-      <c r="C157" s="60"/>
-      <c r="D157" s="60"/>
-      <c r="E157" s="60"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="60"/>
-      <c r="H157" s="60"/>
-      <c r="I157" s="97"/>
-      <c r="J157" s="61"/>
-      <c r="K157" s="97"/>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="59"/>
-      <c r="C158" s="60"/>
-      <c r="D158" s="60"/>
-      <c r="E158" s="60"/>
-      <c r="F158" s="60"/>
-      <c r="G158" s="60"/>
-      <c r="H158" s="60"/>
-      <c r="I158" s="97"/>
-      <c r="J158" s="61"/>
-      <c r="K158" s="97"/>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B159" s="59"/>
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="60"/>
-      <c r="H159" s="60"/>
-      <c r="I159" s="97"/>
-      <c r="J159" s="61"/>
-      <c r="K159" s="97"/>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="59"/>
-      <c r="C160" s="60"/>
-      <c r="D160" s="60"/>
-      <c r="E160" s="60"/>
-      <c r="F160" s="60"/>
-      <c r="G160" s="60"/>
-      <c r="H160" s="60"/>
-      <c r="I160" s="97"/>
-      <c r="J160" s="61"/>
-      <c r="K160" s="97"/>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B161" s="59"/>
-      <c r="C161" s="60"/>
-      <c r="D161" s="60"/>
-      <c r="E161" s="60"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="60"/>
-      <c r="I161" s="97"/>
-      <c r="J161" s="61"/>
-      <c r="K161" s="97"/>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B162" s="59"/>
-      <c r="C162" s="60"/>
-      <c r="D162" s="60"/>
-      <c r="E162" s="60"/>
-      <c r="F162" s="60"/>
-      <c r="G162" s="60"/>
-      <c r="H162" s="60"/>
-      <c r="I162" s="97"/>
-      <c r="J162" s="61"/>
-      <c r="K162" s="97"/>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B163" s="59"/>
-      <c r="C163" s="60"/>
-      <c r="D163" s="60"/>
-      <c r="E163" s="60"/>
-      <c r="F163" s="60"/>
-      <c r="G163" s="60"/>
-      <c r="H163" s="60"/>
-      <c r="I163" s="97"/>
-      <c r="J163" s="61"/>
-      <c r="K163" s="97"/>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B164" s="59"/>
-      <c r="C164" s="60"/>
-      <c r="D164" s="60"/>
-      <c r="E164" s="60"/>
-      <c r="F164" s="60"/>
-      <c r="G164" s="60"/>
-      <c r="H164" s="60"/>
-      <c r="I164" s="97"/>
-      <c r="J164" s="61"/>
-      <c r="K164" s="97"/>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B165" s="59"/>
-      <c r="C165" s="60"/>
-      <c r="D165" s="60"/>
-      <c r="E165" s="60"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="60"/>
-      <c r="I165" s="97"/>
-      <c r="J165" s="61"/>
-      <c r="K165" s="97"/>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B166" s="59"/>
-      <c r="C166" s="60"/>
-      <c r="D166" s="60"/>
-      <c r="E166" s="60"/>
-      <c r="F166" s="60"/>
-      <c r="G166" s="60"/>
-      <c r="H166" s="60"/>
-      <c r="I166" s="97"/>
-      <c r="J166" s="61"/>
-      <c r="K166" s="97"/>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B167" s="59"/>
-      <c r="C167" s="60"/>
-      <c r="D167" s="60"/>
-      <c r="E167" s="60"/>
-      <c r="F167" s="60"/>
-      <c r="G167" s="60"/>
-      <c r="H167" s="60"/>
-      <c r="I167" s="97"/>
-      <c r="J167" s="61"/>
-      <c r="K167" s="97"/>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B168" s="59"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="60"/>
-      <c r="E168" s="60"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="60"/>
-      <c r="H168" s="60"/>
-      <c r="I168" s="97"/>
-      <c r="J168" s="61"/>
-      <c r="K168" s="97"/>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B169" s="59"/>
-      <c r="C169" s="60"/>
-      <c r="D169" s="60"/>
-      <c r="E169" s="60"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="60"/>
-      <c r="H169" s="60"/>
-      <c r="I169" s="97"/>
-      <c r="J169" s="61"/>
-      <c r="K169" s="97"/>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B170" s="59"/>
-      <c r="C170" s="60"/>
-      <c r="D170" s="60"/>
-      <c r="E170" s="60"/>
-      <c r="F170" s="60"/>
-      <c r="G170" s="60"/>
-      <c r="H170" s="60"/>
-      <c r="I170" s="97"/>
-      <c r="J170" s="61"/>
-      <c r="K170" s="97"/>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B171" s="59"/>
-      <c r="C171" s="60"/>
-      <c r="D171" s="60"/>
-      <c r="E171" s="60"/>
-      <c r="F171" s="60"/>
-      <c r="G171" s="60"/>
-      <c r="H171" s="60"/>
-      <c r="I171" s="97"/>
-      <c r="J171" s="61"/>
-      <c r="K171" s="97"/>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B172" s="59"/>
-      <c r="C172" s="60"/>
-      <c r="D172" s="60"/>
-      <c r="E172" s="60"/>
-      <c r="F172" s="60"/>
-      <c r="G172" s="60"/>
-      <c r="H172" s="60"/>
-      <c r="I172" s="97"/>
-      <c r="J172" s="61"/>
-      <c r="K172" s="97"/>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="59"/>
-      <c r="C173" s="60"/>
-      <c r="D173" s="60"/>
-      <c r="E173" s="60"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="60"/>
-      <c r="H173" s="60"/>
-      <c r="I173" s="97"/>
-      <c r="J173" s="61"/>
-      <c r="K173" s="97"/>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B174" s="59"/>
-      <c r="C174" s="60"/>
-      <c r="D174" s="60"/>
-      <c r="E174" s="60"/>
-      <c r="F174" s="60"/>
-      <c r="G174" s="60"/>
-      <c r="H174" s="60"/>
-      <c r="I174" s="97"/>
-      <c r="J174" s="61"/>
-      <c r="K174" s="97"/>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B175" s="59"/>
-      <c r="C175" s="60"/>
-      <c r="D175" s="60"/>
-      <c r="E175" s="60"/>
-      <c r="F175" s="60"/>
-      <c r="G175" s="60"/>
-      <c r="H175" s="60"/>
-      <c r="I175" s="97"/>
-      <c r="J175" s="61"/>
-      <c r="K175" s="97"/>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="59"/>
-      <c r="C176" s="60"/>
-      <c r="D176" s="60"/>
-      <c r="E176" s="60"/>
-      <c r="F176" s="60"/>
-      <c r="G176" s="60"/>
-      <c r="H176" s="60"/>
-      <c r="I176" s="97"/>
-      <c r="J176" s="61"/>
-      <c r="K176" s="97"/>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="59"/>
-      <c r="C177" s="60"/>
-      <c r="D177" s="60"/>
-      <c r="E177" s="60"/>
-      <c r="F177" s="60"/>
-      <c r="G177" s="60"/>
-      <c r="H177" s="60"/>
-      <c r="I177" s="97"/>
-      <c r="J177" s="61"/>
-      <c r="K177" s="97"/>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="59"/>
-      <c r="C178" s="60"/>
-      <c r="D178" s="60"/>
-      <c r="E178" s="60"/>
-      <c r="F178" s="60"/>
-      <c r="G178" s="60"/>
-      <c r="H178" s="60"/>
-      <c r="I178" s="97"/>
-      <c r="J178" s="61"/>
-      <c r="K178" s="97"/>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="59"/>
-      <c r="C179" s="60"/>
-      <c r="D179" s="60"/>
-      <c r="E179" s="60"/>
-      <c r="F179" s="60"/>
-      <c r="G179" s="60"/>
-      <c r="H179" s="60"/>
-      <c r="I179" s="97"/>
-      <c r="J179" s="61"/>
-      <c r="K179" s="97"/>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B180" s="59"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="60"/>
-      <c r="H180" s="60"/>
-      <c r="I180" s="97"/>
-      <c r="J180" s="61"/>
-      <c r="K180" s="97"/>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="59"/>
-      <c r="C181" s="60"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="60"/>
-      <c r="H181" s="60"/>
-      <c r="I181" s="97"/>
-      <c r="J181" s="61"/>
-      <c r="K181" s="97"/>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="59"/>
-      <c r="C182" s="60"/>
-      <c r="D182" s="60"/>
-      <c r="E182" s="60"/>
-      <c r="F182" s="60"/>
-      <c r="G182" s="60"/>
-      <c r="H182" s="60"/>
-      <c r="I182" s="97"/>
-      <c r="J182" s="61"/>
-      <c r="K182" s="97"/>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="59"/>
-      <c r="C183" s="60"/>
-      <c r="D183" s="60"/>
-      <c r="E183" s="60"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="60"/>
-      <c r="H183" s="60"/>
-      <c r="I183" s="97"/>
-      <c r="J183" s="61"/>
-      <c r="K183" s="97"/>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B184" s="59"/>
-      <c r="C184" s="60"/>
-      <c r="D184" s="60"/>
-      <c r="E184" s="60"/>
-      <c r="F184" s="60"/>
-      <c r="G184" s="60"/>
-      <c r="H184" s="60"/>
-      <c r="I184" s="97"/>
-      <c r="J184" s="61"/>
-      <c r="K184" s="97"/>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="59"/>
-      <c r="C185" s="60"/>
-      <c r="D185" s="60"/>
-      <c r="E185" s="60"/>
-      <c r="F185" s="60"/>
-      <c r="G185" s="60"/>
-      <c r="H185" s="60"/>
-      <c r="I185" s="97"/>
-      <c r="J185" s="61"/>
-      <c r="K185" s="97"/>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="59"/>
-      <c r="C186" s="60"/>
-      <c r="D186" s="60"/>
-      <c r="E186" s="60"/>
-      <c r="F186" s="60"/>
-      <c r="G186" s="60"/>
-      <c r="H186" s="60"/>
-      <c r="I186" s="97"/>
-      <c r="J186" s="61"/>
-      <c r="K186" s="97"/>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="59"/>
-      <c r="C187" s="60"/>
-      <c r="D187" s="60"/>
-      <c r="E187" s="60"/>
-      <c r="F187" s="60"/>
-      <c r="G187" s="60"/>
-      <c r="H187" s="60"/>
-      <c r="I187" s="97"/>
-      <c r="J187" s="61"/>
-      <c r="K187" s="97"/>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="59"/>
-      <c r="C188" s="60"/>
-      <c r="D188" s="60"/>
-      <c r="E188" s="60"/>
-      <c r="F188" s="60"/>
-      <c r="G188" s="60"/>
-      <c r="H188" s="60"/>
-      <c r="I188" s="97"/>
-      <c r="J188" s="61"/>
-      <c r="K188" s="97"/>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="59"/>
-      <c r="C189" s="60"/>
-      <c r="D189" s="60"/>
-      <c r="E189" s="60"/>
-      <c r="F189" s="60"/>
-      <c r="G189" s="60"/>
-      <c r="H189" s="60"/>
-      <c r="I189" s="97"/>
-      <c r="J189" s="61"/>
-      <c r="K189" s="97"/>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="59"/>
-      <c r="C190" s="60"/>
-      <c r="D190" s="60"/>
-      <c r="E190" s="60"/>
-      <c r="F190" s="60"/>
-      <c r="G190" s="60"/>
-      <c r="H190" s="60"/>
-      <c r="I190" s="97"/>
-      <c r="J190" s="61"/>
-      <c r="K190" s="97"/>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="59"/>
-      <c r="C191" s="60"/>
-      <c r="D191" s="60"/>
-      <c r="E191" s="60"/>
-      <c r="F191" s="60"/>
-      <c r="G191" s="60"/>
-      <c r="H191" s="60"/>
-      <c r="I191" s="97"/>
-      <c r="J191" s="61"/>
-      <c r="K191" s="97"/>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="59"/>
-      <c r="C192" s="60"/>
-      <c r="D192" s="60"/>
-      <c r="E192" s="60"/>
-      <c r="F192" s="60"/>
-      <c r="G192" s="60"/>
-      <c r="H192" s="60"/>
-      <c r="I192" s="97"/>
-      <c r="J192" s="61"/>
-      <c r="K192" s="97"/>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="59"/>
-      <c r="C193" s="60"/>
-      <c r="D193" s="60"/>
-      <c r="E193" s="60"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="60"/>
-      <c r="H193" s="60"/>
-      <c r="I193" s="97"/>
-      <c r="J193" s="61"/>
-      <c r="K193" s="97"/>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B194" s="59"/>
-      <c r="C194" s="60"/>
-      <c r="D194" s="60"/>
-      <c r="E194" s="60"/>
-      <c r="F194" s="60"/>
-      <c r="G194" s="60"/>
-      <c r="H194" s="60"/>
-      <c r="I194" s="97"/>
-      <c r="J194" s="61"/>
-      <c r="K194" s="97"/>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="59"/>
-      <c r="C195" s="60"/>
-      <c r="D195" s="60"/>
-      <c r="E195" s="60"/>
-      <c r="F195" s="60"/>
-      <c r="G195" s="60"/>
-      <c r="H195" s="60"/>
-      <c r="I195" s="97"/>
-      <c r="J195" s="61"/>
-      <c r="K195" s="97"/>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B196" s="59"/>
-      <c r="C196" s="60"/>
-      <c r="D196" s="60"/>
-      <c r="E196" s="60"/>
-      <c r="F196" s="60"/>
-      <c r="G196" s="60"/>
-      <c r="H196" s="60"/>
-      <c r="I196" s="97"/>
-      <c r="J196" s="61"/>
-      <c r="K196" s="97"/>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B197" s="59"/>
-      <c r="C197" s="60"/>
-      <c r="D197" s="60"/>
-      <c r="E197" s="60"/>
-      <c r="F197" s="60"/>
-      <c r="G197" s="60"/>
-      <c r="H197" s="60"/>
-      <c r="I197" s="97"/>
-      <c r="J197" s="61"/>
-      <c r="K197" s="97"/>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="59"/>
-      <c r="C198" s="60"/>
-      <c r="D198" s="60"/>
-      <c r="E198" s="60"/>
-      <c r="F198" s="60"/>
-      <c r="G198" s="60"/>
-      <c r="H198" s="60"/>
-      <c r="I198" s="97"/>
-      <c r="J198" s="61"/>
-      <c r="K198" s="97"/>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="59"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="60"/>
-      <c r="E199" s="60"/>
-      <c r="F199" s="60"/>
-      <c r="G199" s="60"/>
-      <c r="H199" s="60"/>
-      <c r="I199" s="97"/>
-      <c r="J199" s="61"/>
-      <c r="K199" s="97"/>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B200" s="59"/>
-      <c r="C200" s="60"/>
-      <c r="D200" s="60"/>
-      <c r="E200" s="60"/>
-      <c r="F200" s="60"/>
-      <c r="G200" s="60"/>
-      <c r="H200" s="60"/>
-      <c r="I200" s="97"/>
-      <c r="J200" s="61"/>
-      <c r="K200" s="97"/>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="59"/>
-      <c r="C201" s="60"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="60"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="60"/>
-      <c r="H201" s="60"/>
-      <c r="I201" s="97"/>
-      <c r="J201" s="61"/>
-      <c r="K201" s="97"/>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B202" s="59"/>
-      <c r="C202" s="60"/>
-      <c r="D202" s="60"/>
-      <c r="E202" s="60"/>
-      <c r="F202" s="60"/>
-      <c r="G202" s="60"/>
-      <c r="H202" s="60"/>
-      <c r="I202" s="97"/>
-      <c r="J202" s="61"/>
-      <c r="K202" s="97"/>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="59"/>
-      <c r="C203" s="60"/>
-      <c r="D203" s="60"/>
-      <c r="E203" s="60"/>
-      <c r="F203" s="60"/>
-      <c r="G203" s="60"/>
-      <c r="H203" s="60"/>
-      <c r="I203" s="97"/>
-      <c r="J203" s="61"/>
-      <c r="K203" s="97"/>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="59"/>
-      <c r="C204" s="60"/>
-      <c r="D204" s="60"/>
-      <c r="E204" s="60"/>
-      <c r="F204" s="60"/>
-      <c r="G204" s="60"/>
-      <c r="H204" s="60"/>
-      <c r="I204" s="97"/>
-      <c r="J204" s="61"/>
-      <c r="K204" s="97"/>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="59"/>
-      <c r="C205" s="60"/>
-      <c r="D205" s="60"/>
-      <c r="E205" s="60"/>
-      <c r="F205" s="60"/>
-      <c r="G205" s="60"/>
-      <c r="H205" s="60"/>
-      <c r="I205" s="97"/>
-      <c r="J205" s="61"/>
-      <c r="K205" s="97"/>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="59"/>
-      <c r="C206" s="60"/>
-      <c r="D206" s="60"/>
-      <c r="E206" s="60"/>
-      <c r="F206" s="60"/>
-      <c r="G206" s="60"/>
-      <c r="H206" s="60"/>
-      <c r="I206" s="97"/>
-      <c r="J206" s="61"/>
-      <c r="K206" s="97"/>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="59"/>
-      <c r="C207" s="60"/>
-      <c r="D207" s="60"/>
-      <c r="E207" s="60"/>
-      <c r="F207" s="60"/>
-      <c r="G207" s="60"/>
-      <c r="H207" s="60"/>
-      <c r="I207" s="97"/>
-      <c r="J207" s="61"/>
-      <c r="K207" s="97"/>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="59"/>
-      <c r="C208" s="60"/>
-      <c r="D208" s="60"/>
-      <c r="E208" s="60"/>
-      <c r="F208" s="60"/>
-      <c r="G208" s="60"/>
-      <c r="H208" s="60"/>
-      <c r="I208" s="97"/>
-      <c r="J208" s="61"/>
-      <c r="K208" s="97"/>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="59"/>
-      <c r="C209" s="60"/>
-      <c r="D209" s="60"/>
-      <c r="E209" s="60"/>
-      <c r="F209" s="60"/>
-      <c r="G209" s="60"/>
-      <c r="H209" s="60"/>
-      <c r="I209" s="97"/>
-      <c r="J209" s="61"/>
-      <c r="K209" s="97"/>
-    </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="59"/>
-      <c r="C210" s="60"/>
-      <c r="D210" s="60"/>
-      <c r="E210" s="60"/>
-      <c r="F210" s="60"/>
-      <c r="G210" s="60"/>
-      <c r="H210" s="60"/>
-      <c r="I210" s="97"/>
-      <c r="J210" s="61"/>
-      <c r="K210" s="97"/>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="59"/>
-      <c r="C211" s="60"/>
-      <c r="D211" s="60"/>
-      <c r="E211" s="60"/>
-      <c r="F211" s="60"/>
-      <c r="G211" s="60"/>
-      <c r="H211" s="60"/>
-      <c r="I211" s="97"/>
-      <c r="J211" s="61"/>
-      <c r="K211" s="97"/>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="59"/>
-      <c r="C212" s="60"/>
-      <c r="D212" s="60"/>
-      <c r="E212" s="60"/>
-      <c r="F212" s="60"/>
-      <c r="G212" s="60"/>
-      <c r="H212" s="60"/>
-      <c r="I212" s="97"/>
-      <c r="J212" s="61"/>
-      <c r="K212" s="97"/>
-    </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="59"/>
-      <c r="C213" s="60"/>
-      <c r="D213" s="60"/>
-      <c r="E213" s="60"/>
-      <c r="F213" s="60"/>
-      <c r="G213" s="60"/>
-      <c r="H213" s="60"/>
-      <c r="I213" s="97"/>
-      <c r="J213" s="61"/>
-      <c r="K213" s="97"/>
-    </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B214" s="59"/>
-      <c r="C214" s="60"/>
-      <c r="D214" s="60"/>
-      <c r="E214" s="60"/>
-      <c r="F214" s="60"/>
-      <c r="G214" s="60"/>
-      <c r="H214" s="60"/>
-      <c r="I214" s="97"/>
-      <c r="J214" s="61"/>
-      <c r="K214" s="97"/>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="59"/>
-      <c r="C215" s="60"/>
-      <c r="D215" s="60"/>
-      <c r="E215" s="60"/>
-      <c r="F215" s="60"/>
-      <c r="G215" s="60"/>
-      <c r="H215" s="60"/>
-      <c r="I215" s="97"/>
-      <c r="J215" s="61"/>
-      <c r="K215" s="97"/>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B216" s="59"/>
-      <c r="C216" s="60"/>
-      <c r="D216" s="60"/>
-      <c r="E216" s="60"/>
-      <c r="F216" s="60"/>
-      <c r="G216" s="60"/>
-      <c r="H216" s="60"/>
-      <c r="I216" s="97"/>
-      <c r="J216" s="61"/>
-      <c r="K216" s="97"/>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B217" s="59"/>
-      <c r="C217" s="60"/>
-      <c r="D217" s="60"/>
-      <c r="E217" s="60"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="60"/>
-      <c r="H217" s="60"/>
-      <c r="I217" s="97"/>
-      <c r="J217" s="61"/>
-      <c r="K217" s="97"/>
-    </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="59"/>
-      <c r="C218" s="60"/>
-      <c r="D218" s="60"/>
-      <c r="E218" s="60"/>
-      <c r="F218" s="60"/>
-      <c r="G218" s="60"/>
-      <c r="H218" s="60"/>
-      <c r="I218" s="97"/>
-      <c r="J218" s="61"/>
-      <c r="K218" s="97"/>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B219" s="59"/>
-      <c r="C219" s="60"/>
-      <c r="D219" s="60"/>
-      <c r="E219" s="60"/>
-      <c r="F219" s="60"/>
-      <c r="G219" s="60"/>
-      <c r="H219" s="60"/>
-      <c r="I219" s="97"/>
-      <c r="J219" s="61"/>
-      <c r="K219" s="97"/>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B220" s="59"/>
-      <c r="C220" s="60"/>
-      <c r="D220" s="60"/>
-      <c r="E220" s="60"/>
-      <c r="F220" s="60"/>
-      <c r="G220" s="60"/>
-      <c r="H220" s="60"/>
-      <c r="I220" s="97"/>
-      <c r="J220" s="61"/>
-      <c r="K220" s="97"/>
-    </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B221" s="59"/>
-      <c r="C221" s="60"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="60"/>
-      <c r="H221" s="60"/>
-      <c r="I221" s="97"/>
-      <c r="J221" s="61"/>
-      <c r="K221" s="97"/>
-    </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B222" s="59"/>
-      <c r="C222" s="60"/>
-      <c r="D222" s="60"/>
-      <c r="E222" s="60"/>
-      <c r="F222" s="60"/>
-      <c r="G222" s="60"/>
-      <c r="H222" s="60"/>
-      <c r="I222" s="97"/>
-      <c r="J222" s="61"/>
-      <c r="K222" s="97"/>
-    </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="59"/>
-      <c r="C223" s="60"/>
-      <c r="D223" s="60"/>
-      <c r="E223" s="60"/>
-      <c r="F223" s="60"/>
-      <c r="G223" s="60"/>
-      <c r="H223" s="60"/>
-      <c r="I223" s="97"/>
-      <c r="J223" s="61"/>
-      <c r="K223" s="97"/>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B224" s="59"/>
-      <c r="C224" s="60"/>
-      <c r="D224" s="60"/>
-      <c r="E224" s="60"/>
-      <c r="F224" s="60"/>
-      <c r="G224" s="60"/>
-      <c r="H224" s="60"/>
-      <c r="I224" s="97"/>
-      <c r="J224" s="61"/>
-      <c r="K224" s="97"/>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B225" s="59"/>
-      <c r="C225" s="60"/>
-      <c r="D225" s="60"/>
-      <c r="E225" s="60"/>
-      <c r="F225" s="60"/>
-      <c r="G225" s="60"/>
-      <c r="H225" s="60"/>
-      <c r="I225" s="97"/>
-      <c r="J225" s="61"/>
-      <c r="K225" s="97"/>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B226" s="59"/>
-      <c r="C226" s="60"/>
-      <c r="D226" s="60"/>
-      <c r="E226" s="60"/>
-      <c r="F226" s="60"/>
-      <c r="G226" s="60"/>
-      <c r="H226" s="60"/>
-      <c r="I226" s="97"/>
-      <c r="J226" s="61"/>
-      <c r="K226" s="97"/>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B227" s="59"/>
-      <c r="C227" s="60"/>
-      <c r="D227" s="60"/>
-      <c r="E227" s="60"/>
-      <c r="F227" s="60"/>
-      <c r="G227" s="60"/>
-      <c r="H227" s="60"/>
-      <c r="I227" s="97"/>
-      <c r="J227" s="61"/>
-      <c r="K227" s="97"/>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B228" s="59"/>
-      <c r="C228" s="60"/>
-      <c r="D228" s="60"/>
-      <c r="E228" s="60"/>
-      <c r="F228" s="60"/>
-      <c r="G228" s="60"/>
-      <c r="H228" s="60"/>
-      <c r="I228" s="97"/>
-      <c r="J228" s="61"/>
-      <c r="K228" s="97"/>
-    </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B229" s="59"/>
-      <c r="C229" s="60"/>
-      <c r="D229" s="60"/>
-      <c r="E229" s="60"/>
-      <c r="F229" s="60"/>
-      <c r="G229" s="60"/>
-      <c r="H229" s="60"/>
-      <c r="I229" s="97"/>
-      <c r="J229" s="61"/>
-      <c r="K229" s="97"/>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B230" s="59"/>
-      <c r="C230" s="60"/>
-      <c r="D230" s="60"/>
-      <c r="E230" s="60"/>
-      <c r="F230" s="60"/>
-      <c r="G230" s="60"/>
-      <c r="H230" s="60"/>
-      <c r="I230" s="97"/>
-      <c r="J230" s="61"/>
-      <c r="K230" s="97"/>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B231" s="59"/>
-      <c r="C231" s="60"/>
-      <c r="D231" s="60"/>
-      <c r="E231" s="60"/>
-      <c r="F231" s="60"/>
-      <c r="G231" s="60"/>
-      <c r="H231" s="60"/>
-      <c r="I231" s="97"/>
-      <c r="J231" s="61"/>
-      <c r="K231" s="97"/>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="59"/>
-      <c r="C232" s="60"/>
-      <c r="D232" s="60"/>
-      <c r="E232" s="60"/>
-      <c r="F232" s="60"/>
-      <c r="G232" s="60"/>
-      <c r="H232" s="60"/>
-      <c r="I232" s="97"/>
-      <c r="J232" s="61"/>
-      <c r="K232" s="97"/>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B233" s="59"/>
-      <c r="C233" s="60"/>
-      <c r="D233" s="60"/>
-      <c r="E233" s="60"/>
-      <c r="F233" s="60"/>
-      <c r="G233" s="60"/>
-      <c r="H233" s="60"/>
-      <c r="I233" s="97"/>
-      <c r="J233" s="61"/>
-      <c r="K233" s="97"/>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B234" s="59"/>
-      <c r="C234" s="60"/>
-      <c r="D234" s="60"/>
-      <c r="E234" s="60"/>
-      <c r="F234" s="60"/>
-      <c r="G234" s="60"/>
-      <c r="H234" s="60"/>
-      <c r="I234" s="97"/>
-      <c r="J234" s="61"/>
-      <c r="K234" s="97"/>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B235" s="59"/>
-      <c r="C235" s="60"/>
-      <c r="D235" s="60"/>
-      <c r="E235" s="60"/>
-      <c r="F235" s="60"/>
-      <c r="G235" s="60"/>
-      <c r="H235" s="60"/>
-      <c r="I235" s="97"/>
-      <c r="J235" s="61"/>
-      <c r="K235" s="97"/>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="59"/>
-      <c r="C236" s="60"/>
-      <c r="D236" s="60"/>
-      <c r="E236" s="60"/>
-      <c r="F236" s="60"/>
-      <c r="G236" s="60"/>
-      <c r="H236" s="60"/>
-      <c r="I236" s="97"/>
-      <c r="J236" s="61"/>
-      <c r="K236" s="97"/>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="59"/>
-      <c r="C237" s="60"/>
-      <c r="D237" s="60"/>
-      <c r="E237" s="60"/>
-      <c r="F237" s="60"/>
-      <c r="G237" s="60"/>
-      <c r="H237" s="60"/>
-      <c r="I237" s="97"/>
-      <c r="J237" s="61"/>
-      <c r="K237" s="97"/>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="59"/>
-      <c r="C238" s="60"/>
-      <c r="D238" s="60"/>
-      <c r="E238" s="60"/>
-      <c r="F238" s="60"/>
-      <c r="G238" s="60"/>
-      <c r="H238" s="60"/>
-      <c r="I238" s="97"/>
-      <c r="J238" s="61"/>
-      <c r="K238" s="97"/>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="59"/>
-      <c r="C239" s="60"/>
-      <c r="D239" s="60"/>
-      <c r="E239" s="60"/>
-      <c r="F239" s="60"/>
-      <c r="G239" s="60"/>
-      <c r="H239" s="60"/>
-      <c r="I239" s="97"/>
-      <c r="J239" s="61"/>
-      <c r="K239" s="97"/>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="59"/>
-      <c r="C240" s="60"/>
-      <c r="D240" s="60"/>
-      <c r="E240" s="60"/>
-      <c r="F240" s="60"/>
-      <c r="G240" s="60"/>
-      <c r="H240" s="60"/>
-      <c r="I240" s="97"/>
-      <c r="J240" s="61"/>
-      <c r="K240" s="97"/>
-    </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B241" s="59"/>
-      <c r="C241" s="60"/>
-      <c r="D241" s="60"/>
-      <c r="E241" s="60"/>
-      <c r="F241" s="60"/>
-      <c r="G241" s="60"/>
-      <c r="H241" s="60"/>
-      <c r="I241" s="97"/>
-      <c r="J241" s="61"/>
-      <c r="K241" s="97"/>
-    </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B242" s="59"/>
-      <c r="C242" s="60"/>
-      <c r="D242" s="60"/>
-      <c r="E242" s="60"/>
-      <c r="F242" s="60"/>
-      <c r="G242" s="60"/>
-      <c r="H242" s="60"/>
-      <c r="I242" s="97"/>
-      <c r="J242" s="61"/>
-      <c r="K242" s="97"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7632,202 +5325,202 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.140625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="37" style="182" customWidth="1"/>
+    <col min="4" max="4" width="37" style="136" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="67" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="133" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="176" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="95">
+      <c r="C2" s="66">
         <v>20</v>
       </c>
-      <c r="D2" s="180">
+      <c r="D2" s="173">
         <v>820000</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="134" t="s">
         <v>179</v>
       </c>
       <c r="B3" s="177"/>
-      <c r="C3" s="89">
+      <c r="C3" s="61">
         <v>10</v>
       </c>
-      <c r="D3" s="181"/>
+      <c r="D3" s="174"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="133" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="176" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="59">
         <v>20</v>
       </c>
-      <c r="D4" s="180">
+      <c r="D4" s="173">
         <v>2080000</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="134" t="s">
         <v>176</v>
       </c>
       <c r="B5" s="177"/>
-      <c r="C5" s="90">
+      <c r="C5" s="62">
         <v>10</v>
       </c>
-      <c r="D5" s="181"/>
+      <c r="D5" s="174"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="133" t="s">
         <v>164</v>
       </c>
       <c r="B6" s="176" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="59">
         <v>30</v>
       </c>
-      <c r="D6" s="180">
+      <c r="D6" s="173">
         <v>5925000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="134" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="177"/>
-      <c r="C7" s="89">
+      <c r="C7" s="61">
         <v>15</v>
       </c>
-      <c r="D7" s="181"/>
+      <c r="D7" s="174"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="137" t="s">
         <v>184</v>
       </c>
       <c r="B8" s="176" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="59">
         <v>40</v>
       </c>
-      <c r="D8" s="180">
+      <c r="D8" s="173">
         <v>3660000</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="138" t="s">
         <v>189</v>
       </c>
       <c r="B9" s="177"/>
-      <c r="C9" s="89">
+      <c r="C9" s="61">
         <v>20</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="174"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="139" t="s">
         <v>200</v>
       </c>
       <c r="B10" s="176" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="59">
         <v>30</v>
       </c>
-      <c r="D10" s="180">
+      <c r="D10" s="173">
         <v>7140000</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="167" t="s">
+      <c r="A11" s="132" t="s">
         <v>197</v>
       </c>
       <c r="B11" s="177"/>
-      <c r="C11" s="90">
+      <c r="C11" s="62">
         <v>15</v>
       </c>
-      <c r="D11" s="181"/>
+      <c r="D11" s="174"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="39">
         <v>20</v>
       </c>
-      <c r="D12" s="135">
+      <c r="D12" s="103">
         <v>1700000</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="145" t="s">
         <v>217</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="37">
         <v>30</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="67">
         <v>1650000</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="146" t="s">
         <v>218</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="37">
         <v>10</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="67">
         <v>1500000</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="147" t="s">
         <v>220</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="37">
         <v>10</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="67">
         <v>650000</v>
       </c>
     </row>
@@ -7836,185 +5529,194 @@
       <c r="A17" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="179"/>
-      <c r="C17" s="53" t="s">
+      <c r="B17" s="135"/>
+      <c r="C17" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="67" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="174" t="s">
+      <c r="A18" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="171" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="95">
+      <c r="C18" s="66">
         <v>10</v>
       </c>
-      <c r="D18" s="180">
+      <c r="D18" s="173">
         <v>3750000</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="175" t="s">
+      <c r="A19" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="89">
+      <c r="B19" s="172"/>
+      <c r="C19" s="61">
         <v>10</v>
       </c>
-      <c r="D19" s="181"/>
+      <c r="D19" s="174"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="183" t="s">
+      <c r="A20" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="175" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="59">
         <v>10</v>
       </c>
-      <c r="D20" s="180">
+      <c r="D20" s="173">
         <v>2350000</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="184" t="s">
+      <c r="A21" s="138" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="90">
+      <c r="B21" s="172"/>
+      <c r="C21" s="62">
         <v>10</v>
       </c>
-      <c r="D21" s="181"/>
+      <c r="D21" s="174"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="185" t="s">
+      <c r="A22" s="139" t="s">
         <v>198</v>
       </c>
       <c r="B22" s="176" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="87">
+      <c r="C22" s="59">
         <v>10</v>
       </c>
-      <c r="D22" s="180">
+      <c r="D22" s="173">
         <v>3740000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="132" t="s">
         <v>203</v>
       </c>
       <c r="B23" s="177"/>
-      <c r="C23" s="90">
+      <c r="C23" s="62">
         <v>10</v>
       </c>
-      <c r="D23" s="181"/>
+      <c r="D23" s="174"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="187"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="190"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="141"/>
+      <c r="D24" s="142"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="53" t="s">
+      <c r="B25" s="135"/>
+      <c r="C25" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="67" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="174" t="s">
+      <c r="A26" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="178" t="s">
+      <c r="B26" s="171" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="95">
+      <c r="C26" s="66">
         <v>40</v>
       </c>
-      <c r="D26" s="180">
+      <c r="D26" s="173">
         <v>19560000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="175" t="s">
+      <c r="A27" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="89">
+      <c r="B27" s="172"/>
+      <c r="C27" s="61">
         <v>20</v>
       </c>
-      <c r="D27" s="181"/>
+      <c r="D27" s="174"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="133" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="178" t="s">
+      <c r="B28" s="171" t="s">
         <v>221</v>
       </c>
-      <c r="C28" s="87">
+      <c r="C28" s="59">
         <v>10</v>
       </c>
-      <c r="D28" s="180">
+      <c r="D28" s="173">
         <v>11480000</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="B29" s="137"/>
-      <c r="C29" s="90">
-        <v>4</v>
-      </c>
-      <c r="D29" s="181"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="62">
+        <v>4</v>
+      </c>
+      <c r="D29" s="174"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="37">
         <v>8</v>
       </c>
-      <c r="D30" s="96">
+      <c r="D30" s="67">
         <v>3600000</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="37">
         <v>10</v>
       </c>
-      <c r="D31" s="96">
+      <c r="D31" s="67">
         <v>1500000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="196"/>
+      <c r="H32" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="B28:B29"/>
@@ -8025,16 +5727,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8049,7 +5741,7 @@
   <dimension ref="A1:BI57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
@@ -8093,86 +5785,86 @@
     <row r="1" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="39" t="s">
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="40"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="160"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="47" t="s">
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="184" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="44" t="s">
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="47" t="s">
+      <c r="AC1" s="182"/>
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
+      <c r="AF1" s="183"/>
+      <c r="AG1" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="49"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="185"/>
+      <c r="AJ1" s="186"/>
       <c r="AK1" s="7"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AL1" s="187" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="50" t="s">
+      <c r="AM1" s="188"/>
+      <c r="AN1" s="188"/>
+      <c r="AO1" s="188"/>
+      <c r="AP1" s="188"/>
+      <c r="AQ1" s="189"/>
+      <c r="AR1" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="44" t="s">
+      <c r="AS1" s="179"/>
+      <c r="AT1" s="179"/>
+      <c r="AU1" s="179"/>
+      <c r="AV1" s="180"/>
+      <c r="AW1" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="50" t="s">
+      <c r="AX1" s="182"/>
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182"/>
+      <c r="BA1" s="182"/>
+      <c r="BB1" s="182"/>
+      <c r="BC1" s="182"/>
+      <c r="BD1" s="183"/>
+      <c r="BE1" s="178" t="s">
         <v>105</v>
       </c>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="52"/>
+      <c r="BF1" s="179"/>
+      <c r="BG1" s="179"/>
+      <c r="BH1" s="179"/>
+      <c r="BI1" s="180"/>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -11711,17 +9403,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="V1:AA1"/>
     <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="AW1:BD1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="V1:AA1"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A84E478-5C01-486D-BC56-95A0647DCBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DF4AA4-634D-4AE6-837C-4F67477B1E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aviones" sheetId="8" r:id="rId1"/>
     <sheet name="AA" sheetId="9" r:id="rId2"/>
     <sheet name="AG" sheetId="10" r:id="rId3"/>
-    <sheet name="PAQUETES AA" sheetId="7" r:id="rId4"/>
+    <sheet name="MISC" sheetId="11" r:id="rId4"/>
+    <sheet name="PAQUETES AG" sheetId="14" r:id="rId5"/>
+    <sheet name="PAQUETES AA" sheetId="12" r:id="rId6"/>
+    <sheet name="PAQUETES MISC" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="239">
   <si>
     <t>PL-5EII</t>
   </si>
@@ -349,6 +353,411 @@
   </si>
   <si>
     <t>COSTO</t>
+  </si>
+  <si>
+    <t>MISC TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuel Tank Ft600 - A10CII</t>
+  </si>
+  <si>
+    <t>Fuel Tank 300 Gallons - A4</t>
+  </si>
+  <si>
+    <t>AJS External-tank 1013kg fuel - AJS37</t>
+  </si>
+  <si>
+    <t>Aero 1D 300 Gallons Fuel Tank - AV-88</t>
+  </si>
+  <si>
+    <t>F-5 275Gal Fuel tank - F5</t>
+  </si>
+  <si>
+    <t>FPU-8A Fuel Tank 330 Gallons - F18</t>
+  </si>
+  <si>
+    <t>RPL 541 2000 Liters Fuel Tank - Mirage 2000</t>
+  </si>
+  <si>
+    <t>RPL 522 1300 Liters Fuel Tank - Mirage 2000</t>
+  </si>
+  <si>
+    <t>Fuel Tank 800 L (21) - Mig 21</t>
+  </si>
+  <si>
+    <t>RPL201 Pylon Fuel Tank (2310 / Usable) - Mirage F1EE</t>
+  </si>
+  <si>
+    <t>Fuel Tank 300 Gal - F16, F14</t>
+  </si>
+  <si>
+    <t>Fuel Tank 370 Gal - F16, F14</t>
+  </si>
+  <si>
+    <t>Sargent Fletcher Fuel Tank 600 Gallons - F4</t>
+  </si>
+  <si>
+    <t>Sargent Fletcher Fuel Tank 370 Gallons - F4</t>
+  </si>
+  <si>
+    <t>800L Tank - jf17</t>
+  </si>
+  <si>
+    <t>Fuel Tank 230 Gal - AH64D</t>
+  </si>
+  <si>
+    <t>Fuel tank PTB-450 - KA50, mi24</t>
+  </si>
+  <si>
+    <t>Fuel tank 610 Gal  - F15</t>
+  </si>
+  <si>
+    <t>FUEL TANKS</t>
+  </si>
+  <si>
+    <t>ALQ-184 Long - ECM Pod - A10C-II, F16</t>
+  </si>
+  <si>
+    <t>AN/ASQ-213 - HARM Targeting System - F16</t>
+  </si>
+  <si>
+    <t>AN/AAQ-28 LITENING - Targeting Pod - A10C-II, F16, F18</t>
+  </si>
+  <si>
+    <t>AWW-13 DATALINK POD - F18</t>
+  </si>
+  <si>
+    <t>AN/AAQ-13 LANTIRN NAV POD</t>
+  </si>
+  <si>
+    <t>AN/AAQ-14 LANTIRN TGT Pod</t>
+  </si>
+  <si>
+    <t>Tactial Airborne Recon Pod System - F14A, F14B</t>
+  </si>
+  <si>
+    <t>Expanded Chaff Adapter - F14A, F14B</t>
+  </si>
+  <si>
+    <t>ALQ-131 - ECM Pod Rack - F4</t>
+  </si>
+  <si>
+    <t>AN/AVQ-23 Pave Spike - Targeting Pod Rack - F4</t>
+  </si>
+  <si>
+    <t>AVIC WMD7 FLIR/LDT POD - JF-17</t>
+  </si>
+  <si>
+    <t>KG-600 - JF-17</t>
+  </si>
+  <si>
+    <t>Eclair-M 4/2 : 32 flares 36 chaffs - Mirage 2000c</t>
+  </si>
+  <si>
+    <t>ALE-40 Dispensers (30 Flares + 60 Chaff) - F4</t>
+  </si>
+  <si>
+    <t>ASO-2 - countermeasures pod - Mig 21</t>
+  </si>
+  <si>
+    <t>BARAX - ECM Pod - Mirage F1</t>
+  </si>
+  <si>
+    <t>CC420 DEFA-550 gun pod - 30mm Revolver Cannon - Mirage F1</t>
+  </si>
+  <si>
+    <t>ECM</t>
+  </si>
+  <si>
+    <t>AN/APG-78 FCR/RFI - AH64D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>TARGETING</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>PACK FUEL TANK</t>
+  </si>
+  <si>
+    <t>DATALINK POD - JF-17</t>
+  </si>
+  <si>
+    <t>ECM &amp; DATALINK PACK</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>BOMB TYPE</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Free Fall</t>
+  </si>
+  <si>
+    <t>GBU-12 - 500lb Laser Guided Bomb</t>
+  </si>
+  <si>
+    <t>GBU-10 - 2000lb Laser Guided Bomb</t>
+  </si>
+  <si>
+    <t>GBU-24A/B Paveway III - 2000lb Laser Guided Bomb</t>
+  </si>
+  <si>
+    <t>GBU-31(V)1/B - JDAM, 2000lb GPS Guided Bomb</t>
+  </si>
+  <si>
+    <t>GBU-31(V)3/B - JDAM, 2000lb GPS Guided Penetrator Bomb</t>
+  </si>
+  <si>
+    <t>BLUE-107/B Durandal - 219kG Concrete Piercing Chute retarded Bomb w/Booster</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>AGM-154A - JSOW CEB (CBU-type)</t>
+  </si>
+  <si>
+    <t>AGM-154C - JSOW Unitary BROACH</t>
+  </si>
+  <si>
+    <t>AGM-84D Harpoon AShM</t>
+  </si>
+  <si>
+    <t>AGM-84H SLAM-ER (Expanded Response)</t>
+  </si>
+  <si>
+    <t>AGM-88C HARM -  High Speed Anti-Radiation Missile</t>
+  </si>
+  <si>
+    <t>ADM-141A TALD</t>
+  </si>
+  <si>
+    <t>AGM-65D - Maverick D (IIR ASM)</t>
+  </si>
+  <si>
+    <t>AGM-65E - Maverick E (Laser)</t>
+  </si>
+  <si>
+    <t>AGM-45A Shrike ARM</t>
+  </si>
+  <si>
+    <t>Laser Guided Rkts, 70 mm Hydra 70 M151 HE APKWS</t>
+  </si>
+  <si>
+    <t>Laser Guided Rkts, 70 mm Hydra 70 M282 MPP APKWS</t>
+  </si>
+  <si>
+    <t>UnGd Rkts, 70 mm Hydra 70 M151 HE</t>
+  </si>
+  <si>
+    <t>UnGd Rkts, 70 mm Hydra 70 Mk 5 HEAT</t>
+  </si>
+  <si>
+    <t>UnGd Rkts, 70 mm Hydra 70 Mk1 HE</t>
+  </si>
+  <si>
+    <t>LS-6-500 Bomb</t>
+  </si>
+  <si>
+    <t>LS-6-250 Bomb</t>
+  </si>
+  <si>
+    <t>C-802AK</t>
+  </si>
+  <si>
+    <t>CM802AKG (DIS)</t>
+  </si>
+  <si>
+    <t>Matra Type 155 Rocket Pod</t>
+  </si>
+  <si>
+    <t>UnGd Rkts, 68 mm SNEB Type 251 F1B HE</t>
+  </si>
+  <si>
+    <t>BRM-1_90MM</t>
+  </si>
+  <si>
+    <t>Laser Guided</t>
+  </si>
+  <si>
+    <t>UnGd Rkts</t>
+  </si>
+  <si>
+    <t>Guided</t>
+  </si>
+  <si>
+    <t>FAB-250 - 250kg GP Bomb LD</t>
+  </si>
+  <si>
+    <t>FAB-250 - 500kg GP Bomb LD</t>
+  </si>
+  <si>
+    <t>BetAB-500ShP - 500kg Concrete Piercing HD w booster Bomb</t>
+  </si>
+  <si>
+    <t>UnGd Rkts, 57 mm S-5M HE</t>
+  </si>
+  <si>
+    <t>UnGd Rkts, 57 mm S-5KP HEAT/Frag</t>
+  </si>
+  <si>
+    <t>UnGd Rkts, 80 mm S-8KOM HEAT/Frag</t>
+  </si>
+  <si>
+    <t>UnGd Rkts, 80 mm S-8OFP2 MPP</t>
+  </si>
+  <si>
+    <t>L-081 Fantasmagoria ELINT pod</t>
+  </si>
+  <si>
+    <t>Mercury LLTV pod</t>
+  </si>
+  <si>
+    <t>Kh-58U (AS-11 kIIter - 640kg, ARM, IN &amp; Pas Rdr)</t>
+  </si>
+  <si>
+    <t>Kh-25MPU (Updated AS-12 Kegler - 320kg, ARM, IN &amp; Pas Rdr)</t>
+  </si>
+  <si>
+    <t>Kh-29T (AS-14 Kedge) - 670kg, ASM, TV Guided</t>
+  </si>
+  <si>
+    <t>Anti-Radiation</t>
+  </si>
+  <si>
+    <t>Señuelo</t>
+  </si>
+  <si>
+    <t>Harppon</t>
+  </si>
+  <si>
+    <t>LD-10</t>
+  </si>
+  <si>
+    <t>GB-6</t>
+  </si>
+  <si>
+    <t>GB-6-HE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mk-82 - 500lb GP Bomb LD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mk-82 - Snakeeye 500lb GP Bomb HD  </t>
+  </si>
+  <si>
+    <t>Antibuque</t>
+  </si>
+  <si>
+    <t>SAMP-250 - 250 kg GP Bomb LD</t>
+  </si>
+  <si>
+    <t>GBU-38(V)1/B - JDAM, 500lb GPS Guided Bomb</t>
+  </si>
+  <si>
+    <t>AGM-114L Hellfire</t>
+  </si>
+  <si>
+    <t>AGM-114K Hellfire</t>
+  </si>
+  <si>
+    <t>M3P500</t>
+  </si>
+  <si>
+    <t>M134 - 6 x 7,62mm MiniGun Left</t>
+  </si>
+  <si>
+    <t>M134 - 6 x 7,62mm MiniGun right</t>
+  </si>
+  <si>
+    <t>M134 - 6 x 7,62mm MiniGun right Door</t>
+  </si>
+  <si>
+    <t>M134 - 6 x 7,62mm MiniGun Left Door</t>
+  </si>
+  <si>
+    <t>M240H</t>
+  </si>
+  <si>
+    <t>Dipole Antanna (aesthetic)</t>
+  </si>
+  <si>
+    <t>IR Deflector</t>
+  </si>
+  <si>
+    <t>Sand Filter</t>
+  </si>
+  <si>
+    <t>GIAT M621 (240x SAPHEI)</t>
+  </si>
+  <si>
+    <t>Kord 12,7mm  HMG</t>
+  </si>
+  <si>
+    <t>1xBlue Smoke Granade</t>
+  </si>
+  <si>
+    <t>1xGreen Smoke Granade</t>
+  </si>
+  <si>
+    <t>1xRed Smoke Granade</t>
+  </si>
+  <si>
+    <t>1xViolet Smoke Granade</t>
+  </si>
+  <si>
+    <t>1xWhite Smoke Granade</t>
+  </si>
+  <si>
+    <t>1xYellow Smoke Granade</t>
+  </si>
+  <si>
+    <t>9M127 Vikhr - ATGM, LOSBR, Tandem HEAT/Frag</t>
+  </si>
+  <si>
+    <t>Kh-25 ML (As-10 Karen) - 300kg, ASM, Semi-Act Laser</t>
+  </si>
+  <si>
+    <t>9M120 Ataka (AT-9 Spíral-2) ATGM. SACLOS, Tandem HEAT</t>
+  </si>
+  <si>
+    <t>9M120F Ataka (AT-9 Spíral-2) AGM, SACLOS. HE</t>
+  </si>
+  <si>
+    <t>HOT-3 ATGM. SACLOS HEAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mk-82 - Snakeye 500lb GP Bomb HD  </t>
+  </si>
+  <si>
+    <t>SAMP 250 Kg</t>
+  </si>
+  <si>
+    <t>GB-6 - HE</t>
+  </si>
+  <si>
+    <t>BOMBAS GP / GUIADAS</t>
+  </si>
+  <si>
+    <t>PRECISIÓN</t>
+  </si>
+  <si>
+    <t>ANTIRADIACION</t>
+  </si>
+  <si>
+    <t>ATGM</t>
+  </si>
+  <si>
+    <t>COHETES</t>
   </si>
 </sst>
 </file>
@@ -356,9 +765,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +825,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,8 +913,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1215,11 +1668,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,10 +1850,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,12 +1934,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1364,12 +1966,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1403,13 +2005,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1419,10 +2021,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1458,15 +2060,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1498,7 +2100,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1516,7 +2118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1535,6 +2137,58 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,22 +2201,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1601,75 +2255,284 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1990,8 +2853,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2008,12 +2871,12 @@
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="146"/>
       <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
@@ -3064,7 +3927,7 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -3087,12 +3950,12 @@
       <c r="C1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="136"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="156"/>
       <c r="H1" s="15" t="s">
         <v>39</v>
       </c>
@@ -3107,7 +3970,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="157" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -3143,7 +4006,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="138"/>
+      <c r="A3" s="158"/>
       <c r="B3" s="65" t="s">
         <v>46</v>
       </c>
@@ -3177,7 +4040,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
+      <c r="A4" s="158"/>
       <c r="B4" s="65" t="s">
         <v>45</v>
       </c>
@@ -3211,7 +4074,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
+      <c r="A5" s="158"/>
       <c r="B5" s="65" t="s">
         <v>56</v>
       </c>
@@ -3245,7 +4108,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="138"/>
+      <c r="A6" s="158"/>
       <c r="B6" s="65" t="s">
         <v>57</v>
       </c>
@@ -3279,7 +4142,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="65" t="s">
         <v>58</v>
       </c>
@@ -3313,7 +4176,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="65" t="s">
         <v>59</v>
       </c>
@@ -3347,7 +4210,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
+      <c r="A9" s="158"/>
       <c r="B9" s="65" t="s">
         <v>97</v>
       </c>
@@ -3381,7 +4244,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="138"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="65" t="s">
         <v>61</v>
       </c>
@@ -3415,7 +4278,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="65" t="s">
         <v>60</v>
       </c>
@@ -3449,7 +4312,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
@@ -3483,7 +4346,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="65" t="s">
         <v>50</v>
       </c>
@@ -3517,7 +4380,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="65" t="s">
         <v>51</v>
       </c>
@@ -3551,7 +4414,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="138"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="65" t="s">
         <v>62</v>
       </c>
@@ -3585,7 +4448,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="65" t="s">
         <v>63</v>
       </c>
@@ -3619,7 +4482,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="138"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="65" t="s">
         <v>52</v>
       </c>
@@ -3653,7 +4516,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="65" t="s">
         <v>53</v>
       </c>
@@ -3687,7 +4550,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="66" t="s">
         <v>54</v>
       </c>
@@ -3721,7 +4584,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="65" t="s">
         <v>55</v>
       </c>
@@ -3891,7 +4754,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="159" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -3927,7 +4790,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="140"/>
+      <c r="A26" s="160"/>
       <c r="B26" s="16" t="s">
         <v>89</v>
       </c>
@@ -3961,7 +4824,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="140"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="16" t="s">
         <v>91</v>
       </c>
@@ -3995,7 +4858,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="140"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="16" t="s">
         <v>92</v>
       </c>
@@ -4029,7 +4892,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="140"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
@@ -4063,7 +4926,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="140"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
@@ -4097,7 +4960,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="140"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -4123,7 +4986,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="140"/>
+      <c r="A32" s="160"/>
       <c r="B32" s="16" t="s">
         <v>67</v>
       </c>
@@ -4149,7 +5012,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="140"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
@@ -4183,7 +5046,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="140"/>
+      <c r="A34" s="160"/>
       <c r="B34" s="16" t="s">
         <v>69</v>
       </c>
@@ -4209,7 +5072,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="140"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="16" t="s">
         <v>70</v>
       </c>
@@ -4243,7 +5106,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="140"/>
+      <c r="A36" s="160"/>
       <c r="B36" s="16" t="s">
         <v>71</v>
       </c>
@@ -4277,7 +5140,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="140"/>
+      <c r="A37" s="160"/>
       <c r="B37" s="16" t="s">
         <v>72</v>
       </c>
@@ -4311,7 +5174,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="140"/>
+      <c r="A38" s="160"/>
       <c r="B38" s="16" t="s">
         <v>73</v>
       </c>
@@ -4345,7 +5208,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="140"/>
+      <c r="A39" s="160"/>
       <c r="B39" s="16" t="s">
         <v>74</v>
       </c>
@@ -4379,7 +5242,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="141"/>
+      <c r="A40" s="161"/>
       <c r="B40" s="20" t="s">
         <v>75</v>
       </c>
@@ -4413,7 +5276,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="142" t="s">
+      <c r="A41" s="162" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="86" t="s">
@@ -4449,7 +5312,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="143"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="87" t="s">
         <v>76</v>
       </c>
@@ -4483,7 +5346,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="144" t="s">
+      <c r="A43" s="164" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="84" t="s">
@@ -4511,7 +5374,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="145"/>
+      <c r="A44" s="165"/>
       <c r="B44" s="85" t="s">
         <v>78</v>
       </c>
@@ -4545,7 +5408,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="145"/>
+      <c r="A45" s="165"/>
       <c r="B45" s="85" t="s">
         <v>79</v>
       </c>
@@ -4579,7 +5442,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="145"/>
+      <c r="A46" s="165"/>
       <c r="B46" s="85" t="s">
         <v>80</v>
       </c>
@@ -4613,7 +5476,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="145"/>
+      <c r="A47" s="165"/>
       <c r="B47" s="85" t="s">
         <v>81</v>
       </c>
@@ -4647,7 +5510,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="145"/>
+      <c r="A48" s="165"/>
       <c r="B48" s="85" t="s">
         <v>82</v>
       </c>
@@ -4681,7 +5544,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="145"/>
+      <c r="A49" s="165"/>
       <c r="B49" s="85" t="s">
         <v>83</v>
       </c>
@@ -4715,7 +5578,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="146"/>
+      <c r="A50" s="166"/>
       <c r="B50" s="91" t="s">
         <v>84</v>
       </c>
@@ -4749,7 +5612,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="127" t="s">
+      <c r="A51" s="147" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="119" t="s">
@@ -4785,7 +5648,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="128"/>
+      <c r="A52" s="148"/>
       <c r="B52" s="107" t="s">
         <v>99</v>
       </c>
@@ -4819,7 +5682,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="128"/>
+      <c r="A53" s="148"/>
       <c r="B53" s="108" t="s">
         <v>101</v>
       </c>
@@ -4853,19 +5716,19 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="129" t="s">
+      <c r="I54" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="J54" s="130"/>
-      <c r="K54" s="133">
+      <c r="J54" s="150"/>
+      <c r="K54" s="153">
         <f>SUM(K2:K53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I55" s="131"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="134"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="152"/>
+      <c r="K55" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4887,1250 +5750,4318 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="A6" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
     <col min="4" max="7" width="6.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="19" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31"/>
-      <c r="B1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="135" t="s">
+      <c r="A1" s="127"/>
+      <c r="B1" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="43" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="170" t="s">
+      <c r="K1" s="125" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="220" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="B2" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="23">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18">
+        <v>9</v>
+      </c>
+      <c r="G2" s="21">
+        <v>31</v>
+      </c>
+      <c r="H2" s="35">
         <v>1250</v>
       </c>
-      <c r="I2" s="168">
-        <v>0</v>
-      </c>
-      <c r="J2" s="169">
-        <v>0</v>
-      </c>
-      <c r="K2" s="168">
+      <c r="I2" s="69">
+        <v>1200</v>
+      </c>
+      <c r="J2" s="72">
+        <v>0</v>
+      </c>
+      <c r="K2" s="52">
         <f>I2*J2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="138"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4">
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="221"/>
+      <c r="B3" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="25">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>79</v>
+      </c>
+      <c r="H3" s="36">
         <v>1251</v>
       </c>
-      <c r="I3" s="166">
-        <v>0</v>
-      </c>
-      <c r="J3" s="167">
-        <v>0</v>
-      </c>
-      <c r="K3" s="166">
-        <f t="shared" ref="K3:K53" si="0">I3*J3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="4">
+      <c r="I3" s="70">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="73">
+        <v>0</v>
+      </c>
+      <c r="K3" s="53">
+        <f t="shared" ref="K3:K52" si="0">I3*J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="221"/>
+      <c r="B4" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="25">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3">
+        <v>38</v>
+      </c>
+      <c r="H4" s="36">
         <v>1252</v>
       </c>
-      <c r="I4" s="166">
-        <v>0</v>
-      </c>
-      <c r="J4" s="167">
-        <v>0</v>
-      </c>
-      <c r="K4" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4">
+      <c r="I4" s="70">
+        <v>22000</v>
+      </c>
+      <c r="J4" s="73">
+        <v>0</v>
+      </c>
+      <c r="K4" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="221"/>
+      <c r="B5" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="25">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3">
+        <v>36</v>
+      </c>
+      <c r="H5" s="36">
         <v>1253</v>
       </c>
-      <c r="I5" s="166">
-        <v>0</v>
-      </c>
-      <c r="J5" s="167">
-        <v>0</v>
-      </c>
-      <c r="K5" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="138"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4">
+      <c r="I5" s="70">
+        <v>28000</v>
+      </c>
+      <c r="J5" s="73">
+        <v>0</v>
+      </c>
+      <c r="K5" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="221"/>
+      <c r="B6" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3">
+        <v>41</v>
+      </c>
+      <c r="H6" s="36">
         <v>1254</v>
       </c>
-      <c r="I6" s="166">
-        <v>0</v>
-      </c>
-      <c r="J6" s="167">
-        <v>0</v>
-      </c>
-      <c r="K6" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4">
+      <c r="I6" s="70">
+        <v>65000</v>
+      </c>
+      <c r="J6" s="73">
+        <v>0</v>
+      </c>
+      <c r="K6" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="221"/>
+      <c r="B7" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="25">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3">
+        <v>85</v>
+      </c>
+      <c r="H7" s="36">
         <v>1255</v>
       </c>
-      <c r="I7" s="166">
-        <v>0</v>
-      </c>
-      <c r="J7" s="167">
-        <v>0</v>
-      </c>
-      <c r="K7" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4">
+      <c r="I7" s="70">
+        <v>60000</v>
+      </c>
+      <c r="J7" s="73">
+        <v>0</v>
+      </c>
+      <c r="K7" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="221"/>
+      <c r="B8" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="25">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3">
+        <v>92</v>
+      </c>
+      <c r="H8" s="36">
         <v>1256</v>
       </c>
-      <c r="I8" s="166">
-        <v>0</v>
-      </c>
-      <c r="J8" s="167">
-        <v>0</v>
-      </c>
-      <c r="K8" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4">
+      <c r="I8" s="70">
+        <v>50000</v>
+      </c>
+      <c r="J8" s="73">
+        <v>0</v>
+      </c>
+      <c r="K8" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="221"/>
+      <c r="B9" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="25">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3">
+        <v>86</v>
+      </c>
+      <c r="H9" s="36">
         <v>1257</v>
       </c>
-      <c r="I9" s="166">
-        <v>0</v>
-      </c>
-      <c r="J9" s="167">
-        <v>0</v>
-      </c>
-      <c r="K9" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="138"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4">
+      <c r="I9" s="70">
+        <v>35000</v>
+      </c>
+      <c r="J9" s="73">
+        <v>0</v>
+      </c>
+      <c r="K9" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="221"/>
+      <c r="B10" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="25">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3">
+        <v>62</v>
+      </c>
+      <c r="H10" s="36">
         <v>1258</v>
       </c>
-      <c r="I10" s="166">
-        <v>0</v>
-      </c>
-      <c r="J10" s="167">
-        <v>0</v>
-      </c>
-      <c r="K10" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4">
+      <c r="I10" s="70">
+        <v>12000</v>
+      </c>
+      <c r="J10" s="73">
+        <v>0</v>
+      </c>
+      <c r="K10" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="221"/>
+      <c r="B11" s="229" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="25">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>280</v>
+      </c>
+      <c r="H11" s="36">
         <v>1259</v>
       </c>
-      <c r="I11" s="166">
-        <v>0</v>
-      </c>
-      <c r="J11" s="167">
-        <v>0</v>
-      </c>
-      <c r="K11" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4">
+      <c r="I11" s="70">
+        <v>900000</v>
+      </c>
+      <c r="J11" s="73">
+        <v>0</v>
+      </c>
+      <c r="K11" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="221"/>
+      <c r="B12" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="25">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>132</v>
+      </c>
+      <c r="H12" s="36">
         <v>1260</v>
       </c>
-      <c r="I12" s="166">
-        <v>0</v>
-      </c>
-      <c r="J12" s="167">
-        <v>0</v>
-      </c>
-      <c r="K12" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4">
+      <c r="I12" s="70">
+        <v>1600000</v>
+      </c>
+      <c r="J12" s="73">
+        <v>0</v>
+      </c>
+      <c r="K12" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="221"/>
+      <c r="B13" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="25">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>278</v>
+      </c>
+      <c r="H13" s="36">
         <v>1261</v>
       </c>
-      <c r="I13" s="166">
-        <v>0</v>
-      </c>
-      <c r="J13" s="167">
-        <v>0</v>
-      </c>
-      <c r="K13" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4">
+      <c r="I13" s="70">
+        <v>1500000</v>
+      </c>
+      <c r="J13" s="73">
+        <v>0</v>
+      </c>
+      <c r="K13" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="221"/>
+      <c r="B14" s="107" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="25">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>279</v>
+      </c>
+      <c r="H14" s="36">
         <v>1262</v>
       </c>
-      <c r="I14" s="166">
-        <v>0</v>
-      </c>
-      <c r="J14" s="167">
-        <v>0</v>
-      </c>
-      <c r="K14" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="138"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4">
+      <c r="I14" s="70">
+        <v>4500000</v>
+      </c>
+      <c r="J14" s="73">
+        <v>0</v>
+      </c>
+      <c r="K14" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="221"/>
+      <c r="B15" s="229" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="25">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>65</v>
+      </c>
+      <c r="H15" s="36">
         <v>1263</v>
       </c>
-      <c r="I15" s="166">
-        <v>0</v>
-      </c>
-      <c r="J15" s="167">
-        <v>0</v>
-      </c>
-      <c r="K15" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="4">
+      <c r="I15" s="70">
+        <v>350000</v>
+      </c>
+      <c r="J15" s="73">
+        <v>0</v>
+      </c>
+      <c r="K15" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="221"/>
+      <c r="B16" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="25">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>289</v>
+      </c>
+      <c r="H16" s="36">
         <v>1264</v>
       </c>
-      <c r="I16" s="166">
-        <v>0</v>
-      </c>
-      <c r="J16" s="167">
-        <v>0</v>
-      </c>
-      <c r="K16" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="138"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4">
+      <c r="I16" s="70">
+        <v>20000</v>
+      </c>
+      <c r="J16" s="73">
+        <v>60</v>
+      </c>
+      <c r="K16" s="53">
+        <f t="shared" si="0"/>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="221"/>
+      <c r="B17" s="107" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="25">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>77</v>
+      </c>
+      <c r="H17" s="36">
         <v>1265</v>
       </c>
-      <c r="I17" s="166">
-        <v>0</v>
-      </c>
-      <c r="J17" s="167">
-        <v>0</v>
-      </c>
-      <c r="K17" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="4">
+      <c r="I17" s="70">
+        <v>180000</v>
+      </c>
+      <c r="J17" s="73">
+        <v>0</v>
+      </c>
+      <c r="K17" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="221"/>
+      <c r="B18" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="25">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>70</v>
+      </c>
+      <c r="H18" s="36">
         <v>1266</v>
       </c>
-      <c r="I18" s="166">
-        <v>0</v>
-      </c>
-      <c r="J18" s="167">
-        <v>0</v>
-      </c>
-      <c r="K18" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4">
+      <c r="I18" s="70">
+        <v>190000</v>
+      </c>
+      <c r="J18" s="73">
+        <v>0</v>
+      </c>
+      <c r="K18" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="221"/>
+      <c r="B19" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="25">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>60</v>
+      </c>
+      <c r="H19" s="36">
         <v>1267</v>
       </c>
-      <c r="I19" s="166">
-        <v>0</v>
-      </c>
-      <c r="J19" s="167">
-        <v>0</v>
-      </c>
-      <c r="K19" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4">
+      <c r="I19" s="70">
+        <v>80000</v>
+      </c>
+      <c r="J19" s="73">
+        <v>0</v>
+      </c>
+      <c r="K19" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="221"/>
+      <c r="B20" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="25">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>292</v>
+      </c>
+      <c r="H20" s="36">
         <v>1268</v>
       </c>
-      <c r="I20" s="166">
-        <v>0</v>
-      </c>
-      <c r="J20" s="167">
-        <v>0</v>
-      </c>
-      <c r="K20" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="4">
+      <c r="I20" s="70">
+        <v>35000</v>
+      </c>
+      <c r="J20" s="73">
+        <v>0</v>
+      </c>
+      <c r="K20" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="221"/>
+      <c r="B21" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="25">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>293</v>
+      </c>
+      <c r="H21" s="36">
         <v>1269</v>
       </c>
-      <c r="I21" s="166">
-        <v>0</v>
-      </c>
-      <c r="J21" s="167">
-        <v>0</v>
-      </c>
-      <c r="K21" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="4">
+      <c r="I21" s="70">
+        <v>36000</v>
+      </c>
+      <c r="J21" s="73">
+        <v>0</v>
+      </c>
+      <c r="K21" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="221"/>
+      <c r="B22" s="107" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="25">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>59</v>
+      </c>
+      <c r="H22" s="36">
         <v>1270</v>
       </c>
-      <c r="I22" s="166">
-        <v>0</v>
-      </c>
-      <c r="J22" s="167">
-        <v>0</v>
-      </c>
-      <c r="K22" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="4">
+      <c r="I22" s="70">
+        <v>150000</v>
+      </c>
+      <c r="J22" s="73">
+        <v>0</v>
+      </c>
+      <c r="K22" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="221"/>
+      <c r="B23" s="107" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="25">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <v>39</v>
+      </c>
+      <c r="H23" s="36">
         <v>1271</v>
       </c>
-      <c r="I23" s="166">
-        <v>0</v>
-      </c>
-      <c r="J23" s="167">
-        <v>0</v>
-      </c>
-      <c r="K23" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="4">
+      <c r="I23" s="70">
+        <v>125000</v>
+      </c>
+      <c r="J23" s="73">
+        <v>0</v>
+      </c>
+      <c r="K23" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="221"/>
+      <c r="B24" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="25">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>33</v>
+      </c>
+      <c r="G24" s="3">
+        <v>147</v>
+      </c>
+      <c r="H24" s="36">
         <v>1272</v>
       </c>
-      <c r="I24" s="166">
-        <v>0</v>
-      </c>
-      <c r="J24" s="167">
-        <v>0</v>
-      </c>
-      <c r="K24" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="I24" s="70">
+        <v>5000</v>
+      </c>
+      <c r="J24" s="73">
+        <v>0</v>
+      </c>
+      <c r="K24" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="221"/>
+      <c r="B25" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2">
+        <v>33</v>
+      </c>
+      <c r="G25" s="3">
+        <v>145</v>
+      </c>
+      <c r="H25" s="36">
+        <v>1273</v>
+      </c>
+      <c r="I25" s="70">
+        <v>5200</v>
+      </c>
+      <c r="J25" s="73">
+        <v>0</v>
+      </c>
+      <c r="K25" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="221"/>
+      <c r="B26" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="27">
+        <v>4</v>
+      </c>
+      <c r="E26" s="19">
+        <v>7</v>
+      </c>
+      <c r="F26" s="19">
+        <v>33</v>
+      </c>
+      <c r="G26" s="22">
+        <v>144</v>
+      </c>
+      <c r="H26" s="38">
+        <v>1274</v>
+      </c>
+      <c r="I26" s="75">
+        <v>4800</v>
+      </c>
+      <c r="J26" s="74">
+        <v>0</v>
+      </c>
+      <c r="K26" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="172"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4">
-        <v>1273</v>
-      </c>
-      <c r="I25" s="166">
-        <v>0</v>
-      </c>
-      <c r="J25" s="167">
-        <v>0</v>
-      </c>
-      <c r="K25" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="156"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4">
-        <v>1274</v>
-      </c>
-      <c r="I26" s="166">
-        <v>0</v>
-      </c>
-      <c r="J26" s="167">
-        <v>0</v>
-      </c>
-      <c r="K26" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4">
+      <c r="B27" s="233" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="23">
+        <v>4</v>
+      </c>
+      <c r="E27" s="18">
+        <v>5</v>
+      </c>
+      <c r="F27" s="18">
+        <v>9</v>
+      </c>
+      <c r="G27" s="21">
+        <v>6</v>
+      </c>
+      <c r="H27" s="35">
         <v>1275</v>
       </c>
-      <c r="I27" s="166">
-        <v>0</v>
-      </c>
-      <c r="J27" s="167">
-        <v>0</v>
-      </c>
-      <c r="K27" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="156"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="4">
+      <c r="I27" s="69">
+        <v>3000</v>
+      </c>
+      <c r="J27" s="72">
+        <v>0</v>
+      </c>
+      <c r="K27" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="218"/>
+      <c r="B28" s="230" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="25">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7</v>
+      </c>
+      <c r="H28" s="36">
         <v>1276</v>
       </c>
-      <c r="I28" s="166">
-        <v>0</v>
-      </c>
-      <c r="J28" s="167">
-        <v>0</v>
-      </c>
-      <c r="K28" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4">
+      <c r="I28" s="70">
+        <v>6000</v>
+      </c>
+      <c r="J28" s="73">
+        <v>0</v>
+      </c>
+      <c r="K28" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="218"/>
+      <c r="B29" s="230" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="25">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>37</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4</v>
+      </c>
+      <c r="H29" s="36">
         <v>1277</v>
       </c>
-      <c r="I29" s="166">
-        <v>0</v>
-      </c>
-      <c r="J29" s="167">
-        <v>0</v>
-      </c>
-      <c r="K29" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4">
+      <c r="I29" s="70">
+        <v>8000</v>
+      </c>
+      <c r="J29" s="73">
+        <v>0</v>
+      </c>
+      <c r="K29" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="218"/>
+      <c r="B30" s="230" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="25">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2">
+        <v>33</v>
+      </c>
+      <c r="G30" s="3">
+        <v>442</v>
+      </c>
+      <c r="H30" s="36">
         <v>1278</v>
       </c>
-      <c r="I30" s="166">
-        <v>0</v>
-      </c>
-      <c r="J30" s="167">
-        <v>0</v>
-      </c>
-      <c r="K30" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="156"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="4">
+      <c r="I30" s="70">
+        <v>2500</v>
+      </c>
+      <c r="J30" s="73">
+        <v>0</v>
+      </c>
+      <c r="K30" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="218"/>
+      <c r="B31" s="230" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="25">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2">
+        <v>33</v>
+      </c>
+      <c r="G31" s="3">
+        <v>441</v>
+      </c>
+      <c r="H31" s="36">
         <v>1279</v>
       </c>
-      <c r="I31" s="166">
-        <v>0</v>
-      </c>
-      <c r="J31" s="167">
-        <v>0</v>
-      </c>
-      <c r="K31" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="156"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="4">
+      <c r="I31" s="70">
+        <v>2400</v>
+      </c>
+      <c r="J31" s="73">
+        <v>0</v>
+      </c>
+      <c r="K31" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="218"/>
+      <c r="B32" s="230" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="25">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2">
+        <v>33</v>
+      </c>
+      <c r="G32" s="3">
+        <v>32</v>
+      </c>
+      <c r="H32" s="36">
         <v>1280</v>
       </c>
-      <c r="I32" s="166">
-        <v>0</v>
-      </c>
-      <c r="J32" s="167">
-        <v>0</v>
-      </c>
-      <c r="K32" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="156"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="4">
+      <c r="I32" s="70">
+        <v>6000</v>
+      </c>
+      <c r="J32" s="73">
+        <v>0</v>
+      </c>
+      <c r="K32" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="218"/>
+      <c r="B33" s="230" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="25">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2">
+        <v>33</v>
+      </c>
+      <c r="G33" s="3">
+        <v>155</v>
+      </c>
+      <c r="H33" s="36">
         <v>1281</v>
       </c>
-      <c r="I33" s="166">
-        <v>0</v>
-      </c>
-      <c r="J33" s="167">
-        <v>0</v>
-      </c>
-      <c r="K33" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="156"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="4">
+      <c r="I33" s="70">
+        <v>8500</v>
+      </c>
+      <c r="J33" s="73">
+        <v>0</v>
+      </c>
+      <c r="K33" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="218"/>
+      <c r="B34" s="230" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="25">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2">
+        <v>8</v>
+      </c>
+      <c r="G34" s="3">
+        <v>353</v>
+      </c>
+      <c r="H34" s="36">
         <v>1282</v>
       </c>
-      <c r="I34" s="166">
-        <v>0</v>
-      </c>
-      <c r="J34" s="167">
-        <v>0</v>
-      </c>
-      <c r="K34" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="156"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="4">
+      <c r="I34" s="70">
+        <v>100000</v>
+      </c>
+      <c r="J34" s="73">
+        <v>0</v>
+      </c>
+      <c r="K34" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="218"/>
+      <c r="B35" s="230" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="25">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>354</v>
+      </c>
+      <c r="H35" s="36">
         <v>1283</v>
       </c>
-      <c r="I35" s="166">
-        <v>0</v>
-      </c>
-      <c r="J35" s="167">
-        <v>0</v>
-      </c>
-      <c r="K35" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="156"/>
-      <c r="B36" s="172"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="4">
+      <c r="I35" s="70">
+        <v>80000</v>
+      </c>
+      <c r="J35" s="73">
+        <v>0</v>
+      </c>
+      <c r="K35" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="218"/>
+      <c r="B36" s="230" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="25">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>58</v>
+      </c>
+      <c r="H36" s="36">
         <v>1284</v>
       </c>
-      <c r="I36" s="166">
-        <v>0</v>
-      </c>
-      <c r="J36" s="167">
-        <v>0</v>
-      </c>
-      <c r="K36" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="156"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="4">
+      <c r="I36" s="70">
+        <v>135000</v>
+      </c>
+      <c r="J36" s="73">
+        <v>0</v>
+      </c>
+      <c r="K36" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="218"/>
+      <c r="B37" s="230" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="25">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2">
+        <v>8</v>
+      </c>
+      <c r="G37" s="3">
+        <v>46</v>
+      </c>
+      <c r="H37" s="36">
         <v>1285</v>
       </c>
-      <c r="I37" s="166">
-        <v>0</v>
-      </c>
-      <c r="J37" s="167">
-        <v>0</v>
-      </c>
-      <c r="K37" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="156"/>
-      <c r="B38" s="172"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="4">
+      <c r="I37" s="70">
+        <v>1000000</v>
+      </c>
+      <c r="J37" s="73">
+        <v>0</v>
+      </c>
+      <c r="K37" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="218"/>
+      <c r="B38" s="230" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="25">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45</v>
+      </c>
+      <c r="H38" s="36">
         <v>1286</v>
       </c>
-      <c r="I38" s="166">
-        <v>0</v>
-      </c>
-      <c r="J38" s="167">
-        <v>0</v>
-      </c>
-      <c r="K38" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="156"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="4">
+      <c r="I38" s="70">
+        <v>450000</v>
+      </c>
+      <c r="J38" s="73">
+        <v>0</v>
+      </c>
+      <c r="K38" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="124"/>
+    </row>
+    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="218"/>
+      <c r="B39" s="230" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="25">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>8</v>
+      </c>
+      <c r="G39" s="3">
+        <v>287</v>
+      </c>
+      <c r="H39" s="36">
         <v>1287</v>
       </c>
-      <c r="I39" s="166">
-        <v>0</v>
-      </c>
-      <c r="J39" s="167">
-        <v>0</v>
-      </c>
-      <c r="K39" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="157"/>
-      <c r="B40" s="172"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="4">
+      <c r="I39" s="70">
+        <v>600000</v>
+      </c>
+      <c r="J39" s="73">
+        <v>0</v>
+      </c>
+      <c r="K39" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="219"/>
+      <c r="B40" s="235" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="27">
+        <v>4</v>
+      </c>
+      <c r="E40" s="19">
+        <v>4</v>
+      </c>
+      <c r="F40" s="19">
+        <v>8</v>
+      </c>
+      <c r="G40" s="22">
+        <v>75</v>
+      </c>
+      <c r="H40" s="38">
         <v>1288</v>
       </c>
-      <c r="I40" s="166">
-        <v>0</v>
-      </c>
-      <c r="J40" s="167">
-        <v>0</v>
-      </c>
-      <c r="K40" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="158" t="s">
+      <c r="I40" s="75">
+        <v>550000</v>
+      </c>
+      <c r="J40" s="74">
+        <v>0</v>
+      </c>
+      <c r="K40" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="222" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="172"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="4">
+      <c r="B41" s="236" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="23">
+        <v>4</v>
+      </c>
+      <c r="E41" s="18">
+        <v>4</v>
+      </c>
+      <c r="F41" s="18">
+        <v>8</v>
+      </c>
+      <c r="G41" s="21">
+        <v>305</v>
+      </c>
+      <c r="H41" s="35">
         <v>1289</v>
       </c>
-      <c r="I41" s="166">
-        <v>0</v>
-      </c>
-      <c r="J41" s="167">
-        <v>0</v>
-      </c>
-      <c r="K41" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="159"/>
-      <c r="B42" s="172"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="4">
+      <c r="I41" s="69">
+        <v>600000</v>
+      </c>
+      <c r="J41" s="72">
+        <v>0</v>
+      </c>
+      <c r="K41" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="223"/>
+      <c r="B42" s="231" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="25">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>295</v>
+      </c>
+      <c r="H42" s="36">
         <v>1290</v>
       </c>
-      <c r="I42" s="166">
-        <v>0</v>
-      </c>
-      <c r="J42" s="167">
-        <v>0</v>
-      </c>
-      <c r="K42" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="160" t="s">
+      <c r="I42" s="70">
+        <v>450000</v>
+      </c>
+      <c r="J42" s="73">
+        <v>0</v>
+      </c>
+      <c r="K42" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="223"/>
+      <c r="B43" s="231" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="25">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
+        <v>298</v>
+      </c>
+      <c r="H43" s="36">
+        <v>1291</v>
+      </c>
+      <c r="I43" s="70">
+        <v>440000</v>
+      </c>
+      <c r="J43" s="73">
+        <v>0</v>
+      </c>
+      <c r="K43" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="223"/>
+      <c r="B44" s="231" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="25">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>432</v>
+      </c>
+      <c r="H44" s="36">
+        <v>1292</v>
+      </c>
+      <c r="I44" s="70">
+        <v>80000</v>
+      </c>
+      <c r="J44" s="73">
+        <v>0</v>
+      </c>
+      <c r="K44" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="223"/>
+      <c r="B45" s="231" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="25">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
+        <v>433</v>
+      </c>
+      <c r="H45" s="36">
+        <v>1293</v>
+      </c>
+      <c r="I45" s="70">
+        <v>50000</v>
+      </c>
+      <c r="J45" s="73">
+        <v>0</v>
+      </c>
+      <c r="K45" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="223"/>
+      <c r="B46" s="231" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="25">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3">
+        <v>362</v>
+      </c>
+      <c r="H46" s="36">
+        <v>1294</v>
+      </c>
+      <c r="I46" s="70">
+        <v>950000</v>
+      </c>
+      <c r="J46" s="73">
+        <v>0</v>
+      </c>
+      <c r="K46" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="223"/>
+      <c r="B47" s="231" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="25">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>304</v>
+      </c>
+      <c r="H47" s="36">
+        <v>1295</v>
+      </c>
+      <c r="I47" s="70">
+        <v>1300000</v>
+      </c>
+      <c r="J47" s="73">
+        <v>0</v>
+      </c>
+      <c r="K47" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="224"/>
+      <c r="B48" s="245" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="27">
+        <v>4</v>
+      </c>
+      <c r="E48" s="19">
+        <v>4</v>
+      </c>
+      <c r="F48" s="19">
+        <v>8</v>
+      </c>
+      <c r="G48" s="22">
+        <v>298</v>
+      </c>
+      <c r="H48" s="38">
+        <v>1296</v>
+      </c>
+      <c r="I48" s="71">
+        <v>35000</v>
+      </c>
+      <c r="J48" s="144">
+        <v>0</v>
+      </c>
+      <c r="K48" s="239">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="4">
-        <v>1291</v>
-      </c>
-      <c r="I43" s="166">
-        <v>0</v>
-      </c>
-      <c r="J43" s="167">
-        <v>0</v>
-      </c>
-      <c r="K43" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="161"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="4">
-        <v>1292</v>
-      </c>
-      <c r="I44" s="166">
-        <v>0</v>
-      </c>
-      <c r="J44" s="167">
-        <v>0</v>
-      </c>
-      <c r="K44" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="161"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="4">
-        <v>1293</v>
-      </c>
-      <c r="I45" s="166">
-        <v>0</v>
-      </c>
-      <c r="J45" s="167">
-        <v>0</v>
-      </c>
-      <c r="K45" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="161"/>
-      <c r="B46" s="172"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="4">
-        <v>1294</v>
-      </c>
-      <c r="I46" s="166">
-        <v>0</v>
-      </c>
-      <c r="J46" s="167">
-        <v>0</v>
-      </c>
-      <c r="K46" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="161"/>
-      <c r="B47" s="172"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="4">
-        <v>1295</v>
-      </c>
-      <c r="I47" s="166">
-        <v>0</v>
-      </c>
-      <c r="J47" s="167">
-        <v>0</v>
-      </c>
-      <c r="K47" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="161"/>
-      <c r="B48" s="172"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="4">
-        <v>1296</v>
-      </c>
-      <c r="I48" s="166">
-        <v>0</v>
-      </c>
-      <c r="J48" s="167">
-        <v>0</v>
-      </c>
-      <c r="K48" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="161"/>
-      <c r="B49" s="172"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="4">
+      <c r="B49" s="115" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="35">
         <v>1297</v>
       </c>
-      <c r="I49" s="166">
-        <v>0</v>
-      </c>
-      <c r="J49" s="167">
-        <v>0</v>
-      </c>
-      <c r="K49" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="162"/>
-      <c r="B50" s="172"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="4">
+      <c r="I49" s="69">
+        <v>0</v>
+      </c>
+      <c r="J49" s="72">
+        <v>0</v>
+      </c>
+      <c r="K49" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="226"/>
+      <c r="B50" s="232" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="25">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
+        <v>9</v>
+      </c>
+      <c r="G50" s="3">
+        <v>389</v>
+      </c>
+      <c r="H50" s="36">
         <v>1298</v>
       </c>
-      <c r="I50" s="166">
-        <v>0</v>
-      </c>
-      <c r="J50" s="167">
-        <v>0</v>
-      </c>
-      <c r="K50" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="172"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="4">
+      <c r="I50" s="70">
+        <v>2000</v>
+      </c>
+      <c r="J50" s="73">
+        <v>0</v>
+      </c>
+      <c r="K50" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="226"/>
+      <c r="B51" s="232" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="25">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2">
+        <v>7</v>
+      </c>
+      <c r="F51" s="2">
+        <v>33</v>
+      </c>
+      <c r="G51" s="3">
+        <v>376</v>
+      </c>
+      <c r="H51" s="36">
         <v>1299</v>
       </c>
-      <c r="I51" s="166">
-        <v>0</v>
-      </c>
-      <c r="J51" s="167">
-        <v>0</v>
-      </c>
-      <c r="K51" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="128"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="4">
+      <c r="I51" s="70">
+        <v>2500</v>
+      </c>
+      <c r="J51" s="73">
+        <v>0</v>
+      </c>
+      <c r="K51" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="124"/>
+    </row>
+    <row r="52" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="227"/>
+      <c r="B52" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="27">
+        <v>4</v>
+      </c>
+      <c r="E52" s="19">
+        <v>4</v>
+      </c>
+      <c r="F52" s="19">
+        <v>8</v>
+      </c>
+      <c r="G52" s="22">
+        <v>407</v>
+      </c>
+      <c r="H52" s="38">
         <v>1300</v>
       </c>
-      <c r="I52" s="166">
-        <v>0</v>
-      </c>
-      <c r="J52" s="167">
-        <v>0</v>
-      </c>
-      <c r="K52" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="128"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="4">
-        <v>1301</v>
-      </c>
-      <c r="I53" s="166">
-        <v>0</v>
-      </c>
-      <c r="J53" s="167">
-        <v>0</v>
-      </c>
-      <c r="K53" s="166">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="163" t="s">
+      <c r="I52" s="75">
+        <v>80000</v>
+      </c>
+      <c r="J52" s="74">
+        <v>0</v>
+      </c>
+      <c r="K52" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="228"/>
+      <c r="I53" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="J54" s="164"/>
-      <c r="K54" s="165">
-        <f>SUM(K2:K53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I55" s="131"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="134"/>
+      <c r="J53" s="246"/>
+      <c r="K53" s="169">
+        <f>SUM(K2:K52)</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="228"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="247"/>
+      <c r="K54" s="154"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H55" s="228"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H56" s="228"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H57" s="228"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H58" s="228"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H59" s="228"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H60" s="228"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H61" s="228"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H62" s="228"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H63" s="228"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H64" s="228"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="228"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="228"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="228"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="228"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="228"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="228"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="228"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="228"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H73" s="228"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="228"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="228"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="228"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="228"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="228"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="228"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H80" s="228"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="228"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="228"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="228"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="228"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="228"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="228"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="228"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="228"/>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="228"/>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="228"/>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="228"/>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="228"/>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="228"/>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="228"/>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H95" s="228"/>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="228"/>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="228"/>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="228"/>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="228"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:K55"/>
+  <mergeCells count="7">
+    <mergeCell ref="I53:J54"/>
+    <mergeCell ref="K53:K54"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A25:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A27:A40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A2:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF242A3-D205-43BD-8BF2-9F726CCF6528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AB582E-2784-4CE3-8804-EE37D55D366A}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="61.140625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="6.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="127"/>
+      <c r="B1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="128">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18">
+        <v>43</v>
+      </c>
+      <c r="F2" s="21">
+        <v>103</v>
+      </c>
+      <c r="G2" s="35">
+        <v>1250</v>
+      </c>
+      <c r="H2" s="52">
+        <v>90000</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="J2" s="52">
+        <f>H2*I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="129">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2740</v>
+      </c>
+      <c r="G3" s="42">
+        <v>1251</v>
+      </c>
+      <c r="H3" s="53">
+        <v>50000</v>
+      </c>
+      <c r="I3" s="73"/>
+      <c r="J3" s="53">
+        <f t="shared" ref="J3:J40" si="0">H3*I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="174"/>
+      <c r="B4" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="129">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3">
+        <v>294</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1252</v>
+      </c>
+      <c r="H4" s="53">
+        <v>70000</v>
+      </c>
+      <c r="I4" s="73"/>
+      <c r="J4" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="174"/>
+      <c r="B5" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="129">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1572</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1253</v>
+      </c>
+      <c r="H5" s="53">
+        <v>52000</v>
+      </c>
+      <c r="I5" s="73"/>
+      <c r="J5" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="174"/>
+      <c r="B6" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="129">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="42">
+        <v>1254</v>
+      </c>
+      <c r="H6" s="53">
+        <v>100000</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="174"/>
+      <c r="B7" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="129">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3">
+        <v>36</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1255</v>
+      </c>
+      <c r="H7" s="53">
+        <v>48000</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="174"/>
+      <c r="B8" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="129">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3">
+        <v>587</v>
+      </c>
+      <c r="G8" s="42">
+        <v>1256</v>
+      </c>
+      <c r="H8" s="53">
+        <v>55000</v>
+      </c>
+      <c r="I8" s="73"/>
+      <c r="J8" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="174"/>
+      <c r="B9" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="129">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3">
+        <v>485</v>
+      </c>
+      <c r="G9" s="42">
+        <v>1257</v>
+      </c>
+      <c r="H9" s="53">
+        <v>50000</v>
+      </c>
+      <c r="I9" s="73"/>
+      <c r="J9" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="174"/>
+      <c r="B10" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="129">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3">
+        <v>11</v>
+      </c>
+      <c r="G10" s="42">
+        <v>1258</v>
+      </c>
+      <c r="H10" s="53">
+        <v>58000</v>
+      </c>
+      <c r="I10" s="73"/>
+      <c r="J10" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="174"/>
+      <c r="B11" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="129">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3">
+        <v>604</v>
+      </c>
+      <c r="G11" s="42">
+        <v>1259</v>
+      </c>
+      <c r="H11" s="53">
+        <v>85000</v>
+      </c>
+      <c r="I11" s="73"/>
+      <c r="J11" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="174"/>
+      <c r="B12" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="129">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3">
+        <v>605</v>
+      </c>
+      <c r="G12" s="42">
+        <v>1260</v>
+      </c>
+      <c r="H12" s="53">
+        <v>60000</v>
+      </c>
+      <c r="I12" s="73"/>
+      <c r="J12" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="174"/>
+      <c r="B13" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="129">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3">
+        <v>14</v>
+      </c>
+      <c r="G13" s="42">
+        <v>1261</v>
+      </c>
+      <c r="H13" s="53">
+        <v>40000</v>
+      </c>
+      <c r="I13" s="73"/>
+      <c r="J13" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="174"/>
+      <c r="B14" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="129">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1470</v>
+      </c>
+      <c r="G14" s="42">
+        <v>1262</v>
+      </c>
+      <c r="H14" s="53">
+        <v>95000</v>
+      </c>
+      <c r="I14" s="73"/>
+      <c r="J14" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="174"/>
+      <c r="B15" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="129">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2146</v>
+      </c>
+      <c r="G15" s="42">
+        <v>1263</v>
+      </c>
+      <c r="H15" s="53">
+        <v>92000</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="174"/>
+      <c r="B16" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="129">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2144</v>
+      </c>
+      <c r="G16" s="42">
+        <v>1264</v>
+      </c>
+      <c r="H16" s="53">
+        <v>58000</v>
+      </c>
+      <c r="I16" s="73"/>
+      <c r="J16" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="174"/>
+      <c r="B17" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="129">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3">
+        <v>465</v>
+      </c>
+      <c r="G17" s="42">
+        <v>1265</v>
+      </c>
+      <c r="H17" s="53">
+        <v>42000</v>
+      </c>
+      <c r="I17" s="73"/>
+      <c r="J17" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="174"/>
+      <c r="B18" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="129">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1056</v>
+      </c>
+      <c r="G18" s="42">
+        <v>1266</v>
+      </c>
+      <c r="H18" s="53">
+        <v>38000</v>
+      </c>
+      <c r="I18" s="73"/>
+      <c r="J18" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="175"/>
+      <c r="B19" s="213" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="141">
+        <v>1</v>
+      </c>
+      <c r="D19" s="142">
+        <v>3</v>
+      </c>
+      <c r="E19" s="142">
+        <v>43</v>
+      </c>
+      <c r="F19" s="33">
+        <v>855</v>
+      </c>
+      <c r="G19" s="209">
+        <v>1267</v>
+      </c>
+      <c r="H19" s="55">
+        <v>30000</v>
+      </c>
+      <c r="I19" s="74"/>
+      <c r="J19" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="214" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="128">
+        <v>4</v>
+      </c>
+      <c r="D20" s="18">
+        <v>15</v>
+      </c>
+      <c r="E20" s="18">
+        <v>45</v>
+      </c>
+      <c r="F20" s="21">
+        <v>968</v>
+      </c>
+      <c r="G20" s="35">
+        <v>1268</v>
+      </c>
+      <c r="H20" s="69">
+        <v>1500000</v>
+      </c>
+      <c r="I20" s="72"/>
+      <c r="J20" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="215"/>
+      <c r="B21" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="210">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1762</v>
+      </c>
+      <c r="G21" s="36">
+        <v>1269</v>
+      </c>
+      <c r="H21" s="70">
+        <v>950000</v>
+      </c>
+      <c r="I21" s="73"/>
+      <c r="J21" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="215"/>
+      <c r="B22" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="210">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3">
+        <v>25</v>
+      </c>
+      <c r="G22" s="36">
+        <v>1270</v>
+      </c>
+      <c r="H22" s="70">
+        <v>1200000</v>
+      </c>
+      <c r="I22" s="73"/>
+      <c r="J22" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="215"/>
+      <c r="B23" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="210">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44</v>
+      </c>
+      <c r="F23" s="3">
+        <v>424</v>
+      </c>
+      <c r="G23" s="36">
+        <v>1271</v>
+      </c>
+      <c r="H23" s="70">
+        <v>850000</v>
+      </c>
+      <c r="I23" s="73"/>
+      <c r="J23" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="215"/>
+      <c r="B24" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="210">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1717</v>
+      </c>
+      <c r="G24" s="36">
+        <v>1272</v>
+      </c>
+      <c r="H24" s="70">
+        <v>1000000</v>
+      </c>
+      <c r="I24" s="73"/>
+      <c r="J24" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="215"/>
+      <c r="B25" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="211">
+        <v>4</v>
+      </c>
+      <c r="D25" s="17">
+        <v>15</v>
+      </c>
+      <c r="E25" s="17">
+        <v>44</v>
+      </c>
+      <c r="F25" s="33">
+        <v>461</v>
+      </c>
+      <c r="G25" s="36">
+        <v>1286</v>
+      </c>
+      <c r="H25" s="71">
+        <v>720000</v>
+      </c>
+      <c r="I25" s="144"/>
+      <c r="J25" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="215"/>
+      <c r="B26" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="211">
+        <v>4</v>
+      </c>
+      <c r="D26" s="17">
+        <v>15</v>
+      </c>
+      <c r="E26" s="17">
+        <v>44</v>
+      </c>
+      <c r="F26" s="33">
+        <v>65</v>
+      </c>
+      <c r="G26" s="36">
+        <v>1287</v>
+      </c>
+      <c r="H26" s="71">
+        <v>900000</v>
+      </c>
+      <c r="I26" s="144"/>
+      <c r="J26" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="216"/>
+      <c r="B27" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="212">
+        <v>4</v>
+      </c>
+      <c r="D27" s="19">
+        <v>15</v>
+      </c>
+      <c r="E27" s="19">
+        <v>45</v>
+      </c>
+      <c r="F27" s="22">
+        <v>462</v>
+      </c>
+      <c r="G27" s="38">
+        <v>1273</v>
+      </c>
+      <c r="H27" s="75">
+        <v>980000</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="176" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="30">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4">
+        <v>48</v>
+      </c>
+      <c r="F28" s="143">
+        <v>1170</v>
+      </c>
+      <c r="G28" s="42">
+        <v>1274</v>
+      </c>
+      <c r="H28" s="52">
+        <v>60000</v>
+      </c>
+      <c r="I28" s="72"/>
+      <c r="J28" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="177"/>
+      <c r="B29" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="25">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44</v>
+      </c>
+      <c r="F29" s="26">
+        <v>2140</v>
+      </c>
+      <c r="G29" s="42">
+        <v>1275</v>
+      </c>
+      <c r="H29" s="53">
+        <v>50000</v>
+      </c>
+      <c r="I29" s="73"/>
+      <c r="J29" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="177"/>
+      <c r="B30" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="25">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44</v>
+      </c>
+      <c r="F30" s="26">
+        <v>2287</v>
+      </c>
+      <c r="G30" s="42">
+        <v>1276</v>
+      </c>
+      <c r="H30" s="53">
+        <v>75000</v>
+      </c>
+      <c r="I30" s="73"/>
+      <c r="J30" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="178"/>
+      <c r="B31" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="27">
+        <v>4</v>
+      </c>
+      <c r="D31" s="19">
+        <v>15</v>
+      </c>
+      <c r="E31" s="19">
+        <v>48</v>
+      </c>
+      <c r="F31" s="28">
+        <v>666</v>
+      </c>
+      <c r="G31" s="126">
+        <v>1277</v>
+      </c>
+      <c r="H31" s="55">
+        <v>35000</v>
+      </c>
+      <c r="I31" s="74"/>
+      <c r="J31" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="23">
+        <v>4</v>
+      </c>
+      <c r="D32" s="18">
+        <v>15</v>
+      </c>
+      <c r="E32" s="18">
+        <v>44</v>
+      </c>
+      <c r="F32" s="24">
+        <v>425</v>
+      </c>
+      <c r="G32" s="35">
+        <v>1278</v>
+      </c>
+      <c r="H32" s="52">
+        <v>2300000</v>
+      </c>
+      <c r="I32" s="72">
+        <v>4</v>
+      </c>
+      <c r="J32" s="52">
+        <f t="shared" si="0"/>
+        <v>9200000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="180"/>
+      <c r="B33" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="25">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44</v>
+      </c>
+      <c r="F33" s="26">
+        <v>1718</v>
+      </c>
+      <c r="G33" s="42">
+        <v>1279</v>
+      </c>
+      <c r="H33" s="53">
+        <v>1440000</v>
+      </c>
+      <c r="I33" s="73">
+        <v>2</v>
+      </c>
+      <c r="J33" s="53">
+        <f t="shared" si="0"/>
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="180"/>
+      <c r="B34" s="132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="25">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44</v>
+      </c>
+      <c r="F34" s="26">
+        <v>2148</v>
+      </c>
+      <c r="G34" s="42">
+        <v>1280</v>
+      </c>
+      <c r="H34" s="53">
+        <v>1100000</v>
+      </c>
+      <c r="I34" s="73">
+        <v>1</v>
+      </c>
+      <c r="J34" s="53">
+        <f t="shared" si="0"/>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="180"/>
+      <c r="B35" s="132" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="25">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44</v>
+      </c>
+      <c r="F35" s="26">
+        <v>463</v>
+      </c>
+      <c r="G35" s="42">
+        <v>1281</v>
+      </c>
+      <c r="H35" s="53">
+        <v>1250000</v>
+      </c>
+      <c r="I35" s="73">
+        <v>1</v>
+      </c>
+      <c r="J35" s="53">
+        <f t="shared" si="0"/>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="180"/>
+      <c r="B36" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="25">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44</v>
+      </c>
+      <c r="F36" s="26">
+        <v>808</v>
+      </c>
+      <c r="G36" s="42">
+        <v>1282</v>
+      </c>
+      <c r="H36" s="53">
+        <v>1600000</v>
+      </c>
+      <c r="I36" s="73">
+        <v>2</v>
+      </c>
+      <c r="J36" s="53">
+        <f t="shared" si="0"/>
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="180"/>
+      <c r="B37" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="25">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44</v>
+      </c>
+      <c r="F37" s="26">
+        <v>19</v>
+      </c>
+      <c r="G37" s="42">
+        <v>1288</v>
+      </c>
+      <c r="H37" s="53">
+        <v>1800000</v>
+      </c>
+      <c r="I37" s="73">
+        <v>2</v>
+      </c>
+      <c r="J37" s="53">
+        <f t="shared" si="0"/>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="180"/>
+      <c r="B38" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="25">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44</v>
+      </c>
+      <c r="F38" s="26">
+        <v>2286</v>
+      </c>
+      <c r="G38" s="42">
+        <v>1283</v>
+      </c>
+      <c r="H38" s="53">
+        <v>1750000</v>
+      </c>
+      <c r="I38" s="73">
+        <v>2</v>
+      </c>
+      <c r="J38" s="53">
+        <f t="shared" si="0"/>
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="181"/>
+      <c r="B39" s="134" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="27">
+        <v>4</v>
+      </c>
+      <c r="D39" s="19">
+        <v>15</v>
+      </c>
+      <c r="E39" s="19">
+        <v>44</v>
+      </c>
+      <c r="F39" s="28">
+        <v>2114</v>
+      </c>
+      <c r="G39" s="126">
+        <v>1284</v>
+      </c>
+      <c r="H39" s="55">
+        <v>3200000</v>
+      </c>
+      <c r="I39" s="74">
+        <v>2</v>
+      </c>
+      <c r="J39" s="55">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="136" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="137" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="7">
+        <v>4</v>
+      </c>
+      <c r="D40" s="135">
+        <v>15</v>
+      </c>
+      <c r="E40" s="135">
+        <v>46</v>
+      </c>
+      <c r="F40" s="138">
+        <v>1919</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1285</v>
+      </c>
+      <c r="H40" s="139">
+        <v>250000</v>
+      </c>
+      <c r="I40" s="111"/>
+      <c r="J40" s="140">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="167" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="168"/>
+      <c r="J41" s="169">
+        <f>SUM(J2:J40)</f>
+        <v>31130000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="151"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="154"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="243" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="23">
+        <v>4</v>
+      </c>
+      <c r="D45" s="18">
+        <v>15</v>
+      </c>
+      <c r="E45" s="18">
+        <v>46</v>
+      </c>
+      <c r="F45" s="24">
+        <v>2607</v>
+      </c>
+      <c r="G45" s="35">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="240" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="25">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
+      <c r="F46" s="26">
+        <v>160</v>
+      </c>
+      <c r="G46" s="36">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="240" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="25">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2">
+        <v>46</v>
+      </c>
+      <c r="F47" s="26">
+        <v>161</v>
+      </c>
+      <c r="G47" s="36">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="240" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="25">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2">
+        <v>46</v>
+      </c>
+      <c r="F48" s="26">
+        <v>174</v>
+      </c>
+      <c r="G48" s="36">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="240" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="25">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2">
+        <v>46</v>
+      </c>
+      <c r="F49" s="26">
+        <v>175</v>
+      </c>
+      <c r="G49" s="36">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="240" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="25">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>15</v>
+      </c>
+      <c r="E50" s="2">
+        <v>46</v>
+      </c>
+      <c r="F50" s="26">
+        <v>2491</v>
+      </c>
+      <c r="G50" s="36">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="240" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="25">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2">
+        <v>46</v>
+      </c>
+      <c r="F51" s="26">
+        <v>2492</v>
+      </c>
+      <c r="G51" s="36">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="240" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="25">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2">
+        <v>46</v>
+      </c>
+      <c r="F52" s="26">
+        <v>2493</v>
+      </c>
+      <c r="G52" s="36">
+        <v>1305</v>
+      </c>
+      <c r="H52" s="242"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="240" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="25">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>15</v>
+      </c>
+      <c r="E53" s="2">
+        <v>47</v>
+      </c>
+      <c r="F53" s="26">
+        <v>1100</v>
+      </c>
+      <c r="G53" s="36">
+        <v>1306</v>
+      </c>
+      <c r="I53" s="124"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="240" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="25">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2">
+        <v>15</v>
+      </c>
+      <c r="E54" s="2">
+        <v>47</v>
+      </c>
+      <c r="F54" s="26">
+        <v>680</v>
+      </c>
+      <c r="G54" s="36">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="240" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="25">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>15</v>
+      </c>
+      <c r="E55" s="2">
+        <v>47</v>
+      </c>
+      <c r="F55" s="26">
+        <v>679</v>
+      </c>
+      <c r="G55" s="36">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="240" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="25">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2">
+        <v>15</v>
+      </c>
+      <c r="E56" s="2">
+        <v>46</v>
+      </c>
+      <c r="F56" s="26">
+        <v>1767</v>
+      </c>
+      <c r="G56" s="36">
+        <v>1309</v>
+      </c>
+      <c r="H56" s="242"/>
+      <c r="I56" s="124"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="240" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="25">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>15</v>
+      </c>
+      <c r="E57" s="2">
+        <v>46</v>
+      </c>
+      <c r="F57" s="26">
+        <v>1294</v>
+      </c>
+      <c r="G57" s="36">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="240" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="25">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2">
+        <v>32</v>
+      </c>
+      <c r="F58" s="26">
+        <v>2592</v>
+      </c>
+      <c r="G58" s="36">
+        <v>1311</v>
+      </c>
+      <c r="H58" s="242"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="240" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="25">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2">
+        <v>32</v>
+      </c>
+      <c r="F59" s="26">
+        <v>2593</v>
+      </c>
+      <c r="G59" s="36">
+        <v>1312</v>
+      </c>
+      <c r="I59" s="124"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="240" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" s="25">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2">
+        <v>32</v>
+      </c>
+      <c r="F60" s="26">
+        <v>2591</v>
+      </c>
+      <c r="G60" s="36">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="240" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="25">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2">
+        <v>32</v>
+      </c>
+      <c r="F61" s="26">
+        <v>2592</v>
+      </c>
+      <c r="G61" s="36">
+        <v>1314</v>
+      </c>
+      <c r="I61" s="124"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="240" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="25">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5</v>
+      </c>
+      <c r="E62" s="2">
+        <v>32</v>
+      </c>
+      <c r="F62" s="26">
+        <v>2596</v>
+      </c>
+      <c r="G62" s="36">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="241" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="27">
+        <v>4</v>
+      </c>
+      <c r="D63" s="19">
+        <v>5</v>
+      </c>
+      <c r="E63" s="19">
+        <v>32</v>
+      </c>
+      <c r="F63" s="28">
+        <v>2595</v>
+      </c>
+      <c r="G63" s="38">
+        <v>1316</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA6EB9-D598-47C8-A87E-5710777E3A40}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="17.85546875" style="112" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="13">
+        <v>40</v>
+      </c>
+      <c r="D2" s="79">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="42">
+        <v>20</v>
+      </c>
+      <c r="D3" s="184">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="187"/>
+      <c r="C4" s="37">
+        <v>10</v>
+      </c>
+      <c r="D4" s="185"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="35">
+        <v>20</v>
+      </c>
+      <c r="D5" s="184">
+        <v>617000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="237" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="248"/>
+      <c r="C6" s="209">
+        <v>4</v>
+      </c>
+      <c r="D6" s="249"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="187"/>
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="185"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="109" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="35">
+        <v>20</v>
+      </c>
+      <c r="D8" s="184">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="254" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="248"/>
+      <c r="C9" s="209">
+        <v>4</v>
+      </c>
+      <c r="D9" s="249"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="187"/>
+      <c r="C10" s="37">
+        <v>2</v>
+      </c>
+      <c r="D10" s="185"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="35">
+        <v>4</v>
+      </c>
+      <c r="D11" s="184">
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="238" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="248"/>
+      <c r="C12" s="209">
+        <v>2</v>
+      </c>
+      <c r="D12" s="249"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="35">
+        <v>20</v>
+      </c>
+      <c r="D13" s="184">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="250" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="248"/>
+      <c r="C14" s="209">
+        <v>20</v>
+      </c>
+      <c r="D14" s="249"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="187"/>
+      <c r="C15" s="37">
+        <v>10</v>
+      </c>
+      <c r="D15" s="185"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="115" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="35">
+        <v>20</v>
+      </c>
+      <c r="D16" s="79">
+        <v>40000</v>
+      </c>
+      <c r="F16" s="124"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="236" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="35">
+        <v>4</v>
+      </c>
+      <c r="D17" s="184">
+        <v>2680000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="251" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="248"/>
+      <c r="C18" s="209">
+        <v>2</v>
+      </c>
+      <c r="D18" s="249"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="236" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="35">
+        <v>20</v>
+      </c>
+      <c r="D19" s="184">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="253" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="187"/>
+      <c r="C20" s="126">
+        <v>10</v>
+      </c>
+      <c r="D20" s="185"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="182" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="42">
+        <v>4</v>
+      </c>
+      <c r="D23" s="184">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="183"/>
+      <c r="C24" s="37">
+        <v>1</v>
+      </c>
+      <c r="D24" s="185"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="170" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="35">
+        <v>4</v>
+      </c>
+      <c r="D25" s="184">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="183"/>
+      <c r="C26" s="38">
+        <v>2</v>
+      </c>
+      <c r="D26" s="185"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="236" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="35">
+        <v>4</v>
+      </c>
+      <c r="D27" s="184">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="252" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="187"/>
+      <c r="C28" s="38">
+        <v>2</v>
+      </c>
+      <c r="D28" s="185"/>
+      <c r="E28" s="244"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="117"/>
+      <c r="D29" s="118"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="111"/>
+      <c r="C30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="122" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="42">
+        <v>10</v>
+      </c>
+      <c r="D31" s="43">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="37">
+        <v>10</v>
+      </c>
+      <c r="D32" s="255">
+        <v>800000</v>
+      </c>
+      <c r="G32" s="124"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="234" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="182" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="35">
+        <v>2</v>
+      </c>
+      <c r="D33" s="184">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="235" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="183"/>
+      <c r="C34" s="38">
+        <v>6</v>
+      </c>
+      <c r="D34" s="185"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4</v>
+      </c>
+      <c r="D35" s="43">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="124"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="111"/>
+      <c r="C37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="172" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="35">
+        <v>6</v>
+      </c>
+      <c r="D38" s="184">
+        <v>2220000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="110" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="256"/>
+      <c r="C39" s="38">
+        <v>6</v>
+      </c>
+      <c r="D39" s="185"/>
+      <c r="G39" s="124"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="172" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="35">
+        <v>20</v>
+      </c>
+      <c r="D40" s="184">
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="256"/>
+      <c r="C41" s="38">
+        <v>10</v>
+      </c>
+      <c r="D41" s="185"/>
+      <c r="G41" s="124"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="233" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="182" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="35">
+        <v>10</v>
+      </c>
+      <c r="D42" s="184">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="182"/>
+      <c r="C43" s="209">
+        <v>10</v>
+      </c>
+      <c r="D43" s="249"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="230" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="183"/>
+      <c r="C44" s="38">
+        <v>20</v>
+      </c>
+      <c r="D44" s="185"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="123" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="13">
+        <v>16</v>
+      </c>
+      <c r="D45" s="43">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="111"/>
+      <c r="C47" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="42">
+        <v>60</v>
+      </c>
+      <c r="D48" s="184">
+        <v>4260000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="187"/>
+      <c r="C49" s="37">
+        <v>60</v>
+      </c>
+      <c r="D49" s="185"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="35">
+        <v>60</v>
+      </c>
+      <c r="D50" s="184">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="248"/>
+      <c r="C51" s="209">
+        <v>60</v>
+      </c>
+      <c r="D51" s="249"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="257" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="187"/>
+      <c r="C52" s="37">
+        <v>60</v>
+      </c>
+      <c r="D52" s="185"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="230" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="171" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="35">
+        <v>60</v>
+      </c>
+      <c r="D53" s="260">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="230" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="259"/>
+      <c r="C54" s="36">
+        <v>60</v>
+      </c>
+      <c r="D54" s="261"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="230" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="259"/>
+      <c r="C55" s="36">
+        <v>60</v>
+      </c>
+      <c r="D55" s="261"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="258" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="259"/>
+      <c r="C56" s="38">
+        <v>60</v>
+      </c>
+      <c r="D56" s="261"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="209">
+        <v>60</v>
+      </c>
+      <c r="D57" s="79">
+        <v>150000</v>
+      </c>
+      <c r="F57" s="124"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="13">
+        <v>60</v>
+      </c>
+      <c r="D58" s="43">
+        <v>2100000</v>
+      </c>
+      <c r="F58" s="124"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="124"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E62" s="244"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A275EA-5095-4199-9DB8-E89105E03B6F}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.140625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="37" style="112" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="112" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6149,13 +10080,13 @@
       <c r="A2" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="186" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="42">
         <v>20</v>
       </c>
-      <c r="D2" s="149">
+      <c r="D2" s="184">
         <v>820000</v>
       </c>
     </row>
@@ -6163,23 +10094,23 @@
       <c r="A3" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="148"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="37">
         <v>10</v>
       </c>
-      <c r="D3" s="150"/>
+      <c r="D3" s="185"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="186" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="35">
         <v>20</v>
       </c>
-      <c r="D4" s="149">
+      <c r="D4" s="184">
         <v>2080000</v>
       </c>
     </row>
@@ -6187,23 +10118,23 @@
       <c r="A5" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="148"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="38">
         <v>10</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="185"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="186" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="35">
         <v>30</v>
       </c>
-      <c r="D6" s="149">
+      <c r="D6" s="184">
         <v>5925000</v>
       </c>
     </row>
@@ -6211,23 +10142,23 @@
       <c r="A7" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="148"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="37">
         <v>15</v>
       </c>
-      <c r="D7" s="150"/>
+      <c r="D7" s="185"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="186" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="35">
         <v>40</v>
       </c>
-      <c r="D8" s="149">
+      <c r="D8" s="184">
         <v>3660000</v>
       </c>
     </row>
@@ -6235,23 +10166,23 @@
       <c r="A9" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="148"/>
+      <c r="B9" s="187"/>
       <c r="C9" s="37">
         <v>20</v>
       </c>
-      <c r="D9" s="150"/>
+      <c r="D9" s="185"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="186" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="35">
         <v>30</v>
       </c>
-      <c r="D10" s="149">
+      <c r="D10" s="184">
         <v>7140000</v>
       </c>
     </row>
@@ -6259,11 +10190,11 @@
       <c r="A11" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="148"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="38">
         <v>15</v>
       </c>
-      <c r="D11" s="150"/>
+      <c r="D11" s="185"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="120" t="s">
@@ -6338,13 +10269,13 @@
       <c r="A18" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="182" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="42">
         <v>10</v>
       </c>
-      <c r="D18" s="149">
+      <c r="D18" s="184">
         <v>3750000</v>
       </c>
     </row>
@@ -6352,23 +10283,23 @@
       <c r="A19" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="152"/>
+      <c r="B19" s="183"/>
       <c r="C19" s="37">
         <v>10</v>
       </c>
-      <c r="D19" s="150"/>
+      <c r="D19" s="185"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="170" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="35">
         <v>10</v>
       </c>
-      <c r="D20" s="149">
+      <c r="D20" s="184">
         <v>2350000</v>
       </c>
     </row>
@@ -6376,23 +10307,23 @@
       <c r="A21" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="152"/>
+      <c r="B21" s="183"/>
       <c r="C21" s="38">
         <v>10</v>
       </c>
-      <c r="D21" s="150"/>
+      <c r="D21" s="185"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="186" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="35">
         <v>10</v>
       </c>
-      <c r="D22" s="149">
+      <c r="D22" s="184">
         <v>3740000</v>
       </c>
     </row>
@@ -6400,11 +10331,11 @@
       <c r="A23" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="148"/>
+      <c r="B23" s="187"/>
       <c r="C23" s="38">
         <v>10</v>
       </c>
-      <c r="D23" s="150"/>
+      <c r="D23" s="185"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
@@ -6427,13 +10358,13 @@
       <c r="A26" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="182" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="42">
         <v>40</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="184">
         <v>19560000</v>
       </c>
     </row>
@@ -6441,23 +10372,23 @@
       <c r="A27" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="152"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="37">
         <v>20</v>
       </c>
-      <c r="D27" s="150"/>
+      <c r="D27" s="185"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="182" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="35">
         <v>10</v>
       </c>
-      <c r="D28" s="149">
+      <c r="D28" s="184">
         <v>11480000</v>
       </c>
     </row>
@@ -6465,11 +10396,11 @@
       <c r="A29" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="152"/>
+      <c r="B29" s="183"/>
       <c r="C29" s="38">
         <v>4</v>
       </c>
-      <c r="D29" s="150"/>
+      <c r="D29" s="185"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="116" t="s">
@@ -6504,28 +10435,488 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF242A3-D205-43BD-8BF2-9F726CCF6528}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="112" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="117"/>
+      <c r="D1" s="118"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="197" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="35">
+        <v>4</v>
+      </c>
+      <c r="D2" s="200">
+        <v>10374000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="198"/>
+      <c r="C3" s="36">
+        <v>10</v>
+      </c>
+      <c r="D3" s="201"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="198"/>
+      <c r="C4" s="36">
+        <v>2</v>
+      </c>
+      <c r="D4" s="201"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="198"/>
+      <c r="C5" s="36">
+        <v>2</v>
+      </c>
+      <c r="D5" s="201"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="198"/>
+      <c r="C6" s="36">
+        <v>16</v>
+      </c>
+      <c r="D6" s="201"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="36">
+        <v>8</v>
+      </c>
+      <c r="D7" s="201"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="198"/>
+      <c r="C8" s="36">
+        <v>20</v>
+      </c>
+      <c r="D8" s="201"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="198"/>
+      <c r="C9" s="36">
+        <v>20</v>
+      </c>
+      <c r="D9" s="201"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="198"/>
+      <c r="C10" s="36">
+        <v>10</v>
+      </c>
+      <c r="D10" s="201"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="198"/>
+      <c r="C11" s="36">
+        <v>4</v>
+      </c>
+      <c r="D11" s="201"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="198"/>
+      <c r="C12" s="36">
+        <v>4</v>
+      </c>
+      <c r="D12" s="201"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="198"/>
+      <c r="C13" s="36">
+        <v>4</v>
+      </c>
+      <c r="D13" s="201"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="198"/>
+      <c r="C14" s="36">
+        <v>2</v>
+      </c>
+      <c r="D14" s="201"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="198"/>
+      <c r="C15" s="36">
+        <v>20</v>
+      </c>
+      <c r="D15" s="201"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="198"/>
+      <c r="C16" s="36">
+        <v>20</v>
+      </c>
+      <c r="D16" s="201"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="198"/>
+      <c r="C17" s="36">
+        <v>6</v>
+      </c>
+      <c r="D17" s="201"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="198"/>
+      <c r="C18" s="36">
+        <v>8</v>
+      </c>
+      <c r="D18" s="201"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="199"/>
+      <c r="C19" s="38">
+        <v>4</v>
+      </c>
+      <c r="D19" s="202"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="117"/>
+      <c r="D20" s="118"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="191" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="35">
+        <v>2</v>
+      </c>
+      <c r="D21" s="203">
+        <v>11700000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="192"/>
+      <c r="C22" s="36">
+        <v>1</v>
+      </c>
+      <c r="D22" s="204"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="192"/>
+      <c r="C23" s="36">
+        <v>2</v>
+      </c>
+      <c r="D23" s="204"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="192"/>
+      <c r="C24" s="36">
+        <v>1</v>
+      </c>
+      <c r="D24" s="204"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="192"/>
+      <c r="C25" s="36">
+        <v>1</v>
+      </c>
+      <c r="D25" s="204"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="192"/>
+      <c r="C26" s="37">
+        <v>1</v>
+      </c>
+      <c r="D26" s="204"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="192"/>
+      <c r="C27" s="37">
+        <v>2</v>
+      </c>
+      <c r="D27" s="204"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="193"/>
+      <c r="C28" s="38">
+        <v>1</v>
+      </c>
+      <c r="D28" s="205"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="124"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="206" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="35">
+        <v>2</v>
+      </c>
+      <c r="D30" s="188">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="207"/>
+      <c r="C31" s="36">
+        <v>6</v>
+      </c>
+      <c r="D31" s="189"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="207"/>
+      <c r="C32" s="36">
+        <v>2</v>
+      </c>
+      <c r="D32" s="189"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="208"/>
+      <c r="C33" s="38">
+        <v>2</v>
+      </c>
+      <c r="D33" s="190"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="191" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="194">
+        <v>31130000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="192"/>
+      <c r="C36" s="36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="195"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="192"/>
+      <c r="C37" s="36">
+        <v>1</v>
+      </c>
+      <c r="D37" s="195"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="192"/>
+      <c r="C38" s="36">
+        <v>1</v>
+      </c>
+      <c r="D38" s="195"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="192"/>
+      <c r="C39" s="36">
+        <v>2</v>
+      </c>
+      <c r="D39" s="195"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="192"/>
+      <c r="C40" s="36">
+        <v>2</v>
+      </c>
+      <c r="D40" s="195"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="192"/>
+      <c r="C41" s="37">
+        <v>2</v>
+      </c>
+      <c r="D41" s="195"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="193"/>
+      <c r="C42" s="38">
+        <v>2</v>
+      </c>
+      <c r="D42" s="196"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="217"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="D2:D19"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="B30:B33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3437CE9E-D719-49E9-8AFF-1B6127BD14F3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DF4AA4-634D-4AE6-837C-4F67477B1E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B138B37C-1866-4932-9984-0C2563AAFB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="241">
   <si>
     <t>PL-5EII</t>
   </si>
@@ -758,6 +758,12 @@
   </si>
   <si>
     <t>COHETES</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK </t>
   </si>
 </sst>
 </file>
@@ -767,7 +773,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +869,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1821,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2189,198 +2203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2396,53 +2218,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2479,12 +2256,98 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2492,47 +2355,197 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2871,12 +2884,12 @@
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="146"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="174"/>
       <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
@@ -3950,12 +3963,12 @@
       <c r="C1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="156"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="184"/>
       <c r="H1" s="15" t="s">
         <v>39</v>
       </c>
@@ -3970,7 +3983,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="185" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -4006,7 +4019,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="158"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="65" t="s">
         <v>46</v>
       </c>
@@ -4040,7 +4053,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="65" t="s">
         <v>45</v>
       </c>
@@ -4074,7 +4087,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="65" t="s">
         <v>56</v>
       </c>
@@ -4108,7 +4121,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="158"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="65" t="s">
         <v>57</v>
       </c>
@@ -4142,7 +4155,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="65" t="s">
         <v>58</v>
       </c>
@@ -4176,7 +4189,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="65" t="s">
         <v>59</v>
       </c>
@@ -4210,7 +4223,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="65" t="s">
         <v>97</v>
       </c>
@@ -4244,7 +4257,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="65" t="s">
         <v>61</v>
       </c>
@@ -4278,7 +4291,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="158"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="65" t="s">
         <v>60</v>
       </c>
@@ -4312,7 +4325,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="158"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
@@ -4346,7 +4359,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="65" t="s">
         <v>50</v>
       </c>
@@ -4380,7 +4393,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="158"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="65" t="s">
         <v>51</v>
       </c>
@@ -4414,7 +4427,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="158"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="65" t="s">
         <v>62</v>
       </c>
@@ -4448,7 +4461,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="158"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="65" t="s">
         <v>63</v>
       </c>
@@ -4482,7 +4495,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="158"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="65" t="s">
         <v>52</v>
       </c>
@@ -4516,7 +4529,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="65" t="s">
         <v>53</v>
       </c>
@@ -4550,7 +4563,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="158"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="66" t="s">
         <v>54</v>
       </c>
@@ -4584,7 +4597,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="158"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="65" t="s">
         <v>55</v>
       </c>
@@ -4754,7 +4767,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="159" t="s">
+      <c r="A25" s="187" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -4790,7 +4803,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
+      <c r="A26" s="188"/>
       <c r="B26" s="16" t="s">
         <v>89</v>
       </c>
@@ -4824,7 +4837,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
+      <c r="A27" s="188"/>
       <c r="B27" s="16" t="s">
         <v>91</v>
       </c>
@@ -4858,7 +4871,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="160"/>
+      <c r="A28" s="188"/>
       <c r="B28" s="16" t="s">
         <v>92</v>
       </c>
@@ -4892,7 +4905,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="160"/>
+      <c r="A29" s="188"/>
       <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
@@ -4926,7 +4939,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="160"/>
+      <c r="A30" s="188"/>
       <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
@@ -4960,7 +4973,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="160"/>
+      <c r="A31" s="188"/>
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -4986,7 +4999,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="160"/>
+      <c r="A32" s="188"/>
       <c r="B32" s="16" t="s">
         <v>67</v>
       </c>
@@ -5012,7 +5025,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="160"/>
+      <c r="A33" s="188"/>
       <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
@@ -5046,7 +5059,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="160"/>
+      <c r="A34" s="188"/>
       <c r="B34" s="16" t="s">
         <v>69</v>
       </c>
@@ -5072,7 +5085,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="160"/>
+      <c r="A35" s="188"/>
       <c r="B35" s="16" t="s">
         <v>70</v>
       </c>
@@ -5106,7 +5119,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="160"/>
+      <c r="A36" s="188"/>
       <c r="B36" s="16" t="s">
         <v>71</v>
       </c>
@@ -5140,7 +5153,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="160"/>
+      <c r="A37" s="188"/>
       <c r="B37" s="16" t="s">
         <v>72</v>
       </c>
@@ -5174,7 +5187,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="160"/>
+      <c r="A38" s="188"/>
       <c r="B38" s="16" t="s">
         <v>73</v>
       </c>
@@ -5208,7 +5221,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="160"/>
+      <c r="A39" s="188"/>
       <c r="B39" s="16" t="s">
         <v>74</v>
       </c>
@@ -5242,7 +5255,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="161"/>
+      <c r="A40" s="189"/>
       <c r="B40" s="20" t="s">
         <v>75</v>
       </c>
@@ -5276,7 +5289,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="190" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="86" t="s">
@@ -5312,7 +5325,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="163"/>
+      <c r="A42" s="191"/>
       <c r="B42" s="87" t="s">
         <v>76</v>
       </c>
@@ -5346,7 +5359,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="164" t="s">
+      <c r="A43" s="192" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="84" t="s">
@@ -5374,7 +5387,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="165"/>
+      <c r="A44" s="193"/>
       <c r="B44" s="85" t="s">
         <v>78</v>
       </c>
@@ -5408,7 +5421,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="165"/>
+      <c r="A45" s="193"/>
       <c r="B45" s="85" t="s">
         <v>79</v>
       </c>
@@ -5442,7 +5455,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
+      <c r="A46" s="193"/>
       <c r="B46" s="85" t="s">
         <v>80</v>
       </c>
@@ -5476,7 +5489,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="165"/>
+      <c r="A47" s="193"/>
       <c r="B47" s="85" t="s">
         <v>81</v>
       </c>
@@ -5510,7 +5523,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="165"/>
+      <c r="A48" s="193"/>
       <c r="B48" s="85" t="s">
         <v>82</v>
       </c>
@@ -5544,7 +5557,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="165"/>
+      <c r="A49" s="193"/>
       <c r="B49" s="85" t="s">
         <v>83</v>
       </c>
@@ -5578,7 +5591,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="166"/>
+      <c r="A50" s="194"/>
       <c r="B50" s="91" t="s">
         <v>84</v>
       </c>
@@ -5612,7 +5625,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="147" t="s">
+      <c r="A51" s="175" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="119" t="s">
@@ -5648,7 +5661,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="148"/>
+      <c r="A52" s="176"/>
       <c r="B52" s="107" t="s">
         <v>99</v>
       </c>
@@ -5682,7 +5695,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="148"/>
+      <c r="A53" s="176"/>
       <c r="B53" s="108" t="s">
         <v>101</v>
       </c>
@@ -5716,19 +5729,19 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="149" t="s">
+      <c r="I54" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="J54" s="150"/>
-      <c r="K54" s="153">
+      <c r="J54" s="178"/>
+      <c r="K54" s="181">
         <f>SUM(K2:K53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I55" s="151"/>
-      <c r="J55" s="152"/>
-      <c r="K55" s="154"/>
+      <c r="I55" s="179"/>
+      <c r="J55" s="180"/>
+      <c r="K55" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5750,7 +5763,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
@@ -5775,12 +5788,12 @@
       <c r="C1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="172"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
       <c r="H1" s="15"/>
       <c r="I1" s="43" t="s">
         <v>41</v>
@@ -5793,7 +5806,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="209" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="109" t="s">
@@ -5829,7 +5842,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="221"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="107" t="s">
         <v>203</v>
       </c>
@@ -5863,7 +5876,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="221"/>
+      <c r="A4" s="210"/>
       <c r="B4" s="107" t="s">
         <v>153</v>
       </c>
@@ -5897,7 +5910,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221"/>
+      <c r="A5" s="210"/>
       <c r="B5" s="107" t="s">
         <v>154</v>
       </c>
@@ -5931,7 +5944,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="221"/>
+      <c r="A6" s="210"/>
       <c r="B6" s="107" t="s">
         <v>155</v>
       </c>
@@ -5965,7 +5978,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="221"/>
+      <c r="A7" s="210"/>
       <c r="B7" s="107" t="s">
         <v>156</v>
       </c>
@@ -5999,7 +6012,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="221"/>
+      <c r="A8" s="210"/>
       <c r="B8" s="107" t="s">
         <v>157</v>
       </c>
@@ -6033,7 +6046,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="221"/>
+      <c r="A9" s="210"/>
       <c r="B9" s="107" t="s">
         <v>206</v>
       </c>
@@ -6067,7 +6080,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="221"/>
+      <c r="A10" s="210"/>
       <c r="B10" s="107" t="s">
         <v>158</v>
       </c>
@@ -6101,8 +6114,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
-      <c r="B11" s="229" t="s">
+      <c r="A11" s="210"/>
+      <c r="B11" s="107" t="s">
         <v>160</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -6134,7 +6147,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="221"/>
+      <c r="A12" s="210"/>
       <c r="B12" s="107" t="s">
         <v>161</v>
       </c>
@@ -6167,7 +6180,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="221"/>
+      <c r="A13" s="210"/>
       <c r="B13" s="107" t="s">
         <v>162</v>
       </c>
@@ -6201,7 +6214,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
+      <c r="A14" s="210"/>
       <c r="B14" s="107" t="s">
         <v>163</v>
       </c>
@@ -6235,8 +6248,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="221"/>
-      <c r="B15" s="229" t="s">
+      <c r="A15" s="210"/>
+      <c r="B15" s="107" t="s">
         <v>164</v>
       </c>
       <c r="C15" s="36" t="s">
@@ -6269,7 +6282,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="221"/>
+      <c r="A16" s="210"/>
       <c r="B16" s="107" t="s">
         <v>165</v>
       </c>
@@ -6303,7 +6316,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
+      <c r="A17" s="210"/>
       <c r="B17" s="107" t="s">
         <v>166</v>
       </c>
@@ -6337,7 +6350,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="221"/>
+      <c r="A18" s="210"/>
       <c r="B18" s="107" t="s">
         <v>167</v>
       </c>
@@ -6371,7 +6384,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="221"/>
+      <c r="A19" s="210"/>
       <c r="B19" s="107" t="s">
         <v>168</v>
       </c>
@@ -6405,7 +6418,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
+      <c r="A20" s="210"/>
       <c r="B20" s="107" t="s">
         <v>169</v>
       </c>
@@ -6439,7 +6452,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="221"/>
+      <c r="A21" s="210"/>
       <c r="B21" s="107" t="s">
         <v>170</v>
       </c>
@@ -6473,7 +6486,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="221"/>
+      <c r="A22" s="210"/>
       <c r="B22" s="107" t="s">
         <v>207</v>
       </c>
@@ -6507,7 +6520,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="221"/>
+      <c r="A23" s="210"/>
       <c r="B23" s="107" t="s">
         <v>208</v>
       </c>
@@ -6541,7 +6554,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="221"/>
+      <c r="A24" s="210"/>
       <c r="B24" s="107" t="s">
         <v>171</v>
       </c>
@@ -6575,7 +6588,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="221"/>
+      <c r="A25" s="210"/>
       <c r="B25" s="107" t="s">
         <v>172</v>
       </c>
@@ -6609,7 +6622,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="221"/>
+      <c r="A26" s="210"/>
       <c r="B26" s="110" t="s">
         <v>173</v>
       </c>
@@ -6643,10 +6656,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="218" t="s">
+      <c r="A27" s="201" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="233" t="s">
+      <c r="B27" s="154" t="s">
         <v>184</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -6679,8 +6692,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="218"/>
-      <c r="B28" s="230" t="s">
+      <c r="A28" s="201"/>
+      <c r="B28" s="151" t="s">
         <v>185</v>
       </c>
       <c r="C28" s="36" t="s">
@@ -6713,8 +6726,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="218"/>
-      <c r="B29" s="230" t="s">
+      <c r="A29" s="201"/>
+      <c r="B29" s="151" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -6747,8 +6760,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="218"/>
-      <c r="B30" s="230" t="s">
+      <c r="A30" s="201"/>
+      <c r="B30" s="151" t="s">
         <v>187</v>
       </c>
       <c r="C30" s="36" t="s">
@@ -6781,8 +6794,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="218"/>
-      <c r="B31" s="230" t="s">
+      <c r="A31" s="201"/>
+      <c r="B31" s="151" t="s">
         <v>188</v>
       </c>
       <c r="C31" s="36" t="s">
@@ -6815,8 +6828,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="218"/>
-      <c r="B32" s="230" t="s">
+      <c r="A32" s="201"/>
+      <c r="B32" s="151" t="s">
         <v>189</v>
       </c>
       <c r="C32" s="36" t="s">
@@ -6849,8 +6862,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="218"/>
-      <c r="B33" s="230" t="s">
+      <c r="A33" s="201"/>
+      <c r="B33" s="151" t="s">
         <v>190</v>
       </c>
       <c r="C33" s="36" t="s">
@@ -6883,8 +6896,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="218"/>
-      <c r="B34" s="230" t="s">
+      <c r="A34" s="201"/>
+      <c r="B34" s="151" t="s">
         <v>228</v>
       </c>
       <c r="C34" s="36" t="s">
@@ -6917,8 +6930,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="218"/>
-      <c r="B35" s="230" t="s">
+      <c r="A35" s="201"/>
+      <c r="B35" s="151" t="s">
         <v>229</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -6951,8 +6964,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="218"/>
-      <c r="B36" s="230" t="s">
+      <c r="A36" s="201"/>
+      <c r="B36" s="151" t="s">
         <v>226</v>
       </c>
       <c r="C36" s="36" t="s">
@@ -6985,8 +6998,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="218"/>
-      <c r="B37" s="230" t="s">
+      <c r="A37" s="201"/>
+      <c r="B37" s="151" t="s">
         <v>193</v>
       </c>
       <c r="C37" s="36" t="s">
@@ -7019,8 +7032,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="218"/>
-      <c r="B38" s="230" t="s">
+      <c r="A38" s="201"/>
+      <c r="B38" s="151" t="s">
         <v>227</v>
       </c>
       <c r="C38" s="36" t="s">
@@ -7054,8 +7067,8 @@
       <c r="L38" s="124"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="218"/>
-      <c r="B39" s="230" t="s">
+      <c r="A39" s="201"/>
+      <c r="B39" s="151" t="s">
         <v>194</v>
       </c>
       <c r="C39" s="36" t="s">
@@ -7088,8 +7101,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="219"/>
-      <c r="B40" s="235" t="s">
+      <c r="A40" s="202"/>
+      <c r="B40" s="156" t="s">
         <v>195</v>
       </c>
       <c r="C40" s="38" t="s">
@@ -7122,10 +7135,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="222" t="s">
+      <c r="A41" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="236" t="s">
+      <c r="B41" s="157" t="s">
         <v>199</v>
       </c>
       <c r="C41" s="35" t="s">
@@ -7158,8 +7171,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="223"/>
-      <c r="B42" s="231" t="s">
+      <c r="A42" s="204"/>
+      <c r="B42" s="152" t="s">
         <v>200</v>
       </c>
       <c r="C42" s="36" t="s">
@@ -7192,8 +7205,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="223"/>
-      <c r="B43" s="231" t="s">
+      <c r="A43" s="204"/>
+      <c r="B43" s="152" t="s">
         <v>201</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -7226,8 +7239,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="223"/>
-      <c r="B44" s="231" t="s">
+      <c r="A44" s="204"/>
+      <c r="B44" s="152" t="s">
         <v>174</v>
       </c>
       <c r="C44" s="36" t="s">
@@ -7260,8 +7273,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="223"/>
-      <c r="B45" s="231" t="s">
+      <c r="A45" s="204"/>
+      <c r="B45" s="152" t="s">
         <v>175</v>
       </c>
       <c r="C45" s="36" t="s">
@@ -7294,8 +7307,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="223"/>
-      <c r="B46" s="231" t="s">
+      <c r="A46" s="204"/>
+      <c r="B46" s="152" t="s">
         <v>176</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -7328,8 +7341,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="223"/>
-      <c r="B47" s="231" t="s">
+      <c r="A47" s="204"/>
+      <c r="B47" s="152" t="s">
         <v>177</v>
       </c>
       <c r="C47" s="36" t="s">
@@ -7362,8 +7375,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="224"/>
-      <c r="B48" s="245" t="s">
+      <c r="A48" s="205"/>
+      <c r="B48" s="165" t="s">
         <v>180</v>
       </c>
       <c r="C48" s="38" t="s">
@@ -7390,13 +7403,13 @@
       <c r="J48" s="144">
         <v>0</v>
       </c>
-      <c r="K48" s="239">
+      <c r="K48" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="225" t="s">
+      <c r="A49" s="206" t="s">
         <v>88</v>
       </c>
       <c r="B49" s="115" t="s">
@@ -7424,8 +7437,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="226"/>
-      <c r="B50" s="232" t="s">
+      <c r="A50" s="207"/>
+      <c r="B50" s="153" t="s">
         <v>205</v>
       </c>
       <c r="C50" s="36" t="s">
@@ -7458,8 +7471,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="226"/>
-      <c r="B51" s="232" t="s">
+      <c r="A51" s="207"/>
+      <c r="B51" s="153" t="s">
         <v>179</v>
       </c>
       <c r="C51" s="36" t="s">
@@ -7493,7 +7506,7 @@
       <c r="L51" s="124"/>
     </row>
     <row r="52" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="227"/>
+      <c r="A52" s="208"/>
       <c r="B52" s="108" t="s">
         <v>230</v>
       </c>
@@ -7527,156 +7540,19 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H53" s="228"/>
-      <c r="I53" s="149" t="s">
+      <c r="I53" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="J53" s="246"/>
-      <c r="K53" s="169">
+      <c r="J53" s="195"/>
+      <c r="K53" s="197">
         <f>SUM(K2:K52)</f>
         <v>1200000</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H54" s="228"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="247"/>
-      <c r="K54" s="154"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H55" s="228"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H56" s="228"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H57" s="228"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H58" s="228"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H59" s="228"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H60" s="228"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H61" s="228"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H62" s="228"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H63" s="228"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H64" s="228"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" s="228"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H66" s="228"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H67" s="228"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H68" s="228"/>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H69" s="228"/>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H70" s="228"/>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H71" s="228"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H72" s="228"/>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H73" s="228"/>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H74" s="228"/>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H75" s="228"/>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H76" s="228"/>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H77" s="228"/>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H78" s="228"/>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H79" s="228"/>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H80" s="228"/>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H81" s="228"/>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H82" s="228"/>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H83" s="228"/>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H84" s="228"/>
-    </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H85" s="228"/>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H86" s="228"/>
-    </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H87" s="228"/>
-    </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H88" s="228"/>
-    </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H89" s="228"/>
-    </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H90" s="228"/>
-    </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H91" s="228"/>
-    </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H92" s="228"/>
-    </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H93" s="228"/>
-    </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H94" s="228"/>
-    </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H95" s="228"/>
-    </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H96" s="228"/>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H97" s="228"/>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H98" s="228"/>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H99" s="228"/>
+      <c r="I54" s="179"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7719,12 +7595,12 @@
       <c r="B1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="172"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="200"/>
       <c r="G1" s="15" t="s">
         <v>39</v>
       </c>
@@ -7739,7 +7615,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="213" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="59" t="s">
@@ -7770,7 +7646,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="174"/>
+      <c r="A3" s="214"/>
       <c r="B3" s="60" t="s">
         <v>106</v>
       </c>
@@ -7799,7 +7675,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="174"/>
+      <c r="A4" s="214"/>
       <c r="B4" s="60" t="s">
         <v>107</v>
       </c>
@@ -7828,7 +7704,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
+      <c r="A5" s="214"/>
       <c r="B5" s="130" t="s">
         <v>108</v>
       </c>
@@ -7857,7 +7733,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
+      <c r="A6" s="214"/>
       <c r="B6" s="60" t="s">
         <v>122</v>
       </c>
@@ -7886,7 +7762,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="174"/>
+      <c r="A7" s="214"/>
       <c r="B7" s="60" t="s">
         <v>109</v>
       </c>
@@ -7915,7 +7791,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="174"/>
+      <c r="A8" s="214"/>
       <c r="B8" s="60" t="s">
         <v>110</v>
       </c>
@@ -7944,7 +7820,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="174"/>
+      <c r="A9" s="214"/>
       <c r="B9" s="60" t="s">
         <v>115</v>
       </c>
@@ -7973,7 +7849,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="174"/>
+      <c r="A10" s="214"/>
       <c r="B10" s="60" t="s">
         <v>116</v>
       </c>
@@ -8002,7 +7878,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
+      <c r="A11" s="214"/>
       <c r="B11" s="60" t="s">
         <v>111</v>
       </c>
@@ -8031,7 +7907,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
+      <c r="A12" s="214"/>
       <c r="B12" s="60" t="s">
         <v>112</v>
       </c>
@@ -8060,7 +7936,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="174"/>
+      <c r="A13" s="214"/>
       <c r="B13" s="60" t="s">
         <v>113</v>
       </c>
@@ -8089,7 +7965,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="174"/>
+      <c r="A14" s="214"/>
       <c r="B14" s="60" t="s">
         <v>114</v>
       </c>
@@ -8118,7 +7994,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="174"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
@@ -8147,7 +8023,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="174"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="60" t="s">
         <v>118</v>
       </c>
@@ -8176,7 +8052,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="174"/>
+      <c r="A17" s="214"/>
       <c r="B17" s="60" t="s">
         <v>119</v>
       </c>
@@ -8205,7 +8081,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="174"/>
+      <c r="A18" s="214"/>
       <c r="B18" s="60" t="s">
         <v>120</v>
       </c>
@@ -8234,8 +8110,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="175"/>
-      <c r="B19" s="213" t="s">
+      <c r="A19" s="215"/>
+      <c r="B19" s="149" t="s">
         <v>121</v>
       </c>
       <c r="C19" s="141">
@@ -8250,7 +8126,7 @@
       <c r="F19" s="33">
         <v>855</v>
       </c>
-      <c r="G19" s="209">
+      <c r="G19" s="145">
         <v>1267</v>
       </c>
       <c r="H19" s="55">
@@ -8263,7 +8139,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="216" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="59" t="s">
@@ -8294,11 +8170,11 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="215"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="210">
+      <c r="C21" s="146">
         <v>4</v>
       </c>
       <c r="D21" s="2">
@@ -8323,11 +8199,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="215"/>
+      <c r="A22" s="217"/>
       <c r="B22" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="210">
+      <c r="C22" s="146">
         <v>4</v>
       </c>
       <c r="D22" s="2">
@@ -8352,11 +8228,11 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
+      <c r="A23" s="217"/>
       <c r="B23" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="210">
+      <c r="C23" s="146">
         <v>4</v>
       </c>
       <c r="D23" s="2">
@@ -8381,11 +8257,11 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="215"/>
+      <c r="A24" s="217"/>
       <c r="B24" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="210">
+      <c r="C24" s="146">
         <v>4</v>
       </c>
       <c r="D24" s="2">
@@ -8410,11 +8286,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="215"/>
+      <c r="A25" s="217"/>
       <c r="B25" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="211">
+      <c r="C25" s="147">
         <v>4</v>
       </c>
       <c r="D25" s="17">
@@ -8439,11 +8315,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="215"/>
+      <c r="A26" s="217"/>
       <c r="B26" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="211">
+      <c r="C26" s="147">
         <v>4</v>
       </c>
       <c r="D26" s="17">
@@ -8468,11 +8344,11 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="216"/>
+      <c r="A27" s="218"/>
       <c r="B27" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="212">
+      <c r="C27" s="148">
         <v>4</v>
       </c>
       <c r="D27" s="19">
@@ -8497,7 +8373,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="176" t="s">
+      <c r="A28" s="219" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="133" t="s">
@@ -8528,7 +8404,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="177"/>
+      <c r="A29" s="220"/>
       <c r="B29" s="132" t="s">
         <v>137</v>
       </c>
@@ -8557,7 +8433,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="177"/>
+      <c r="A30" s="220"/>
       <c r="B30" s="132" t="s">
         <v>131</v>
       </c>
@@ -8586,7 +8462,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="178"/>
+      <c r="A31" s="221"/>
       <c r="B31" s="134" t="s">
         <v>138</v>
       </c>
@@ -8615,7 +8491,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="222" t="s">
         <v>144</v>
       </c>
       <c r="B32" s="131" t="s">
@@ -8648,7 +8524,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="180"/>
+      <c r="A33" s="223"/>
       <c r="B33" s="132" t="s">
         <v>129</v>
       </c>
@@ -8679,7 +8555,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="180"/>
+      <c r="A34" s="223"/>
       <c r="B34" s="132" t="s">
         <v>133</v>
       </c>
@@ -8710,7 +8586,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="180"/>
+      <c r="A35" s="223"/>
       <c r="B35" s="132" t="s">
         <v>134</v>
       </c>
@@ -8741,7 +8617,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="180"/>
+      <c r="A36" s="223"/>
       <c r="B36" s="132" t="s">
         <v>125</v>
       </c>
@@ -8772,7 +8648,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="180"/>
+      <c r="A37" s="223"/>
       <c r="B37" s="132" t="s">
         <v>192</v>
       </c>
@@ -8803,7 +8679,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="180"/>
+      <c r="A38" s="223"/>
       <c r="B38" s="132" t="s">
         <v>130</v>
       </c>
@@ -8834,7 +8710,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="181"/>
+      <c r="A39" s="224"/>
       <c r="B39" s="134" t="s">
         <v>142</v>
       </c>
@@ -8896,23 +8772,23 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H41" s="167" t="s">
+      <c r="H41" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="168"/>
-      <c r="J41" s="169">
+      <c r="I41" s="212"/>
+      <c r="J41" s="197">
         <f>SUM(J2:J40)</f>
         <v>31130000</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="151"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="154"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="182"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="243" t="s">
+      <c r="B45" s="164" t="s">
         <v>209</v>
       </c>
       <c r="C45" s="23">
@@ -8932,7 +8808,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="240" t="s">
+      <c r="B46" s="161" t="s">
         <v>210</v>
       </c>
       <c r="C46" s="25">
@@ -8952,7 +8828,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="240" t="s">
+      <c r="B47" s="161" t="s">
         <v>211</v>
       </c>
       <c r="C47" s="25">
@@ -8972,7 +8848,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="240" t="s">
+      <c r="B48" s="161" t="s">
         <v>213</v>
       </c>
       <c r="C48" s="25">
@@ -8992,7 +8868,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="240" t="s">
+      <c r="B49" s="161" t="s">
         <v>212</v>
       </c>
       <c r="C49" s="25">
@@ -9012,7 +8888,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="240" t="s">
+      <c r="B50" s="161" t="s">
         <v>214</v>
       </c>
       <c r="C50" s="25">
@@ -9032,7 +8908,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="240" t="s">
+      <c r="B51" s="161" t="s">
         <v>214</v>
       </c>
       <c r="C51" s="25">
@@ -9052,7 +8928,7 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="240" t="s">
+      <c r="B52" s="161" t="s">
         <v>214</v>
       </c>
       <c r="C52" s="25">
@@ -9070,10 +8946,10 @@
       <c r="G52" s="36">
         <v>1305</v>
       </c>
-      <c r="H52" s="242"/>
+      <c r="H52" s="163"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="240" t="s">
+      <c r="B53" s="161" t="s">
         <v>215</v>
       </c>
       <c r="C53" s="25">
@@ -9094,7 +8970,7 @@
       <c r="I53" s="124"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="240" t="s">
+      <c r="B54" s="161" t="s">
         <v>216</v>
       </c>
       <c r="C54" s="25">
@@ -9114,7 +8990,7 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="240" t="s">
+      <c r="B55" s="161" t="s">
         <v>217</v>
       </c>
       <c r="C55" s="25">
@@ -9134,7 +9010,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="240" t="s">
+      <c r="B56" s="161" t="s">
         <v>218</v>
       </c>
       <c r="C56" s="25">
@@ -9152,11 +9028,11 @@
       <c r="G56" s="36">
         <v>1309</v>
       </c>
-      <c r="H56" s="242"/>
+      <c r="H56" s="163"/>
       <c r="I56" s="124"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="240" t="s">
+      <c r="B57" s="161" t="s">
         <v>219</v>
       </c>
       <c r="C57" s="25">
@@ -9176,7 +9052,7 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="240" t="s">
+      <c r="B58" s="161" t="s">
         <v>220</v>
       </c>
       <c r="C58" s="25">
@@ -9194,10 +9070,10 @@
       <c r="G58" s="36">
         <v>1311</v>
       </c>
-      <c r="H58" s="242"/>
+      <c r="H58" s="163"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="240" t="s">
+      <c r="B59" s="161" t="s">
         <v>221</v>
       </c>
       <c r="C59" s="25">
@@ -9218,7 +9094,7 @@
       <c r="I59" s="124"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="240" t="s">
+      <c r="B60" s="161" t="s">
         <v>222</v>
       </c>
       <c r="C60" s="25">
@@ -9238,7 +9114,7 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="240" t="s">
+      <c r="B61" s="161" t="s">
         <v>223</v>
       </c>
       <c r="C61" s="25">
@@ -9259,7 +9135,7 @@
       <c r="I61" s="124"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="240" t="s">
+      <c r="B62" s="161" t="s">
         <v>224</v>
       </c>
       <c r="C62" s="25">
@@ -9279,7 +9155,7 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="241" t="s">
+      <c r="B63" s="162" t="s">
         <v>225</v>
       </c>
       <c r="C63" s="27">
@@ -9318,10 +9194,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9361,13 +9237,13 @@
       <c r="A3" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="42">
         <v>20</v>
       </c>
-      <c r="D3" s="184">
+      <c r="D3" s="227">
         <v>44000</v>
       </c>
     </row>
@@ -9375,137 +9251,137 @@
       <c r="A4" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="187"/>
+      <c r="B4" s="226"/>
       <c r="C4" s="37">
         <v>10</v>
       </c>
-      <c r="D4" s="185"/>
+      <c r="D4" s="228"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="35">
         <v>20</v>
       </c>
-      <c r="D5" s="184">
+      <c r="D5" s="227">
         <v>617000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="248"/>
-      <c r="C6" s="209">
-        <v>4</v>
-      </c>
-      <c r="D6" s="249"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="145">
+        <v>4</v>
+      </c>
+      <c r="D6" s="230"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="187"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="38">
         <v>1</v>
       </c>
-      <c r="D7" s="185"/>
+      <c r="D7" s="228"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="35">
         <v>20</v>
       </c>
-      <c r="D8" s="184">
+      <c r="D8" s="227">
         <v>1040000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="254" t="s">
+      <c r="A9" s="158" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="248"/>
-      <c r="C9" s="209">
-        <v>4</v>
-      </c>
-      <c r="D9" s="249"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="145">
+        <v>4</v>
+      </c>
+      <c r="D9" s="230"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="187"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="37">
         <v>2</v>
       </c>
-      <c r="D10" s="185"/>
+      <c r="D10" s="228"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="186" t="s">
+      <c r="B11" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="35">
         <v>4</v>
       </c>
-      <c r="D11" s="184">
+      <c r="D11" s="227">
         <v>6800000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="238" t="s">
+      <c r="A12" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="248"/>
-      <c r="C12" s="209">
+      <c r="B12" s="229"/>
+      <c r="C12" s="145">
         <v>2</v>
       </c>
-      <c r="D12" s="249"/>
+      <c r="D12" s="230"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="35">
         <v>20</v>
       </c>
-      <c r="D13" s="184">
+      <c r="D13" s="227">
         <v>260000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="250" t="s">
+      <c r="A14" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="248"/>
-      <c r="C14" s="209">
+      <c r="B14" s="229"/>
+      <c r="C14" s="145">
         <v>20</v>
       </c>
-      <c r="D14" s="249"/>
+      <c r="D14" s="230"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="187"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="37">
         <v>10</v>
       </c>
-      <c r="D15" s="185"/>
+      <c r="D15" s="228"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="115" t="s">
@@ -9523,52 +9399,52 @@
       <c r="F16" s="124"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="236" t="s">
+      <c r="A17" s="157" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="186" t="s">
+      <c r="B17" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="35">
         <v>4</v>
       </c>
-      <c r="D17" s="184">
+      <c r="D17" s="227">
         <v>2680000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="251" t="s">
+      <c r="A18" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="248"/>
-      <c r="C18" s="209">
+      <c r="B18" s="229"/>
+      <c r="C18" s="145">
         <v>2</v>
       </c>
-      <c r="D18" s="249"/>
+      <c r="D18" s="230"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="236" t="s">
+      <c r="A19" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="186" t="s">
+      <c r="B19" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="35">
         <v>20</v>
       </c>
-      <c r="D19" s="184">
+      <c r="D19" s="227">
         <v>1800000</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="253" t="s">
+      <c r="A20" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="187"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="126">
         <v>10</v>
       </c>
-      <c r="D20" s="185"/>
+      <c r="D20" s="228"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9587,13 +9463,13 @@
       <c r="A23" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="234" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="42">
         <v>4</v>
       </c>
-      <c r="D23" s="184">
+      <c r="D23" s="227">
         <v>10500000</v>
       </c>
     </row>
@@ -9601,23 +9477,23 @@
       <c r="A24" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="183"/>
+      <c r="B24" s="235"/>
       <c r="C24" s="37">
         <v>1</v>
       </c>
-      <c r="D24" s="185"/>
+      <c r="D24" s="228"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="198" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="35">
         <v>4</v>
       </c>
-      <c r="D25" s="184">
+      <c r="D25" s="227">
         <v>2900000</v>
       </c>
     </row>
@@ -9625,36 +9501,35 @@
       <c r="A26" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="183"/>
+      <c r="B26" s="235"/>
       <c r="C26" s="38">
         <v>2</v>
       </c>
-      <c r="D26" s="185"/>
+      <c r="D26" s="228"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="236" t="s">
+      <c r="A27" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="186" t="s">
+      <c r="B27" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="35">
         <v>4</v>
       </c>
-      <c r="D27" s="184">
+      <c r="D27" s="227">
         <v>4500000</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="252" t="s">
+      <c r="A28" s="168" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="187"/>
+      <c r="B28" s="226"/>
       <c r="C28" s="38">
         <v>2</v>
       </c>
-      <c r="D28" s="185"/>
-      <c r="E28" s="244"/>
+      <c r="D28" s="228"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
@@ -9697,34 +9572,34 @@
       <c r="C32" s="37">
         <v>10</v>
       </c>
-      <c r="D32" s="255">
+      <c r="D32" s="170">
         <v>800000</v>
       </c>
       <c r="G32" s="124"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="234" t="s">
+      <c r="A33" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="234" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="35">
         <v>2</v>
       </c>
-      <c r="D33" s="184">
+      <c r="D33" s="227">
         <v>5600000</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="235" t="s">
+      <c r="A34" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="183"/>
+      <c r="B34" s="235"/>
       <c r="C34" s="38">
         <v>6</v>
       </c>
-      <c r="D34" s="185"/>
+      <c r="D34" s="228"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="116" t="s">
@@ -9759,13 +9634,13 @@
       <c r="A38" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="172" t="s">
+      <c r="B38" s="200" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="35">
         <v>6</v>
       </c>
-      <c r="D38" s="184">
+      <c r="D38" s="227">
         <v>2220000</v>
       </c>
     </row>
@@ -9773,24 +9648,24 @@
       <c r="A39" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="256"/>
+      <c r="B39" s="236"/>
       <c r="C39" s="38">
         <v>6</v>
       </c>
-      <c r="D39" s="185"/>
+      <c r="D39" s="228"/>
       <c r="G39" s="124"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="200" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="35">
         <v>20</v>
       </c>
-      <c r="D40" s="184">
+      <c r="D40" s="227">
         <v>4250000</v>
       </c>
     </row>
@@ -9798,46 +9673,46 @@
       <c r="A41" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="256"/>
+      <c r="B41" s="236"/>
       <c r="C41" s="38">
         <v>10</v>
       </c>
-      <c r="D41" s="185"/>
+      <c r="D41" s="228"/>
       <c r="G41" s="124"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="233" t="s">
+      <c r="A42" s="154" t="s">
         <v>228</v>
       </c>
-      <c r="B42" s="182" t="s">
+      <c r="B42" s="234" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="35">
         <v>10</v>
       </c>
-      <c r="D42" s="184">
+      <c r="D42" s="227">
         <v>4500000</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="230" t="s">
+      <c r="A43" s="151" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="182"/>
-      <c r="C43" s="209">
+      <c r="B43" s="234"/>
+      <c r="C43" s="145">
         <v>10</v>
       </c>
-      <c r="D43" s="249"/>
+      <c r="D43" s="230"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="230" t="s">
+      <c r="A44" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="183"/>
+      <c r="B44" s="235"/>
       <c r="C44" s="38">
         <v>20</v>
       </c>
-      <c r="D44" s="185"/>
+      <c r="D44" s="228"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="123" t="s">
@@ -9870,13 +9745,13 @@
       <c r="A48" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="186" t="s">
+      <c r="B48" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="42">
         <v>60</v>
       </c>
-      <c r="D48" s="184">
+      <c r="D48" s="227">
         <v>4260000</v>
       </c>
     </row>
@@ -9884,23 +9759,23 @@
       <c r="A49" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="187"/>
+      <c r="B49" s="226"/>
       <c r="C49" s="37">
         <v>60</v>
       </c>
-      <c r="D49" s="185"/>
+      <c r="D49" s="228"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="186" t="s">
+      <c r="B50" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="35">
         <v>60</v>
       </c>
-      <c r="D50" s="184">
+      <c r="D50" s="227">
         <v>900000</v>
       </c>
     </row>
@@ -9908,65 +9783,65 @@
       <c r="A51" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="248"/>
-      <c r="C51" s="209">
+      <c r="B51" s="229"/>
+      <c r="C51" s="145">
         <v>60</v>
       </c>
-      <c r="D51" s="249"/>
+      <c r="D51" s="230"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="257" t="s">
+      <c r="A52" s="171" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="187"/>
+      <c r="B52" s="226"/>
       <c r="C52" s="37">
         <v>60</v>
       </c>
-      <c r="D52" s="185"/>
+      <c r="D52" s="228"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="230" t="s">
+      <c r="A53" s="151" t="s">
         <v>187</v>
       </c>
-      <c r="B53" s="171" t="s">
+      <c r="B53" s="199" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="35">
         <v>60</v>
       </c>
-      <c r="D53" s="260">
+      <c r="D53" s="232">
         <v>260000</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="230" t="s">
+      <c r="A54" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="259"/>
+      <c r="B54" s="231"/>
       <c r="C54" s="36">
         <v>60</v>
       </c>
-      <c r="D54" s="261"/>
+      <c r="D54" s="233"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="230" t="s">
+      <c r="A55" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="259"/>
+      <c r="B55" s="231"/>
       <c r="C55" s="36">
         <v>60</v>
       </c>
-      <c r="D55" s="261"/>
+      <c r="D55" s="233"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="258" t="s">
+      <c r="A56" s="172" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="259"/>
+      <c r="B56" s="231"/>
       <c r="C56" s="38">
         <v>60</v>
       </c>
-      <c r="D56" s="261"/>
+      <c r="D56" s="233"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="123" t="s">
@@ -9975,7 +9850,7 @@
       <c r="B57" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="209">
+      <c r="C57" s="145">
         <v>60</v>
       </c>
       <c r="D57" s="79">
@@ -10001,23 +9876,14 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H60" s="124"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E62" s="244"/>
-    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="B11:B12"/>
@@ -10034,12 +9900,18 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="D53:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10054,7 +9926,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D31" sqref="A25:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10080,13 +9952,13 @@
       <c r="A2" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="42">
         <v>20</v>
       </c>
-      <c r="D2" s="184">
+      <c r="D2" s="227">
         <v>820000</v>
       </c>
     </row>
@@ -10094,23 +9966,23 @@
       <c r="A3" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="187"/>
+      <c r="B3" s="226"/>
       <c r="C3" s="37">
         <v>10</v>
       </c>
-      <c r="D3" s="185"/>
+      <c r="D3" s="228"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="35">
         <v>20</v>
       </c>
-      <c r="D4" s="184">
+      <c r="D4" s="227">
         <v>2080000</v>
       </c>
     </row>
@@ -10118,23 +9990,23 @@
       <c r="A5" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="187"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="38">
         <v>10</v>
       </c>
-      <c r="D5" s="185"/>
+      <c r="D5" s="228"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="35">
         <v>30</v>
       </c>
-      <c r="D6" s="184">
+      <c r="D6" s="227">
         <v>5925000</v>
       </c>
     </row>
@@ -10142,23 +10014,23 @@
       <c r="A7" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="187"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="37">
         <v>15</v>
       </c>
-      <c r="D7" s="185"/>
+      <c r="D7" s="228"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="35">
         <v>40</v>
       </c>
-      <c r="D8" s="184">
+      <c r="D8" s="227">
         <v>3660000</v>
       </c>
     </row>
@@ -10166,23 +10038,23 @@
       <c r="A9" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="187"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="37">
         <v>20</v>
       </c>
-      <c r="D9" s="185"/>
+      <c r="D9" s="228"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="35">
         <v>30</v>
       </c>
-      <c r="D10" s="184">
+      <c r="D10" s="227">
         <v>7140000</v>
       </c>
     </row>
@@ -10190,11 +10062,11 @@
       <c r="A11" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="187"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="38">
         <v>15</v>
       </c>
-      <c r="D11" s="185"/>
+      <c r="D11" s="228"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="120" t="s">
@@ -10269,13 +10141,13 @@
       <c r="A18" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="234" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="42">
         <v>10</v>
       </c>
-      <c r="D18" s="184">
+      <c r="D18" s="227">
         <v>3750000</v>
       </c>
     </row>
@@ -10283,23 +10155,23 @@
       <c r="A19" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="183"/>
+      <c r="B19" s="235"/>
       <c r="C19" s="37">
         <v>10</v>
       </c>
-      <c r="D19" s="185"/>
+      <c r="D19" s="228"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="198" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="35">
         <v>10</v>
       </c>
-      <c r="D20" s="184">
+      <c r="D20" s="227">
         <v>2350000</v>
       </c>
     </row>
@@ -10307,23 +10179,23 @@
       <c r="A21" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="183"/>
+      <c r="B21" s="235"/>
       <c r="C21" s="38">
         <v>10</v>
       </c>
-      <c r="D21" s="185"/>
+      <c r="D21" s="228"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="186" t="s">
+      <c r="B22" s="225" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="35">
         <v>10</v>
       </c>
-      <c r="D22" s="184">
+      <c r="D22" s="227">
         <v>3740000</v>
       </c>
     </row>
@@ -10331,11 +10203,11 @@
       <c r="A23" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="187"/>
+      <c r="B23" s="226"/>
       <c r="C23" s="38">
         <v>10</v>
       </c>
-      <c r="D23" s="185"/>
+      <c r="D23" s="228"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
@@ -10358,13 +10230,13 @@
       <c r="A26" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="234" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="42">
         <v>40</v>
       </c>
-      <c r="D26" s="184">
+      <c r="D26" s="227">
         <v>19560000</v>
       </c>
     </row>
@@ -10372,23 +10244,23 @@
       <c r="A27" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="183"/>
+      <c r="B27" s="235"/>
       <c r="C27" s="37">
         <v>20</v>
       </c>
-      <c r="D27" s="185"/>
+      <c r="D27" s="228"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="234" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="35">
         <v>10</v>
       </c>
-      <c r="D28" s="184">
+      <c r="D28" s="227">
         <v>11480000</v>
       </c>
     </row>
@@ -10396,11 +10268,11 @@
       <c r="A29" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="183"/>
+      <c r="B29" s="235"/>
       <c r="C29" s="38">
         <v>4</v>
       </c>
-      <c r="D29" s="185"/>
+      <c r="D29" s="228"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="116" t="s">
@@ -10435,18 +10307,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="B20:B21"/>
@@ -10455,6 +10315,18 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10468,8 +10340,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10481,21 +10353,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="117"/>
-      <c r="D1" s="118"/>
+      <c r="A1" s="260" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="259" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="259" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="258" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="246" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="35">
         <v>4</v>
       </c>
-      <c r="D2" s="200">
+      <c r="D2" s="249">
         <v>10374000</v>
       </c>
     </row>
@@ -10503,171 +10384,171 @@
       <c r="A3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="198"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="36">
         <v>10</v>
       </c>
-      <c r="D3" s="201"/>
+      <c r="D3" s="250"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="198"/>
+      <c r="B4" s="247"/>
       <c r="C4" s="36">
         <v>2</v>
       </c>
-      <c r="D4" s="201"/>
+      <c r="D4" s="250"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="198"/>
+      <c r="B5" s="247"/>
       <c r="C5" s="36">
         <v>2</v>
       </c>
-      <c r="D5" s="201"/>
+      <c r="D5" s="250"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="198"/>
+      <c r="B6" s="247"/>
       <c r="C6" s="36">
         <v>16</v>
       </c>
-      <c r="D6" s="201"/>
+      <c r="D6" s="250"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="198"/>
+      <c r="B7" s="247"/>
       <c r="C7" s="36">
         <v>8</v>
       </c>
-      <c r="D7" s="201"/>
+      <c r="D7" s="250"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="198"/>
+      <c r="B8" s="247"/>
       <c r="C8" s="36">
         <v>20</v>
       </c>
-      <c r="D8" s="201"/>
+      <c r="D8" s="250"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="198"/>
+      <c r="B9" s="247"/>
       <c r="C9" s="36">
         <v>20</v>
       </c>
-      <c r="D9" s="201"/>
+      <c r="D9" s="250"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="198"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="36">
         <v>10</v>
       </c>
-      <c r="D10" s="201"/>
+      <c r="D10" s="250"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="198"/>
+      <c r="B11" s="247"/>
       <c r="C11" s="36">
         <v>4</v>
       </c>
-      <c r="D11" s="201"/>
+      <c r="D11" s="250"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="198"/>
+      <c r="B12" s="247"/>
       <c r="C12" s="36">
         <v>4</v>
       </c>
-      <c r="D12" s="201"/>
+      <c r="D12" s="250"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="198"/>
+      <c r="B13" s="247"/>
       <c r="C13" s="36">
         <v>4</v>
       </c>
-      <c r="D13" s="201"/>
+      <c r="D13" s="250"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="198"/>
+      <c r="B14" s="247"/>
       <c r="C14" s="36">
         <v>2</v>
       </c>
-      <c r="D14" s="201"/>
+      <c r="D14" s="250"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="198"/>
+      <c r="B15" s="247"/>
       <c r="C15" s="36">
         <v>20</v>
       </c>
-      <c r="D15" s="201"/>
+      <c r="D15" s="250"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="198"/>
+      <c r="B16" s="247"/>
       <c r="C16" s="36">
         <v>20</v>
       </c>
-      <c r="D16" s="201"/>
+      <c r="D16" s="250"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="198"/>
+      <c r="B17" s="247"/>
       <c r="C17" s="36">
         <v>6</v>
       </c>
-      <c r="D17" s="201"/>
+      <c r="D17" s="250"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="198"/>
+      <c r="B18" s="247"/>
       <c r="C18" s="36">
         <v>8</v>
       </c>
-      <c r="D18" s="201"/>
+      <c r="D18" s="250"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="199"/>
+      <c r="B19" s="248"/>
       <c r="C19" s="38">
         <v>4</v>
       </c>
-      <c r="D19" s="202"/>
+      <c r="D19" s="251"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -10678,13 +10559,13 @@
       <c r="A21" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="191" t="s">
+      <c r="B21" s="240" t="s">
         <v>148</v>
       </c>
       <c r="C21" s="35">
         <v>2</v>
       </c>
-      <c r="D21" s="203">
+      <c r="D21" s="252">
         <v>11700000</v>
       </c>
     </row>
@@ -10692,71 +10573,71 @@
       <c r="A22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="192"/>
+      <c r="B22" s="241"/>
       <c r="C22" s="36">
         <v>1</v>
       </c>
-      <c r="D22" s="204"/>
+      <c r="D22" s="253"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="192"/>
+      <c r="B23" s="241"/>
       <c r="C23" s="36">
         <v>2</v>
       </c>
-      <c r="D23" s="204"/>
+      <c r="D23" s="253"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="192"/>
+      <c r="B24" s="241"/>
       <c r="C24" s="36">
         <v>1</v>
       </c>
-      <c r="D24" s="204"/>
+      <c r="D24" s="253"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="192"/>
+      <c r="B25" s="241"/>
       <c r="C25" s="36">
         <v>1</v>
       </c>
-      <c r="D25" s="204"/>
+      <c r="D25" s="253"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="192"/>
+      <c r="B26" s="241"/>
       <c r="C26" s="37">
         <v>1</v>
       </c>
-      <c r="D26" s="204"/>
+      <c r="D26" s="253"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="192"/>
+      <c r="B27" s="241"/>
       <c r="C27" s="37">
         <v>2</v>
       </c>
-      <c r="D27" s="204"/>
+      <c r="D27" s="253"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="193"/>
+      <c r="B28" s="242"/>
       <c r="C28" s="38">
         <v>1</v>
       </c>
-      <c r="D28" s="205"/>
+      <c r="D28" s="254"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="124"/>
@@ -10765,13 +10646,13 @@
       <c r="A30" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="206" t="s">
+      <c r="B30" s="255" t="s">
         <v>149</v>
       </c>
       <c r="C30" s="35">
         <v>2</v>
       </c>
-      <c r="D30" s="188">
+      <c r="D30" s="237">
         <v>640000</v>
       </c>
     </row>
@@ -10779,44 +10660,44 @@
       <c r="A31" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="207"/>
+      <c r="B31" s="256"/>
       <c r="C31" s="36">
         <v>6</v>
       </c>
-      <c r="D31" s="189"/>
+      <c r="D31" s="238"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="207"/>
+      <c r="B32" s="256"/>
       <c r="C32" s="36">
         <v>2</v>
       </c>
-      <c r="D32" s="189"/>
+      <c r="D32" s="238"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="208"/>
+      <c r="B33" s="257"/>
       <c r="C33" s="38">
         <v>2</v>
       </c>
-      <c r="D33" s="190"/>
+      <c r="D33" s="239"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="191" t="s">
+      <c r="B35" s="240" t="s">
         <v>144</v>
       </c>
       <c r="C35" s="35">
         <v>4</v>
       </c>
-      <c r="D35" s="194">
+      <c r="D35" s="243">
         <v>31130000</v>
       </c>
     </row>
@@ -10824,74 +10705,74 @@
       <c r="A36" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="192"/>
+      <c r="B36" s="241"/>
       <c r="C36" s="36">
         <v>2</v>
       </c>
-      <c r="D36" s="195"/>
+      <c r="D36" s="244"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="192"/>
+      <c r="B37" s="241"/>
       <c r="C37" s="36">
         <v>1</v>
       </c>
-      <c r="D37" s="195"/>
+      <c r="D37" s="244"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="192"/>
+      <c r="B38" s="241"/>
       <c r="C38" s="36">
         <v>1</v>
       </c>
-      <c r="D38" s="195"/>
+      <c r="D38" s="244"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="192"/>
+      <c r="B39" s="241"/>
       <c r="C39" s="36">
         <v>2</v>
       </c>
-      <c r="D39" s="195"/>
+      <c r="D39" s="244"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="192"/>
+      <c r="B40" s="241"/>
       <c r="C40" s="36">
         <v>2</v>
       </c>
-      <c r="D40" s="195"/>
+      <c r="D40" s="244"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="192"/>
+      <c r="B41" s="241"/>
       <c r="C41" s="37">
         <v>2</v>
       </c>
-      <c r="D41" s="195"/>
+      <c r="D41" s="244"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="193"/>
+      <c r="B42" s="242"/>
       <c r="C42" s="38">
         <v>2</v>
       </c>
-      <c r="D42" s="196"/>
+      <c r="D42" s="245"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="217"/>
+      <c r="D43" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\git\DCS_World_MISSIONS_SERVER\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B138B37C-1866-4932-9984-0C2563AAFB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DBBC20-F640-45B6-B21D-2B981ECC9458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aviones" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="PAQUETES MISC" sheetId="7" r:id="rId7"/>
     <sheet name="Hoja2" sheetId="13" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aviones!$A$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="243">
   <si>
     <t>PL-5EII</t>
   </si>
@@ -764,6 +767,12 @@
   </si>
   <si>
     <t xml:space="preserve">PACK </t>
+  </si>
+  <si>
+    <t>j11A</t>
+  </si>
+  <si>
+    <t>MIG29S</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2283,6 +2292,21 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2537,15 +2561,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2864,10 +2879,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2876,7 +2891,9 @@
     <col min="2" max="5" width="6.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.140625" style="11" customWidth="1"/>
-    <col min="8" max="14" width="15.42578125" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.42578125" customWidth="1"/>
     <col min="15" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2884,12 +2901,12 @@
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="174"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="179"/>
       <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
@@ -2903,70 +2920,48 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="44">
-        <v>1</v>
-      </c>
-      <c r="C2" s="45">
-        <v>1</v>
-      </c>
-      <c r="D2" s="45">
-        <v>6</v>
-      </c>
-      <c r="E2" s="46">
-        <v>264</v>
-      </c>
-      <c r="F2" s="35">
-        <v>1250</v>
-      </c>
-      <c r="G2" s="52">
-        <v>18000000</v>
-      </c>
-      <c r="H2" s="56">
-        <v>4</v>
-      </c>
-      <c r="I2" s="52">
-        <f>H2*G2</f>
-        <v>72000000</v>
-      </c>
-      <c r="J2" s="39"/>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B3" s="47">
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="48">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="F3" s="36">
-        <v>1251</v>
+        <v>1281</v>
       </c>
       <c r="G3" s="53">
-        <v>330000000</v>
-      </c>
-      <c r="H3" s="57">
-        <v>2</v>
-      </c>
+        <v>1500000</v>
+      </c>
+      <c r="H3" s="57"/>
       <c r="I3" s="40">
-        <f t="shared" ref="I3:I35" si="0">H3*G3</f>
-        <v>660000000</v>
+        <f>H3*G3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4" s="47">
         <v>1</v>
@@ -2978,85 +2973,79 @@
         <v>6</v>
       </c>
       <c r="E4" s="48">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F4" s="36">
-        <v>1252</v>
+        <v>1275</v>
       </c>
       <c r="G4" s="53">
-        <v>136800000</v>
-      </c>
-      <c r="H4" s="57">
-        <v>4</v>
-      </c>
+        <v>1500000</v>
+      </c>
+      <c r="H4" s="57"/>
       <c r="I4" s="40">
-        <f t="shared" si="0"/>
-        <v>547200000</v>
+        <f>H4*G4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B5" s="47">
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="48">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="F5" s="36">
-        <v>1253</v>
+        <v>1277</v>
       </c>
       <c r="G5" s="53">
-        <v>8000000</v>
-      </c>
-      <c r="H5" s="57">
-        <v>4</v>
-      </c>
+        <v>2000000</v>
+      </c>
+      <c r="H5" s="57"/>
       <c r="I5" s="40">
-        <f t="shared" si="0"/>
-        <v>32000000</v>
+        <f>H5*G5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B6" s="47">
         <v>1</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" s="48">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="F6" s="36">
-        <v>1254</v>
+        <v>1276</v>
       </c>
       <c r="G6" s="53">
-        <v>30000000</v>
-      </c>
-      <c r="H6" s="57">
-        <v>4</v>
-      </c>
+        <v>2500000</v>
+      </c>
+      <c r="H6" s="57"/>
       <c r="I6" s="40">
-        <f t="shared" si="0"/>
-        <v>120000000</v>
+        <f>H6*G6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B7" s="47">
         <v>1</v>
@@ -3065,268 +3054,215 @@
         <v>2</v>
       </c>
       <c r="D7" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="48">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="F7" s="36">
-        <v>1255</v>
+        <v>1282</v>
       </c>
       <c r="G7" s="53">
-        <v>85000000</v>
-      </c>
-      <c r="H7" s="57">
-        <v>4</v>
-      </c>
+        <v>3000000</v>
+      </c>
+      <c r="H7" s="57"/>
       <c r="I7" s="40">
-        <f t="shared" si="0"/>
-        <v>340000000</v>
+        <f>H7*G7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B8" s="47">
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="48">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="F8" s="36">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="G8" s="53">
-        <v>275000000</v>
-      </c>
-      <c r="H8" s="57">
-        <v>2</v>
-      </c>
+        <v>4500000</v>
+      </c>
+      <c r="H8" s="57"/>
       <c r="I8" s="40">
-        <f t="shared" si="0"/>
-        <v>550000000</v>
+        <f>H8*G8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="47">
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="8">
         <v>5</v>
       </c>
       <c r="E9" s="48">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="F9" s="36">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G9" s="53">
-        <v>380000000</v>
-      </c>
-      <c r="H9" s="57">
+        <v>6500000</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="40">
+        <f>H9*G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1</v>
+      </c>
+      <c r="C11" s="45">
         <v>2</v>
       </c>
-      <c r="I9" s="40">
-        <f t="shared" si="0"/>
-        <v>760000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="47">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="48">
-        <v>279</v>
-      </c>
-      <c r="F10" s="36">
-        <v>1258</v>
-      </c>
-      <c r="G10" s="53">
-        <v>38000000</v>
-      </c>
-      <c r="H10" s="57">
-        <v>4</v>
-      </c>
-      <c r="I10" s="40">
-        <f t="shared" si="0"/>
-        <v>152000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="47">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="48">
-        <v>278</v>
-      </c>
-      <c r="F11" s="36">
-        <v>1259</v>
-      </c>
-      <c r="G11" s="53">
-        <v>42000000</v>
-      </c>
-      <c r="H11" s="57">
-        <v>4</v>
-      </c>
-      <c r="I11" s="40">
-        <f t="shared" si="0"/>
-        <v>168000000</v>
-      </c>
+      <c r="D11" s="45">
+        <v>6</v>
+      </c>
+      <c r="E11" s="46">
+        <v>296</v>
+      </c>
+      <c r="F11" s="35">
+        <v>1269</v>
+      </c>
+      <c r="G11" s="52">
+        <v>13000000</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="52">
+        <f>H11*G11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B12" s="47">
         <v>1</v>
       </c>
       <c r="C12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E12" s="48">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F12" s="36">
-        <v>1260</v>
+        <v>1274</v>
       </c>
       <c r="G12" s="53">
-        <v>31100000</v>
-      </c>
-      <c r="H12" s="57">
-        <v>4</v>
-      </c>
+        <v>14000000</v>
+      </c>
+      <c r="H12" s="57"/>
       <c r="I12" s="40">
-        <f t="shared" si="0"/>
-        <v>124400000</v>
+        <f>H12*G12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" s="47">
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" s="48">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="F13" s="36">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="G13" s="53">
-        <v>65000000</v>
-      </c>
-      <c r="H13" s="57">
-        <v>4</v>
-      </c>
+        <v>16500000</v>
+      </c>
+      <c r="H13" s="57"/>
       <c r="I13" s="40">
-        <f t="shared" si="0"/>
-        <v>260000000</v>
+        <f>H13*G13</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B14" s="47">
         <v>1</v>
       </c>
       <c r="C14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" s="48">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="F14" s="36">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="G14" s="53">
-        <v>25000000</v>
-      </c>
-      <c r="H14" s="57">
-        <v>2</v>
-      </c>
+        <v>22000000</v>
+      </c>
+      <c r="H14" s="57"/>
       <c r="I14" s="40">
-        <f t="shared" si="0"/>
-        <v>50000000</v>
+        <f>H14*G14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="47">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="48">
-        <v>276</v>
-      </c>
-      <c r="F15" s="36">
-        <v>1263</v>
-      </c>
-      <c r="G15" s="53">
-        <v>15000000</v>
-      </c>
-      <c r="H15" s="57">
-        <v>4</v>
-      </c>
-      <c r="I15" s="40">
-        <f t="shared" si="0"/>
-        <v>60000000</v>
-      </c>
+      <c r="A15" s="60"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="47">
         <v>1</v>
@@ -3335,58 +3271,35 @@
         <v>1</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="48">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="F16" s="36">
-        <v>1264</v>
-      </c>
-      <c r="G16" s="53">
-        <v>62000000</v>
-      </c>
-      <c r="H16" s="57">
-        <v>4</v>
-      </c>
+        <v>1265</v>
+      </c>
+      <c r="G16" s="54">
+        <v>30000000</v>
+      </c>
+      <c r="H16" s="57"/>
       <c r="I16" s="40">
-        <f t="shared" si="0"/>
-        <v>248000000</v>
+        <f>H16*G16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="47">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <v>5</v>
-      </c>
-      <c r="E17" s="48">
-        <v>347</v>
-      </c>
-      <c r="F17" s="36">
-        <v>1265</v>
-      </c>
-      <c r="G17" s="54">
-        <v>30000000</v>
-      </c>
-      <c r="H17" s="57">
-        <v>2</v>
-      </c>
-      <c r="I17" s="40">
-        <f t="shared" si="0"/>
-        <v>60000000</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B18" s="47">
         <v>1</v>
@@ -3398,55 +3311,51 @@
         <v>1</v>
       </c>
       <c r="E18" s="48">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c r="F18" s="36">
-        <v>1266</v>
+        <v>1283</v>
       </c>
       <c r="G18" s="53">
-        <v>31000000</v>
-      </c>
-      <c r="H18" s="57">
-        <v>4</v>
-      </c>
+        <v>10000000</v>
+      </c>
+      <c r="H18" s="57"/>
       <c r="I18" s="40">
-        <f t="shared" si="0"/>
-        <v>124000000</v>
+        <f>H18*G18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" s="47">
         <v>1</v>
       </c>
       <c r="C19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E19" s="48">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="F19" s="36">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="G19" s="53">
-        <v>16000000</v>
-      </c>
-      <c r="H19" s="57">
-        <v>4</v>
-      </c>
+        <v>15000000</v>
+      </c>
+      <c r="H19" s="57"/>
       <c r="I19" s="40">
-        <f t="shared" si="0"/>
-        <v>64000000</v>
+        <f>H19*G19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" s="47">
         <v>1</v>
@@ -3458,85 +3367,79 @@
         <v>1</v>
       </c>
       <c r="E20" s="48">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F20" s="36">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="G20" s="53">
-        <v>23000000</v>
-      </c>
-      <c r="H20" s="57">
-        <v>4</v>
-      </c>
+        <v>17000000</v>
+      </c>
+      <c r="H20" s="57"/>
       <c r="I20" s="40">
-        <f t="shared" si="0"/>
-        <v>92000000</v>
+        <f t="shared" ref="I20:I22" si="0">H20*G20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21" s="47">
         <v>1</v>
       </c>
       <c r="C21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E21" s="48">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F21" s="36">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="G21" s="53">
-        <v>12000000</v>
-      </c>
-      <c r="H21" s="57">
-        <v>4</v>
-      </c>
+        <v>23000000</v>
+      </c>
+      <c r="H21" s="57"/>
       <c r="I21" s="40">
         <f t="shared" si="0"/>
-        <v>48000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="47">
         <v>1</v>
       </c>
       <c r="C22" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E22" s="48">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="F22" s="36">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="G22" s="53">
-        <v>9500000</v>
-      </c>
-      <c r="H22" s="57">
-        <v>2</v>
-      </c>
+        <v>23000000</v>
+      </c>
+      <c r="H22" s="57"/>
       <c r="I22" s="40">
         <f t="shared" si="0"/>
-        <v>19000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B23" s="47">
         <v>1</v>
@@ -3545,28 +3448,26 @@
         <v>1</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" s="48">
-        <v>288</v>
+        <v>54</v>
       </c>
       <c r="F23" s="36">
-        <v>1271</v>
+        <v>1278</v>
       </c>
       <c r="G23" s="53">
-        <v>8000000</v>
-      </c>
-      <c r="H23" s="57">
-        <v>4</v>
-      </c>
+        <v>25500000</v>
+      </c>
+      <c r="H23" s="57"/>
       <c r="I23" s="40">
-        <f t="shared" si="0"/>
-        <v>32000000</v>
+        <f>H23*G23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B24" s="47">
         <v>1</v>
@@ -3575,238 +3476,165 @@
         <v>1</v>
       </c>
       <c r="D24" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" s="48">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="F24" s="36">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="G24" s="53">
-        <v>24000000</v>
-      </c>
-      <c r="H24" s="57">
-        <v>4</v>
-      </c>
+        <v>30000000</v>
+      </c>
+      <c r="H24" s="57"/>
       <c r="I24" s="40">
-        <f t="shared" si="0"/>
-        <v>96000000</v>
+        <f>H24*G24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="47">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="48">
-        <v>303</v>
-      </c>
-      <c r="F25" s="36">
-        <v>1273</v>
-      </c>
-      <c r="G25" s="53">
-        <v>23000000</v>
-      </c>
-      <c r="H25" s="57">
-        <v>2</v>
-      </c>
-      <c r="I25" s="40">
-        <f t="shared" si="0"/>
-        <v>46000000</v>
-      </c>
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B26" s="47">
         <v>1</v>
       </c>
       <c r="C26" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E26" s="48">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="F26" s="36">
-        <v>1274</v>
+        <v>1254</v>
       </c>
       <c r="G26" s="53">
-        <v>13000000</v>
-      </c>
-      <c r="H26" s="57">
-        <v>4</v>
-      </c>
+        <v>30000000</v>
+      </c>
+      <c r="H26" s="57"/>
       <c r="I26" s="40">
-        <f t="shared" si="0"/>
-        <v>52000000</v>
+        <f>H26*G26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B27" s="47">
         <v>1</v>
       </c>
       <c r="C27" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E27" s="48">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="F27" s="36">
-        <v>1275</v>
+        <v>1253</v>
       </c>
       <c r="G27" s="53">
-        <v>1500000</v>
-      </c>
-      <c r="H27" s="57">
-        <v>2</v>
-      </c>
+        <v>32500000</v>
+      </c>
+      <c r="H27" s="57"/>
       <c r="I27" s="40">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
+        <f>H27*G27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="60" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B28" s="47">
         <v>1</v>
       </c>
       <c r="C28" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E28" s="48">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="F28" s="36">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="G28" s="53">
-        <v>1650000</v>
-      </c>
-      <c r="H28" s="57">
-        <v>2</v>
-      </c>
+        <v>34000000</v>
+      </c>
+      <c r="H28" s="57"/>
       <c r="I28" s="40">
-        <f t="shared" si="0"/>
-        <v>3300000</v>
+        <f>H28*G28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" s="47">
         <v>1</v>
       </c>
       <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="48">
         <v>2</v>
       </c>
-      <c r="D29" s="8">
-        <v>6</v>
-      </c>
-      <c r="E29" s="48">
-        <v>292</v>
-      </c>
       <c r="F29" s="36">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="G29" s="53">
-        <v>1550000</v>
-      </c>
-      <c r="H29" s="57">
-        <v>2</v>
-      </c>
+        <v>35500000</v>
+      </c>
+      <c r="H29" s="57"/>
       <c r="I29" s="40">
-        <f t="shared" si="0"/>
-        <v>3100000</v>
+        <f>H29*G29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="47">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8">
-        <v>6</v>
-      </c>
-      <c r="E30" s="48">
-        <v>54</v>
-      </c>
-      <c r="F30" s="36">
-        <v>1278</v>
-      </c>
-      <c r="G30" s="53">
-        <v>11000000</v>
-      </c>
-      <c r="H30" s="57">
-        <v>4</v>
-      </c>
-      <c r="I30" s="40">
-        <f t="shared" si="0"/>
-        <v>44000000</v>
-      </c>
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="47">
-        <v>1</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="48">
-        <v>3</v>
-      </c>
-      <c r="F31" s="36">
-        <v>1279</v>
-      </c>
-      <c r="G31" s="53">
-        <v>30000000</v>
-      </c>
-      <c r="H31" s="57">
-        <v>4</v>
-      </c>
-      <c r="I31" s="40">
-        <f t="shared" si="0"/>
-        <v>120000000</v>
-      </c>
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B32" s="47">
         <v>1</v>
@@ -3818,113 +3646,382 @@
         <v>1</v>
       </c>
       <c r="E32" s="48">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="F32" s="36">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="G32" s="53">
-        <v>35000000</v>
-      </c>
-      <c r="H32" s="57">
-        <v>4</v>
-      </c>
+        <v>36500000</v>
+      </c>
+      <c r="H32" s="57"/>
       <c r="I32" s="40">
-        <f t="shared" si="0"/>
-        <v>140000000</v>
+        <f>H32*G32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="47">
         <v>1</v>
       </c>
       <c r="C33" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E33" s="48">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="F33" s="36">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="G33" s="53">
-        <v>4500000</v>
-      </c>
-      <c r="H33" s="57">
-        <v>4</v>
-      </c>
+        <v>38000000</v>
+      </c>
+      <c r="H33" s="57"/>
       <c r="I33" s="40">
-        <f t="shared" si="0"/>
-        <v>18000000</v>
+        <f>H33*G33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="47">
         <v>1</v>
       </c>
       <c r="C34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E34" s="48">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="F34" s="36">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="G34" s="53">
-        <v>21000000</v>
-      </c>
-      <c r="H34" s="57">
-        <v>4</v>
-      </c>
+        <v>39000000</v>
+      </c>
+      <c r="H34" s="57"/>
       <c r="I34" s="40">
-        <f t="shared" si="0"/>
-        <v>84000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="49">
-        <v>1</v>
-      </c>
-      <c r="C35" s="50">
-        <v>1</v>
-      </c>
-      <c r="D35" s="50">
-        <v>1</v>
-      </c>
-      <c r="E35" s="51">
-        <v>337</v>
-      </c>
-      <c r="F35" s="38">
-        <v>1283</v>
-      </c>
-      <c r="G35" s="55">
-        <v>10000000</v>
-      </c>
-      <c r="H35" s="58">
-        <v>2</v>
-      </c>
-      <c r="I35" s="41">
-        <f t="shared" si="0"/>
-        <v>20000000</v>
+        <f>H34*G34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="53">
+        <v>39500000</v>
+      </c>
+      <c r="H35" s="57"/>
+      <c r="I35" s="40"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="53">
+        <v>41500000</v>
+      </c>
+      <c r="H36" s="57"/>
+      <c r="I36" s="40"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="47">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="48">
+        <v>271</v>
+      </c>
+      <c r="F38" s="36">
+        <v>1266</v>
+      </c>
+      <c r="G38" s="53">
+        <v>45500000</v>
+      </c>
+      <c r="H38" s="57"/>
+      <c r="I38" s="40">
+        <f t="shared" ref="I38:I43" si="1">H38*G38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="47">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="48">
+        <v>279</v>
+      </c>
+      <c r="F39" s="36">
+        <v>1258</v>
+      </c>
+      <c r="G39" s="53">
+        <v>48500000</v>
+      </c>
+      <c r="H39" s="57"/>
+      <c r="I39" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="47">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="48">
+        <v>278</v>
+      </c>
+      <c r="F40" s="36">
+        <v>1259</v>
+      </c>
+      <c r="G40" s="53">
+        <v>50000000</v>
+      </c>
+      <c r="H40" s="57"/>
+      <c r="I40" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="47">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="48">
+        <v>275</v>
+      </c>
+      <c r="F41" s="36">
+        <v>1261</v>
+      </c>
+      <c r="G41" s="53">
+        <v>55000000</v>
+      </c>
+      <c r="H41" s="57"/>
+      <c r="I41" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="47">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="48">
+        <v>327</v>
+      </c>
+      <c r="F42" s="36">
+        <v>1260</v>
+      </c>
+      <c r="G42" s="53">
+        <v>65000000</v>
+      </c>
+      <c r="H42" s="57"/>
+      <c r="I42" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="47">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="48">
+        <v>280</v>
+      </c>
+      <c r="F43" s="36">
+        <v>1264</v>
+      </c>
+      <c r="G43" s="53">
+        <v>70000000</v>
+      </c>
+      <c r="H43" s="57"/>
+      <c r="I43" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="47">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>5</v>
+      </c>
+      <c r="E45" s="48">
+        <v>41</v>
+      </c>
+      <c r="F45" s="36">
+        <v>1256</v>
+      </c>
+      <c r="G45" s="53">
+        <v>275000000</v>
+      </c>
+      <c r="H45" s="57"/>
+      <c r="I45" s="40">
+        <f>H45*G45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="47">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8">
+        <v>5</v>
+      </c>
+      <c r="E46" s="48">
+        <v>26</v>
+      </c>
+      <c r="F46" s="36">
+        <v>1251</v>
+      </c>
+      <c r="G46" s="53">
+        <v>330000000</v>
+      </c>
+      <c r="H46" s="57"/>
+      <c r="I46" s="40">
+        <f>H46*G46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="49">
+        <v>1</v>
+      </c>
+      <c r="C47" s="50">
+        <v>1</v>
+      </c>
+      <c r="D47" s="50">
+        <v>5</v>
+      </c>
+      <c r="E47" s="51">
+        <v>27</v>
+      </c>
+      <c r="F47" s="38">
+        <v>1257</v>
+      </c>
+      <c r="G47" s="55">
+        <v>380000000</v>
+      </c>
+      <c r="H47" s="58"/>
+      <c r="I47" s="41">
+        <f>H47*G47</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{8018112C-F9A4-4530-A44A-9A3594409B98}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I6">
+      <sortCondition ref="G2"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
@@ -3940,7 +4037,7 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -3963,12 +4060,12 @@
       <c r="C1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="183" t="s">
+      <c r="D1" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="184"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="189"/>
       <c r="H1" s="15" t="s">
         <v>39</v>
       </c>
@@ -3983,7 +4080,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="190" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -4019,7 +4116,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="186"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="65" t="s">
         <v>46</v>
       </c>
@@ -4053,7 +4150,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="186"/>
+      <c r="A4" s="191"/>
       <c r="B4" s="65" t="s">
         <v>45</v>
       </c>
@@ -4087,7 +4184,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="186"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="65" t="s">
         <v>56</v>
       </c>
@@ -4121,7 +4218,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="65" t="s">
         <v>57</v>
       </c>
@@ -4155,7 +4252,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
+      <c r="A7" s="191"/>
       <c r="B7" s="65" t="s">
         <v>58</v>
       </c>
@@ -4189,7 +4286,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
+      <c r="A8" s="191"/>
       <c r="B8" s="65" t="s">
         <v>59</v>
       </c>
@@ -4223,7 +4320,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="186"/>
+      <c r="A9" s="191"/>
       <c r="B9" s="65" t="s">
         <v>97</v>
       </c>
@@ -4257,7 +4354,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="186"/>
+      <c r="A10" s="191"/>
       <c r="B10" s="65" t="s">
         <v>61</v>
       </c>
@@ -4291,7 +4388,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="186"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="65" t="s">
         <v>60</v>
       </c>
@@ -4325,7 +4422,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
+      <c r="A12" s="191"/>
       <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
@@ -4359,7 +4456,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
+      <c r="A13" s="191"/>
       <c r="B13" s="65" t="s">
         <v>50</v>
       </c>
@@ -4393,7 +4490,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
+      <c r="A14" s="191"/>
       <c r="B14" s="65" t="s">
         <v>51</v>
       </c>
@@ -4427,7 +4524,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
+      <c r="A15" s="191"/>
       <c r="B15" s="65" t="s">
         <v>62</v>
       </c>
@@ -4461,7 +4558,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
+      <c r="A16" s="191"/>
       <c r="B16" s="65" t="s">
         <v>63</v>
       </c>
@@ -4495,7 +4592,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
+      <c r="A17" s="191"/>
       <c r="B17" s="65" t="s">
         <v>52</v>
       </c>
@@ -4529,7 +4626,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
+      <c r="A18" s="191"/>
       <c r="B18" s="65" t="s">
         <v>53</v>
       </c>
@@ -4563,7 +4660,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="186"/>
+      <c r="A19" s="191"/>
       <c r="B19" s="66" t="s">
         <v>54</v>
       </c>
@@ -4597,7 +4694,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="186"/>
+      <c r="A20" s="191"/>
       <c r="B20" s="65" t="s">
         <v>55</v>
       </c>
@@ -4767,7 +4864,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="187" t="s">
+      <c r="A25" s="192" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -4803,7 +4900,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="188"/>
+      <c r="A26" s="193"/>
       <c r="B26" s="16" t="s">
         <v>89</v>
       </c>
@@ -4837,7 +4934,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="188"/>
+      <c r="A27" s="193"/>
       <c r="B27" s="16" t="s">
         <v>91</v>
       </c>
@@ -4871,7 +4968,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="188"/>
+      <c r="A28" s="193"/>
       <c r="B28" s="16" t="s">
         <v>92</v>
       </c>
@@ -4905,7 +5002,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="188"/>
+      <c r="A29" s="193"/>
       <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
@@ -4939,7 +5036,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="188"/>
+      <c r="A30" s="193"/>
       <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
@@ -4973,7 +5070,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="188"/>
+      <c r="A31" s="193"/>
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -4999,7 +5096,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="188"/>
+      <c r="A32" s="193"/>
       <c r="B32" s="16" t="s">
         <v>67</v>
       </c>
@@ -5025,7 +5122,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="188"/>
+      <c r="A33" s="193"/>
       <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
@@ -5059,7 +5156,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="188"/>
+      <c r="A34" s="193"/>
       <c r="B34" s="16" t="s">
         <v>69</v>
       </c>
@@ -5085,7 +5182,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="188"/>
+      <c r="A35" s="193"/>
       <c r="B35" s="16" t="s">
         <v>70</v>
       </c>
@@ -5119,7 +5216,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="188"/>
+      <c r="A36" s="193"/>
       <c r="B36" s="16" t="s">
         <v>71</v>
       </c>
@@ -5153,7 +5250,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="188"/>
+      <c r="A37" s="193"/>
       <c r="B37" s="16" t="s">
         <v>72</v>
       </c>
@@ -5187,7 +5284,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="188"/>
+      <c r="A38" s="193"/>
       <c r="B38" s="16" t="s">
         <v>73</v>
       </c>
@@ -5221,7 +5318,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="188"/>
+      <c r="A39" s="193"/>
       <c r="B39" s="16" t="s">
         <v>74</v>
       </c>
@@ -5255,7 +5352,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="189"/>
+      <c r="A40" s="194"/>
       <c r="B40" s="20" t="s">
         <v>75</v>
       </c>
@@ -5289,7 +5386,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="190" t="s">
+      <c r="A41" s="195" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="86" t="s">
@@ -5325,7 +5422,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="191"/>
+      <c r="A42" s="196"/>
       <c r="B42" s="87" t="s">
         <v>76</v>
       </c>
@@ -5359,7 +5456,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="192" t="s">
+      <c r="A43" s="197" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="84" t="s">
@@ -5387,7 +5484,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="193"/>
+      <c r="A44" s="198"/>
       <c r="B44" s="85" t="s">
         <v>78</v>
       </c>
@@ -5421,7 +5518,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="193"/>
+      <c r="A45" s="198"/>
       <c r="B45" s="85" t="s">
         <v>79</v>
       </c>
@@ -5455,7 +5552,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="193"/>
+      <c r="A46" s="198"/>
       <c r="B46" s="85" t="s">
         <v>80</v>
       </c>
@@ -5489,7 +5586,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="193"/>
+      <c r="A47" s="198"/>
       <c r="B47" s="85" t="s">
         <v>81</v>
       </c>
@@ -5523,7 +5620,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="193"/>
+      <c r="A48" s="198"/>
       <c r="B48" s="85" t="s">
         <v>82</v>
       </c>
@@ -5557,7 +5654,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="193"/>
+      <c r="A49" s="198"/>
       <c r="B49" s="85" t="s">
         <v>83</v>
       </c>
@@ -5591,7 +5688,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="194"/>
+      <c r="A50" s="199"/>
       <c r="B50" s="91" t="s">
         <v>84</v>
       </c>
@@ -5625,7 +5722,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="175" t="s">
+      <c r="A51" s="180" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="119" t="s">
@@ -5661,7 +5758,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="176"/>
+      <c r="A52" s="181"/>
       <c r="B52" s="107" t="s">
         <v>99</v>
       </c>
@@ -5695,7 +5792,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="176"/>
+      <c r="A53" s="181"/>
       <c r="B53" s="108" t="s">
         <v>101</v>
       </c>
@@ -5729,19 +5826,19 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="177" t="s">
+      <c r="I54" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="J54" s="178"/>
-      <c r="K54" s="181">
+      <c r="J54" s="183"/>
+      <c r="K54" s="186">
         <f>SUM(K2:K53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I55" s="179"/>
-      <c r="J55" s="180"/>
-      <c r="K55" s="182"/>
+      <c r="I55" s="184"/>
+      <c r="J55" s="185"/>
+      <c r="K55" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5788,12 +5885,12 @@
       <c r="C1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="198" t="s">
+      <c r="D1" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="200"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="205"/>
       <c r="H1" s="15"/>
       <c r="I1" s="43" t="s">
         <v>41</v>
@@ -5806,7 +5903,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="214" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="109" t="s">
@@ -5842,7 +5939,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="210"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="107" t="s">
         <v>203</v>
       </c>
@@ -5876,7 +5973,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="210"/>
+      <c r="A4" s="215"/>
       <c r="B4" s="107" t="s">
         <v>153</v>
       </c>
@@ -5910,7 +6007,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210"/>
+      <c r="A5" s="215"/>
       <c r="B5" s="107" t="s">
         <v>154</v>
       </c>
@@ -5944,7 +6041,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="210"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="107" t="s">
         <v>155</v>
       </c>
@@ -5978,7 +6075,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="210"/>
+      <c r="A7" s="215"/>
       <c r="B7" s="107" t="s">
         <v>156</v>
       </c>
@@ -6012,7 +6109,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="210"/>
+      <c r="A8" s="215"/>
       <c r="B8" s="107" t="s">
         <v>157</v>
       </c>
@@ -6046,7 +6143,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="210"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="107" t="s">
         <v>206</v>
       </c>
@@ -6080,7 +6177,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="210"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="107" t="s">
         <v>158</v>
       </c>
@@ -6114,7 +6211,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="210"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="107" t="s">
         <v>160</v>
       </c>
@@ -6147,7 +6244,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="210"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="107" t="s">
         <v>161</v>
       </c>
@@ -6180,7 +6277,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="210"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="107" t="s">
         <v>162</v>
       </c>
@@ -6214,7 +6311,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="210"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="107" t="s">
         <v>163</v>
       </c>
@@ -6248,7 +6345,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="210"/>
+      <c r="A15" s="215"/>
       <c r="B15" s="107" t="s">
         <v>164</v>
       </c>
@@ -6282,7 +6379,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="210"/>
+      <c r="A16" s="215"/>
       <c r="B16" s="107" t="s">
         <v>165</v>
       </c>
@@ -6316,7 +6413,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="210"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="107" t="s">
         <v>166</v>
       </c>
@@ -6350,7 +6447,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="210"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="107" t="s">
         <v>167</v>
       </c>
@@ -6384,7 +6481,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="210"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="107" t="s">
         <v>168</v>
       </c>
@@ -6418,7 +6515,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="210"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="107" t="s">
         <v>169</v>
       </c>
@@ -6452,7 +6549,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="210"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="107" t="s">
         <v>170</v>
       </c>
@@ -6486,7 +6583,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="210"/>
+      <c r="A22" s="215"/>
       <c r="B22" s="107" t="s">
         <v>207</v>
       </c>
@@ -6520,7 +6617,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="210"/>
+      <c r="A23" s="215"/>
       <c r="B23" s="107" t="s">
         <v>208</v>
       </c>
@@ -6554,7 +6651,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="210"/>
+      <c r="A24" s="215"/>
       <c r="B24" s="107" t="s">
         <v>171</v>
       </c>
@@ -6588,7 +6685,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="210"/>
+      <c r="A25" s="215"/>
       <c r="B25" s="107" t="s">
         <v>172</v>
       </c>
@@ -6622,7 +6719,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="210"/>
+      <c r="A26" s="215"/>
       <c r="B26" s="110" t="s">
         <v>173</v>
       </c>
@@ -6656,7 +6753,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="201" t="s">
+      <c r="A27" s="206" t="s">
         <v>86</v>
       </c>
       <c r="B27" s="154" t="s">
@@ -6692,7 +6789,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="201"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="151" t="s">
         <v>185</v>
       </c>
@@ -6726,7 +6823,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="201"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="151" t="s">
         <v>186</v>
       </c>
@@ -6760,7 +6857,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="201"/>
+      <c r="A30" s="206"/>
       <c r="B30" s="151" t="s">
         <v>187</v>
       </c>
@@ -6794,7 +6891,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="201"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="151" t="s">
         <v>188</v>
       </c>
@@ -6828,7 +6925,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="201"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="151" t="s">
         <v>189</v>
       </c>
@@ -6862,7 +6959,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="201"/>
+      <c r="A33" s="206"/>
       <c r="B33" s="151" t="s">
         <v>190</v>
       </c>
@@ -6896,7 +6993,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="201"/>
+      <c r="A34" s="206"/>
       <c r="B34" s="151" t="s">
         <v>228</v>
       </c>
@@ -6930,7 +7027,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="201"/>
+      <c r="A35" s="206"/>
       <c r="B35" s="151" t="s">
         <v>229</v>
       </c>
@@ -6964,7 +7061,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="201"/>
+      <c r="A36" s="206"/>
       <c r="B36" s="151" t="s">
         <v>226</v>
       </c>
@@ -6998,7 +7095,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="201"/>
+      <c r="A37" s="206"/>
       <c r="B37" s="151" t="s">
         <v>193</v>
       </c>
@@ -7032,7 +7129,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="201"/>
+      <c r="A38" s="206"/>
       <c r="B38" s="151" t="s">
         <v>227</v>
       </c>
@@ -7067,7 +7164,7 @@
       <c r="L38" s="124"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="201"/>
+      <c r="A39" s="206"/>
       <c r="B39" s="151" t="s">
         <v>194</v>
       </c>
@@ -7101,7 +7198,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="202"/>
+      <c r="A40" s="207"/>
       <c r="B40" s="156" t="s">
         <v>195</v>
       </c>
@@ -7135,7 +7232,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="203" t="s">
+      <c r="A41" s="208" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="157" t="s">
@@ -7171,7 +7268,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="204"/>
+      <c r="A42" s="209"/>
       <c r="B42" s="152" t="s">
         <v>200</v>
       </c>
@@ -7205,7 +7302,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="204"/>
+      <c r="A43" s="209"/>
       <c r="B43" s="152" t="s">
         <v>201</v>
       </c>
@@ -7239,7 +7336,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="204"/>
+      <c r="A44" s="209"/>
       <c r="B44" s="152" t="s">
         <v>174</v>
       </c>
@@ -7273,7 +7370,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="204"/>
+      <c r="A45" s="209"/>
       <c r="B45" s="152" t="s">
         <v>175</v>
       </c>
@@ -7307,7 +7404,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="204"/>
+      <c r="A46" s="209"/>
       <c r="B46" s="152" t="s">
         <v>176</v>
       </c>
@@ -7341,7 +7438,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="204"/>
+      <c r="A47" s="209"/>
       <c r="B47" s="152" t="s">
         <v>177</v>
       </c>
@@ -7375,7 +7472,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="205"/>
+      <c r="A48" s="210"/>
       <c r="B48" s="165" t="s">
         <v>180</v>
       </c>
@@ -7409,7 +7506,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="206" t="s">
+      <c r="A49" s="211" t="s">
         <v>88</v>
       </c>
       <c r="B49" s="115" t="s">
@@ -7437,7 +7534,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="207"/>
+      <c r="A50" s="212"/>
       <c r="B50" s="153" t="s">
         <v>205</v>
       </c>
@@ -7471,7 +7568,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="207"/>
+      <c r="A51" s="212"/>
       <c r="B51" s="153" t="s">
         <v>179</v>
       </c>
@@ -7506,7 +7603,7 @@
       <c r="L51" s="124"/>
     </row>
     <row r="52" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="208"/>
+      <c r="A52" s="213"/>
       <c r="B52" s="108" t="s">
         <v>230</v>
       </c>
@@ -7540,19 +7637,19 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I53" s="177" t="s">
+      <c r="I53" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="J53" s="195"/>
-      <c r="K53" s="197">
+      <c r="J53" s="200"/>
+      <c r="K53" s="202">
         <f>SUM(K2:K52)</f>
         <v>1200000</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I54" s="179"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="182"/>
+      <c r="I54" s="184"/>
+      <c r="J54" s="201"/>
+      <c r="K54" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7595,12 +7692,12 @@
       <c r="B1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="198" t="s">
+      <c r="C1" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="200"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="205"/>
       <c r="G1" s="15" t="s">
         <v>39</v>
       </c>
@@ -7615,7 +7712,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="218" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="59" t="s">
@@ -7646,7 +7743,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="214"/>
+      <c r="A3" s="219"/>
       <c r="B3" s="60" t="s">
         <v>106</v>
       </c>
@@ -7675,7 +7772,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="214"/>
+      <c r="A4" s="219"/>
       <c r="B4" s="60" t="s">
         <v>107</v>
       </c>
@@ -7704,7 +7801,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="214"/>
+      <c r="A5" s="219"/>
       <c r="B5" s="130" t="s">
         <v>108</v>
       </c>
@@ -7733,7 +7830,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="214"/>
+      <c r="A6" s="219"/>
       <c r="B6" s="60" t="s">
         <v>122</v>
       </c>
@@ -7762,7 +7859,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="214"/>
+      <c r="A7" s="219"/>
       <c r="B7" s="60" t="s">
         <v>109</v>
       </c>
@@ -7791,7 +7888,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="214"/>
+      <c r="A8" s="219"/>
       <c r="B8" s="60" t="s">
         <v>110</v>
       </c>
@@ -7820,7 +7917,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="214"/>
+      <c r="A9" s="219"/>
       <c r="B9" s="60" t="s">
         <v>115</v>
       </c>
@@ -7849,7 +7946,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="214"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="60" t="s">
         <v>116</v>
       </c>
@@ -7878,7 +7975,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="214"/>
+      <c r="A11" s="219"/>
       <c r="B11" s="60" t="s">
         <v>111</v>
       </c>
@@ -7907,7 +8004,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="214"/>
+      <c r="A12" s="219"/>
       <c r="B12" s="60" t="s">
         <v>112</v>
       </c>
@@ -7936,7 +8033,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="214"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="60" t="s">
         <v>113</v>
       </c>
@@ -7965,7 +8062,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="214"/>
+      <c r="A14" s="219"/>
       <c r="B14" s="60" t="s">
         <v>114</v>
       </c>
@@ -7994,7 +8091,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="214"/>
+      <c r="A15" s="219"/>
       <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
@@ -8023,7 +8120,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="214"/>
+      <c r="A16" s="219"/>
       <c r="B16" s="60" t="s">
         <v>118</v>
       </c>
@@ -8052,7 +8149,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="214"/>
+      <c r="A17" s="219"/>
       <c r="B17" s="60" t="s">
         <v>119</v>
       </c>
@@ -8081,7 +8178,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="214"/>
+      <c r="A18" s="219"/>
       <c r="B18" s="60" t="s">
         <v>120</v>
       </c>
@@ -8110,7 +8207,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="215"/>
+      <c r="A19" s="220"/>
       <c r="B19" s="149" t="s">
         <v>121</v>
       </c>
@@ -8139,7 +8236,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="216" t="s">
+      <c r="A20" s="221" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="59" t="s">
@@ -8170,7 +8267,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="217"/>
+      <c r="A21" s="222"/>
       <c r="B21" s="60" t="s">
         <v>139</v>
       </c>
@@ -8199,7 +8296,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="217"/>
+      <c r="A22" s="222"/>
       <c r="B22" s="60" t="s">
         <v>132</v>
       </c>
@@ -8228,7 +8325,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="217"/>
+      <c r="A23" s="222"/>
       <c r="B23" s="60" t="s">
         <v>127</v>
       </c>
@@ -8257,7 +8354,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="217"/>
+      <c r="A24" s="222"/>
       <c r="B24" s="60" t="s">
         <v>128</v>
       </c>
@@ -8286,7 +8383,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="217"/>
+      <c r="A25" s="222"/>
       <c r="B25" s="60" t="s">
         <v>147</v>
       </c>
@@ -8315,7 +8412,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="217"/>
+      <c r="A26" s="222"/>
       <c r="B26" s="60" t="s">
         <v>191</v>
       </c>
@@ -8344,7 +8441,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="218"/>
+      <c r="A27" s="223"/>
       <c r="B27" s="61" t="s">
         <v>135</v>
       </c>
@@ -8373,7 +8470,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="219" t="s">
+      <c r="A28" s="224" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="133" t="s">
@@ -8404,7 +8501,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="220"/>
+      <c r="A29" s="225"/>
       <c r="B29" s="132" t="s">
         <v>137</v>
       </c>
@@ -8433,7 +8530,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="220"/>
+      <c r="A30" s="225"/>
       <c r="B30" s="132" t="s">
         <v>131</v>
       </c>
@@ -8462,7 +8559,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="221"/>
+      <c r="A31" s="226"/>
       <c r="B31" s="134" t="s">
         <v>138</v>
       </c>
@@ -8491,7 +8588,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="222" t="s">
+      <c r="A32" s="227" t="s">
         <v>144</v>
       </c>
       <c r="B32" s="131" t="s">
@@ -8524,7 +8621,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="223"/>
+      <c r="A33" s="228"/>
       <c r="B33" s="132" t="s">
         <v>129</v>
       </c>
@@ -8555,7 +8652,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="223"/>
+      <c r="A34" s="228"/>
       <c r="B34" s="132" t="s">
         <v>133</v>
       </c>
@@ -8586,7 +8683,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="223"/>
+      <c r="A35" s="228"/>
       <c r="B35" s="132" t="s">
         <v>134</v>
       </c>
@@ -8617,7 +8714,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="223"/>
+      <c r="A36" s="228"/>
       <c r="B36" s="132" t="s">
         <v>125</v>
       </c>
@@ -8648,7 +8745,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="223"/>
+      <c r="A37" s="228"/>
       <c r="B37" s="132" t="s">
         <v>192</v>
       </c>
@@ -8679,7 +8776,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="223"/>
+      <c r="A38" s="228"/>
       <c r="B38" s="132" t="s">
         <v>130</v>
       </c>
@@ -8710,7 +8807,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="224"/>
+      <c r="A39" s="229"/>
       <c r="B39" s="134" t="s">
         <v>142</v>
       </c>
@@ -8772,19 +8869,19 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H41" s="211" t="s">
+      <c r="H41" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="212"/>
-      <c r="J41" s="197">
+      <c r="I41" s="217"/>
+      <c r="J41" s="202">
         <f>SUM(J2:J40)</f>
         <v>31130000</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="179"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="182"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="187"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -9237,13 +9334,13 @@
       <c r="A3" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="42">
         <v>20</v>
       </c>
-      <c r="D3" s="227">
+      <c r="D3" s="232">
         <v>44000</v>
       </c>
     </row>
@@ -9251,23 +9348,23 @@
       <c r="A4" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="226"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="37">
         <v>10</v>
       </c>
-      <c r="D4" s="228"/>
+      <c r="D4" s="233"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="225" t="s">
+      <c r="B5" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="35">
         <v>20</v>
       </c>
-      <c r="D5" s="227">
+      <c r="D5" s="232">
         <v>617000</v>
       </c>
     </row>
@@ -9275,33 +9372,33 @@
       <c r="A6" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="229"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="145">
         <v>4</v>
       </c>
-      <c r="D6" s="230"/>
+      <c r="D6" s="235"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="226"/>
+      <c r="B7" s="231"/>
       <c r="C7" s="38">
         <v>1</v>
       </c>
-      <c r="D7" s="228"/>
+      <c r="D7" s="233"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="225" t="s">
+      <c r="B8" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="35">
         <v>20</v>
       </c>
-      <c r="D8" s="227">
+      <c r="D8" s="232">
         <v>1040000</v>
       </c>
     </row>
@@ -9309,33 +9406,33 @@
       <c r="A9" s="158" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="229"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="145">
         <v>4</v>
       </c>
-      <c r="D9" s="230"/>
+      <c r="D9" s="235"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="226"/>
+      <c r="B10" s="231"/>
       <c r="C10" s="37">
         <v>2</v>
       </c>
-      <c r="D10" s="228"/>
+      <c r="D10" s="233"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="225" t="s">
+      <c r="B11" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="35">
         <v>4</v>
       </c>
-      <c r="D11" s="227">
+      <c r="D11" s="232">
         <v>6800000</v>
       </c>
     </row>
@@ -9343,23 +9440,23 @@
       <c r="A12" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="229"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="145">
         <v>2</v>
       </c>
-      <c r="D12" s="230"/>
+      <c r="D12" s="235"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="225" t="s">
+      <c r="B13" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="35">
         <v>20</v>
       </c>
-      <c r="D13" s="227">
+      <c r="D13" s="232">
         <v>260000</v>
       </c>
     </row>
@@ -9367,21 +9464,21 @@
       <c r="A14" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="229"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="145">
         <v>20</v>
       </c>
-      <c r="D14" s="230"/>
+      <c r="D14" s="235"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="226"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="37">
         <v>10</v>
       </c>
-      <c r="D15" s="228"/>
+      <c r="D15" s="233"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="115" t="s">
@@ -9402,13 +9499,13 @@
       <c r="A17" s="157" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="35">
         <v>4</v>
       </c>
-      <c r="D17" s="227">
+      <c r="D17" s="232">
         <v>2680000</v>
       </c>
     </row>
@@ -9416,23 +9513,23 @@
       <c r="A18" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="229"/>
+      <c r="B18" s="234"/>
       <c r="C18" s="145">
         <v>2</v>
       </c>
-      <c r="D18" s="230"/>
+      <c r="D18" s="235"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="225" t="s">
+      <c r="B19" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="35">
         <v>20</v>
       </c>
-      <c r="D19" s="227">
+      <c r="D19" s="232">
         <v>1800000</v>
       </c>
     </row>
@@ -9440,11 +9537,11 @@
       <c r="A20" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="226"/>
+      <c r="B20" s="231"/>
       <c r="C20" s="126">
         <v>10</v>
       </c>
-      <c r="D20" s="228"/>
+      <c r="D20" s="233"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9463,13 +9560,13 @@
       <c r="A23" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="239" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="42">
         <v>4</v>
       </c>
-      <c r="D23" s="227">
+      <c r="D23" s="232">
         <v>10500000</v>
       </c>
     </row>
@@ -9477,23 +9574,23 @@
       <c r="A24" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="235"/>
+      <c r="B24" s="240"/>
       <c r="C24" s="37">
         <v>1</v>
       </c>
-      <c r="D24" s="228"/>
+      <c r="D24" s="233"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="198" t="s">
+      <c r="B25" s="203" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="35">
         <v>4</v>
       </c>
-      <c r="D25" s="227">
+      <c r="D25" s="232">
         <v>2900000</v>
       </c>
     </row>
@@ -9501,23 +9598,23 @@
       <c r="A26" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="235"/>
+      <c r="B26" s="240"/>
       <c r="C26" s="38">
         <v>2</v>
       </c>
-      <c r="D26" s="228"/>
+      <c r="D26" s="233"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="225" t="s">
+      <c r="B27" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="35">
         <v>4</v>
       </c>
-      <c r="D27" s="227">
+      <c r="D27" s="232">
         <v>4500000</v>
       </c>
     </row>
@@ -9525,11 +9622,11 @@
       <c r="A28" s="168" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="226"/>
+      <c r="B28" s="231"/>
       <c r="C28" s="38">
         <v>2</v>
       </c>
-      <c r="D28" s="228"/>
+      <c r="D28" s="233"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
@@ -9581,13 +9678,13 @@
       <c r="A33" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="234" t="s">
+      <c r="B33" s="239" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="35">
         <v>2</v>
       </c>
-      <c r="D33" s="227">
+      <c r="D33" s="232">
         <v>5600000</v>
       </c>
     </row>
@@ -9595,11 +9692,11 @@
       <c r="A34" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="235"/>
+      <c r="B34" s="240"/>
       <c r="C34" s="38">
         <v>6</v>
       </c>
-      <c r="D34" s="228"/>
+      <c r="D34" s="233"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="116" t="s">
@@ -9634,13 +9731,13 @@
       <c r="A38" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="200" t="s">
+      <c r="B38" s="205" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="35">
         <v>6</v>
       </c>
-      <c r="D38" s="227">
+      <c r="D38" s="232">
         <v>2220000</v>
       </c>
     </row>
@@ -9648,24 +9745,24 @@
       <c r="A39" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="236"/>
+      <c r="B39" s="241"/>
       <c r="C39" s="38">
         <v>6</v>
       </c>
-      <c r="D39" s="228"/>
+      <c r="D39" s="233"/>
       <c r="G39" s="124"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="200" t="s">
+      <c r="B40" s="205" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="35">
         <v>20</v>
       </c>
-      <c r="D40" s="227">
+      <c r="D40" s="232">
         <v>4250000</v>
       </c>
     </row>
@@ -9673,24 +9770,24 @@
       <c r="A41" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="236"/>
+      <c r="B41" s="241"/>
       <c r="C41" s="38">
         <v>10</v>
       </c>
-      <c r="D41" s="228"/>
+      <c r="D41" s="233"/>
       <c r="G41" s="124"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="154" t="s">
         <v>228</v>
       </c>
-      <c r="B42" s="234" t="s">
+      <c r="B42" s="239" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="35">
         <v>10</v>
       </c>
-      <c r="D42" s="227">
+      <c r="D42" s="232">
         <v>4500000</v>
       </c>
     </row>
@@ -9698,21 +9795,21 @@
       <c r="A43" s="151" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="234"/>
+      <c r="B43" s="239"/>
       <c r="C43" s="145">
         <v>10</v>
       </c>
-      <c r="D43" s="230"/>
+      <c r="D43" s="235"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="235"/>
+      <c r="B44" s="240"/>
       <c r="C44" s="38">
         <v>20</v>
       </c>
-      <c r="D44" s="228"/>
+      <c r="D44" s="233"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="123" t="s">
@@ -9745,13 +9842,13 @@
       <c r="A48" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="225" t="s">
+      <c r="B48" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="42">
         <v>60</v>
       </c>
-      <c r="D48" s="227">
+      <c r="D48" s="232">
         <v>4260000</v>
       </c>
     </row>
@@ -9759,23 +9856,23 @@
       <c r="A49" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="226"/>
+      <c r="B49" s="231"/>
       <c r="C49" s="37">
         <v>60</v>
       </c>
-      <c r="D49" s="228"/>
+      <c r="D49" s="233"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="225" t="s">
+      <c r="B50" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="35">
         <v>60</v>
       </c>
-      <c r="D50" s="227">
+      <c r="D50" s="232">
         <v>900000</v>
       </c>
     </row>
@@ -9783,33 +9880,33 @@
       <c r="A51" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="229"/>
+      <c r="B51" s="234"/>
       <c r="C51" s="145">
         <v>60</v>
       </c>
-      <c r="D51" s="230"/>
+      <c r="D51" s="235"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="171" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="226"/>
+      <c r="B52" s="231"/>
       <c r="C52" s="37">
         <v>60</v>
       </c>
-      <c r="D52" s="228"/>
+      <c r="D52" s="233"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="151" t="s">
         <v>187</v>
       </c>
-      <c r="B53" s="199" t="s">
+      <c r="B53" s="204" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="35">
         <v>60</v>
       </c>
-      <c r="D53" s="232">
+      <c r="D53" s="237">
         <v>260000</v>
       </c>
     </row>
@@ -9817,31 +9914,31 @@
       <c r="A54" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="231"/>
+      <c r="B54" s="236"/>
       <c r="C54" s="36">
         <v>60</v>
       </c>
-      <c r="D54" s="233"/>
+      <c r="D54" s="238"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="231"/>
+      <c r="B55" s="236"/>
       <c r="C55" s="36">
         <v>60</v>
       </c>
-      <c r="D55" s="233"/>
+      <c r="D55" s="238"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="172" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="231"/>
+      <c r="B56" s="236"/>
       <c r="C56" s="38">
         <v>60</v>
       </c>
-      <c r="D56" s="233"/>
+      <c r="D56" s="238"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="123" t="s">
@@ -9952,13 +10049,13 @@
       <c r="A2" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="42">
         <v>20</v>
       </c>
-      <c r="D2" s="227">
+      <c r="D2" s="232">
         <v>820000</v>
       </c>
     </row>
@@ -9966,23 +10063,23 @@
       <c r="A3" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="226"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="37">
         <v>10</v>
       </c>
-      <c r="D3" s="228"/>
+      <c r="D3" s="233"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="35">
         <v>20</v>
       </c>
-      <c r="D4" s="227">
+      <c r="D4" s="232">
         <v>2080000</v>
       </c>
     </row>
@@ -9990,23 +10087,23 @@
       <c r="A5" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="226"/>
+      <c r="B5" s="231"/>
       <c r="C5" s="38">
         <v>10</v>
       </c>
-      <c r="D5" s="228"/>
+      <c r="D5" s="233"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="35">
         <v>30</v>
       </c>
-      <c r="D6" s="227">
+      <c r="D6" s="232">
         <v>5925000</v>
       </c>
     </row>
@@ -10014,23 +10111,23 @@
       <c r="A7" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="226"/>
+      <c r="B7" s="231"/>
       <c r="C7" s="37">
         <v>15</v>
       </c>
-      <c r="D7" s="228"/>
+      <c r="D7" s="233"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="225" t="s">
+      <c r="B8" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="35">
         <v>40</v>
       </c>
-      <c r="D8" s="227">
+      <c r="D8" s="232">
         <v>3660000</v>
       </c>
     </row>
@@ -10038,23 +10135,23 @@
       <c r="A9" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="226"/>
+      <c r="B9" s="231"/>
       <c r="C9" s="37">
         <v>20</v>
       </c>
-      <c r="D9" s="228"/>
+      <c r="D9" s="233"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="225" t="s">
+      <c r="B10" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="35">
         <v>30</v>
       </c>
-      <c r="D10" s="227">
+      <c r="D10" s="232">
         <v>7140000</v>
       </c>
     </row>
@@ -10062,11 +10159,11 @@
       <c r="A11" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="226"/>
+      <c r="B11" s="231"/>
       <c r="C11" s="38">
         <v>15</v>
       </c>
-      <c r="D11" s="228"/>
+      <c r="D11" s="233"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="120" t="s">
@@ -10141,13 +10238,13 @@
       <c r="A18" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="239" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="42">
         <v>10</v>
       </c>
-      <c r="D18" s="227">
+      <c r="D18" s="232">
         <v>3750000</v>
       </c>
     </row>
@@ -10155,23 +10252,23 @@
       <c r="A19" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="235"/>
+      <c r="B19" s="240"/>
       <c r="C19" s="37">
         <v>10</v>
       </c>
-      <c r="D19" s="228"/>
+      <c r="D19" s="233"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="203" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="35">
         <v>10</v>
       </c>
-      <c r="D20" s="227">
+      <c r="D20" s="232">
         <v>2350000</v>
       </c>
     </row>
@@ -10179,23 +10276,23 @@
       <c r="A21" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="235"/>
+      <c r="B21" s="240"/>
       <c r="C21" s="38">
         <v>10</v>
       </c>
-      <c r="D21" s="228"/>
+      <c r="D21" s="233"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="225" t="s">
+      <c r="B22" s="230" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="35">
         <v>10</v>
       </c>
-      <c r="D22" s="227">
+      <c r="D22" s="232">
         <v>3740000</v>
       </c>
     </row>
@@ -10203,11 +10300,11 @@
       <c r="A23" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="226"/>
+      <c r="B23" s="231"/>
       <c r="C23" s="38">
         <v>10</v>
       </c>
-      <c r="D23" s="228"/>
+      <c r="D23" s="233"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
@@ -10230,13 +10327,13 @@
       <c r="A26" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="234" t="s">
+      <c r="B26" s="239" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="42">
         <v>40</v>
       </c>
-      <c r="D26" s="227">
+      <c r="D26" s="232">
         <v>19560000</v>
       </c>
     </row>
@@ -10244,23 +10341,23 @@
       <c r="A27" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="235"/>
+      <c r="B27" s="240"/>
       <c r="C27" s="37">
         <v>20</v>
       </c>
-      <c r="D27" s="228"/>
+      <c r="D27" s="233"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="234" t="s">
+      <c r="B28" s="239" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="35">
         <v>10</v>
       </c>
-      <c r="D28" s="227">
+      <c r="D28" s="232">
         <v>11480000</v>
       </c>
     </row>
@@ -10268,11 +10365,11 @@
       <c r="A29" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="235"/>
+      <c r="B29" s="240"/>
       <c r="C29" s="38">
         <v>4</v>
       </c>
-      <c r="D29" s="228"/>
+      <c r="D29" s="233"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="116" t="s">
@@ -10340,8 +10437,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D42"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10353,16 +10450,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="176" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="259" t="s">
+      <c r="B1" s="175" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="259" t="s">
+      <c r="C1" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="258" t="s">
+      <c r="D1" s="174" t="s">
         <v>103</v>
       </c>
     </row>
@@ -10370,13 +10467,13 @@
       <c r="A2" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="251" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="35">
         <v>4</v>
       </c>
-      <c r="D2" s="249">
+      <c r="D2" s="254">
         <v>10374000</v>
       </c>
     </row>
@@ -10384,171 +10481,171 @@
       <c r="A3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="247"/>
+      <c r="B3" s="252"/>
       <c r="C3" s="36">
         <v>10</v>
       </c>
-      <c r="D3" s="250"/>
+      <c r="D3" s="255"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="247"/>
+      <c r="B4" s="252"/>
       <c r="C4" s="36">
         <v>2</v>
       </c>
-      <c r="D4" s="250"/>
+      <c r="D4" s="255"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="247"/>
+      <c r="B5" s="252"/>
       <c r="C5" s="36">
         <v>2</v>
       </c>
-      <c r="D5" s="250"/>
+      <c r="D5" s="255"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="247"/>
+      <c r="B6" s="252"/>
       <c r="C6" s="36">
         <v>16</v>
       </c>
-      <c r="D6" s="250"/>
+      <c r="D6" s="255"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="247"/>
+      <c r="B7" s="252"/>
       <c r="C7" s="36">
         <v>8</v>
       </c>
-      <c r="D7" s="250"/>
+      <c r="D7" s="255"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="247"/>
+      <c r="B8" s="252"/>
       <c r="C8" s="36">
         <v>20</v>
       </c>
-      <c r="D8" s="250"/>
+      <c r="D8" s="255"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="247"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="36">
         <v>20</v>
       </c>
-      <c r="D9" s="250"/>
+      <c r="D9" s="255"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="247"/>
+      <c r="B10" s="252"/>
       <c r="C10" s="36">
         <v>10</v>
       </c>
-      <c r="D10" s="250"/>
+      <c r="D10" s="255"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="247"/>
+      <c r="B11" s="252"/>
       <c r="C11" s="36">
         <v>4</v>
       </c>
-      <c r="D11" s="250"/>
+      <c r="D11" s="255"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="247"/>
+      <c r="B12" s="252"/>
       <c r="C12" s="36">
         <v>4</v>
       </c>
-      <c r="D12" s="250"/>
+      <c r="D12" s="255"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="247"/>
+      <c r="B13" s="252"/>
       <c r="C13" s="36">
         <v>4</v>
       </c>
-      <c r="D13" s="250"/>
+      <c r="D13" s="255"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="247"/>
+      <c r="B14" s="252"/>
       <c r="C14" s="36">
         <v>2</v>
       </c>
-      <c r="D14" s="250"/>
+      <c r="D14" s="255"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="247"/>
+      <c r="B15" s="252"/>
       <c r="C15" s="36">
         <v>20</v>
       </c>
-      <c r="D15" s="250"/>
+      <c r="D15" s="255"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="247"/>
+      <c r="B16" s="252"/>
       <c r="C16" s="36">
         <v>20</v>
       </c>
-      <c r="D16" s="250"/>
+      <c r="D16" s="255"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="247"/>
+      <c r="B17" s="252"/>
       <c r="C17" s="36">
         <v>6</v>
       </c>
-      <c r="D17" s="250"/>
+      <c r="D17" s="255"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="247"/>
+      <c r="B18" s="252"/>
       <c r="C18" s="36">
         <v>8</v>
       </c>
-      <c r="D18" s="250"/>
+      <c r="D18" s="255"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="248"/>
+      <c r="B19" s="253"/>
       <c r="C19" s="38">
         <v>4</v>
       </c>
-      <c r="D19" s="251"/>
+      <c r="D19" s="256"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -10559,13 +10656,13 @@
       <c r="A21" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="240" t="s">
+      <c r="B21" s="245" t="s">
         <v>148</v>
       </c>
       <c r="C21" s="35">
         <v>2</v>
       </c>
-      <c r="D21" s="252">
+      <c r="D21" s="257">
         <v>11700000</v>
       </c>
     </row>
@@ -10573,71 +10670,71 @@
       <c r="A22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="241"/>
+      <c r="B22" s="246"/>
       <c r="C22" s="36">
         <v>1</v>
       </c>
-      <c r="D22" s="253"/>
+      <c r="D22" s="258"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="241"/>
+      <c r="B23" s="246"/>
       <c r="C23" s="36">
         <v>2</v>
       </c>
-      <c r="D23" s="253"/>
+      <c r="D23" s="258"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="241"/>
+      <c r="B24" s="246"/>
       <c r="C24" s="36">
         <v>1</v>
       </c>
-      <c r="D24" s="253"/>
+      <c r="D24" s="258"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="241"/>
+      <c r="B25" s="246"/>
       <c r="C25" s="36">
         <v>1</v>
       </c>
-      <c r="D25" s="253"/>
+      <c r="D25" s="258"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="241"/>
+      <c r="B26" s="246"/>
       <c r="C26" s="37">
         <v>1</v>
       </c>
-      <c r="D26" s="253"/>
+      <c r="D26" s="258"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="241"/>
+      <c r="B27" s="246"/>
       <c r="C27" s="37">
         <v>2</v>
       </c>
-      <c r="D27" s="253"/>
+      <c r="D27" s="258"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="242"/>
+      <c r="B28" s="247"/>
       <c r="C28" s="38">
         <v>1</v>
       </c>
-      <c r="D28" s="254"/>
+      <c r="D28" s="259"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="124"/>
@@ -10646,13 +10743,13 @@
       <c r="A30" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="255" t="s">
+      <c r="B30" s="260" t="s">
         <v>149</v>
       </c>
       <c r="C30" s="35">
         <v>2</v>
       </c>
-      <c r="D30" s="237">
+      <c r="D30" s="242">
         <v>640000</v>
       </c>
     </row>
@@ -10660,44 +10757,44 @@
       <c r="A31" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="256"/>
+      <c r="B31" s="261"/>
       <c r="C31" s="36">
         <v>6</v>
       </c>
-      <c r="D31" s="238"/>
+      <c r="D31" s="243"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="256"/>
+      <c r="B32" s="261"/>
       <c r="C32" s="36">
         <v>2</v>
       </c>
-      <c r="D32" s="238"/>
+      <c r="D32" s="243"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="257"/>
+      <c r="B33" s="262"/>
       <c r="C33" s="38">
         <v>2</v>
       </c>
-      <c r="D33" s="239"/>
+      <c r="D33" s="244"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="240" t="s">
+      <c r="B35" s="245" t="s">
         <v>144</v>
       </c>
       <c r="C35" s="35">
         <v>4</v>
       </c>
-      <c r="D35" s="243">
+      <c r="D35" s="248">
         <v>31130000</v>
       </c>
     </row>
@@ -10705,71 +10802,71 @@
       <c r="A36" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="241"/>
+      <c r="B36" s="246"/>
       <c r="C36" s="36">
         <v>2</v>
       </c>
-      <c r="D36" s="244"/>
+      <c r="D36" s="249"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="241"/>
+      <c r="B37" s="246"/>
       <c r="C37" s="36">
         <v>1</v>
       </c>
-      <c r="D37" s="244"/>
+      <c r="D37" s="249"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="241"/>
+      <c r="B38" s="246"/>
       <c r="C38" s="36">
         <v>1</v>
       </c>
-      <c r="D38" s="244"/>
+      <c r="D38" s="249"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="241"/>
+      <c r="B39" s="246"/>
       <c r="C39" s="36">
         <v>2</v>
       </c>
-      <c r="D39" s="244"/>
+      <c r="D39" s="249"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="241"/>
+      <c r="B40" s="246"/>
       <c r="C40" s="36">
         <v>2</v>
       </c>
-      <c r="D40" s="244"/>
+      <c r="D40" s="249"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="241"/>
+      <c r="B41" s="246"/>
       <c r="C41" s="37">
         <v>2</v>
       </c>
-      <c r="D41" s="244"/>
+      <c r="D41" s="249"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="242"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="38">
         <v>2</v>
       </c>
-      <c r="D42" s="245"/>
+      <c r="D42" s="250"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" s="150"/>

--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\git\DCS_World_MISSIONS_SERVER\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DBBC20-F640-45B6-B21D-2B981ECC9458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4262DEB0-4685-411F-AE33-EBC60C743F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2481,6 +2481,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2488,15 +2497,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="H3" s="57"/>
       <c r="I3" s="40">
-        <f>H3*G3</f>
+        <f t="shared" ref="I3:I9" si="0">H3*G3</f>
         <v>0</v>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H4" s="57"/>
       <c r="I4" s="40">
-        <f>H4*G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="H5" s="57"/>
       <c r="I5" s="40">
-        <f>H5*G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H6" s="57"/>
       <c r="I6" s="40">
-        <f>H6*G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="H7" s="57"/>
       <c r="I7" s="40">
-        <f>H7*G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="H8" s="57"/>
       <c r="I8" s="40">
-        <f>H8*G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="H9" s="57"/>
       <c r="I9" s="40">
-        <f>H9*G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="H20" s="57"/>
       <c r="I20" s="40">
-        <f t="shared" ref="I20:I22" si="0">H20*G20</f>
+        <f t="shared" ref="I20:I22" si="1">H20*G20</f>
         <v>0</v>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="H21" s="57"/>
       <c r="I21" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="H22" s="57"/>
       <c r="I22" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="H38" s="57"/>
       <c r="I38" s="40">
-        <f t="shared" ref="I38:I43" si="1">H38*G38</f>
+        <f t="shared" ref="I38:I43" si="2">H38*G38</f>
         <v>0</v>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H39" s="57"/>
       <c r="I39" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="H40" s="57"/>
       <c r="I40" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H41" s="57"/>
       <c r="I41" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="H42" s="57"/>
       <c r="I42" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="H43" s="57"/>
       <c r="I43" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
       <c r="A23" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="239" t="s">
+      <c r="B23" s="236" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="42">
@@ -9574,7 +9574,7 @@
       <c r="A24" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="240"/>
+      <c r="B24" s="237"/>
       <c r="C24" s="37">
         <v>1</v>
       </c>
@@ -9598,7 +9598,7 @@
       <c r="A26" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="240"/>
+      <c r="B26" s="237"/>
       <c r="C26" s="38">
         <v>2</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="A33" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="239" t="s">
+      <c r="B33" s="236" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="35">
@@ -9692,7 +9692,7 @@
       <c r="A34" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="240"/>
+      <c r="B34" s="237"/>
       <c r="C34" s="38">
         <v>6</v>
       </c>
@@ -9745,7 +9745,7 @@
       <c r="A39" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="241"/>
+      <c r="B39" s="238"/>
       <c r="C39" s="38">
         <v>6</v>
       </c>
@@ -9770,7 +9770,7 @@
       <c r="A41" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="241"/>
+      <c r="B41" s="238"/>
       <c r="C41" s="38">
         <v>10</v>
       </c>
@@ -9781,7 +9781,7 @@
       <c r="A42" s="154" t="s">
         <v>228</v>
       </c>
-      <c r="B42" s="239" t="s">
+      <c r="B42" s="236" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="35">
@@ -9795,7 +9795,7 @@
       <c r="A43" s="151" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="239"/>
+      <c r="B43" s="236"/>
       <c r="C43" s="145">
         <v>10</v>
       </c>
@@ -9805,7 +9805,7 @@
       <c r="A44" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="240"/>
+      <c r="B44" s="237"/>
       <c r="C44" s="38">
         <v>20</v>
       </c>
@@ -9906,7 +9906,7 @@
       <c r="C53" s="35">
         <v>60</v>
       </c>
-      <c r="D53" s="237">
+      <c r="D53" s="240">
         <v>260000</v>
       </c>
     </row>
@@ -9914,31 +9914,31 @@
       <c r="A54" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="236"/>
+      <c r="B54" s="239"/>
       <c r="C54" s="36">
         <v>60</v>
       </c>
-      <c r="D54" s="238"/>
+      <c r="D54" s="241"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="236"/>
+      <c r="B55" s="239"/>
       <c r="C55" s="36">
         <v>60</v>
       </c>
-      <c r="D55" s="238"/>
+      <c r="D55" s="241"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="172" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="236"/>
+      <c r="B56" s="239"/>
       <c r="C56" s="38">
         <v>60</v>
       </c>
-      <c r="D56" s="238"/>
+      <c r="D56" s="241"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="123" t="s">
@@ -9975,12 +9975,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="B11:B12"/>
@@ -9997,18 +10003,12 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10238,7 +10238,7 @@
       <c r="A18" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="236" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="42">
@@ -10252,7 +10252,7 @@
       <c r="A19" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="240"/>
+      <c r="B19" s="237"/>
       <c r="C19" s="37">
         <v>10</v>
       </c>
@@ -10276,7 +10276,7 @@
       <c r="A21" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="240"/>
+      <c r="B21" s="237"/>
       <c r="C21" s="38">
         <v>10</v>
       </c>
@@ -10327,7 +10327,7 @@
       <c r="A26" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="239" t="s">
+      <c r="B26" s="236" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="42">
@@ -10341,7 +10341,7 @@
       <c r="A27" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="240"/>
+      <c r="B27" s="237"/>
       <c r="C27" s="37">
         <v>20</v>
       </c>
@@ -10351,7 +10351,7 @@
       <c r="A28" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="239" t="s">
+      <c r="B28" s="236" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="35">
@@ -10365,7 +10365,7 @@
       <c r="A29" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="240"/>
+      <c r="B29" s="237"/>
       <c r="C29" s="38">
         <v>4</v>
       </c>
@@ -10404,6 +10404,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="B20:B21"/>
@@ -10412,18 +10424,6 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\git\DCS_World_MISSIONS_SERVER\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4262DEB0-4685-411F-AE33-EBC60C743F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841488A-4CEC-41F3-8478-A7FF7CF72801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aviones" sheetId="8" r:id="rId1"/>
     <sheet name="AA" sheetId="9" r:id="rId2"/>
     <sheet name="AG" sheetId="10" r:id="rId3"/>
     <sheet name="MISC" sheetId="11" r:id="rId4"/>
-    <sheet name="PAQUETES AG" sheetId="14" r:id="rId5"/>
-    <sheet name="PAQUETES AA" sheetId="12" r:id="rId6"/>
+    <sheet name="PAQUETES AA" sheetId="12" r:id="rId5"/>
+    <sheet name="PAQUETES AG" sheetId="14" r:id="rId6"/>
     <sheet name="PAQUETES MISC" sheetId="7" r:id="rId7"/>
     <sheet name="Hoja2" sheetId="13" r:id="rId8"/>
   </sheets>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="244">
   <si>
     <t>PL-5EII</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>MIG29S</t>
+  </si>
+  <si>
+    <t>Fuel Tank Ft600 - A10CII</t>
   </si>
 </sst>
 </file>
@@ -2481,6 +2484,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2488,15 +2500,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2881,7 +2884,7 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
@@ -4037,7 +4040,7 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -9287,735 +9290,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA6EB9-D598-47C8-A87E-5710777E3A40}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:H60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:D58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="73.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="17.85546875" style="112" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="13">
-        <v>40</v>
-      </c>
-      <c r="D2" s="79">
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="42">
-        <v>20</v>
-      </c>
-      <c r="D3" s="232">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="231"/>
-      <c r="C4" s="37">
-        <v>10</v>
-      </c>
-      <c r="D4" s="233"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="35">
-        <v>20</v>
-      </c>
-      <c r="D5" s="232">
-        <v>617000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="158" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="234"/>
-      <c r="C6" s="145">
-        <v>4</v>
-      </c>
-      <c r="D6" s="235"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="233"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="35">
-        <v>20</v>
-      </c>
-      <c r="D8" s="232">
-        <v>1040000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="158" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="234"/>
-      <c r="C9" s="145">
-        <v>4</v>
-      </c>
-      <c r="D9" s="235"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="231"/>
-      <c r="C10" s="37">
-        <v>2</v>
-      </c>
-      <c r="D10" s="233"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="35">
-        <v>4</v>
-      </c>
-      <c r="D11" s="232">
-        <v>6800000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="159" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="145">
-        <v>2</v>
-      </c>
-      <c r="D12" s="235"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="35">
-        <v>20</v>
-      </c>
-      <c r="D13" s="232">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="166" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="145">
-        <v>20</v>
-      </c>
-      <c r="D14" s="235"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="231"/>
-      <c r="C15" s="37">
-        <v>10</v>
-      </c>
-      <c r="D15" s="233"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="35">
-        <v>20</v>
-      </c>
-      <c r="D16" s="79">
-        <v>40000</v>
-      </c>
-      <c r="F16" s="124"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="35">
-        <v>4</v>
-      </c>
-      <c r="D17" s="232">
-        <v>2680000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="167" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="234"/>
-      <c r="C18" s="145">
-        <v>2</v>
-      </c>
-      <c r="D18" s="235"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="35">
-        <v>20</v>
-      </c>
-      <c r="D19" s="232">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="231"/>
-      <c r="C20" s="126">
-        <v>10</v>
-      </c>
-      <c r="D20" s="233"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="236" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="42">
-        <v>4</v>
-      </c>
-      <c r="D23" s="232">
-        <v>10500000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="237"/>
-      <c r="C24" s="37">
-        <v>1</v>
-      </c>
-      <c r="D24" s="233"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="113" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="203" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="35">
-        <v>4</v>
-      </c>
-      <c r="D25" s="232">
-        <v>2900000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="237"/>
-      <c r="C26" s="38">
-        <v>2</v>
-      </c>
-      <c r="D26" s="233"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="35">
-        <v>4</v>
-      </c>
-      <c r="D27" s="232">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="168" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="231"/>
-      <c r="C28" s="38">
-        <v>2</v>
-      </c>
-      <c r="D28" s="233"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="117"/>
-      <c r="D29" s="118"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="122" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="42">
-        <v>10</v>
-      </c>
-      <c r="D31" s="43">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="122" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="37">
-        <v>10</v>
-      </c>
-      <c r="D32" s="170">
-        <v>800000</v>
-      </c>
-      <c r="G32" s="124"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="155" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="236" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="35">
-        <v>2</v>
-      </c>
-      <c r="D33" s="232">
-        <v>5600000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="156" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" s="237"/>
-      <c r="C34" s="38">
-        <v>6</v>
-      </c>
-      <c r="D34" s="233"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="13">
-        <v>4</v>
-      </c>
-      <c r="D35" s="43">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="124"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="111"/>
-      <c r="C37" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="205" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="35">
-        <v>6</v>
-      </c>
-      <c r="D38" s="232">
-        <v>2220000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="110" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="238"/>
-      <c r="C39" s="38">
-        <v>6</v>
-      </c>
-      <c r="D39" s="233"/>
-      <c r="G39" s="124"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="109" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" s="205" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="35">
-        <v>20</v>
-      </c>
-      <c r="D40" s="232">
-        <v>4250000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="110" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" s="238"/>
-      <c r="C41" s="38">
-        <v>10</v>
-      </c>
-      <c r="D41" s="233"/>
-      <c r="G41" s="124"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="154" t="s">
-        <v>228</v>
-      </c>
-      <c r="B42" s="236" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="35">
-        <v>10</v>
-      </c>
-      <c r="D42" s="232">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="151" t="s">
-        <v>229</v>
-      </c>
-      <c r="B43" s="236"/>
-      <c r="C43" s="145">
-        <v>10</v>
-      </c>
-      <c r="D43" s="235"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="151" t="s">
-        <v>226</v>
-      </c>
-      <c r="B44" s="237"/>
-      <c r="C44" s="38">
-        <v>20</v>
-      </c>
-      <c r="D44" s="233"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="123" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="13">
-        <v>16</v>
-      </c>
-      <c r="D45" s="43">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B47" s="111"/>
-      <c r="C47" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="109" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="42">
-        <v>60</v>
-      </c>
-      <c r="D48" s="232">
-        <v>4260000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="110" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="231"/>
-      <c r="C49" s="37">
-        <v>60</v>
-      </c>
-      <c r="D49" s="233"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="35">
-        <v>60</v>
-      </c>
-      <c r="D50" s="232">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="234"/>
-      <c r="C51" s="145">
-        <v>60</v>
-      </c>
-      <c r="D51" s="235"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="171" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="231"/>
-      <c r="C52" s="37">
-        <v>60</v>
-      </c>
-      <c r="D52" s="233"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="151" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" s="204" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="35">
-        <v>60</v>
-      </c>
-      <c r="D53" s="240">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="151" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="239"/>
-      <c r="C54" s="36">
-        <v>60</v>
-      </c>
-      <c r="D54" s="241"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="151" t="s">
-        <v>189</v>
-      </c>
-      <c r="B55" s="239"/>
-      <c r="C55" s="36">
-        <v>60</v>
-      </c>
-      <c r="D55" s="241"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="172" t="s">
-        <v>190</v>
-      </c>
-      <c r="B56" s="239"/>
-      <c r="C56" s="38">
-        <v>60</v>
-      </c>
-      <c r="D56" s="241"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="145">
-        <v>60</v>
-      </c>
-      <c r="D57" s="79">
-        <v>150000</v>
-      </c>
-      <c r="F57" s="124"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="116" t="s">
-        <v>180</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="13">
-        <v>60</v>
-      </c>
-      <c r="D58" s="43">
-        <v>2100000</v>
-      </c>
-      <c r="F58" s="124"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H60" s="124"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A275EA-5095-4199-9DB8-E89105E03B6F}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -10238,7 +9512,7 @@
       <c r="A18" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="236" t="s">
+      <c r="B18" s="239" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="42">
@@ -10252,7 +9526,7 @@
       <c r="A19" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="237"/>
+      <c r="B19" s="240"/>
       <c r="C19" s="37">
         <v>10</v>
       </c>
@@ -10276,7 +9550,7 @@
       <c r="A21" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="237"/>
+      <c r="B21" s="240"/>
       <c r="C21" s="38">
         <v>10</v>
       </c>
@@ -10327,7 +9601,7 @@
       <c r="A26" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="236" t="s">
+      <c r="B26" s="239" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="42">
@@ -10341,7 +9615,7 @@
       <c r="A27" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="237"/>
+      <c r="B27" s="240"/>
       <c r="C27" s="37">
         <v>20</v>
       </c>
@@ -10351,7 +9625,7 @@
       <c r="A28" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="236" t="s">
+      <c r="B28" s="239" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="35">
@@ -10365,7 +9639,7 @@
       <c r="A29" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="237"/>
+      <c r="B29" s="240"/>
       <c r="C29" s="38">
         <v>4</v>
       </c>
@@ -10404,18 +9678,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="B20:B21"/>
@@ -10424,6 +9686,747 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA6EB9-D598-47C8-A87E-5710777E3A40}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="17.85546875" style="112" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="13">
+        <v>40</v>
+      </c>
+      <c r="D2" s="79">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="42">
+        <v>20</v>
+      </c>
+      <c r="D3" s="232">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="231"/>
+      <c r="C4" s="37">
+        <v>10</v>
+      </c>
+      <c r="D4" s="233"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="35">
+        <v>20</v>
+      </c>
+      <c r="D5" s="232">
+        <v>617000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="234"/>
+      <c r="C6" s="145">
+        <v>4</v>
+      </c>
+      <c r="D6" s="235"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="231"/>
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="233"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="109" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="35">
+        <v>20</v>
+      </c>
+      <c r="D8" s="232">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="158" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="234"/>
+      <c r="C9" s="145">
+        <v>4</v>
+      </c>
+      <c r="D9" s="235"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="231"/>
+      <c r="C10" s="37">
+        <v>2</v>
+      </c>
+      <c r="D10" s="233"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="35">
+        <v>4</v>
+      </c>
+      <c r="D11" s="232">
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="234"/>
+      <c r="C12" s="145">
+        <v>2</v>
+      </c>
+      <c r="D12" s="235"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="35">
+        <v>20</v>
+      </c>
+      <c r="D13" s="232">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="166" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="234"/>
+      <c r="C14" s="145">
+        <v>20</v>
+      </c>
+      <c r="D14" s="235"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="231"/>
+      <c r="C15" s="37">
+        <v>10</v>
+      </c>
+      <c r="D15" s="233"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="115" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="35">
+        <v>20</v>
+      </c>
+      <c r="D16" s="79">
+        <v>40000</v>
+      </c>
+      <c r="F16" s="124"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="157" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="35">
+        <v>4</v>
+      </c>
+      <c r="D17" s="232">
+        <v>2680000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="167" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="234"/>
+      <c r="C18" s="145">
+        <v>2</v>
+      </c>
+      <c r="D18" s="235"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="35">
+        <v>20</v>
+      </c>
+      <c r="D19" s="232">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="231"/>
+      <c r="C20" s="126">
+        <v>10</v>
+      </c>
+      <c r="D20" s="233"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="239" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="42">
+        <v>4</v>
+      </c>
+      <c r="D23" s="232">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="240"/>
+      <c r="C24" s="37">
+        <v>1</v>
+      </c>
+      <c r="D24" s="233"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="203" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="35">
+        <v>4</v>
+      </c>
+      <c r="D25" s="232">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="240"/>
+      <c r="C26" s="38">
+        <v>2</v>
+      </c>
+      <c r="D26" s="233"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="35">
+        <v>4</v>
+      </c>
+      <c r="D27" s="232">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="168" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="231"/>
+      <c r="C28" s="38">
+        <v>2</v>
+      </c>
+      <c r="D28" s="233"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="117"/>
+      <c r="D29" s="118"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="111"/>
+      <c r="C30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="122" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="42">
+        <v>10</v>
+      </c>
+      <c r="D31" s="43">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="37">
+        <v>10</v>
+      </c>
+      <c r="D32" s="170">
+        <v>800000</v>
+      </c>
+      <c r="G32" s="124"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="155" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="239" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="35">
+        <v>2</v>
+      </c>
+      <c r="D33" s="232">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="156" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="240"/>
+      <c r="C34" s="38">
+        <v>6</v>
+      </c>
+      <c r="D34" s="233"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4</v>
+      </c>
+      <c r="D35" s="43">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="124"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="111"/>
+      <c r="C37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="205" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="35">
+        <v>6</v>
+      </c>
+      <c r="D38" s="232">
+        <v>2220000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="110" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="241"/>
+      <c r="C39" s="38">
+        <v>6</v>
+      </c>
+      <c r="D39" s="233"/>
+      <c r="G39" s="124"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="205" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="35">
+        <v>20</v>
+      </c>
+      <c r="D40" s="232">
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="241"/>
+      <c r="C41" s="38">
+        <v>10</v>
+      </c>
+      <c r="D41" s="233"/>
+      <c r="G41" s="124"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="154" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="239" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="35">
+        <v>10</v>
+      </c>
+      <c r="D42" s="232">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="151" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="239"/>
+      <c r="C43" s="145">
+        <v>10</v>
+      </c>
+      <c r="D43" s="235"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="151" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="240"/>
+      <c r="C44" s="38">
+        <v>20</v>
+      </c>
+      <c r="D44" s="233"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="123" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="13">
+        <v>16</v>
+      </c>
+      <c r="D45" s="43">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="111"/>
+      <c r="C47" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="42">
+        <v>60</v>
+      </c>
+      <c r="D48" s="232">
+        <v>4260000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="231"/>
+      <c r="C49" s="37">
+        <v>60</v>
+      </c>
+      <c r="D49" s="233"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="35">
+        <v>60</v>
+      </c>
+      <c r="D50" s="232">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="234"/>
+      <c r="C51" s="145">
+        <v>60</v>
+      </c>
+      <c r="D51" s="235"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="231"/>
+      <c r="C52" s="37">
+        <v>60</v>
+      </c>
+      <c r="D52" s="233"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="204" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="35">
+        <v>60</v>
+      </c>
+      <c r="D53" s="237">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="151" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="236"/>
+      <c r="C54" s="36">
+        <v>60</v>
+      </c>
+      <c r="D54" s="238"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="151" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="236"/>
+      <c r="C55" s="36">
+        <v>60</v>
+      </c>
+      <c r="D55" s="238"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="236"/>
+      <c r="C56" s="38">
+        <v>60</v>
+      </c>
+      <c r="D56" s="238"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="145">
+        <v>60</v>
+      </c>
+      <c r="D57" s="79">
+        <v>150000</v>
+      </c>
+      <c r="F57" s="124"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="13">
+        <v>60</v>
+      </c>
+      <c r="D58" s="43">
+        <v>2100000</v>
+      </c>
+      <c r="F58" s="124"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="D53:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10437,8 +10440,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10465,7 +10468,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="B2" s="251" t="s">
         <v>146</v>

--- a/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/ECONOMIA CAMPAÑA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\git\DCS_World_MISSIONS_SERVER\MISSION\CAMPAÑA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841488A-4CEC-41F3-8478-A7FF7CF72801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23434377-9EDA-4A1A-AEAB-42541BE16974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aviones" sheetId="8" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Hoja2" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AA!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aviones!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="244">
   <si>
     <t>PL-5EII</t>
   </si>
@@ -782,8 +783,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -890,7 +892,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,6 +947,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="72">
     <border>
@@ -1847,7 +1855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2009,12 +2017,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2316,42 +2318,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2466,24 +2444,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2493,15 +2480,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2564,6 +2542,87 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2885,7 +2944,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2904,12 +2963,12 @@
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="179"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="177"/>
       <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
@@ -2925,13 +2984,13 @@
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="173"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="171"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,17 +4099,19 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="6.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.140625" customWidth="1"/>
     <col min="11" max="11" width="19" style="11" customWidth="1"/>
   </cols>
@@ -4063,31 +4124,31 @@
       <c r="C1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="188" t="s">
+      <c r="D1" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="189"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="261"/>
       <c r="H1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="77" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="78" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="262" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>47</v>
+      <c r="B2" s="62" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="35">
         <v>2</v>
@@ -4102,26 +4163,26 @@
         <v>7</v>
       </c>
       <c r="G2" s="21">
-        <v>136</v>
-      </c>
-      <c r="H2" s="76">
-        <v>1250</v>
-      </c>
-      <c r="I2" s="92">
-        <v>180000</v>
-      </c>
-      <c r="J2" s="72">
-        <v>0</v>
-      </c>
-      <c r="K2" s="69">
+        <v>265</v>
+      </c>
+      <c r="H2" s="74">
+        <v>1256</v>
+      </c>
+      <c r="I2" s="90">
+        <v>25000</v>
+      </c>
+      <c r="J2" s="70">
+        <v>0</v>
+      </c>
+      <c r="K2" s="67">
         <f>I2*J2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="191"/>
-      <c r="B3" s="65" t="s">
-        <v>46</v>
+      <c r="A3" s="263"/>
+      <c r="B3" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="C3" s="36">
         <v>2</v>
@@ -4136,26 +4197,26 @@
         <v>7</v>
       </c>
       <c r="G3" s="3">
-        <v>22</v>
-      </c>
-      <c r="H3" s="77">
-        <v>1251</v>
-      </c>
-      <c r="I3" s="93">
-        <v>140000</v>
-      </c>
-      <c r="J3" s="73">
-        <v>0</v>
-      </c>
-      <c r="K3" s="70">
-        <f t="shared" ref="K3:K53" si="0">I3*J3</f>
+        <v>429</v>
+      </c>
+      <c r="H3" s="75">
+        <v>1298</v>
+      </c>
+      <c r="I3" s="91">
+        <v>28000</v>
+      </c>
+      <c r="J3" s="71">
+        <v>0</v>
+      </c>
+      <c r="K3" s="68">
+        <f>I3*J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
-      <c r="B4" s="65" t="s">
-        <v>45</v>
+      <c r="A4" s="263"/>
+      <c r="B4" s="63" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="36">
         <v>2</v>
@@ -4170,26 +4231,26 @@
         <v>7</v>
       </c>
       <c r="G4" s="3">
-        <v>267</v>
-      </c>
-      <c r="H4" s="77">
-        <v>1252</v>
-      </c>
-      <c r="I4" s="93">
-        <v>115000</v>
-      </c>
-      <c r="J4" s="73">
-        <v>0</v>
-      </c>
-      <c r="K4" s="70">
-        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+      <c r="H4" s="75">
+        <v>1258</v>
+      </c>
+      <c r="I4" s="91">
+        <v>32000</v>
+      </c>
+      <c r="J4" s="71">
+        <v>0</v>
+      </c>
+      <c r="K4" s="68">
+        <f>I4*J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
-      <c r="B5" s="65" t="s">
-        <v>56</v>
+      <c r="A5" s="263"/>
+      <c r="B5" s="63" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="36">
         <v>2</v>
@@ -4204,26 +4265,26 @@
         <v>7</v>
       </c>
       <c r="G5" s="3">
-        <v>135</v>
-      </c>
-      <c r="H5" s="77">
-        <v>1253</v>
-      </c>
-      <c r="I5" s="93">
-        <v>68000</v>
-      </c>
-      <c r="J5" s="73">
-        <v>0</v>
-      </c>
-      <c r="K5" s="70">
-        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="H5" s="75">
+        <v>1257</v>
+      </c>
+      <c r="I5" s="91">
+        <v>49500</v>
+      </c>
+      <c r="J5" s="71">
+        <v>0</v>
+      </c>
+      <c r="K5" s="68">
+        <f>I5*J5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="191"/>
-      <c r="B6" s="65" t="s">
-        <v>57</v>
+      <c r="A6" s="263"/>
+      <c r="B6" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="36">
         <v>2</v>
@@ -4238,26 +4299,26 @@
         <v>7</v>
       </c>
       <c r="G6" s="3">
-        <v>412</v>
-      </c>
-      <c r="H6" s="77">
-        <v>1254</v>
-      </c>
-      <c r="I6" s="93">
-        <v>72000</v>
-      </c>
-      <c r="J6" s="73">
-        <v>0</v>
-      </c>
-      <c r="K6" s="70">
-        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="H6" s="75">
+        <v>1252</v>
+      </c>
+      <c r="I6" s="91">
+        <v>110000</v>
+      </c>
+      <c r="J6" s="71">
+        <v>0</v>
+      </c>
+      <c r="K6" s="68">
+        <f>I6*J6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="191"/>
-      <c r="B7" s="65" t="s">
-        <v>58</v>
+      <c r="A7" s="263"/>
+      <c r="B7" s="63" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="36">
         <v>2</v>
@@ -4272,26 +4333,26 @@
         <v>7</v>
       </c>
       <c r="G7" s="3">
-        <v>266</v>
-      </c>
-      <c r="H7" s="77">
-        <v>1255</v>
-      </c>
-      <c r="I7" s="93">
-        <v>79000</v>
-      </c>
-      <c r="J7" s="73">
-        <v>0</v>
-      </c>
-      <c r="K7" s="70">
-        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H7" s="75">
+        <v>1251</v>
+      </c>
+      <c r="I7" s="91">
+        <v>115000</v>
+      </c>
+      <c r="J7" s="71">
+        <v>0</v>
+      </c>
+      <c r="K7" s="68">
+        <f>I7*J7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
-      <c r="B8" s="65" t="s">
-        <v>59</v>
+      <c r="A8" s="263"/>
+      <c r="B8" s="63" t="s">
+        <v>56</v>
       </c>
       <c r="C8" s="36">
         <v>2</v>
@@ -4306,26 +4367,26 @@
         <v>7</v>
       </c>
       <c r="G8" s="3">
-        <v>265</v>
-      </c>
-      <c r="H8" s="77">
-        <v>1256</v>
-      </c>
-      <c r="I8" s="93">
-        <v>25000</v>
-      </c>
-      <c r="J8" s="73">
-        <v>0</v>
-      </c>
-      <c r="K8" s="70">
-        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="H8" s="75">
+        <v>1253</v>
+      </c>
+      <c r="I8" s="91">
+        <v>120000</v>
+      </c>
+      <c r="J8" s="71">
+        <v>0</v>
+      </c>
+      <c r="K8" s="68">
+        <f>I8*J8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="191"/>
-      <c r="B9" s="65" t="s">
-        <v>97</v>
+      <c r="A9" s="263"/>
+      <c r="B9" s="63" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="36">
         <v>2</v>
@@ -4340,26 +4401,26 @@
         <v>7</v>
       </c>
       <c r="G9" s="3">
-        <v>429</v>
-      </c>
-      <c r="H9" s="77">
-        <v>1298</v>
-      </c>
-      <c r="I9" s="93">
-        <v>82000</v>
-      </c>
-      <c r="J9" s="73">
-        <v>0</v>
-      </c>
-      <c r="K9" s="70">
-        <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="H9" s="75">
+        <v>1254</v>
+      </c>
+      <c r="I9" s="91">
+        <v>130000</v>
+      </c>
+      <c r="J9" s="71">
+        <v>0</v>
+      </c>
+      <c r="K9" s="68">
+        <f>I9*J9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="191"/>
-      <c r="B10" s="65" t="s">
-        <v>61</v>
+      <c r="A10" s="263"/>
+      <c r="B10" s="63" t="s">
+        <v>58</v>
       </c>
       <c r="C10" s="36">
         <v>2</v>
@@ -4374,26 +4435,26 @@
         <v>7</v>
       </c>
       <c r="G10" s="3">
-        <v>372</v>
-      </c>
-      <c r="H10" s="77">
-        <v>1257</v>
-      </c>
-      <c r="I10" s="93">
-        <v>49500</v>
-      </c>
-      <c r="J10" s="73">
-        <v>0</v>
-      </c>
-      <c r="K10" s="70">
-        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="H10" s="75">
+        <v>1255</v>
+      </c>
+      <c r="I10" s="91">
+        <v>140000</v>
+      </c>
+      <c r="J10" s="71">
+        <v>0</v>
+      </c>
+      <c r="K10" s="68">
+        <f>I10*J10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="191"/>
-      <c r="B11" s="65" t="s">
-        <v>60</v>
+      <c r="A11" s="263"/>
+      <c r="B11" s="63" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="36">
         <v>2</v>
@@ -4408,25 +4469,25 @@
         <v>7</v>
       </c>
       <c r="G11" s="3">
-        <v>371</v>
-      </c>
-      <c r="H11" s="77">
-        <v>1258</v>
-      </c>
-      <c r="I11" s="93">
-        <v>32000</v>
-      </c>
-      <c r="J11" s="73">
-        <v>0</v>
-      </c>
-      <c r="K11" s="70">
-        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="H11" s="75">
+        <v>1250</v>
+      </c>
+      <c r="I11" s="91">
+        <v>180000</v>
+      </c>
+      <c r="J11" s="71">
+        <v>0</v>
+      </c>
+      <c r="K11" s="68">
+        <f>I11*J11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="191"/>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="263"/>
+      <c r="B12" s="63" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="36">
@@ -4444,27 +4505,27 @@
       <c r="G12" s="3">
         <v>143</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="75">
         <v>1259</v>
       </c>
-      <c r="I12" s="93">
+      <c r="I12" s="265">
         <v>10000</v>
       </c>
-      <c r="J12" s="73">
-        <v>0</v>
-      </c>
-      <c r="K12" s="70">
-        <f t="shared" si="0"/>
+      <c r="J12" s="71">
+        <v>0</v>
+      </c>
+      <c r="K12" s="68">
+        <f>I12*J12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
-      <c r="B13" s="65" t="s">
-        <v>50</v>
+      <c r="A13" s="263"/>
+      <c r="B13" s="63" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="25">
         <v>4</v>
@@ -4476,29 +4537,29 @@
         <v>7</v>
       </c>
       <c r="G13" s="3">
-        <v>24</v>
-      </c>
-      <c r="H13" s="77">
-        <v>1260</v>
-      </c>
-      <c r="I13" s="93">
-        <v>289000</v>
-      </c>
-      <c r="J13" s="73">
-        <v>0</v>
-      </c>
-      <c r="K13" s="70">
-        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+      <c r="H13" s="75">
+        <v>1262</v>
+      </c>
+      <c r="I13" s="91">
+        <v>100000</v>
+      </c>
+      <c r="J13" s="71">
+        <v>0</v>
+      </c>
+      <c r="K13" s="68">
+        <f>I13*J13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="191"/>
-      <c r="B14" s="65" t="s">
-        <v>51</v>
+      <c r="A14" s="263"/>
+      <c r="B14" s="63" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="25">
         <v>4</v>
@@ -4510,26 +4571,26 @@
         <v>7</v>
       </c>
       <c r="G14" s="3">
-        <v>106</v>
-      </c>
-      <c r="H14" s="77">
-        <v>1261</v>
-      </c>
-      <c r="I14" s="93">
-        <v>400000</v>
-      </c>
-      <c r="J14" s="73">
-        <v>0</v>
-      </c>
-      <c r="K14" s="70">
-        <f t="shared" si="0"/>
+        <v>426</v>
+      </c>
+      <c r="H14" s="75">
+        <v>1263</v>
+      </c>
+      <c r="I14" s="91">
+        <v>105000</v>
+      </c>
+      <c r="J14" s="71">
+        <v>0</v>
+      </c>
+      <c r="K14" s="68">
+        <f>I14*J14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="191"/>
-      <c r="B15" s="65" t="s">
-        <v>62</v>
+      <c r="A15" s="263"/>
+      <c r="B15" s="63" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="36">
         <v>1</v>
@@ -4544,26 +4605,26 @@
         <v>7</v>
       </c>
       <c r="G15" s="3">
-        <v>268</v>
-      </c>
-      <c r="H15" s="77">
-        <v>1262</v>
-      </c>
-      <c r="I15" s="93">
-        <v>105000</v>
-      </c>
-      <c r="J15" s="73">
-        <v>0</v>
-      </c>
-      <c r="K15" s="70">
-        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="H15" s="75">
+        <v>1264</v>
+      </c>
+      <c r="I15" s="91">
+        <v>140000</v>
+      </c>
+      <c r="J15" s="71">
+        <v>0</v>
+      </c>
+      <c r="K15" s="68">
+        <f>I15*J15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="191"/>
-      <c r="B16" s="65" t="s">
-        <v>63</v>
+      <c r="A16" s="263"/>
+      <c r="B16" s="63" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="36">
         <v>1</v>
@@ -4578,60 +4639,60 @@
         <v>7</v>
       </c>
       <c r="G16" s="3">
-        <v>426</v>
-      </c>
-      <c r="H16" s="77">
-        <v>1263</v>
-      </c>
-      <c r="I16" s="93">
-        <v>100000</v>
-      </c>
-      <c r="J16" s="73">
-        <v>0</v>
-      </c>
-      <c r="K16" s="70">
-        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H16" s="75">
+        <v>1265</v>
+      </c>
+      <c r="I16" s="91">
+        <v>175000</v>
+      </c>
+      <c r="J16" s="71">
+        <v>0</v>
+      </c>
+      <c r="K16" s="68">
+        <f>I16*J16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="191"/>
-      <c r="B17" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="36">
-        <v>1</v>
-      </c>
-      <c r="D17" s="25">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="A17" s="263"/>
+      <c r="B17" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="37">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34">
+        <v>4</v>
+      </c>
+      <c r="E17" s="17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="17">
         <v>7</v>
       </c>
-      <c r="G17" s="3">
-        <v>269</v>
-      </c>
-      <c r="H17" s="77">
-        <v>1264</v>
-      </c>
-      <c r="I17" s="93">
-        <v>140000</v>
-      </c>
-      <c r="J17" s="73">
-        <v>0</v>
-      </c>
-      <c r="K17" s="70">
-        <f t="shared" si="0"/>
+      <c r="G17" s="33">
+        <v>270</v>
+      </c>
+      <c r="H17" s="75">
+        <v>1266</v>
+      </c>
+      <c r="I17" s="91">
+        <v>190000</v>
+      </c>
+      <c r="J17" s="71">
+        <v>0</v>
+      </c>
+      <c r="K17" s="68">
+        <f>I17*J17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="191"/>
-      <c r="B18" s="65" t="s">
-        <v>53</v>
+      <c r="A18" s="263"/>
+      <c r="B18" s="63" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="36">
         <v>1</v>
@@ -4646,63 +4707,63 @@
         <v>7</v>
       </c>
       <c r="G18" s="3">
-        <v>21</v>
-      </c>
-      <c r="H18" s="77">
-        <v>1265</v>
-      </c>
-      <c r="I18" s="93">
-        <v>175000</v>
-      </c>
-      <c r="J18" s="73">
-        <v>0</v>
-      </c>
-      <c r="K18" s="70">
-        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+      <c r="H18" s="75">
+        <v>1267</v>
+      </c>
+      <c r="I18" s="91">
+        <v>200000</v>
+      </c>
+      <c r="J18" s="71">
+        <v>0</v>
+      </c>
+      <c r="K18" s="68">
+        <f>I18*J18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="191"/>
-      <c r="B19" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="37">
-        <v>1</v>
-      </c>
-      <c r="D19" s="34">
-        <v>4</v>
-      </c>
-      <c r="E19" s="17">
-        <v>4</v>
-      </c>
-      <c r="F19" s="17">
+      <c r="A19" s="263"/>
+      <c r="B19" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="36">
+        <v>3</v>
+      </c>
+      <c r="D19" s="25">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
         <v>7</v>
       </c>
-      <c r="G19" s="33">
-        <v>270</v>
-      </c>
-      <c r="H19" s="77">
-        <v>1266</v>
-      </c>
-      <c r="I19" s="93">
-        <v>190000</v>
-      </c>
-      <c r="J19" s="73">
-        <v>0</v>
-      </c>
-      <c r="K19" s="70">
-        <f t="shared" si="0"/>
+      <c r="G19" s="3">
+        <v>24</v>
+      </c>
+      <c r="H19" s="75">
+        <v>1260</v>
+      </c>
+      <c r="I19" s="91">
+        <v>289000</v>
+      </c>
+      <c r="J19" s="71">
+        <v>0</v>
+      </c>
+      <c r="K19" s="68">
+        <f t="shared" ref="K19:K20" si="0">I19*J19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="191"/>
-      <c r="B20" s="65" t="s">
-        <v>55</v>
+      <c r="A20" s="263"/>
+      <c r="B20" s="63" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="25">
         <v>4</v>
@@ -4714,25 +4775,25 @@
         <v>7</v>
       </c>
       <c r="G20" s="3">
-        <v>397</v>
-      </c>
-      <c r="H20" s="77">
-        <v>1267</v>
-      </c>
-      <c r="I20" s="93">
-        <v>200000</v>
-      </c>
-      <c r="J20" s="73">
-        <v>0</v>
-      </c>
-      <c r="K20" s="70">
+        <v>106</v>
+      </c>
+      <c r="H20" s="75">
+        <v>1261</v>
+      </c>
+      <c r="I20" s="91">
+        <v>400000</v>
+      </c>
+      <c r="J20" s="71">
+        <v>0</v>
+      </c>
+      <c r="K20" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="263"/>
+      <c r="B21" s="63" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="36">
@@ -4750,23 +4811,23 @@
       <c r="G21" s="3">
         <v>320</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="75">
         <v>1268</v>
       </c>
-      <c r="I21" s="93">
+      <c r="I21" s="91">
         <v>700000</v>
       </c>
-      <c r="J21" s="73">
-        <v>0</v>
-      </c>
-      <c r="K21" s="70">
-        <f t="shared" si="0"/>
+      <c r="J21" s="71">
+        <v>0</v>
+      </c>
+      <c r="K21" s="68">
+        <f>I21*J21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="263"/>
+      <c r="B22" s="63" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="36">
@@ -4784,23 +4845,23 @@
       <c r="G22" s="3">
         <v>321</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="75">
         <v>1269</v>
       </c>
-      <c r="I22" s="93">
+      <c r="I22" s="91">
         <v>850000</v>
       </c>
-      <c r="J22" s="73">
-        <v>0</v>
-      </c>
-      <c r="K22" s="70">
-        <f t="shared" si="0"/>
+      <c r="J22" s="71">
+        <v>0</v>
+      </c>
+      <c r="K22" s="68">
+        <f>I22*J22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="263"/>
+      <c r="B23" s="63" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="36">
@@ -4818,23 +4879,23 @@
       <c r="G23" s="3">
         <v>322</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="75">
         <v>1270</v>
       </c>
-      <c r="I23" s="93">
+      <c r="I23" s="91">
         <v>1100000</v>
       </c>
-      <c r="J23" s="73">
-        <v>0</v>
-      </c>
-      <c r="K23" s="70">
-        <f t="shared" si="0"/>
+      <c r="J23" s="71">
+        <v>0</v>
+      </c>
+      <c r="K23" s="68">
+        <f>I23*J23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="67" t="s">
+      <c r="A24" s="264"/>
+      <c r="B24" s="65" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="38">
@@ -4852,22 +4913,22 @@
       <c r="G24" s="22">
         <v>405</v>
       </c>
-      <c r="H24" s="78">
+      <c r="H24" s="76">
         <v>1271</v>
       </c>
-      <c r="I24" s="94">
+      <c r="I24" s="92">
         <v>1120000</v>
       </c>
-      <c r="J24" s="74">
-        <v>0</v>
-      </c>
-      <c r="K24" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="192" t="s">
+      <c r="J24" s="72">
+        <v>0</v>
+      </c>
+      <c r="K24" s="73">
+        <f>I24*J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="182" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -4891,19 +4952,19 @@
       <c r="H25" s="35">
         <v>1272</v>
       </c>
-      <c r="I25" s="95">
+      <c r="I25" s="93">
         <v>32000</v>
       </c>
-      <c r="J25" s="72">
-        <v>0</v>
-      </c>
-      <c r="K25" s="96">
-        <f t="shared" si="0"/>
+      <c r="J25" s="70">
+        <v>0</v>
+      </c>
+      <c r="K25" s="94">
+        <f>I25*J25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="193"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="16" t="s">
         <v>89</v>
       </c>
@@ -4925,19 +4986,19 @@
       <c r="H26" s="36">
         <v>1273</v>
       </c>
-      <c r="I26" s="93">
+      <c r="I26" s="91">
         <v>36000</v>
       </c>
-      <c r="J26" s="73">
-        <v>0</v>
-      </c>
-      <c r="K26" s="70">
-        <f t="shared" si="0"/>
+      <c r="J26" s="71">
+        <v>0</v>
+      </c>
+      <c r="K26" s="68">
+        <f>I26*J26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="193"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="16" t="s">
         <v>91</v>
       </c>
@@ -4959,19 +5020,19 @@
       <c r="H27" s="36">
         <v>1274</v>
       </c>
-      <c r="I27" s="93">
+      <c r="I27" s="91">
         <v>42000</v>
       </c>
-      <c r="J27" s="73">
-        <v>0</v>
-      </c>
-      <c r="K27" s="70">
-        <f t="shared" si="0"/>
+      <c r="J27" s="71">
+        <v>0</v>
+      </c>
+      <c r="K27" s="68">
+        <f>I27*J27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="193"/>
+      <c r="A28" s="183"/>
       <c r="B28" s="16" t="s">
         <v>92</v>
       </c>
@@ -4993,19 +5054,19 @@
       <c r="H28" s="36">
         <v>1275</v>
       </c>
-      <c r="I28" s="93">
-        <v>31000</v>
-      </c>
-      <c r="J28" s="73">
-        <v>0</v>
-      </c>
-      <c r="K28" s="70">
-        <f t="shared" si="0"/>
+      <c r="I28" s="91">
+        <v>42000</v>
+      </c>
+      <c r="J28" s="71">
+        <v>0</v>
+      </c>
+      <c r="K28" s="68">
+        <f>I28*J28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="193"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
@@ -5027,19 +5088,19 @@
       <c r="H29" s="36">
         <v>1276</v>
       </c>
-      <c r="I29" s="93">
+      <c r="I29" s="91">
         <v>27000</v>
       </c>
-      <c r="J29" s="73">
-        <v>0</v>
-      </c>
-      <c r="K29" s="70">
-        <f t="shared" si="0"/>
+      <c r="J29" s="71">
+        <v>0</v>
+      </c>
+      <c r="K29" s="68">
+        <f>I29*J29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="193"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
@@ -5061,136 +5122,136 @@
       <c r="H30" s="36">
         <v>1277</v>
       </c>
-      <c r="I30" s="93">
+      <c r="I30" s="91">
         <v>34000</v>
       </c>
-      <c r="J30" s="73">
-        <v>0</v>
-      </c>
-      <c r="K30" s="70">
-        <f t="shared" si="0"/>
+      <c r="J30" s="71">
+        <v>0</v>
+      </c>
+      <c r="K30" s="68">
+        <f>I30*J30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="193"/>
+      <c r="A31" s="183"/>
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="101"/>
       <c r="H31" s="36">
         <v>1278</v>
       </c>
-      <c r="I31" s="93">
+      <c r="I31" s="91">
         <v>33000</v>
       </c>
-      <c r="J31" s="73">
-        <v>0</v>
-      </c>
-      <c r="K31" s="70">
-        <f t="shared" si="0"/>
+      <c r="J31" s="71">
+        <v>0</v>
+      </c>
+      <c r="K31" s="68">
+        <f>I31*J31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="193"/>
+      <c r="A32" s="183"/>
       <c r="B32" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
       <c r="H32" s="36">
         <v>1279</v>
       </c>
-      <c r="I32" s="93">
+      <c r="I32" s="91">
         <v>38000</v>
       </c>
-      <c r="J32" s="73">
-        <v>0</v>
-      </c>
-      <c r="K32" s="70">
-        <f t="shared" si="0"/>
+      <c r="J32" s="71">
+        <v>0</v>
+      </c>
+      <c r="K32" s="68">
+        <f>I32*J32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="193"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
-      <c r="D33" s="25">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2">
-        <v>7</v>
-      </c>
-      <c r="G33" s="3">
-        <v>338</v>
-      </c>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="101"/>
       <c r="H33" s="36">
-        <v>1280</v>
-      </c>
-      <c r="I33" s="93">
-        <v>22000</v>
-      </c>
-      <c r="J33" s="73">
-        <v>0</v>
-      </c>
-      <c r="K33" s="70">
-        <f t="shared" si="0"/>
+        <v>1281</v>
+      </c>
+      <c r="I33" s="91">
+        <v>32100</v>
+      </c>
+      <c r="J33" s="71">
+        <v>0</v>
+      </c>
+      <c r="K33" s="68">
+        <f>I33*J33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="193"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
+      <c r="D34" s="25">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3">
+        <v>15</v>
+      </c>
       <c r="H34" s="36">
-        <v>1281</v>
-      </c>
-      <c r="I34" s="93">
-        <v>32100</v>
-      </c>
-      <c r="J34" s="73">
-        <v>0</v>
-      </c>
-      <c r="K34" s="70">
-        <f t="shared" si="0"/>
+        <v>1286</v>
+      </c>
+      <c r="I34" s="91">
+        <v>98000</v>
+      </c>
+      <c r="J34" s="71">
+        <v>0</v>
+      </c>
+      <c r="K34" s="68">
+        <f>I34*J34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="193"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="25">
         <v>4</v>
@@ -5202,29 +5263,29 @@
         <v>7</v>
       </c>
       <c r="G35" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H35" s="36">
-        <v>1282</v>
-      </c>
-      <c r="I35" s="93">
-        <v>115000</v>
-      </c>
-      <c r="J35" s="73">
-        <v>0</v>
-      </c>
-      <c r="K35" s="70">
-        <f t="shared" si="0"/>
+        <v>1285</v>
+      </c>
+      <c r="I35" s="91">
+        <v>110000</v>
+      </c>
+      <c r="J35" s="71">
+        <v>0</v>
+      </c>
+      <c r="K35" s="68">
+        <f>I35*J35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="193"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="25">
         <v>4</v>
@@ -5236,29 +5297,29 @@
         <v>7</v>
       </c>
       <c r="G36" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H36" s="36">
-        <v>1283</v>
-      </c>
-      <c r="I36" s="93">
+        <v>1284</v>
+      </c>
+      <c r="I36" s="91">
         <v>125000</v>
       </c>
-      <c r="J36" s="73">
-        <v>0</v>
-      </c>
-      <c r="K36" s="70">
-        <f t="shared" si="0"/>
+      <c r="J36" s="71">
+        <v>0</v>
+      </c>
+      <c r="K36" s="68">
+        <f>I36*J36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="193"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="25">
         <v>4</v>
@@ -5270,29 +5331,29 @@
         <v>7</v>
       </c>
       <c r="G37" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H37" s="36">
-        <v>1284</v>
-      </c>
-      <c r="I37" s="93">
+        <v>1283</v>
+      </c>
+      <c r="I37" s="91">
         <v>130000</v>
       </c>
-      <c r="J37" s="73">
-        <v>0</v>
-      </c>
-      <c r="K37" s="70">
-        <f t="shared" si="0"/>
+      <c r="J37" s="71">
+        <v>0</v>
+      </c>
+      <c r="K37" s="68">
+        <f>I37*J37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="193"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="25">
         <v>4</v>
@@ -5304,26 +5365,26 @@
         <v>7</v>
       </c>
       <c r="G38" s="3">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="H38" s="36">
-        <v>1285</v>
-      </c>
-      <c r="I38" s="93">
-        <v>110000</v>
-      </c>
-      <c r="J38" s="73">
-        <v>0</v>
-      </c>
-      <c r="K38" s="70">
-        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="I38" s="91">
+        <v>22000</v>
+      </c>
+      <c r="J38" s="71">
+        <v>0</v>
+      </c>
+      <c r="K38" s="68">
+        <f>I38*J38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="193"/>
+      <c r="A39" s="183"/>
       <c r="B39" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
@@ -5338,24 +5399,24 @@
         <v>7</v>
       </c>
       <c r="G39" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H39" s="36">
-        <v>1286</v>
-      </c>
-      <c r="I39" s="93">
-        <v>98000</v>
-      </c>
-      <c r="J39" s="73">
-        <v>0</v>
-      </c>
-      <c r="K39" s="70">
-        <f t="shared" si="0"/>
+        <v>1282</v>
+      </c>
+      <c r="I39" s="91">
+        <v>115000</v>
+      </c>
+      <c r="J39" s="71">
+        <v>0</v>
+      </c>
+      <c r="K39" s="68">
+        <f>I39*J39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="194"/>
+      <c r="A40" s="184"/>
       <c r="B40" s="20" t="s">
         <v>75</v>
       </c>
@@ -5377,25 +5438,25 @@
       <c r="H40" s="38">
         <v>1287</v>
       </c>
-      <c r="I40" s="94">
-        <v>150000</v>
-      </c>
-      <c r="J40" s="74">
-        <v>0</v>
-      </c>
-      <c r="K40" s="75">
-        <f t="shared" si="0"/>
+      <c r="I40" s="92">
+        <v>200000</v>
+      </c>
+      <c r="J40" s="72">
+        <v>0</v>
+      </c>
+      <c r="K40" s="73">
+        <f>I40*J40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="195" t="s">
+      <c r="A41" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="81">
+      <c r="B41" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="79">
         <v>2</v>
       </c>
       <c r="D41" s="23">
@@ -5413,23 +5474,23 @@
       <c r="H41" s="35">
         <v>1288</v>
       </c>
-      <c r="I41" s="97">
+      <c r="I41" s="95">
         <v>85000</v>
       </c>
-      <c r="J41" s="72">
-        <v>0</v>
-      </c>
-      <c r="K41" s="69">
-        <f t="shared" si="0"/>
+      <c r="J41" s="70">
+        <v>0</v>
+      </c>
+      <c r="K41" s="67">
+        <f>I41*J41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="196"/>
-      <c r="B42" s="87" t="s">
+      <c r="A42" s="186"/>
+      <c r="B42" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="83">
+      <c r="C42" s="81">
         <v>3</v>
       </c>
       <c r="D42" s="27">
@@ -5447,51 +5508,51 @@
       <c r="H42" s="38">
         <v>1289</v>
       </c>
-      <c r="I42" s="98">
-        <v>450000</v>
-      </c>
-      <c r="J42" s="74">
-        <v>0</v>
-      </c>
-      <c r="K42" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="197" t="s">
+      <c r="I42" s="96">
+        <v>400000</v>
+      </c>
+      <c r="J42" s="72">
+        <v>0</v>
+      </c>
+      <c r="K42" s="73">
+        <f>I42*J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="187" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="81">
+      <c r="C43" s="79">
         <v>2</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="106"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="104"/>
       <c r="H43" s="42">
         <v>1290</v>
       </c>
-      <c r="I43" s="97">
+      <c r="I43" s="95">
         <v>75000</v>
       </c>
-      <c r="J43" s="72">
-        <v>0</v>
-      </c>
-      <c r="K43" s="69">
-        <f t="shared" si="0"/>
+      <c r="J43" s="70">
+        <v>0</v>
+      </c>
+      <c r="K43" s="67">
+        <f>I43*J43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="198"/>
-      <c r="B44" s="85" t="s">
+      <c r="A44" s="188"/>
+      <c r="B44" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="82">
+      <c r="C44" s="80">
         <v>2</v>
       </c>
       <c r="D44" s="25">
@@ -5509,23 +5570,23 @@
       <c r="H44" s="36">
         <v>1291</v>
       </c>
-      <c r="I44" s="99">
+      <c r="I44" s="97">
         <v>80000</v>
       </c>
-      <c r="J44" s="73">
-        <v>0</v>
-      </c>
-      <c r="K44" s="70">
-        <f t="shared" si="0"/>
+      <c r="J44" s="71">
+        <v>0</v>
+      </c>
+      <c r="K44" s="68">
+        <f>I44*J44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="198"/>
-      <c r="B45" s="85" t="s">
+      <c r="A45" s="188"/>
+      <c r="B45" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="82">
+      <c r="C45" s="80">
         <v>1</v>
       </c>
       <c r="D45" s="25">
@@ -5543,23 +5604,23 @@
       <c r="H45" s="36">
         <v>1292</v>
       </c>
-      <c r="I45" s="99">
+      <c r="I45" s="97">
         <v>260000</v>
       </c>
-      <c r="J45" s="73">
-        <v>0</v>
-      </c>
-      <c r="K45" s="70">
-        <f t="shared" si="0"/>
+      <c r="J45" s="71">
+        <v>0</v>
+      </c>
+      <c r="K45" s="68">
+        <f>I45*J45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="198"/>
-      <c r="B46" s="85" t="s">
+      <c r="A46" s="188"/>
+      <c r="B46" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="82">
+      <c r="C46" s="80">
         <v>2</v>
       </c>
       <c r="D46" s="25">
@@ -5577,23 +5638,23 @@
       <c r="H46" s="36">
         <v>1293</v>
       </c>
-      <c r="I46" s="99">
+      <c r="I46" s="97">
         <v>56000</v>
       </c>
-      <c r="J46" s="73">
-        <v>0</v>
-      </c>
-      <c r="K46" s="70">
-        <f t="shared" si="0"/>
+      <c r="J46" s="71">
+        <v>0</v>
+      </c>
+      <c r="K46" s="68">
+        <f>I46*J46</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="198"/>
-      <c r="B47" s="85" t="s">
+      <c r="A47" s="188"/>
+      <c r="B47" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="82">
+      <c r="C47" s="80">
         <v>2</v>
       </c>
       <c r="D47" s="25">
@@ -5611,23 +5672,23 @@
       <c r="H47" s="36">
         <v>1294</v>
       </c>
-      <c r="I47" s="99">
+      <c r="I47" s="97">
         <v>76000</v>
       </c>
-      <c r="J47" s="73">
-        <v>0</v>
-      </c>
-      <c r="K47" s="70">
-        <f t="shared" si="0"/>
+      <c r="J47" s="71">
+        <v>0</v>
+      </c>
+      <c r="K47" s="68">
+        <f>I47*J47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="198"/>
-      <c r="B48" s="85" t="s">
+      <c r="A48" s="188"/>
+      <c r="B48" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="82">
+      <c r="C48" s="80">
         <v>1</v>
       </c>
       <c r="D48" s="25">
@@ -5645,23 +5706,23 @@
       <c r="H48" s="36">
         <v>1295</v>
       </c>
-      <c r="I48" s="99">
+      <c r="I48" s="97">
         <v>120000</v>
       </c>
-      <c r="J48" s="73">
-        <v>0</v>
-      </c>
-      <c r="K48" s="70">
-        <f t="shared" si="0"/>
+      <c r="J48" s="71">
+        <v>0</v>
+      </c>
+      <c r="K48" s="68">
+        <f>I48*J48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="198"/>
-      <c r="B49" s="85" t="s">
+      <c r="A49" s="188"/>
+      <c r="B49" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="82">
+      <c r="C49" s="80">
         <v>2</v>
       </c>
       <c r="D49" s="25">
@@ -5679,23 +5740,23 @@
       <c r="H49" s="36">
         <v>1296</v>
       </c>
-      <c r="I49" s="99">
+      <c r="I49" s="97">
         <v>110000</v>
       </c>
-      <c r="J49" s="73">
-        <v>0</v>
-      </c>
-      <c r="K49" s="70">
-        <f t="shared" si="0"/>
+      <c r="J49" s="71">
+        <v>0</v>
+      </c>
+      <c r="K49" s="68">
+        <f>I49*J49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="199"/>
-      <c r="B50" s="91" t="s">
+      <c r="A50" s="189"/>
+      <c r="B50" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="88">
+      <c r="C50" s="86">
         <v>1</v>
       </c>
       <c r="D50" s="34">
@@ -5713,25 +5774,25 @@
       <c r="H50" s="37">
         <v>1297</v>
       </c>
-      <c r="I50" s="100">
+      <c r="I50" s="98">
         <v>114000</v>
       </c>
-      <c r="J50" s="74">
-        <v>0</v>
-      </c>
-      <c r="K50" s="71">
-        <f t="shared" si="0"/>
+      <c r="J50" s="72">
+        <v>0</v>
+      </c>
+      <c r="K50" s="69">
+        <f>I50*J50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="180" t="s">
+      <c r="A51" s="266" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="119" t="s">
+      <c r="B51" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="89">
+      <c r="C51" s="87">
         <v>2</v>
       </c>
       <c r="D51" s="23">
@@ -5746,26 +5807,26 @@
       <c r="G51" s="24">
         <v>91</v>
       </c>
-      <c r="H51" s="76">
+      <c r="H51" s="74">
         <v>1298</v>
       </c>
-      <c r="I51" s="92">
+      <c r="I51" s="90">
         <v>55000</v>
       </c>
-      <c r="J51" s="72">
-        <v>0</v>
-      </c>
-      <c r="K51" s="69">
-        <f t="shared" si="0"/>
+      <c r="J51" s="70">
+        <v>0</v>
+      </c>
+      <c r="K51" s="67">
+        <f>I51*J51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="181"/>
-      <c r="B52" s="107" t="s">
+      <c r="A52" s="267"/>
+      <c r="B52" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="68">
+      <c r="C52" s="66">
         <v>2</v>
       </c>
       <c r="D52" s="25">
@@ -5780,26 +5841,26 @@
       <c r="G52" s="26">
         <v>449</v>
       </c>
-      <c r="H52" s="77">
+      <c r="H52" s="75">
         <v>1299</v>
       </c>
-      <c r="I52" s="93">
+      <c r="I52" s="91">
         <v>75000</v>
       </c>
-      <c r="J52" s="73">
-        <v>0</v>
-      </c>
-      <c r="K52" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="181"/>
-      <c r="B53" s="108" t="s">
+      <c r="J52" s="71">
+        <v>0</v>
+      </c>
+      <c r="K52" s="68">
+        <f>I52*J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="267"/>
+      <c r="B53" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="90">
+      <c r="C53" s="88">
         <v>2</v>
       </c>
       <c r="D53" s="27">
@@ -5814,45 +5875,42 @@
       <c r="G53" s="28">
         <v>291</v>
       </c>
-      <c r="H53" s="78">
+      <c r="H53" s="76">
         <v>1300</v>
       </c>
-      <c r="I53" s="94">
+      <c r="I53" s="92">
         <v>65000</v>
       </c>
-      <c r="J53" s="74">
-        <v>0</v>
-      </c>
-      <c r="K53" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="182" t="s">
+      <c r="J53" s="72">
+        <v>0</v>
+      </c>
+      <c r="K53" s="73">
+        <f>I53*J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="253" t="s">
         <v>43</v>
       </c>
-      <c r="J54" s="183"/>
-      <c r="K54" s="186">
+      <c r="J54" s="254"/>
+      <c r="K54" s="257">
         <f>SUM(K2:K53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I55" s="184"/>
-      <c r="J55" s="185"/>
-      <c r="K55" s="187"/>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="255"/>
+      <c r="J55" s="256"/>
+      <c r="K55" s="258"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A2:A20"/>
     <mergeCell ref="A25:A40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A2:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5881,19 +5939,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127"/>
+      <c r="A1" s="125"/>
       <c r="B1" s="14" t="s">
         <v>150</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="203" t="s">
+      <c r="D1" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="205"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
       <c r="H1" s="15"/>
       <c r="I1" s="43" t="s">
         <v>41</v>
@@ -5901,15 +5959,15 @@
       <c r="J1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="123" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>202</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -5930,10 +5988,10 @@
       <c r="H2" s="35">
         <v>1250</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="67">
         <v>1200</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="70">
         <v>0</v>
       </c>
       <c r="K2" s="52">
@@ -5942,8 +6000,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="215"/>
-      <c r="B3" s="107" t="s">
+      <c r="A3" s="205"/>
+      <c r="B3" s="105" t="s">
         <v>203</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -5964,10 +6022,10 @@
       <c r="H3" s="36">
         <v>1251</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="68">
         <v>2000</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="71">
         <v>0</v>
       </c>
       <c r="K3" s="53">
@@ -5976,8 +6034,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="215"/>
-      <c r="B4" s="107" t="s">
+      <c r="A4" s="205"/>
+      <c r="B4" s="105" t="s">
         <v>153</v>
       </c>
       <c r="C4" s="36" t="s">
@@ -5998,10 +6056,10 @@
       <c r="H4" s="36">
         <v>1252</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="68">
         <v>22000</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="71">
         <v>0</v>
       </c>
       <c r="K4" s="53">
@@ -6010,8 +6068,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="215"/>
-      <c r="B5" s="107" t="s">
+      <c r="A5" s="205"/>
+      <c r="B5" s="105" t="s">
         <v>154</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -6032,10 +6090,10 @@
       <c r="H5" s="36">
         <v>1253</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="68">
         <v>28000</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="71">
         <v>0</v>
       </c>
       <c r="K5" s="53">
@@ -6044,8 +6102,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
-      <c r="B6" s="107" t="s">
+      <c r="A6" s="205"/>
+      <c r="B6" s="105" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -6066,10 +6124,10 @@
       <c r="H6" s="36">
         <v>1254</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="68">
         <v>65000</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="71">
         <v>0</v>
       </c>
       <c r="K6" s="53">
@@ -6078,8 +6136,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="215"/>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="205"/>
+      <c r="B7" s="105" t="s">
         <v>156</v>
       </c>
       <c r="C7" s="36" t="s">
@@ -6100,10 +6158,10 @@
       <c r="H7" s="36">
         <v>1255</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="68">
         <v>60000</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="71">
         <v>0</v>
       </c>
       <c r="K7" s="53">
@@ -6112,8 +6170,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="215"/>
-      <c r="B8" s="107" t="s">
+      <c r="A8" s="205"/>
+      <c r="B8" s="105" t="s">
         <v>157</v>
       </c>
       <c r="C8" s="36" t="s">
@@ -6134,10 +6192,10 @@
       <c r="H8" s="36">
         <v>1256</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="68">
         <v>50000</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="71">
         <v>0</v>
       </c>
       <c r="K8" s="53">
@@ -6146,8 +6204,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="215"/>
-      <c r="B9" s="107" t="s">
+      <c r="A9" s="205"/>
+      <c r="B9" s="105" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="36" t="s">
@@ -6168,10 +6226,10 @@
       <c r="H9" s="36">
         <v>1257</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="68">
         <v>35000</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="71">
         <v>0</v>
       </c>
       <c r="K9" s="53">
@@ -6180,8 +6238,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="215"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="205"/>
+      <c r="B10" s="105" t="s">
         <v>158</v>
       </c>
       <c r="C10" s="36" t="s">
@@ -6202,10 +6260,10 @@
       <c r="H10" s="36">
         <v>1258</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="68">
         <v>12000</v>
       </c>
-      <c r="J10" s="73">
+      <c r="J10" s="71">
         <v>0</v>
       </c>
       <c r="K10" s="53">
@@ -6214,8 +6272,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="215"/>
-      <c r="B11" s="107" t="s">
+      <c r="A11" s="205"/>
+      <c r="B11" s="105" t="s">
         <v>160</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -6236,10 +6294,10 @@
       <c r="H11" s="36">
         <v>1259</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="68">
         <v>900000</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="71">
         <v>0</v>
       </c>
       <c r="K11" s="53">
@@ -6247,8 +6305,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="215"/>
-      <c r="B12" s="107" t="s">
+      <c r="A12" s="205"/>
+      <c r="B12" s="105" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -6269,10 +6327,10 @@
       <c r="H12" s="36">
         <v>1260</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="68">
         <v>1600000</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="71">
         <v>0</v>
       </c>
       <c r="K12" s="53">
@@ -6280,8 +6338,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="215"/>
-      <c r="B13" s="107" t="s">
+      <c r="A13" s="205"/>
+      <c r="B13" s="105" t="s">
         <v>162</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -6302,10 +6360,10 @@
       <c r="H13" s="36">
         <v>1261</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="68">
         <v>1500000</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="71">
         <v>0</v>
       </c>
       <c r="K13" s="53">
@@ -6314,8 +6372,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="215"/>
-      <c r="B14" s="107" t="s">
+      <c r="A14" s="205"/>
+      <c r="B14" s="105" t="s">
         <v>163</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -6336,10 +6394,10 @@
       <c r="H14" s="36">
         <v>1262</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="68">
         <v>4500000</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="71">
         <v>0</v>
       </c>
       <c r="K14" s="53">
@@ -6348,8 +6406,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="215"/>
-      <c r="B15" s="107" t="s">
+      <c r="A15" s="205"/>
+      <c r="B15" s="105" t="s">
         <v>164</v>
       </c>
       <c r="C15" s="36" t="s">
@@ -6370,10 +6428,10 @@
       <c r="H15" s="36">
         <v>1263</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="68">
         <v>350000</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="71">
         <v>0</v>
       </c>
       <c r="K15" s="53">
@@ -6382,8 +6440,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="215"/>
-      <c r="B16" s="107" t="s">
+      <c r="A16" s="205"/>
+      <c r="B16" s="105" t="s">
         <v>165</v>
       </c>
       <c r="C16" s="36" t="s">
@@ -6404,10 +6462,10 @@
       <c r="H16" s="36">
         <v>1264</v>
       </c>
-      <c r="I16" s="70">
+      <c r="I16" s="68">
         <v>20000</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="71">
         <v>60</v>
       </c>
       <c r="K16" s="53">
@@ -6416,8 +6474,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="215"/>
-      <c r="B17" s="107" t="s">
+      <c r="A17" s="205"/>
+      <c r="B17" s="105" t="s">
         <v>166</v>
       </c>
       <c r="C17" s="36" t="s">
@@ -6438,10 +6496,10 @@
       <c r="H17" s="36">
         <v>1265</v>
       </c>
-      <c r="I17" s="70">
+      <c r="I17" s="68">
         <v>180000</v>
       </c>
-      <c r="J17" s="73">
+      <c r="J17" s="71">
         <v>0</v>
       </c>
       <c r="K17" s="53">
@@ -6450,8 +6508,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="215"/>
-      <c r="B18" s="107" t="s">
+      <c r="A18" s="205"/>
+      <c r="B18" s="105" t="s">
         <v>167</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -6472,10 +6530,10 @@
       <c r="H18" s="36">
         <v>1266</v>
       </c>
-      <c r="I18" s="70">
+      <c r="I18" s="68">
         <v>190000</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="71">
         <v>0</v>
       </c>
       <c r="K18" s="53">
@@ -6484,8 +6542,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="215"/>
-      <c r="B19" s="107" t="s">
+      <c r="A19" s="205"/>
+      <c r="B19" s="105" t="s">
         <v>168</v>
       </c>
       <c r="C19" s="36" t="s">
@@ -6506,10 +6564,10 @@
       <c r="H19" s="36">
         <v>1267</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="68">
         <v>80000</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="71">
         <v>0</v>
       </c>
       <c r="K19" s="53">
@@ -6518,8 +6576,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="215"/>
-      <c r="B20" s="107" t="s">
+      <c r="A20" s="205"/>
+      <c r="B20" s="105" t="s">
         <v>169</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -6540,10 +6598,10 @@
       <c r="H20" s="36">
         <v>1268</v>
       </c>
-      <c r="I20" s="70">
+      <c r="I20" s="68">
         <v>35000</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="71">
         <v>0</v>
       </c>
       <c r="K20" s="53">
@@ -6552,8 +6610,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="215"/>
-      <c r="B21" s="107" t="s">
+      <c r="A21" s="205"/>
+      <c r="B21" s="105" t="s">
         <v>170</v>
       </c>
       <c r="C21" s="36" t="s">
@@ -6574,10 +6632,10 @@
       <c r="H21" s="36">
         <v>1269</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I21" s="68">
         <v>36000</v>
       </c>
-      <c r="J21" s="73">
+      <c r="J21" s="71">
         <v>0</v>
       </c>
       <c r="K21" s="53">
@@ -6586,8 +6644,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="215"/>
-      <c r="B22" s="107" t="s">
+      <c r="A22" s="205"/>
+      <c r="B22" s="105" t="s">
         <v>207</v>
       </c>
       <c r="C22" s="36" t="s">
@@ -6608,10 +6666,10 @@
       <c r="H22" s="36">
         <v>1270</v>
       </c>
-      <c r="I22" s="70">
+      <c r="I22" s="68">
         <v>150000</v>
       </c>
-      <c r="J22" s="73">
+      <c r="J22" s="71">
         <v>0</v>
       </c>
       <c r="K22" s="53">
@@ -6620,8 +6678,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
-      <c r="B23" s="107" t="s">
+      <c r="A23" s="205"/>
+      <c r="B23" s="105" t="s">
         <v>208</v>
       </c>
       <c r="C23" s="36" t="s">
@@ -6642,10 +6700,10 @@
       <c r="H23" s="36">
         <v>1271</v>
       </c>
-      <c r="I23" s="70">
+      <c r="I23" s="68">
         <v>125000</v>
       </c>
-      <c r="J23" s="73">
+      <c r="J23" s="71">
         <v>0</v>
       </c>
       <c r="K23" s="53">
@@ -6654,8 +6712,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215"/>
-      <c r="B24" s="107" t="s">
+      <c r="A24" s="205"/>
+      <c r="B24" s="105" t="s">
         <v>171</v>
       </c>
       <c r="C24" s="36" t="s">
@@ -6676,10 +6734,10 @@
       <c r="H24" s="36">
         <v>1272</v>
       </c>
-      <c r="I24" s="70">
+      <c r="I24" s="68">
         <v>5000</v>
       </c>
-      <c r="J24" s="73">
+      <c r="J24" s="71">
         <v>0</v>
       </c>
       <c r="K24" s="53">
@@ -6688,8 +6746,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="215"/>
-      <c r="B25" s="107" t="s">
+      <c r="A25" s="205"/>
+      <c r="B25" s="105" t="s">
         <v>172</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -6710,10 +6768,10 @@
       <c r="H25" s="36">
         <v>1273</v>
       </c>
-      <c r="I25" s="70">
+      <c r="I25" s="68">
         <v>5200</v>
       </c>
-      <c r="J25" s="73">
+      <c r="J25" s="71">
         <v>0</v>
       </c>
       <c r="K25" s="53">
@@ -6722,8 +6780,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="215"/>
-      <c r="B26" s="110" t="s">
+      <c r="A26" s="205"/>
+      <c r="B26" s="108" t="s">
         <v>173</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -6744,10 +6802,10 @@
       <c r="H26" s="38">
         <v>1274</v>
       </c>
-      <c r="I26" s="75">
+      <c r="I26" s="73">
         <v>4800</v>
       </c>
-      <c r="J26" s="74">
+      <c r="J26" s="72">
         <v>0</v>
       </c>
       <c r="K26" s="55">
@@ -6756,10 +6814,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="206" t="s">
+      <c r="A27" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="152" t="s">
         <v>184</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -6780,10 +6838,10 @@
       <c r="H27" s="35">
         <v>1275</v>
       </c>
-      <c r="I27" s="69">
+      <c r="I27" s="67">
         <v>3000</v>
       </c>
-      <c r="J27" s="72">
+      <c r="J27" s="70">
         <v>0</v>
       </c>
       <c r="K27" s="52">
@@ -6792,8 +6850,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="206"/>
-      <c r="B28" s="151" t="s">
+      <c r="A28" s="196"/>
+      <c r="B28" s="149" t="s">
         <v>185</v>
       </c>
       <c r="C28" s="36" t="s">
@@ -6814,10 +6872,10 @@
       <c r="H28" s="36">
         <v>1276</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="68">
         <v>6000</v>
       </c>
-      <c r="J28" s="73">
+      <c r="J28" s="71">
         <v>0</v>
       </c>
       <c r="K28" s="53">
@@ -6826,8 +6884,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="206"/>
-      <c r="B29" s="151" t="s">
+      <c r="A29" s="196"/>
+      <c r="B29" s="149" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -6848,10 +6906,10 @@
       <c r="H29" s="36">
         <v>1277</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="68">
         <v>8000</v>
       </c>
-      <c r="J29" s="73">
+      <c r="J29" s="71">
         <v>0</v>
       </c>
       <c r="K29" s="53">
@@ -6860,8 +6918,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="206"/>
-      <c r="B30" s="151" t="s">
+      <c r="A30" s="196"/>
+      <c r="B30" s="149" t="s">
         <v>187</v>
       </c>
       <c r="C30" s="36" t="s">
@@ -6882,10 +6940,10 @@
       <c r="H30" s="36">
         <v>1278</v>
       </c>
-      <c r="I30" s="70">
+      <c r="I30" s="68">
         <v>2500</v>
       </c>
-      <c r="J30" s="73">
+      <c r="J30" s="71">
         <v>0</v>
       </c>
       <c r="K30" s="53">
@@ -6894,8 +6952,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="206"/>
-      <c r="B31" s="151" t="s">
+      <c r="A31" s="196"/>
+      <c r="B31" s="149" t="s">
         <v>188</v>
       </c>
       <c r="C31" s="36" t="s">
@@ -6916,10 +6974,10 @@
       <c r="H31" s="36">
         <v>1279</v>
       </c>
-      <c r="I31" s="70">
+      <c r="I31" s="68">
         <v>2400</v>
       </c>
-      <c r="J31" s="73">
+      <c r="J31" s="71">
         <v>0</v>
       </c>
       <c r="K31" s="53">
@@ -6928,8 +6986,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="206"/>
-      <c r="B32" s="151" t="s">
+      <c r="A32" s="196"/>
+      <c r="B32" s="149" t="s">
         <v>189</v>
       </c>
       <c r="C32" s="36" t="s">
@@ -6950,10 +7008,10 @@
       <c r="H32" s="36">
         <v>1280</v>
       </c>
-      <c r="I32" s="70">
+      <c r="I32" s="68">
         <v>6000</v>
       </c>
-      <c r="J32" s="73">
+      <c r="J32" s="71">
         <v>0</v>
       </c>
       <c r="K32" s="53">
@@ -6962,8 +7020,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="206"/>
-      <c r="B33" s="151" t="s">
+      <c r="A33" s="196"/>
+      <c r="B33" s="149" t="s">
         <v>190</v>
       </c>
       <c r="C33" s="36" t="s">
@@ -6984,10 +7042,10 @@
       <c r="H33" s="36">
         <v>1281</v>
       </c>
-      <c r="I33" s="70">
+      <c r="I33" s="68">
         <v>8500</v>
       </c>
-      <c r="J33" s="73">
+      <c r="J33" s="71">
         <v>0</v>
       </c>
       <c r="K33" s="53">
@@ -6996,8 +7054,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="206"/>
-      <c r="B34" s="151" t="s">
+      <c r="A34" s="196"/>
+      <c r="B34" s="149" t="s">
         <v>228</v>
       </c>
       <c r="C34" s="36" t="s">
@@ -7018,10 +7076,10 @@
       <c r="H34" s="36">
         <v>1282</v>
       </c>
-      <c r="I34" s="70">
+      <c r="I34" s="68">
         <v>100000</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="71">
         <v>0</v>
       </c>
       <c r="K34" s="53">
@@ -7030,8 +7088,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="206"/>
-      <c r="B35" s="151" t="s">
+      <c r="A35" s="196"/>
+      <c r="B35" s="149" t="s">
         <v>229</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -7052,10 +7110,10 @@
       <c r="H35" s="36">
         <v>1283</v>
       </c>
-      <c r="I35" s="70">
+      <c r="I35" s="68">
         <v>80000</v>
       </c>
-      <c r="J35" s="73">
+      <c r="J35" s="71">
         <v>0</v>
       </c>
       <c r="K35" s="53">
@@ -7064,8 +7122,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="206"/>
-      <c r="B36" s="151" t="s">
+      <c r="A36" s="196"/>
+      <c r="B36" s="149" t="s">
         <v>226</v>
       </c>
       <c r="C36" s="36" t="s">
@@ -7086,10 +7144,10 @@
       <c r="H36" s="36">
         <v>1284</v>
       </c>
-      <c r="I36" s="70">
+      <c r="I36" s="68">
         <v>135000</v>
       </c>
-      <c r="J36" s="73">
+      <c r="J36" s="71">
         <v>0</v>
       </c>
       <c r="K36" s="53">
@@ -7098,8 +7156,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="206"/>
-      <c r="B37" s="151" t="s">
+      <c r="A37" s="196"/>
+      <c r="B37" s="149" t="s">
         <v>193</v>
       </c>
       <c r="C37" s="36" t="s">
@@ -7120,10 +7178,10 @@
       <c r="H37" s="36">
         <v>1285</v>
       </c>
-      <c r="I37" s="70">
+      <c r="I37" s="68">
         <v>1000000</v>
       </c>
-      <c r="J37" s="73">
+      <c r="J37" s="71">
         <v>0</v>
       </c>
       <c r="K37" s="53">
@@ -7132,8 +7190,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="206"/>
-      <c r="B38" s="151" t="s">
+      <c r="A38" s="196"/>
+      <c r="B38" s="149" t="s">
         <v>227</v>
       </c>
       <c r="C38" s="36" t="s">
@@ -7154,21 +7212,21 @@
       <c r="H38" s="36">
         <v>1286</v>
       </c>
-      <c r="I38" s="70">
+      <c r="I38" s="68">
         <v>450000</v>
       </c>
-      <c r="J38" s="73">
+      <c r="J38" s="71">
         <v>0</v>
       </c>
       <c r="K38" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="124"/>
+      <c r="L38" s="122"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="206"/>
-      <c r="B39" s="151" t="s">
+      <c r="A39" s="196"/>
+      <c r="B39" s="149" t="s">
         <v>194</v>
       </c>
       <c r="C39" s="36" t="s">
@@ -7189,10 +7247,10 @@
       <c r="H39" s="36">
         <v>1287</v>
       </c>
-      <c r="I39" s="70">
+      <c r="I39" s="68">
         <v>600000</v>
       </c>
-      <c r="J39" s="73">
+      <c r="J39" s="71">
         <v>0</v>
       </c>
       <c r="K39" s="53">
@@ -7201,8 +7259,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="207"/>
-      <c r="B40" s="156" t="s">
+      <c r="A40" s="197"/>
+      <c r="B40" s="154" t="s">
         <v>195</v>
       </c>
       <c r="C40" s="38" t="s">
@@ -7223,10 +7281,10 @@
       <c r="H40" s="38">
         <v>1288</v>
       </c>
-      <c r="I40" s="75">
+      <c r="I40" s="73">
         <v>550000</v>
       </c>
-      <c r="J40" s="74">
+      <c r="J40" s="72">
         <v>0</v>
       </c>
       <c r="K40" s="55">
@@ -7235,10 +7293,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="208" t="s">
+      <c r="A41" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="157" t="s">
+      <c r="B41" s="155" t="s">
         <v>199</v>
       </c>
       <c r="C41" s="35" t="s">
@@ -7259,10 +7317,10 @@
       <c r="H41" s="35">
         <v>1289</v>
       </c>
-      <c r="I41" s="69">
+      <c r="I41" s="67">
         <v>600000</v>
       </c>
-      <c r="J41" s="72">
+      <c r="J41" s="70">
         <v>0</v>
       </c>
       <c r="K41" s="52">
@@ -7271,8 +7329,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="209"/>
-      <c r="B42" s="152" t="s">
+      <c r="A42" s="199"/>
+      <c r="B42" s="150" t="s">
         <v>200</v>
       </c>
       <c r="C42" s="36" t="s">
@@ -7293,10 +7351,10 @@
       <c r="H42" s="36">
         <v>1290</v>
       </c>
-      <c r="I42" s="70">
+      <c r="I42" s="68">
         <v>450000</v>
       </c>
-      <c r="J42" s="73">
+      <c r="J42" s="71">
         <v>0</v>
       </c>
       <c r="K42" s="53">
@@ -7305,8 +7363,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="209"/>
-      <c r="B43" s="152" t="s">
+      <c r="A43" s="199"/>
+      <c r="B43" s="150" t="s">
         <v>201</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -7327,10 +7385,10 @@
       <c r="H43" s="36">
         <v>1291</v>
       </c>
-      <c r="I43" s="70">
+      <c r="I43" s="68">
         <v>440000</v>
       </c>
-      <c r="J43" s="73">
+      <c r="J43" s="71">
         <v>0</v>
       </c>
       <c r="K43" s="53">
@@ -7339,8 +7397,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="209"/>
-      <c r="B44" s="152" t="s">
+      <c r="A44" s="199"/>
+      <c r="B44" s="150" t="s">
         <v>174</v>
       </c>
       <c r="C44" s="36" t="s">
@@ -7361,10 +7419,10 @@
       <c r="H44" s="36">
         <v>1292</v>
       </c>
-      <c r="I44" s="70">
+      <c r="I44" s="68">
         <v>80000</v>
       </c>
-      <c r="J44" s="73">
+      <c r="J44" s="71">
         <v>0</v>
       </c>
       <c r="K44" s="53">
@@ -7373,8 +7431,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="209"/>
-      <c r="B45" s="152" t="s">
+      <c r="A45" s="199"/>
+      <c r="B45" s="150" t="s">
         <v>175</v>
       </c>
       <c r="C45" s="36" t="s">
@@ -7395,10 +7453,10 @@
       <c r="H45" s="36">
         <v>1293</v>
       </c>
-      <c r="I45" s="70">
+      <c r="I45" s="68">
         <v>50000</v>
       </c>
-      <c r="J45" s="73">
+      <c r="J45" s="71">
         <v>0</v>
       </c>
       <c r="K45" s="53">
@@ -7407,8 +7465,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="209"/>
-      <c r="B46" s="152" t="s">
+      <c r="A46" s="199"/>
+      <c r="B46" s="150" t="s">
         <v>176</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -7429,10 +7487,10 @@
       <c r="H46" s="36">
         <v>1294</v>
       </c>
-      <c r="I46" s="70">
+      <c r="I46" s="68">
         <v>950000</v>
       </c>
-      <c r="J46" s="73">
+      <c r="J46" s="71">
         <v>0</v>
       </c>
       <c r="K46" s="53">
@@ -7441,8 +7499,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="209"/>
-      <c r="B47" s="152" t="s">
+      <c r="A47" s="199"/>
+      <c r="B47" s="150" t="s">
         <v>177</v>
       </c>
       <c r="C47" s="36" t="s">
@@ -7463,10 +7521,10 @@
       <c r="H47" s="36">
         <v>1295</v>
       </c>
-      <c r="I47" s="70">
+      <c r="I47" s="68">
         <v>1300000</v>
       </c>
-      <c r="J47" s="73">
+      <c r="J47" s="71">
         <v>0</v>
       </c>
       <c r="K47" s="53">
@@ -7475,8 +7533,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="210"/>
-      <c r="B48" s="165" t="s">
+      <c r="A48" s="200"/>
+      <c r="B48" s="163" t="s">
         <v>180</v>
       </c>
       <c r="C48" s="38" t="s">
@@ -7497,22 +7555,22 @@
       <c r="H48" s="38">
         <v>1296</v>
       </c>
-      <c r="I48" s="71">
+      <c r="I48" s="69">
         <v>35000</v>
       </c>
-      <c r="J48" s="144">
-        <v>0</v>
-      </c>
-      <c r="K48" s="160">
+      <c r="J48" s="142">
+        <v>0</v>
+      </c>
+      <c r="K48" s="158">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="211" t="s">
+      <c r="A49" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="115" t="s">
+      <c r="B49" s="113" t="s">
         <v>178</v>
       </c>
       <c r="C49" s="35" t="s">
@@ -7525,10 +7583,10 @@
       <c r="H49" s="35">
         <v>1297</v>
       </c>
-      <c r="I49" s="69">
-        <v>0</v>
-      </c>
-      <c r="J49" s="72">
+      <c r="I49" s="67">
+        <v>0</v>
+      </c>
+      <c r="J49" s="70">
         <v>0</v>
       </c>
       <c r="K49" s="52">
@@ -7537,8 +7595,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="212"/>
-      <c r="B50" s="153" t="s">
+      <c r="A50" s="202"/>
+      <c r="B50" s="151" t="s">
         <v>205</v>
       </c>
       <c r="C50" s="36" t="s">
@@ -7559,10 +7617,10 @@
       <c r="H50" s="36">
         <v>1298</v>
       </c>
-      <c r="I50" s="70">
+      <c r="I50" s="68">
         <v>2000</v>
       </c>
-      <c r="J50" s="73">
+      <c r="J50" s="71">
         <v>0</v>
       </c>
       <c r="K50" s="53">
@@ -7571,8 +7629,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="212"/>
-      <c r="B51" s="153" t="s">
+      <c r="A51" s="202"/>
+      <c r="B51" s="151" t="s">
         <v>179</v>
       </c>
       <c r="C51" s="36" t="s">
@@ -7593,21 +7651,21 @@
       <c r="H51" s="36">
         <v>1299</v>
       </c>
-      <c r="I51" s="70">
+      <c r="I51" s="68">
         <v>2500</v>
       </c>
-      <c r="J51" s="73">
+      <c r="J51" s="71">
         <v>0</v>
       </c>
       <c r="K51" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L51" s="124"/>
+      <c r="L51" s="122"/>
     </row>
     <row r="52" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="213"/>
-      <c r="B52" s="108" t="s">
+      <c r="A52" s="203"/>
+      <c r="B52" s="106" t="s">
         <v>230</v>
       </c>
       <c r="C52" s="36" t="s">
@@ -7628,10 +7686,10 @@
       <c r="H52" s="38">
         <v>1300</v>
       </c>
-      <c r="I52" s="75">
+      <c r="I52" s="73">
         <v>80000</v>
       </c>
-      <c r="J52" s="74">
+      <c r="J52" s="72">
         <v>0</v>
       </c>
       <c r="K52" s="55">
@@ -7640,19 +7698,19 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I53" s="182" t="s">
+      <c r="I53" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="J53" s="200"/>
-      <c r="K53" s="202">
+      <c r="J53" s="190"/>
+      <c r="K53" s="192">
         <f>SUM(K2:K52)</f>
         <v>1200000</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I54" s="184"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="187"/>
+      <c r="I54" s="179"/>
+      <c r="J54" s="191"/>
+      <c r="K54" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7691,37 +7749,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127"/>
+      <c r="A1" s="125"/>
       <c r="B1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="203" t="s">
+      <c r="C1" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="205"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="195"/>
       <c r="G1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="77" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="78" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="208" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="128">
+      <c r="C2" s="126">
         <v>1</v>
       </c>
       <c r="D2" s="18">
@@ -7739,18 +7797,18 @@
       <c r="H2" s="52">
         <v>90000</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="52">
         <f>H2*I2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="219"/>
+      <c r="A3" s="209"/>
       <c r="B3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="129">
+      <c r="C3" s="127">
         <v>1</v>
       </c>
       <c r="D3" s="4">
@@ -7768,18 +7826,18 @@
       <c r="H3" s="53">
         <v>50000</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="53">
         <f t="shared" ref="J3:J40" si="0">H3*I3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="219"/>
+      <c r="A4" s="209"/>
       <c r="B4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="129">
+      <c r="C4" s="127">
         <v>1</v>
       </c>
       <c r="D4" s="4">
@@ -7797,18 +7855,18 @@
       <c r="H4" s="53">
         <v>70000</v>
       </c>
-      <c r="I4" s="73"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="219"/>
-      <c r="B5" s="130" t="s">
+      <c r="A5" s="209"/>
+      <c r="B5" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="127">
         <v>1</v>
       </c>
       <c r="D5" s="4">
@@ -7826,18 +7884,18 @@
       <c r="H5" s="53">
         <v>52000</v>
       </c>
-      <c r="I5" s="73"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="219"/>
+      <c r="A6" s="209"/>
       <c r="B6" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="129">
+      <c r="C6" s="127">
         <v>1</v>
       </c>
       <c r="D6" s="4">
@@ -7855,18 +7913,18 @@
       <c r="H6" s="53">
         <v>100000</v>
       </c>
-      <c r="I6" s="73"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
+      <c r="A7" s="209"/>
       <c r="B7" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="127">
         <v>1</v>
       </c>
       <c r="D7" s="4">
@@ -7884,18 +7942,18 @@
       <c r="H7" s="53">
         <v>48000</v>
       </c>
-      <c r="I7" s="73"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="219"/>
+      <c r="A8" s="209"/>
       <c r="B8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="129">
+      <c r="C8" s="127">
         <v>1</v>
       </c>
       <c r="D8" s="4">
@@ -7913,18 +7971,18 @@
       <c r="H8" s="53">
         <v>55000</v>
       </c>
-      <c r="I8" s="73"/>
+      <c r="I8" s="71"/>
       <c r="J8" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="219"/>
+      <c r="A9" s="209"/>
       <c r="B9" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="129">
+      <c r="C9" s="127">
         <v>1</v>
       </c>
       <c r="D9" s="4">
@@ -7942,18 +8000,18 @@
       <c r="H9" s="53">
         <v>50000</v>
       </c>
-      <c r="I9" s="73"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="219"/>
+      <c r="A10" s="209"/>
       <c r="B10" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="129">
+      <c r="C10" s="127">
         <v>1</v>
       </c>
       <c r="D10" s="4">
@@ -7971,18 +8029,18 @@
       <c r="H10" s="53">
         <v>58000</v>
       </c>
-      <c r="I10" s="73"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="219"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="129">
+      <c r="C11" s="127">
         <v>1</v>
       </c>
       <c r="D11" s="4">
@@ -8000,18 +8058,18 @@
       <c r="H11" s="53">
         <v>85000</v>
       </c>
-      <c r="I11" s="73"/>
+      <c r="I11" s="71"/>
       <c r="J11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="219"/>
+      <c r="A12" s="209"/>
       <c r="B12" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="129">
+      <c r="C12" s="127">
         <v>1</v>
       </c>
       <c r="D12" s="4">
@@ -8029,18 +8087,18 @@
       <c r="H12" s="53">
         <v>60000</v>
       </c>
-      <c r="I12" s="73"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="219"/>
+      <c r="A13" s="209"/>
       <c r="B13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="129">
+      <c r="C13" s="127">
         <v>1</v>
       </c>
       <c r="D13" s="4">
@@ -8058,18 +8116,18 @@
       <c r="H13" s="53">
         <v>40000</v>
       </c>
-      <c r="I13" s="73"/>
+      <c r="I13" s="71"/>
       <c r="J13" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="219"/>
+      <c r="A14" s="209"/>
       <c r="B14" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="129">
+      <c r="C14" s="127">
         <v>1</v>
       </c>
       <c r="D14" s="4">
@@ -8087,18 +8145,18 @@
       <c r="H14" s="53">
         <v>95000</v>
       </c>
-      <c r="I14" s="73"/>
+      <c r="I14" s="71"/>
       <c r="J14" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="219"/>
+      <c r="A15" s="209"/>
       <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="129">
+      <c r="C15" s="127">
         <v>1</v>
       </c>
       <c r="D15" s="4">
@@ -8116,18 +8174,18 @@
       <c r="H15" s="53">
         <v>92000</v>
       </c>
-      <c r="I15" s="73"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="219"/>
+      <c r="A16" s="209"/>
       <c r="B16" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="129">
+      <c r="C16" s="127">
         <v>1</v>
       </c>
       <c r="D16" s="4">
@@ -8145,18 +8203,18 @@
       <c r="H16" s="53">
         <v>58000</v>
       </c>
-      <c r="I16" s="73"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="219"/>
+      <c r="A17" s="209"/>
       <c r="B17" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="129">
+      <c r="C17" s="127">
         <v>1</v>
       </c>
       <c r="D17" s="4">
@@ -8174,18 +8232,18 @@
       <c r="H17" s="53">
         <v>42000</v>
       </c>
-      <c r="I17" s="73"/>
+      <c r="I17" s="71"/>
       <c r="J17" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="219"/>
+      <c r="A18" s="209"/>
       <c r="B18" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="129">
+      <c r="C18" s="127">
         <v>1</v>
       </c>
       <c r="D18" s="4">
@@ -8203,49 +8261,49 @@
       <c r="H18" s="53">
         <v>38000</v>
       </c>
-      <c r="I18" s="73"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="220"/>
-      <c r="B19" s="149" t="s">
+      <c r="A19" s="210"/>
+      <c r="B19" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="141">
-        <v>1</v>
-      </c>
-      <c r="D19" s="142">
+      <c r="C19" s="139">
+        <v>1</v>
+      </c>
+      <c r="D19" s="140">
         <v>3</v>
       </c>
-      <c r="E19" s="142">
+      <c r="E19" s="140">
         <v>43</v>
       </c>
       <c r="F19" s="33">
         <v>855</v>
       </c>
-      <c r="G19" s="145">
+      <c r="G19" s="143">
         <v>1267</v>
       </c>
       <c r="H19" s="55">
         <v>30000</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="221" t="s">
+      <c r="A20" s="211" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="128">
+      <c r="C20" s="126">
         <v>4</v>
       </c>
       <c r="D20" s="18">
@@ -8260,21 +8318,21 @@
       <c r="G20" s="35">
         <v>1268</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="67">
         <v>1500000</v>
       </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="69">
+      <c r="I20" s="70"/>
+      <c r="J20" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="222"/>
+      <c r="A21" s="212"/>
       <c r="B21" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="146">
+      <c r="C21" s="144">
         <v>4</v>
       </c>
       <c r="D21" s="2">
@@ -8289,21 +8347,21 @@
       <c r="G21" s="36">
         <v>1269</v>
       </c>
-      <c r="H21" s="70">
+      <c r="H21" s="68">
         <v>950000</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="70">
+      <c r="I21" s="71"/>
+      <c r="J21" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="222"/>
+      <c r="A22" s="212"/>
       <c r="B22" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="146">
+      <c r="C22" s="144">
         <v>4</v>
       </c>
       <c r="D22" s="2">
@@ -8318,21 +8376,21 @@
       <c r="G22" s="36">
         <v>1270</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="68">
         <v>1200000</v>
       </c>
-      <c r="I22" s="73"/>
-      <c r="J22" s="70">
+      <c r="I22" s="71"/>
+      <c r="J22" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="222"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="146">
+      <c r="C23" s="144">
         <v>4</v>
       </c>
       <c r="D23" s="2">
@@ -8347,21 +8405,21 @@
       <c r="G23" s="36">
         <v>1271</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="68">
         <v>850000</v>
       </c>
-      <c r="I23" s="73"/>
-      <c r="J23" s="70">
+      <c r="I23" s="71"/>
+      <c r="J23" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="222"/>
+      <c r="A24" s="212"/>
       <c r="B24" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="146">
+      <c r="C24" s="144">
         <v>4</v>
       </c>
       <c r="D24" s="2">
@@ -8376,21 +8434,21 @@
       <c r="G24" s="36">
         <v>1272</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="68">
         <v>1000000</v>
       </c>
-      <c r="I24" s="73"/>
-      <c r="J24" s="70">
+      <c r="I24" s="71"/>
+      <c r="J24" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="222"/>
+      <c r="A25" s="212"/>
       <c r="B25" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="147">
+      <c r="C25" s="145">
         <v>4</v>
       </c>
       <c r="D25" s="17">
@@ -8405,21 +8463,21 @@
       <c r="G25" s="36">
         <v>1286</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="69">
         <v>720000</v>
       </c>
-      <c r="I25" s="144"/>
-      <c r="J25" s="71">
+      <c r="I25" s="142"/>
+      <c r="J25" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="222"/>
+      <c r="A26" s="212"/>
       <c r="B26" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="147">
+      <c r="C26" s="145">
         <v>4</v>
       </c>
       <c r="D26" s="17">
@@ -8434,21 +8492,21 @@
       <c r="G26" s="36">
         <v>1287</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="69">
         <v>900000</v>
       </c>
-      <c r="I26" s="144"/>
-      <c r="J26" s="71">
+      <c r="I26" s="142"/>
+      <c r="J26" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="223"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="148">
+      <c r="C27" s="146">
         <v>4</v>
       </c>
       <c r="D27" s="19">
@@ -8463,20 +8521,20 @@
       <c r="G27" s="38">
         <v>1273</v>
       </c>
-      <c r="H27" s="75">
+      <c r="H27" s="73">
         <v>980000</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="75">
+      <c r="I27" s="72"/>
+      <c r="J27" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="224" t="s">
+      <c r="A28" s="214" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="131" t="s">
         <v>136</v>
       </c>
       <c r="C28" s="30">
@@ -8488,7 +8546,7 @@
       <c r="E28" s="4">
         <v>48</v>
       </c>
-      <c r="F28" s="143">
+      <c r="F28" s="141">
         <v>1170</v>
       </c>
       <c r="G28" s="42">
@@ -8497,15 +8555,15 @@
       <c r="H28" s="52">
         <v>60000</v>
       </c>
-      <c r="I28" s="72"/>
-      <c r="J28" s="69">
+      <c r="I28" s="70"/>
+      <c r="J28" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="225"/>
-      <c r="B29" s="132" t="s">
+      <c r="A29" s="215"/>
+      <c r="B29" s="130" t="s">
         <v>137</v>
       </c>
       <c r="C29" s="25">
@@ -8526,15 +8584,15 @@
       <c r="H29" s="53">
         <v>50000</v>
       </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="70">
+      <c r="I29" s="71"/>
+      <c r="J29" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="225"/>
-      <c r="B30" s="132" t="s">
+      <c r="A30" s="215"/>
+      <c r="B30" s="130" t="s">
         <v>131</v>
       </c>
       <c r="C30" s="25">
@@ -8555,15 +8613,15 @@
       <c r="H30" s="53">
         <v>75000</v>
       </c>
-      <c r="I30" s="73"/>
-      <c r="J30" s="70">
+      <c r="I30" s="71"/>
+      <c r="J30" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="226"/>
-      <c r="B31" s="134" t="s">
+      <c r="A31" s="216"/>
+      <c r="B31" s="132" t="s">
         <v>138</v>
       </c>
       <c r="C31" s="27">
@@ -8578,23 +8636,23 @@
       <c r="F31" s="28">
         <v>666</v>
       </c>
-      <c r="G31" s="126">
+      <c r="G31" s="124">
         <v>1277</v>
       </c>
       <c r="H31" s="55">
         <v>35000</v>
       </c>
-      <c r="I31" s="74"/>
-      <c r="J31" s="75">
+      <c r="I31" s="72"/>
+      <c r="J31" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="227" t="s">
+      <c r="A32" s="217" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="129" t="s">
         <v>126</v>
       </c>
       <c r="C32" s="23">
@@ -8615,7 +8673,7 @@
       <c r="H32" s="52">
         <v>2300000</v>
       </c>
-      <c r="I32" s="72">
+      <c r="I32" s="70">
         <v>4</v>
       </c>
       <c r="J32" s="52">
@@ -8624,8 +8682,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="228"/>
-      <c r="B33" s="132" t="s">
+      <c r="A33" s="218"/>
+      <c r="B33" s="130" t="s">
         <v>129</v>
       </c>
       <c r="C33" s="25">
@@ -8646,7 +8704,7 @@
       <c r="H33" s="53">
         <v>1440000</v>
       </c>
-      <c r="I33" s="73">
+      <c r="I33" s="71">
         <v>2</v>
       </c>
       <c r="J33" s="53">
@@ -8655,8 +8713,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="228"/>
-      <c r="B34" s="132" t="s">
+      <c r="A34" s="218"/>
+      <c r="B34" s="130" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="25">
@@ -8677,7 +8735,7 @@
       <c r="H34" s="53">
         <v>1100000</v>
       </c>
-      <c r="I34" s="73">
+      <c r="I34" s="71">
         <v>1</v>
       </c>
       <c r="J34" s="53">
@@ -8686,8 +8744,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="228"/>
-      <c r="B35" s="132" t="s">
+      <c r="A35" s="218"/>
+      <c r="B35" s="130" t="s">
         <v>134</v>
       </c>
       <c r="C35" s="25">
@@ -8708,7 +8766,7 @@
       <c r="H35" s="53">
         <v>1250000</v>
       </c>
-      <c r="I35" s="73">
+      <c r="I35" s="71">
         <v>1</v>
       </c>
       <c r="J35" s="53">
@@ -8717,8 +8775,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="228"/>
-      <c r="B36" s="132" t="s">
+      <c r="A36" s="218"/>
+      <c r="B36" s="130" t="s">
         <v>125</v>
       </c>
       <c r="C36" s="25">
@@ -8739,7 +8797,7 @@
       <c r="H36" s="53">
         <v>1600000</v>
       </c>
-      <c r="I36" s="73">
+      <c r="I36" s="71">
         <v>2</v>
       </c>
       <c r="J36" s="53">
@@ -8748,8 +8806,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="228"/>
-      <c r="B37" s="132" t="s">
+      <c r="A37" s="218"/>
+      <c r="B37" s="130" t="s">
         <v>192</v>
       </c>
       <c r="C37" s="25">
@@ -8770,7 +8828,7 @@
       <c r="H37" s="53">
         <v>1800000</v>
       </c>
-      <c r="I37" s="73">
+      <c r="I37" s="71">
         <v>2</v>
       </c>
       <c r="J37" s="53">
@@ -8779,8 +8837,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="228"/>
-      <c r="B38" s="132" t="s">
+      <c r="A38" s="218"/>
+      <c r="B38" s="130" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="25">
@@ -8801,7 +8859,7 @@
       <c r="H38" s="53">
         <v>1750000</v>
       </c>
-      <c r="I38" s="73">
+      <c r="I38" s="71">
         <v>2</v>
       </c>
       <c r="J38" s="53">
@@ -8810,8 +8868,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="229"/>
-      <c r="B39" s="134" t="s">
+      <c r="A39" s="219"/>
+      <c r="B39" s="132" t="s">
         <v>142</v>
       </c>
       <c r="C39" s="27">
@@ -8826,13 +8884,13 @@
       <c r="F39" s="28">
         <v>2114</v>
       </c>
-      <c r="G39" s="126">
+      <c r="G39" s="124">
         <v>1284</v>
       </c>
       <c r="H39" s="55">
         <v>3200000</v>
       </c>
-      <c r="I39" s="74">
+      <c r="I39" s="72">
         <v>2</v>
       </c>
       <c r="J39" s="55">
@@ -8841,54 +8899,54 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="135" t="s">
         <v>140</v>
       </c>
       <c r="C40" s="7">
         <v>4</v>
       </c>
-      <c r="D40" s="135">
+      <c r="D40" s="133">
         <v>15</v>
       </c>
-      <c r="E40" s="135">
+      <c r="E40" s="133">
         <v>46</v>
       </c>
-      <c r="F40" s="138">
+      <c r="F40" s="136">
         <v>1919</v>
       </c>
       <c r="G40" s="13">
         <v>1285</v>
       </c>
-      <c r="H40" s="139">
+      <c r="H40" s="137">
         <v>250000</v>
       </c>
-      <c r="I40" s="111"/>
-      <c r="J40" s="140">
+      <c r="I40" s="109"/>
+      <c r="J40" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H41" s="216" t="s">
+      <c r="H41" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="217"/>
-      <c r="J41" s="202">
+      <c r="I41" s="207"/>
+      <c r="J41" s="192">
         <f>SUM(J2:J40)</f>
         <v>31130000</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="187"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="181"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="164" t="s">
+      <c r="B45" s="162" t="s">
         <v>209</v>
       </c>
       <c r="C45" s="23">
@@ -8908,7 +8966,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="161" t="s">
+      <c r="B46" s="159" t="s">
         <v>210</v>
       </c>
       <c r="C46" s="25">
@@ -8928,7 +8986,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="161" t="s">
+      <c r="B47" s="159" t="s">
         <v>211</v>
       </c>
       <c r="C47" s="25">
@@ -8948,7 +9006,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="161" t="s">
+      <c r="B48" s="159" t="s">
         <v>213</v>
       </c>
       <c r="C48" s="25">
@@ -8968,7 +9026,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="161" t="s">
+      <c r="B49" s="159" t="s">
         <v>212</v>
       </c>
       <c r="C49" s="25">
@@ -8988,7 +9046,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="161" t="s">
+      <c r="B50" s="159" t="s">
         <v>214</v>
       </c>
       <c r="C50" s="25">
@@ -9008,7 +9066,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="161" t="s">
+      <c r="B51" s="159" t="s">
         <v>214</v>
       </c>
       <c r="C51" s="25">
@@ -9028,7 +9086,7 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="161" t="s">
+      <c r="B52" s="159" t="s">
         <v>214</v>
       </c>
       <c r="C52" s="25">
@@ -9046,10 +9104,10 @@
       <c r="G52" s="36">
         <v>1305</v>
       </c>
-      <c r="H52" s="163"/>
+      <c r="H52" s="161"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="161" t="s">
+      <c r="B53" s="159" t="s">
         <v>215</v>
       </c>
       <c r="C53" s="25">
@@ -9067,10 +9125,10 @@
       <c r="G53" s="36">
         <v>1306</v>
       </c>
-      <c r="I53" s="124"/>
+      <c r="I53" s="122"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="161" t="s">
+      <c r="B54" s="159" t="s">
         <v>216</v>
       </c>
       <c r="C54" s="25">
@@ -9090,7 +9148,7 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="161" t="s">
+      <c r="B55" s="159" t="s">
         <v>217</v>
       </c>
       <c r="C55" s="25">
@@ -9110,7 +9168,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="161" t="s">
+      <c r="B56" s="159" t="s">
         <v>218</v>
       </c>
       <c r="C56" s="25">
@@ -9128,11 +9186,11 @@
       <c r="G56" s="36">
         <v>1309</v>
       </c>
-      <c r="H56" s="163"/>
-      <c r="I56" s="124"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="122"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="161" t="s">
+      <c r="B57" s="159" t="s">
         <v>219</v>
       </c>
       <c r="C57" s="25">
@@ -9152,7 +9210,7 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="161" t="s">
+      <c r="B58" s="159" t="s">
         <v>220</v>
       </c>
       <c r="C58" s="25">
@@ -9170,10 +9228,10 @@
       <c r="G58" s="36">
         <v>1311</v>
       </c>
-      <c r="H58" s="163"/>
+      <c r="H58" s="161"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="161" t="s">
+      <c r="B59" s="159" t="s">
         <v>221</v>
       </c>
       <c r="C59" s="25">
@@ -9191,10 +9249,10 @@
       <c r="G59" s="36">
         <v>1312</v>
       </c>
-      <c r="I59" s="124"/>
+      <c r="I59" s="122"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="161" t="s">
+      <c r="B60" s="159" t="s">
         <v>222</v>
       </c>
       <c r="C60" s="25">
@@ -9214,7 +9272,7 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="161" t="s">
+      <c r="B61" s="159" t="s">
         <v>223</v>
       </c>
       <c r="C61" s="25">
@@ -9232,10 +9290,10 @@
       <c r="G61" s="36">
         <v>1314</v>
       </c>
-      <c r="I61" s="124"/>
+      <c r="I61" s="122"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="161" t="s">
+      <c r="B62" s="159" t="s">
         <v>224</v>
       </c>
       <c r="C62" s="25">
@@ -9255,7 +9313,7 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="162" t="s">
+      <c r="B63" s="160" t="s">
         <v>225</v>
       </c>
       <c r="C63" s="27">
@@ -9294,410 +9352,537 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="A25:D31"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="21.28515625" style="112" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="273" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="21.28515625" style="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="278" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="269">
+        <f>+AA!I2</f>
+        <v>25000</v>
+      </c>
+      <c r="D2" s="42">
         <v>20</v>
       </c>
-      <c r="D2" s="232">
+      <c r="E2" s="222">
+        <f>+(C2*D2)+(C3*D3)</f>
         <v>820000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="37">
+      <c r="B3" s="225"/>
+      <c r="C3" s="269">
+        <f>+AA!I4</f>
+        <v>32000</v>
+      </c>
+      <c r="D3" s="37">
         <v>10</v>
       </c>
-      <c r="D3" s="233"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="E3" s="223"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="270">
+        <f>+AA!I8</f>
+        <v>120000</v>
+      </c>
+      <c r="D4" s="35">
         <v>20</v>
       </c>
-      <c r="D4" s="232">
-        <v>2080000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="110" t="s">
+      <c r="E4" s="222">
+        <f>+(C4*D4)+(C5*D5)</f>
+        <v>3700000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="231"/>
-      <c r="C5" s="38">
+      <c r="B5" s="225"/>
+      <c r="C5" s="271">
+        <f>+AA!I9</f>
+        <v>130000</v>
+      </c>
+      <c r="D5" s="38">
         <v>10</v>
       </c>
-      <c r="D5" s="233"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="E5" s="223"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="230" t="s">
+      <c r="B6" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="35">
-        <v>30</v>
-      </c>
-      <c r="D6" s="232">
-        <v>5925000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
+      <c r="C6" s="270">
+        <f>+AA!I6</f>
+        <v>110000</v>
+      </c>
+      <c r="D6" s="35">
+        <v>20</v>
+      </c>
+      <c r="E6" s="222">
+        <f>+(C6*D6)+(C7*D7)</f>
+        <v>3350000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="37">
-        <v>15</v>
-      </c>
-      <c r="D7" s="233"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="B7" s="225"/>
+      <c r="C7" s="269">
+        <f>+AA!I7</f>
+        <v>115000</v>
+      </c>
+      <c r="D7" s="37">
+        <v>10</v>
+      </c>
+      <c r="E7" s="223"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="35">
-        <v>40</v>
-      </c>
-      <c r="D8" s="232">
-        <v>3660000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="114" t="s">
+      <c r="C8" s="270">
+        <f>+AA!I29</f>
+        <v>27000</v>
+      </c>
+      <c r="D8" s="35">
+        <v>20</v>
+      </c>
+      <c r="E8" s="222">
+        <f>+(C8*D8)+(C9*D9)</f>
+        <v>1690000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="231"/>
-      <c r="C9" s="37">
+      <c r="B9" s="225"/>
+      <c r="C9" s="269">
+        <f>+AA!I39</f>
+        <v>115000</v>
+      </c>
+      <c r="D9" s="37">
+        <v>10</v>
+      </c>
+      <c r="E9" s="223"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="224" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="270">
+        <f>+AA!I47</f>
+        <v>76000</v>
+      </c>
+      <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="D9" s="233"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="35">
-        <v>30</v>
-      </c>
-      <c r="D10" s="232">
-        <v>7140000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+      <c r="E10" s="222">
+        <f>+(C10*D10)+(C11*D11)</f>
+        <v>2320000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="231"/>
-      <c r="C11" s="38">
-        <v>15</v>
-      </c>
-      <c r="D11" s="233"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="120" t="s">
+      <c r="B11" s="225"/>
+      <c r="C11" s="271">
+        <f>+AA!I44</f>
+        <v>80000</v>
+      </c>
+      <c r="D11" s="38">
+        <v>10</v>
+      </c>
+      <c r="E11" s="223"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="118" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="15">
-        <v>20</v>
-      </c>
-      <c r="D12" s="79">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="C12" s="270">
+        <f>+AA!I41</f>
+        <v>85000</v>
+      </c>
+      <c r="D12" s="15">
+        <v>30</v>
+      </c>
+      <c r="E12" s="77">
+        <f>+C12*D12</f>
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="119" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="272">
+        <f>+AA!I51</f>
+        <v>55000</v>
+      </c>
+      <c r="D13" s="13">
         <v>30</v>
       </c>
-      <c r="D13" s="43">
+      <c r="E13" s="43">
+        <f>+C13*D13</f>
         <v>1650000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="120" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="13">
-        <v>10</v>
-      </c>
-      <c r="D14" s="43">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="123" t="s">
+      <c r="C14" s="272">
+        <f>+AA!I52</f>
+        <v>75000</v>
+      </c>
+      <c r="D14" s="13">
+        <v>30</v>
+      </c>
+      <c r="E14" s="43">
+        <f>+C14*D14</f>
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="121" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="272">
+        <f>+AA!I53</f>
+        <v>65000</v>
+      </c>
+      <c r="D15" s="13">
+        <v>30</v>
+      </c>
+      <c r="E15" s="43">
+        <f>+C15*D15</f>
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="109"/>
+      <c r="C17" s="268"/>
+      <c r="D17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="220" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="274">
+        <f>+AA!I16</f>
+        <v>175000</v>
+      </c>
+      <c r="D18" s="42">
         <v>10</v>
       </c>
-      <c r="D15" s="43">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="239" t="s">
+      <c r="E18" s="222">
+        <f>+(C18*D18)+(C19*D19)</f>
+        <v>5750000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="221"/>
+      <c r="C19" s="274">
+        <f>+AA!I18</f>
+        <v>200000</v>
+      </c>
+      <c r="D19" s="37">
+        <v>20</v>
+      </c>
+      <c r="E19" s="223"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="193" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C20" s="275">
+        <f>+AA!I37</f>
+        <v>130000</v>
+      </c>
+      <c r="D20" s="35">
+        <v>20</v>
+      </c>
+      <c r="E20" s="222">
+        <f>+(C20*D20)+(C21*D21)</f>
+        <v>3850000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="279" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="221"/>
+      <c r="C21" s="280">
+        <f>+AA!I36</f>
+        <v>125000</v>
+      </c>
+      <c r="D21" s="281">
         <v>10</v>
       </c>
-      <c r="D18" s="232">
-        <v>3750000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="240"/>
-      <c r="C19" s="37">
+      <c r="E21" s="223"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="224" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="270">
+        <f>+AA!I45</f>
+        <v>260000</v>
+      </c>
+      <c r="D22" s="35">
+        <v>20</v>
+      </c>
+      <c r="E22" s="222">
+        <f>+(C22*D22)+(C23*D23)</f>
+        <v>6340000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="225"/>
+      <c r="C23" s="271">
+        <f>+AA!I50</f>
+        <v>114000</v>
+      </c>
+      <c r="D23" s="38">
         <v>10</v>
       </c>
-      <c r="D19" s="233"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="203" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="35">
-        <v>10</v>
-      </c>
-      <c r="D20" s="232">
-        <v>2350000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="240"/>
-      <c r="C21" s="38">
-        <v>10</v>
-      </c>
-      <c r="D21" s="233"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="230" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="35">
-        <v>10</v>
-      </c>
-      <c r="D22" s="232">
-        <v>3740000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="231"/>
-      <c r="C23" s="38">
-        <v>10</v>
-      </c>
-      <c r="D23" s="233"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="223"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="117"/>
-      <c r="D24" s="118"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="115"/>
+      <c r="C24" s="277"/>
+      <c r="E24" s="116"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="109"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="E25" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="109" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="239" t="s">
+      <c r="B26" s="220" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="42">
-        <v>40</v>
-      </c>
-      <c r="D26" s="232">
-        <v>19560000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="110" t="s">
+      <c r="C26" s="274">
+        <f>+AA!I19</f>
+        <v>289000</v>
+      </c>
+      <c r="D26" s="42">
+        <v>10</v>
+      </c>
+      <c r="E26" s="222">
+        <f>+(C26*D26)+(C27*D27)</f>
+        <v>10890000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="240"/>
-      <c r="C27" s="37">
+      <c r="B27" s="221"/>
+      <c r="C27" s="274">
+        <f>+AA!I20</f>
+        <v>400000</v>
+      </c>
+      <c r="D27" s="37">
         <v>20</v>
       </c>
-      <c r="D27" s="233"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="109" t="s">
+      <c r="E27" s="223"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="239" t="s">
+      <c r="B28" s="220" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="35">
-        <v>10</v>
-      </c>
-      <c r="D28" s="232">
-        <v>11480000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110" t="s">
+      <c r="C28" s="274">
+        <f>+AA!I21</f>
+        <v>700000</v>
+      </c>
+      <c r="D28" s="35">
+        <v>5</v>
+      </c>
+      <c r="E28" s="222">
+        <f>+(C28*D28)+(C29*D29)</f>
+        <v>20300000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="38">
-        <v>4</v>
-      </c>
-      <c r="D29" s="233"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="116" t="s">
+      <c r="B29" s="221"/>
+      <c r="C29" s="276">
+        <f>+AA!I24</f>
+        <v>1120000</v>
+      </c>
+      <c r="D29" s="38">
+        <v>15</v>
+      </c>
+      <c r="E29" s="223"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="114" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="13">
-        <v>8</v>
-      </c>
-      <c r="D30" s="43">
-        <v>3600000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="278">
+        <f>+AA!I42</f>
+        <v>400000</v>
+      </c>
+      <c r="D30" s="13">
+        <v>25</v>
+      </c>
+      <c r="E30" s="43">
+        <f>+C30*D30</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="13">
-        <v>10</v>
-      </c>
-      <c r="D31" s="43">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="124"/>
+      <c r="C31" s="278">
+        <f>+AA!I40</f>
+        <v>200000</v>
+      </c>
+      <c r="D31" s="13">
+        <v>30</v>
+      </c>
+      <c r="E31" s="43">
+        <f>+C31*D31</f>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9711,22 +9896,22 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="1" max="1" width="80.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="17.85546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="110" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="13" t="s">
         <v>42</v>
       </c>
@@ -9735,7 +9920,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="105" t="s">
         <v>158</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -9744,162 +9929,162 @@
       <c r="C2" s="13">
         <v>40</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="77">
         <v>480000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="230" t="s">
+      <c r="B3" s="224" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="42">
         <v>20</v>
       </c>
-      <c r="D3" s="232">
+      <c r="D3" s="222">
         <v>44000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="225"/>
       <c r="C4" s="37">
-        <v>10</v>
-      </c>
-      <c r="D4" s="233"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="223"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="230" t="s">
+      <c r="B5" s="224" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="35">
         <v>20</v>
       </c>
-      <c r="D5" s="232">
+      <c r="D5" s="222">
         <v>617000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="234"/>
-      <c r="C6" s="145">
-        <v>4</v>
-      </c>
-      <c r="D6" s="235"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="143">
+        <v>4</v>
+      </c>
+      <c r="D6" s="227"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="231"/>
+      <c r="B7" s="225"/>
       <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="233"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="223"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="224" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="35">
         <v>20</v>
       </c>
-      <c r="D8" s="232">
+      <c r="D8" s="222">
         <v>1040000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="156" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="234"/>
-      <c r="C9" s="145">
-        <v>4</v>
-      </c>
-      <c r="D9" s="235"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="143">
+        <v>4</v>
+      </c>
+      <c r="D9" s="227"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="231"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="37">
         <v>2</v>
       </c>
-      <c r="D10" s="233"/>
+      <c r="D10" s="223"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="230" t="s">
+      <c r="B11" s="224" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="35">
         <v>4</v>
       </c>
-      <c r="D11" s="232">
+      <c r="D11" s="222">
         <v>6800000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="159" t="s">
+      <c r="A12" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="145">
+      <c r="B12" s="226"/>
+      <c r="C12" s="143">
         <v>2</v>
       </c>
-      <c r="D12" s="235"/>
+      <c r="D12" s="227"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="230" t="s">
+      <c r="B13" s="224" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="35">
         <v>20</v>
       </c>
-      <c r="D13" s="232">
+      <c r="D13" s="222">
         <v>260000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="145">
+      <c r="B14" s="226"/>
+      <c r="C14" s="143">
         <v>20</v>
       </c>
-      <c r="D14" s="235"/>
+      <c r="D14" s="227"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="231"/>
+      <c r="B15" s="225"/>
       <c r="C15" s="37">
         <v>10</v>
       </c>
-      <c r="D15" s="233"/>
+      <c r="D15" s="223"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="113" t="s">
         <v>232</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -9908,65 +10093,65 @@
       <c r="C16" s="35">
         <v>20</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="77">
         <v>40000</v>
       </c>
-      <c r="F16" s="124"/>
+      <c r="F16" s="122"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="155" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="230" t="s">
+      <c r="B17" s="224" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="35">
         <v>4</v>
       </c>
-      <c r="D17" s="232">
+      <c r="D17" s="222">
         <v>2680000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="165" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="234"/>
-      <c r="C18" s="145">
+      <c r="B18" s="226"/>
+      <c r="C18" s="143">
         <v>2</v>
       </c>
-      <c r="D18" s="235"/>
+      <c r="D18" s="227"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="230" t="s">
+      <c r="B19" s="224" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="35">
         <v>20</v>
       </c>
-      <c r="D19" s="232">
+      <c r="D19" s="222">
         <v>1800000</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="231"/>
-      <c r="C20" s="126">
+      <c r="B20" s="225"/>
+      <c r="C20" s="124">
         <v>10</v>
       </c>
-      <c r="D20" s="233"/>
+      <c r="D20" s="223"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="111"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
@@ -9975,87 +10160,87 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="239" t="s">
+      <c r="B23" s="220" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="42">
         <v>4</v>
       </c>
-      <c r="D23" s="232">
+      <c r="D23" s="222">
         <v>10500000</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="240"/>
+      <c r="B24" s="221"/>
       <c r="C24" s="37">
         <v>1</v>
       </c>
-      <c r="D24" s="233"/>
+      <c r="D24" s="223"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="113" t="s">
+      <c r="A25" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="203" t="s">
+      <c r="B25" s="193" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="35">
         <v>4</v>
       </c>
-      <c r="D25" s="232">
+      <c r="D25" s="222">
         <v>2900000</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="240"/>
+      <c r="B26" s="221"/>
       <c r="C26" s="38">
         <v>2</v>
       </c>
-      <c r="D26" s="233"/>
+      <c r="D26" s="223"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="155" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="230" t="s">
+      <c r="B27" s="224" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="35">
         <v>4</v>
       </c>
-      <c r="D27" s="232">
+      <c r="D27" s="222">
         <v>4500000</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="168" t="s">
+      <c r="A28" s="166" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="231"/>
+      <c r="B28" s="225"/>
       <c r="C28" s="38">
         <v>2</v>
       </c>
-      <c r="D28" s="233"/>
+      <c r="D28" s="223"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="117"/>
-      <c r="D29" s="118"/>
+      <c r="B29" s="115"/>
+      <c r="D29" s="116"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B30" s="111"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="13" t="s">
         <v>42</v>
       </c>
@@ -10064,7 +10249,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="120" t="s">
         <v>164</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -10078,7 +10263,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="122" t="s">
+      <c r="A32" s="120" t="s">
         <v>168</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -10087,37 +10272,37 @@
       <c r="C32" s="37">
         <v>10</v>
       </c>
-      <c r="D32" s="170">
+      <c r="D32" s="168">
         <v>800000</v>
       </c>
-      <c r="G32" s="124"/>
+      <c r="G32" s="122"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="239" t="s">
+      <c r="B33" s="220" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="35">
         <v>2</v>
       </c>
-      <c r="D33" s="232">
+      <c r="D33" s="222">
         <v>5600000</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="156" t="s">
+      <c r="A34" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="240"/>
+      <c r="B34" s="221"/>
       <c r="C34" s="38">
         <v>6</v>
       </c>
-      <c r="D34" s="233"/>
+      <c r="D34" s="223"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116" t="s">
+      <c r="A35" s="114" t="s">
         <v>199</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -10131,13 +10316,13 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="124"/>
+      <c r="H36" s="122"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="111"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="13" t="s">
         <v>42</v>
       </c>
@@ -10146,91 +10331,91 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="205" t="s">
+      <c r="B38" s="195" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="35">
         <v>6</v>
       </c>
-      <c r="D38" s="232">
+      <c r="D38" s="222">
         <v>2220000</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="241"/>
+      <c r="B39" s="228"/>
       <c r="C39" s="38">
         <v>6</v>
       </c>
-      <c r="D39" s="233"/>
-      <c r="G39" s="124"/>
+      <c r="D39" s="223"/>
+      <c r="G39" s="122"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="109" t="s">
+      <c r="A40" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="205" t="s">
+      <c r="B40" s="195" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="35">
         <v>20</v>
       </c>
-      <c r="D40" s="232">
+      <c r="D40" s="222">
         <v>4250000</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="241"/>
+      <c r="B41" s="228"/>
       <c r="C41" s="38">
         <v>10</v>
       </c>
-      <c r="D41" s="233"/>
-      <c r="G41" s="124"/>
+      <c r="D41" s="223"/>
+      <c r="G41" s="122"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="154" t="s">
+      <c r="A42" s="152" t="s">
         <v>228</v>
       </c>
-      <c r="B42" s="239" t="s">
+      <c r="B42" s="220" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="35">
         <v>10</v>
       </c>
-      <c r="D42" s="232">
+      <c r="D42" s="222">
         <v>4500000</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="151" t="s">
+      <c r="A43" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="239"/>
-      <c r="C43" s="145">
+      <c r="B43" s="220"/>
+      <c r="C43" s="143">
         <v>10</v>
       </c>
-      <c r="D43" s="235"/>
+      <c r="D43" s="227"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="151" t="s">
+      <c r="A44" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="240"/>
+      <c r="B44" s="221"/>
       <c r="C44" s="38">
         <v>20</v>
       </c>
-      <c r="D44" s="233"/>
+      <c r="D44" s="223"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="123" t="s">
+      <c r="A45" s="121" t="s">
         <v>230</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -10248,7 +10433,7 @@
       <c r="A47" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B47" s="111"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="13" t="s">
         <v>42</v>
       </c>
@@ -10257,124 +10442,124 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="109" t="s">
+      <c r="A48" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="230" t="s">
+      <c r="B48" s="224" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="42">
         <v>60</v>
       </c>
-      <c r="D48" s="232">
+      <c r="D48" s="222">
         <v>4260000</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="231"/>
+      <c r="B49" s="225"/>
       <c r="C49" s="37">
         <v>60</v>
       </c>
-      <c r="D49" s="233"/>
+      <c r="D49" s="223"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="230" t="s">
+      <c r="B50" s="224" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="35">
         <v>60</v>
       </c>
-      <c r="D50" s="232">
+      <c r="D50" s="222">
         <v>900000</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="234"/>
-      <c r="C51" s="145">
+      <c r="B51" s="226"/>
+      <c r="C51" s="143">
         <v>60</v>
       </c>
-      <c r="D51" s="235"/>
+      <c r="D51" s="227"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="171" t="s">
+      <c r="A52" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="231"/>
+      <c r="B52" s="225"/>
       <c r="C52" s="37">
         <v>60</v>
       </c>
-      <c r="D52" s="233"/>
+      <c r="D52" s="223"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="151" t="s">
+      <c r="A53" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="B53" s="204" t="s">
+      <c r="B53" s="194" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="35">
         <v>60</v>
       </c>
-      <c r="D53" s="237">
+      <c r="D53" s="230">
         <v>260000</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="151" t="s">
+      <c r="A54" s="149" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="236"/>
+      <c r="B54" s="229"/>
       <c r="C54" s="36">
         <v>60</v>
       </c>
-      <c r="D54" s="238"/>
+      <c r="D54" s="231"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="151" t="s">
+      <c r="A55" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="236"/>
+      <c r="B55" s="229"/>
       <c r="C55" s="36">
         <v>60</v>
       </c>
-      <c r="D55" s="238"/>
+      <c r="D55" s="231"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="172" t="s">
+      <c r="A56" s="170" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="236"/>
+      <c r="B56" s="229"/>
       <c r="C56" s="38">
         <v>60</v>
       </c>
-      <c r="D56" s="238"/>
+      <c r="D56" s="231"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="123" t="s">
+      <c r="A57" s="121" t="s">
         <v>179</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="145">
+      <c r="C57" s="143">
         <v>60</v>
       </c>
-      <c r="D57" s="79">
+      <c r="D57" s="77">
         <v>150000</v>
       </c>
-      <c r="F57" s="124"/>
+      <c r="F57" s="122"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="116" t="s">
+      <c r="A58" s="114" t="s">
         <v>180</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -10386,19 +10571,25 @@
       <c r="D58" s="43">
         <v>2100000</v>
       </c>
-      <c r="F58" s="124"/>
+      <c r="F58" s="122"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H60" s="124"/>
+      <c r="H60" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="B11:B12"/>
@@ -10415,18 +10606,12 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10440,8 +10625,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10449,20 +10634,20 @@
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="112" customWidth="1"/>
+    <col min="4" max="4" width="37" style="110" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="173" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="174" t="s">
+      <c r="D1" s="172" t="s">
         <v>103</v>
       </c>
     </row>
@@ -10470,13 +10655,13 @@
       <c r="A2" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="241" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="35">
         <v>4</v>
       </c>
-      <c r="D2" s="254">
+      <c r="D2" s="244">
         <v>10374000</v>
       </c>
     </row>
@@ -10484,188 +10669,188 @@
       <c r="A3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="242"/>
       <c r="C3" s="36">
         <v>10</v>
       </c>
-      <c r="D3" s="255"/>
+      <c r="D3" s="245"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="252"/>
+      <c r="B4" s="242"/>
       <c r="C4" s="36">
         <v>2</v>
       </c>
-      <c r="D4" s="255"/>
+      <c r="D4" s="245"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="252"/>
+      <c r="B5" s="242"/>
       <c r="C5" s="36">
         <v>2</v>
       </c>
-      <c r="D5" s="255"/>
+      <c r="D5" s="245"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="252"/>
+      <c r="B6" s="242"/>
       <c r="C6" s="36">
         <v>16</v>
       </c>
-      <c r="D6" s="255"/>
+      <c r="D6" s="245"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="252"/>
+      <c r="B7" s="242"/>
       <c r="C7" s="36">
         <v>8</v>
       </c>
-      <c r="D7" s="255"/>
+      <c r="D7" s="245"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="252"/>
+      <c r="B8" s="242"/>
       <c r="C8" s="36">
         <v>20</v>
       </c>
-      <c r="D8" s="255"/>
+      <c r="D8" s="245"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="252"/>
+      <c r="B9" s="242"/>
       <c r="C9" s="36">
         <v>20</v>
       </c>
-      <c r="D9" s="255"/>
+      <c r="D9" s="245"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="252"/>
+      <c r="B10" s="242"/>
       <c r="C10" s="36">
         <v>10</v>
       </c>
-      <c r="D10" s="255"/>
+      <c r="D10" s="245"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="252"/>
+      <c r="B11" s="242"/>
       <c r="C11" s="36">
         <v>4</v>
       </c>
-      <c r="D11" s="255"/>
+      <c r="D11" s="245"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="252"/>
+      <c r="B12" s="242"/>
       <c r="C12" s="36">
         <v>4</v>
       </c>
-      <c r="D12" s="255"/>
+      <c r="D12" s="245"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="252"/>
+      <c r="B13" s="242"/>
       <c r="C13" s="36">
         <v>4</v>
       </c>
-      <c r="D13" s="255"/>
+      <c r="D13" s="245"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="252"/>
+      <c r="B14" s="242"/>
       <c r="C14" s="36">
         <v>2</v>
       </c>
-      <c r="D14" s="255"/>
+      <c r="D14" s="245"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="252"/>
+      <c r="B15" s="242"/>
       <c r="C15" s="36">
         <v>20</v>
       </c>
-      <c r="D15" s="255"/>
+      <c r="D15" s="245"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="252"/>
+      <c r="B16" s="242"/>
       <c r="C16" s="36">
         <v>20</v>
       </c>
-      <c r="D16" s="255"/>
+      <c r="D16" s="245"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="252"/>
+      <c r="B17" s="242"/>
       <c r="C17" s="36">
         <v>6</v>
       </c>
-      <c r="D17" s="255"/>
+      <c r="D17" s="245"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="252"/>
+      <c r="B18" s="242"/>
       <c r="C18" s="36">
         <v>8</v>
       </c>
-      <c r="D18" s="255"/>
+      <c r="D18" s="245"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="253"/>
+      <c r="B19" s="243"/>
       <c r="C19" s="38">
         <v>4</v>
       </c>
-      <c r="D19" s="256"/>
+      <c r="D19" s="246"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="117"/>
-      <c r="D20" s="118"/>
+      <c r="B20" s="115"/>
+      <c r="D20" s="116"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="245" t="s">
+      <c r="B21" s="235" t="s">
         <v>148</v>
       </c>
       <c r="C21" s="35">
         <v>2</v>
       </c>
-      <c r="D21" s="257">
+      <c r="D21" s="247">
         <v>11700000</v>
       </c>
     </row>
@@ -10673,206 +10858,206 @@
       <c r="A22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="246"/>
+      <c r="B22" s="236"/>
       <c r="C22" s="36">
         <v>1</v>
       </c>
-      <c r="D22" s="258"/>
+      <c r="D22" s="248"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="132" t="s">
+      <c r="A23" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="246"/>
+      <c r="B23" s="236"/>
       <c r="C23" s="36">
         <v>2</v>
       </c>
-      <c r="D23" s="258"/>
+      <c r="D23" s="248"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="132" t="s">
+      <c r="A24" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="246"/>
+      <c r="B24" s="236"/>
       <c r="C24" s="36">
         <v>1</v>
       </c>
-      <c r="D24" s="258"/>
+      <c r="D24" s="248"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="133" t="s">
+      <c r="A25" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="246"/>
+      <c r="B25" s="236"/>
       <c r="C25" s="36">
         <v>1</v>
       </c>
-      <c r="D25" s="258"/>
+      <c r="D25" s="248"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="246"/>
+      <c r="B26" s="236"/>
       <c r="C26" s="37">
         <v>1</v>
       </c>
-      <c r="D26" s="258"/>
+      <c r="D26" s="248"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="246"/>
+      <c r="B27" s="236"/>
       <c r="C27" s="37">
         <v>2</v>
       </c>
-      <c r="D27" s="258"/>
+      <c r="D27" s="248"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="247"/>
+      <c r="B28" s="237"/>
       <c r="C28" s="38">
         <v>1</v>
       </c>
-      <c r="D28" s="259"/>
+      <c r="D28" s="249"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="124"/>
+      <c r="H29" s="122"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="260" t="s">
+      <c r="B30" s="250" t="s">
         <v>149</v>
       </c>
       <c r="C30" s="35">
         <v>2</v>
       </c>
-      <c r="D30" s="242">
+      <c r="D30" s="232">
         <v>640000</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="261"/>
+      <c r="B31" s="251"/>
       <c r="C31" s="36">
         <v>6</v>
       </c>
-      <c r="D31" s="243"/>
+      <c r="D31" s="233"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="261"/>
+      <c r="B32" s="251"/>
       <c r="C32" s="36">
         <v>2</v>
       </c>
-      <c r="D32" s="243"/>
+      <c r="D32" s="233"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="262"/>
+      <c r="B33" s="252"/>
       <c r="C33" s="38">
         <v>2</v>
       </c>
-      <c r="D33" s="244"/>
+      <c r="D33" s="234"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="131" t="s">
+      <c r="A35" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="245" t="s">
+      <c r="B35" s="235" t="s">
         <v>144</v>
       </c>
       <c r="C35" s="35">
         <v>4</v>
       </c>
-      <c r="D35" s="248">
+      <c r="D35" s="238">
         <v>31130000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="246"/>
+      <c r="B36" s="236"/>
       <c r="C36" s="36">
         <v>2</v>
       </c>
-      <c r="D36" s="249"/>
+      <c r="D36" s="239"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="132" t="s">
+      <c r="A37" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="246"/>
+      <c r="B37" s="236"/>
       <c r="C37" s="36">
         <v>1</v>
       </c>
-      <c r="D37" s="249"/>
+      <c r="D37" s="239"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="132" t="s">
+      <c r="A38" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="246"/>
+      <c r="B38" s="236"/>
       <c r="C38" s="36">
         <v>1</v>
       </c>
-      <c r="D38" s="249"/>
+      <c r="D38" s="239"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="132" t="s">
+      <c r="A39" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="246"/>
+      <c r="B39" s="236"/>
       <c r="C39" s="36">
         <v>2</v>
       </c>
-      <c r="D39" s="249"/>
+      <c r="D39" s="239"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="246"/>
+      <c r="B40" s="236"/>
       <c r="C40" s="36">
         <v>2</v>
       </c>
-      <c r="D40" s="249"/>
+      <c r="D40" s="239"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="132" t="s">
+      <c r="A41" s="130" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="246"/>
+      <c r="B41" s="236"/>
       <c r="C41" s="37">
         <v>2</v>
       </c>
-      <c r="D41" s="249"/>
+      <c r="D41" s="239"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="247"/>
+      <c r="B42" s="237"/>
       <c r="C42" s="38">
         <v>2</v>
       </c>
-      <c r="D42" s="250"/>
+      <c r="D42" s="240"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="150"/>
+      <c r="D43" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10897,6 +11082,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
